--- a/6_Schedure/SAMPLE_WBS.xlsx
+++ b/6_Schedure/SAMPLE_WBS.xlsx
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="108">
   <si>
     <t>○</t>
     <phoneticPr fontId="5"/>
@@ -406,6 +406,21 @@
   </si>
   <si>
     <t>Connect DB</t>
+  </si>
+  <si>
+    <t>getListProduct</t>
+  </si>
+  <si>
+    <t>searchProduct</t>
+  </si>
+  <si>
+    <t>navigator</t>
+  </si>
+  <si>
+    <t>drawer</t>
+  </si>
+  <si>
+    <t>fetch</t>
   </si>
 </sst>
 </file>
@@ -2021,29 +2036,50 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="9" fontId="11" fillId="18" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="9" fontId="11" fillId="18" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="9" fontId="11" fillId="18" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
@@ -2053,11 +2089,19 @@
       <alignment vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -2071,25 +2115,17 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="6" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2105,6 +2141,54 @@
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="167" fontId="21" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
@@ -2119,78 +2203,52 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="11" fillId="18" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="9" fontId="11" fillId="18" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="9" fontId="11" fillId="18" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="9" fontId="11" fillId="18" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="11" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -2238,85 +2296,42 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="9" fontId="11" fillId="18" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2338,7 +2353,91 @@
     <cellStyle name="Normal 2 2" xfId="6"/>
     <cellStyle name="Normal 3" xfId="5"/>
   </cellStyles>
-  <dxfs count="274">
+  <dxfs count="286">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF7D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF8585"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF7D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF8585"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF7D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF8585"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF7D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF8585"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -4759,10 +4858,10 @@
   <dimension ref="A1:EL120"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <pane xSplit="18" ySplit="10" topLeftCell="S68" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="18" ySplit="10" topLeftCell="S74" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="W1" sqref="W1"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
-      <selection pane="bottomRight" activeCell="R4" sqref="R4"/>
+      <selection pane="bottomRight" activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.625" defaultRowHeight="15" customHeight="1"/>
@@ -4890,20 +4989,20 @@
       <c r="K2" s="79" t="s">
         <v>38</v>
       </c>
-      <c r="L2" s="188" t="s">
+      <c r="L2" s="202" t="s">
         <v>32</v>
       </c>
-      <c r="M2" s="189"/>
-      <c r="N2" s="188" t="s">
+      <c r="M2" s="203"/>
+      <c r="N2" s="202" t="s">
         <v>33</v>
       </c>
-      <c r="O2" s="189"/>
+      <c r="O2" s="203"/>
       <c r="P2" s="116"/>
-      <c r="Q2" s="184">
+      <c r="Q2" s="222">
         <f ca="1">TODAY()</f>
-        <v>43297</v>
-      </c>
-      <c r="R2" s="185"/>
+        <v>43304</v>
+      </c>
+      <c r="R2" s="223"/>
       <c r="S2" s="34"/>
       <c r="T2" s="68"/>
       <c r="U2" s="29"/>
@@ -4963,76 +5062,76 @@
       <c r="BW2" s="37"/>
       <c r="BX2" s="37"/>
       <c r="BY2" s="37"/>
-      <c r="BZ2" s="172">
+      <c r="BZ2" s="219">
         <v>0.05</v>
       </c>
-      <c r="CA2" s="173"/>
-      <c r="CB2" s="173"/>
-      <c r="CC2" s="172">
+      <c r="CA2" s="220"/>
+      <c r="CB2" s="220"/>
+      <c r="CC2" s="219">
         <v>0.05</v>
       </c>
-      <c r="CD2" s="173"/>
-      <c r="CE2" s="173"/>
-      <c r="CF2" s="174">
+      <c r="CD2" s="220"/>
+      <c r="CE2" s="220"/>
+      <c r="CF2" s="141">
         <v>0.1</v>
       </c>
-      <c r="CG2" s="175"/>
-      <c r="CH2" s="176"/>
-      <c r="CI2" s="174">
+      <c r="CG2" s="142"/>
+      <c r="CH2" s="143"/>
+      <c r="CI2" s="141">
         <v>0.1</v>
       </c>
-      <c r="CJ2" s="175"/>
-      <c r="CK2" s="176"/>
-      <c r="CL2" s="174">
+      <c r="CJ2" s="142"/>
+      <c r="CK2" s="143"/>
+      <c r="CL2" s="141">
         <v>0.1</v>
       </c>
-      <c r="CM2" s="175"/>
-      <c r="CN2" s="176"/>
-      <c r="CO2" s="174">
+      <c r="CM2" s="142"/>
+      <c r="CN2" s="143"/>
+      <c r="CO2" s="141">
         <v>0.05</v>
       </c>
-      <c r="CP2" s="175"/>
-      <c r="CQ2" s="176"/>
-      <c r="CR2" s="174">
+      <c r="CP2" s="142"/>
+      <c r="CQ2" s="143"/>
+      <c r="CR2" s="141">
         <v>0.05</v>
       </c>
-      <c r="CS2" s="175"/>
-      <c r="CT2" s="176"/>
-      <c r="CU2" s="174">
+      <c r="CS2" s="142"/>
+      <c r="CT2" s="143"/>
+      <c r="CU2" s="141">
         <v>0.1</v>
       </c>
-      <c r="CV2" s="175"/>
-      <c r="CW2" s="176"/>
-      <c r="CX2" s="174">
+      <c r="CV2" s="142"/>
+      <c r="CW2" s="143"/>
+      <c r="CX2" s="141">
         <v>0.05</v>
       </c>
-      <c r="CY2" s="175"/>
-      <c r="CZ2" s="176"/>
-      <c r="DA2" s="174">
+      <c r="CY2" s="142"/>
+      <c r="CZ2" s="143"/>
+      <c r="DA2" s="141">
         <v>0.05</v>
       </c>
-      <c r="DB2" s="175"/>
-      <c r="DC2" s="176"/>
-      <c r="DD2" s="174">
+      <c r="DB2" s="142"/>
+      <c r="DC2" s="143"/>
+      <c r="DD2" s="141">
         <v>0.05</v>
       </c>
-      <c r="DE2" s="175"/>
-      <c r="DF2" s="176"/>
-      <c r="DG2" s="174">
+      <c r="DE2" s="142"/>
+      <c r="DF2" s="143"/>
+      <c r="DG2" s="141">
         <v>0.1</v>
       </c>
-      <c r="DH2" s="175"/>
-      <c r="DI2" s="176"/>
-      <c r="DJ2" s="174">
+      <c r="DH2" s="142"/>
+      <c r="DI2" s="143"/>
+      <c r="DJ2" s="141">
         <v>0.05</v>
       </c>
-      <c r="DK2" s="175"/>
-      <c r="DL2" s="176"/>
-      <c r="DM2" s="174">
+      <c r="DK2" s="142"/>
+      <c r="DL2" s="143"/>
+      <c r="DM2" s="141">
         <v>0.05</v>
       </c>
-      <c r="DN2" s="175"/>
-      <c r="DO2" s="176"/>
+      <c r="DN2" s="142"/>
+      <c r="DO2" s="143"/>
       <c r="DP2" s="39"/>
       <c r="DQ2" s="39"/>
       <c r="DR2" s="39"/>
@@ -5057,7 +5156,7 @@
       <c r="EK2" s="39"/>
       <c r="EL2" s="15" t="str">
         <f ca="1">"Date："&amp;TEXT(TODAY()," yyyy/mm/dd")</f>
-        <v>Date： 2018/07/16</v>
+        <v>Date： 2018/07/23</v>
       </c>
     </row>
     <row r="3" spans="1:142" ht="18.75" customHeight="1">
@@ -5073,7 +5172,7 @@
         <v>100</v>
       </c>
       <c r="I3" s="80">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="J3" s="80">
         <f>COUNTIF(R11:R12,"=△") + COUNTIF(R11:R12,"=▲")  +  COUNTIF(R11:R12,"=★")</f>
@@ -5083,19 +5182,19 @@
         <f>COUNTIF(R11:R12,"=◇")</f>
         <v>0</v>
       </c>
-      <c r="L3" s="190">
+      <c r="L3" s="204">
         <f>COUNTIF(R11:R12,"=▲")</f>
         <v>0</v>
       </c>
-      <c r="M3" s="191"/>
-      <c r="N3" s="190">
+      <c r="M3" s="205"/>
+      <c r="N3" s="204">
         <f>COUNTIF(R11:R12,"=★")</f>
         <v>0</v>
       </c>
-      <c r="O3" s="191"/>
+      <c r="O3" s="205"/>
       <c r="P3" s="131"/>
-      <c r="Q3" s="186"/>
-      <c r="R3" s="186"/>
+      <c r="Q3" s="224"/>
+      <c r="R3" s="224"/>
       <c r="S3" s="34"/>
       <c r="T3" s="69"/>
       <c r="U3" s="105"/>
@@ -5155,76 +5254,76 @@
       <c r="BW3" s="37"/>
       <c r="BX3" s="37"/>
       <c r="BY3" s="37"/>
-      <c r="BZ3" s="178" t="s">
+      <c r="BZ3" s="147" t="s">
         <v>47</v>
       </c>
-      <c r="CA3" s="179"/>
-      <c r="CB3" s="180"/>
-      <c r="CC3" s="177" t="s">
+      <c r="CA3" s="148"/>
+      <c r="CB3" s="149"/>
+      <c r="CC3" s="221" t="s">
         <v>48</v>
       </c>
-      <c r="CD3" s="177"/>
-      <c r="CE3" s="177"/>
-      <c r="CF3" s="181" t="s">
+      <c r="CD3" s="221"/>
+      <c r="CE3" s="221"/>
+      <c r="CF3" s="144" t="s">
         <v>49</v>
       </c>
-      <c r="CG3" s="182"/>
-      <c r="CH3" s="183"/>
-      <c r="CI3" s="181" t="s">
+      <c r="CG3" s="145"/>
+      <c r="CH3" s="146"/>
+      <c r="CI3" s="144" t="s">
         <v>50</v>
       </c>
-      <c r="CJ3" s="182"/>
-      <c r="CK3" s="183"/>
-      <c r="CL3" s="181" t="s">
+      <c r="CJ3" s="145"/>
+      <c r="CK3" s="146"/>
+      <c r="CL3" s="144" t="s">
         <v>51</v>
       </c>
-      <c r="CM3" s="182"/>
-      <c r="CN3" s="183"/>
-      <c r="CO3" s="181" t="s">
+      <c r="CM3" s="145"/>
+      <c r="CN3" s="146"/>
+      <c r="CO3" s="144" t="s">
         <v>52</v>
       </c>
-      <c r="CP3" s="182"/>
-      <c r="CQ3" s="183"/>
-      <c r="CR3" s="181" t="s">
+      <c r="CP3" s="145"/>
+      <c r="CQ3" s="146"/>
+      <c r="CR3" s="144" t="s">
         <v>53</v>
       </c>
-      <c r="CS3" s="182"/>
-      <c r="CT3" s="183"/>
-      <c r="CU3" s="181" t="s">
+      <c r="CS3" s="145"/>
+      <c r="CT3" s="146"/>
+      <c r="CU3" s="144" t="s">
         <v>54</v>
       </c>
-      <c r="CV3" s="182"/>
-      <c r="CW3" s="183"/>
-      <c r="CX3" s="181" t="s">
+      <c r="CV3" s="145"/>
+      <c r="CW3" s="146"/>
+      <c r="CX3" s="144" t="s">
         <v>55</v>
       </c>
-      <c r="CY3" s="182"/>
-      <c r="CZ3" s="183"/>
-      <c r="DA3" s="181" t="s">
+      <c r="CY3" s="145"/>
+      <c r="CZ3" s="146"/>
+      <c r="DA3" s="144" t="s">
         <v>56</v>
       </c>
-      <c r="DB3" s="182"/>
-      <c r="DC3" s="183"/>
-      <c r="DD3" s="181" t="s">
+      <c r="DB3" s="145"/>
+      <c r="DC3" s="146"/>
+      <c r="DD3" s="144" t="s">
         <v>57</v>
       </c>
-      <c r="DE3" s="182"/>
-      <c r="DF3" s="183"/>
-      <c r="DG3" s="181" t="s">
+      <c r="DE3" s="145"/>
+      <c r="DF3" s="146"/>
+      <c r="DG3" s="144" t="s">
         <v>58</v>
       </c>
-      <c r="DH3" s="182"/>
-      <c r="DI3" s="183"/>
-      <c r="DJ3" s="178" t="s">
+      <c r="DH3" s="145"/>
+      <c r="DI3" s="146"/>
+      <c r="DJ3" s="147" t="s">
         <v>60</v>
       </c>
-      <c r="DK3" s="179"/>
-      <c r="DL3" s="180"/>
-      <c r="DM3" s="181" t="s">
+      <c r="DK3" s="148"/>
+      <c r="DL3" s="149"/>
+      <c r="DM3" s="144" t="s">
         <v>59</v>
       </c>
-      <c r="DN3" s="182"/>
-      <c r="DO3" s="183"/>
+      <c r="DN3" s="145"/>
+      <c r="DO3" s="146"/>
       <c r="EL3" s="30">
         <f>B2</f>
         <v>0</v>
@@ -5408,16 +5507,16 @@
       <c r="E7" s="128"/>
       <c r="F7" s="122"/>
       <c r="G7" s="106"/>
-      <c r="H7" s="199" t="s">
+      <c r="H7" s="213" t="s">
         <v>22</v>
       </c>
-      <c r="I7" s="200"/>
-      <c r="J7" s="200"/>
-      <c r="K7" s="200"/>
-      <c r="L7" s="200"/>
-      <c r="M7" s="200"/>
-      <c r="N7" s="200"/>
-      <c r="O7" s="201"/>
+      <c r="I7" s="214"/>
+      <c r="J7" s="214"/>
+      <c r="K7" s="214"/>
+      <c r="L7" s="214"/>
+      <c r="M7" s="214"/>
+      <c r="N7" s="214"/>
+      <c r="O7" s="215"/>
       <c r="P7" s="122"/>
       <c r="Q7" s="133"/>
       <c r="R7" s="133"/>
@@ -5445,16 +5544,16 @@
         <f>IF(MAX(K11:K12)=DATE(1900,1,0),"",MAX(K11:K12))</f>
         <v>43278</v>
       </c>
-      <c r="L8" s="170">
+      <c r="L8" s="216">
         <f>SUM(M11:M110)</f>
         <v>0</v>
       </c>
-      <c r="M8" s="171"/>
-      <c r="N8" s="170">
+      <c r="M8" s="217"/>
+      <c r="N8" s="216">
         <f>SUM(O11:O110)</f>
         <v>0</v>
       </c>
-      <c r="O8" s="171"/>
+      <c r="O8" s="217"/>
       <c r="P8" s="121"/>
       <c r="Q8" s="134"/>
       <c r="R8" s="135" t="str">
@@ -5800,52 +5899,52 @@
       <c r="EI8" s="86"/>
       <c r="EJ8" s="86"/>
       <c r="EK8" s="86"/>
-      <c r="EL8" s="169" t="s">
+      <c r="EL8" s="225" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:142" ht="14.25" customHeight="1">
-      <c r="B9" s="202" t="s">
+      <c r="B9" s="189" t="s">
         <v>41</v>
       </c>
-      <c r="C9" s="202" t="s">
+      <c r="C9" s="189" t="s">
         <v>42</v>
       </c>
-      <c r="D9" s="207" t="s">
+      <c r="D9" s="195" t="s">
         <v>2</v>
       </c>
-      <c r="E9" s="209" t="s">
+      <c r="E9" s="197" t="s">
         <v>3</v>
       </c>
-      <c r="F9" s="143" t="s">
+      <c r="F9" s="193" t="s">
         <v>44</v>
       </c>
-      <c r="G9" s="213" t="s">
+      <c r="G9" s="201" t="s">
         <v>43</v>
       </c>
-      <c r="H9" s="204" t="s">
+      <c r="H9" s="191" t="s">
         <v>18</v>
       </c>
-      <c r="I9" s="205"/>
-      <c r="J9" s="211" t="s">
+      <c r="I9" s="192"/>
+      <c r="J9" s="199" t="s">
         <v>19</v>
       </c>
-      <c r="K9" s="212"/>
-      <c r="L9" s="192" t="s">
+      <c r="K9" s="200"/>
+      <c r="L9" s="206" t="s">
         <v>16</v>
       </c>
-      <c r="M9" s="193"/>
-      <c r="N9" s="198" t="s">
+      <c r="M9" s="207"/>
+      <c r="N9" s="212" t="s">
         <v>17</v>
       </c>
-      <c r="O9" s="193"/>
-      <c r="P9" s="143" t="s">
+      <c r="O9" s="207"/>
+      <c r="P9" s="193" t="s">
         <v>40</v>
       </c>
-      <c r="Q9" s="194" t="s">
+      <c r="Q9" s="208" t="s">
         <v>39</v>
       </c>
-      <c r="R9" s="195"/>
+      <c r="R9" s="209"/>
       <c r="S9" s="28">
         <v>43282</v>
       </c>
@@ -6337,15 +6436,15 @@
         <f t="shared" si="2"/>
         <v>43404</v>
       </c>
-      <c r="EL9" s="169"/>
+      <c r="EL9" s="225"/>
     </row>
     <row r="10" spans="1:142" ht="14.25" customHeight="1">
-      <c r="B10" s="203"/>
-      <c r="C10" s="203"/>
-      <c r="D10" s="208"/>
-      <c r="E10" s="210"/>
-      <c r="F10" s="144"/>
-      <c r="G10" s="213"/>
+      <c r="B10" s="190"/>
+      <c r="C10" s="190"/>
+      <c r="D10" s="196"/>
+      <c r="E10" s="198"/>
+      <c r="F10" s="194"/>
+      <c r="G10" s="201"/>
       <c r="H10" s="110" t="s">
         <v>20</v>
       </c>
@@ -6370,9 +6469,9 @@
       <c r="O10" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="P10" s="144"/>
-      <c r="Q10" s="196"/>
-      <c r="R10" s="197"/>
+      <c r="P10" s="194"/>
+      <c r="Q10" s="210"/>
+      <c r="R10" s="211"/>
       <c r="S10" s="22">
         <f>S9</f>
         <v>43282</v>
@@ -6703,44 +6802,44 @@
       <c r="EI10" s="87"/>
       <c r="EJ10" s="87"/>
       <c r="EK10" s="87"/>
-      <c r="EL10" s="169"/>
+      <c r="EL10" s="225"/>
     </row>
     <row r="11" spans="1:142" ht="9" customHeight="1">
-      <c r="B11" s="219" t="s">
+      <c r="B11" s="177" t="s">
         <v>65</v>
       </c>
-      <c r="C11" s="206" t="s">
+      <c r="C11" s="163" t="s">
         <v>61</v>
       </c>
       <c r="D11" s="155"/>
-      <c r="E11" s="157" t="s">
+      <c r="E11" s="171" t="s">
         <v>66</v>
       </c>
-      <c r="F11" s="145"/>
-      <c r="G11" s="149"/>
-      <c r="H11" s="149">
+      <c r="F11" s="157"/>
+      <c r="G11" s="165"/>
+      <c r="H11" s="165">
         <v>43282</v>
       </c>
-      <c r="I11" s="149">
+      <c r="I11" s="165">
         <v>43290</v>
       </c>
-      <c r="J11" s="161">
+      <c r="J11" s="167">
         <v>43276</v>
       </c>
-      <c r="K11" s="161">
+      <c r="K11" s="167">
         <v>43278</v>
       </c>
-      <c r="L11" s="151"/>
-      <c r="M11" s="153"/>
-      <c r="N11" s="151"/>
-      <c r="O11" s="153"/>
-      <c r="P11" s="141" t="s">
+      <c r="L11" s="159"/>
+      <c r="M11" s="161"/>
+      <c r="N11" s="159"/>
+      <c r="O11" s="161"/>
+      <c r="P11" s="173" t="s">
         <v>64</v>
       </c>
-      <c r="Q11" s="165">
+      <c r="Q11" s="185">
         <v>5</v>
       </c>
-      <c r="R11" s="167">
+      <c r="R11" s="187">
         <v>5</v>
       </c>
       <c r="S11" s="82"/>
@@ -6869,23 +6968,23 @@
       <c r="EL11" s="93"/>
     </row>
     <row r="12" spans="1:142" ht="9" customHeight="1">
-      <c r="B12" s="220"/>
-      <c r="C12" s="206"/>
+      <c r="B12" s="178"/>
+      <c r="C12" s="163"/>
       <c r="D12" s="156"/>
-      <c r="E12" s="158"/>
-      <c r="F12" s="146"/>
-      <c r="G12" s="150"/>
-      <c r="H12" s="150"/>
-      <c r="I12" s="150"/>
-      <c r="J12" s="162"/>
-      <c r="K12" s="162"/>
-      <c r="L12" s="152"/>
-      <c r="M12" s="154"/>
-      <c r="N12" s="152"/>
-      <c r="O12" s="154"/>
-      <c r="P12" s="142"/>
-      <c r="Q12" s="166"/>
-      <c r="R12" s="168"/>
+      <c r="E12" s="172"/>
+      <c r="F12" s="158"/>
+      <c r="G12" s="166"/>
+      <c r="H12" s="166"/>
+      <c r="I12" s="166"/>
+      <c r="J12" s="168"/>
+      <c r="K12" s="168"/>
+      <c r="L12" s="160"/>
+      <c r="M12" s="162"/>
+      <c r="N12" s="160"/>
+      <c r="O12" s="162"/>
+      <c r="P12" s="174"/>
+      <c r="Q12" s="186"/>
+      <c r="R12" s="188"/>
       <c r="S12" s="82"/>
       <c r="T12" s="83"/>
       <c r="U12" s="83"/>
@@ -7012,35 +7111,35 @@
       <c r="EL12" s="94"/>
     </row>
     <row r="13" spans="1:142" ht="9" customHeight="1">
-      <c r="B13" s="218"/>
-      <c r="C13" s="216"/>
+      <c r="B13" s="150"/>
+      <c r="C13" s="180"/>
       <c r="D13" s="155"/>
-      <c r="E13" s="157" t="s">
+      <c r="E13" s="171" t="s">
         <v>67</v>
       </c>
-      <c r="F13" s="145"/>
-      <c r="G13" s="149"/>
-      <c r="H13" s="149">
+      <c r="F13" s="157"/>
+      <c r="G13" s="165"/>
+      <c r="H13" s="165">
         <v>43282</v>
       </c>
-      <c r="I13" s="149">
+      <c r="I13" s="165">
         <v>43290</v>
       </c>
-      <c r="J13" s="161">
+      <c r="J13" s="167">
         <v>43277</v>
       </c>
-      <c r="K13" s="161">
+      <c r="K13" s="167">
         <v>43280</v>
       </c>
-      <c r="L13" s="151"/>
-      <c r="M13" s="153"/>
-      <c r="N13" s="151"/>
-      <c r="O13" s="153"/>
-      <c r="P13" s="141" t="s">
+      <c r="L13" s="159"/>
+      <c r="M13" s="161"/>
+      <c r="N13" s="159"/>
+      <c r="O13" s="161"/>
+      <c r="P13" s="173" t="s">
         <v>64</v>
       </c>
-      <c r="Q13" s="163"/>
-      <c r="R13" s="159"/>
+      <c r="Q13" s="169"/>
+      <c r="R13" s="183"/>
       <c r="S13" s="82"/>
       <c r="T13" s="85"/>
       <c r="U13" s="84"/>
@@ -7167,23 +7266,23 @@
       <c r="EL13" s="93"/>
     </row>
     <row r="14" spans="1:142" ht="9" customHeight="1">
-      <c r="B14" s="215"/>
-      <c r="C14" s="217"/>
+      <c r="B14" s="151"/>
+      <c r="C14" s="152"/>
       <c r="D14" s="156"/>
-      <c r="E14" s="158"/>
-      <c r="F14" s="146"/>
-      <c r="G14" s="150"/>
-      <c r="H14" s="150"/>
-      <c r="I14" s="150"/>
-      <c r="J14" s="162"/>
-      <c r="K14" s="162"/>
-      <c r="L14" s="152"/>
-      <c r="M14" s="154"/>
-      <c r="N14" s="152"/>
-      <c r="O14" s="154"/>
-      <c r="P14" s="142"/>
-      <c r="Q14" s="164"/>
-      <c r="R14" s="160"/>
+      <c r="E14" s="172"/>
+      <c r="F14" s="158"/>
+      <c r="G14" s="166"/>
+      <c r="H14" s="166"/>
+      <c r="I14" s="166"/>
+      <c r="J14" s="168"/>
+      <c r="K14" s="168"/>
+      <c r="L14" s="160"/>
+      <c r="M14" s="162"/>
+      <c r="N14" s="160"/>
+      <c r="O14" s="162"/>
+      <c r="P14" s="174"/>
+      <c r="Q14" s="170"/>
+      <c r="R14" s="184"/>
       <c r="S14" s="82"/>
       <c r="T14" s="83"/>
       <c r="U14" s="83"/>
@@ -7310,35 +7409,35 @@
       <c r="EL14" s="94"/>
     </row>
     <row r="15" spans="1:142" ht="9" customHeight="1">
-      <c r="B15" s="214"/>
-      <c r="C15" s="216"/>
+      <c r="B15" s="181"/>
+      <c r="C15" s="180"/>
       <c r="D15" s="155"/>
-      <c r="E15" s="157" t="s">
+      <c r="E15" s="171" t="s">
         <v>68</v>
       </c>
-      <c r="F15" s="145"/>
-      <c r="G15" s="149"/>
-      <c r="H15" s="149">
+      <c r="F15" s="157"/>
+      <c r="G15" s="165"/>
+      <c r="H15" s="165">
         <v>43282</v>
       </c>
-      <c r="I15" s="149">
+      <c r="I15" s="165">
         <v>43290</v>
       </c>
-      <c r="J15" s="161">
+      <c r="J15" s="167">
         <v>43280</v>
       </c>
-      <c r="K15" s="149">
+      <c r="K15" s="165">
         <v>43283</v>
       </c>
-      <c r="L15" s="151"/>
-      <c r="M15" s="153"/>
-      <c r="N15" s="151"/>
-      <c r="O15" s="153"/>
-      <c r="P15" s="141" t="s">
+      <c r="L15" s="159"/>
+      <c r="M15" s="161"/>
+      <c r="N15" s="159"/>
+      <c r="O15" s="161"/>
+      <c r="P15" s="173" t="s">
         <v>64</v>
       </c>
-      <c r="Q15" s="163"/>
-      <c r="R15" s="159"/>
+      <c r="Q15" s="169"/>
+      <c r="R15" s="183"/>
       <c r="S15" s="82"/>
       <c r="T15" s="85"/>
       <c r="U15" s="84"/>
@@ -7465,23 +7564,23 @@
       <c r="EL15" s="93"/>
     </row>
     <row r="16" spans="1:142" ht="9" customHeight="1">
-      <c r="B16" s="221"/>
-      <c r="C16" s="216"/>
+      <c r="B16" s="182"/>
+      <c r="C16" s="180"/>
       <c r="D16" s="156"/>
-      <c r="E16" s="158"/>
-      <c r="F16" s="146"/>
-      <c r="G16" s="150"/>
-      <c r="H16" s="150"/>
-      <c r="I16" s="150"/>
-      <c r="J16" s="162"/>
-      <c r="K16" s="150"/>
-      <c r="L16" s="152"/>
-      <c r="M16" s="154"/>
-      <c r="N16" s="152"/>
-      <c r="O16" s="154"/>
-      <c r="P16" s="142"/>
-      <c r="Q16" s="164"/>
-      <c r="R16" s="160"/>
+      <c r="E16" s="172"/>
+      <c r="F16" s="158"/>
+      <c r="G16" s="166"/>
+      <c r="H16" s="166"/>
+      <c r="I16" s="166"/>
+      <c r="J16" s="168"/>
+      <c r="K16" s="166"/>
+      <c r="L16" s="160"/>
+      <c r="M16" s="162"/>
+      <c r="N16" s="160"/>
+      <c r="O16" s="162"/>
+      <c r="P16" s="174"/>
+      <c r="Q16" s="170"/>
+      <c r="R16" s="184"/>
       <c r="S16" s="82"/>
       <c r="T16" s="83"/>
       <c r="U16" s="83"/>
@@ -7608,35 +7707,35 @@
       <c r="EL16" s="94"/>
     </row>
     <row r="17" spans="2:142" ht="9" customHeight="1">
-      <c r="B17" s="218"/>
-      <c r="C17" s="216"/>
+      <c r="B17" s="150"/>
+      <c r="C17" s="180"/>
       <c r="D17" s="155"/>
-      <c r="E17" s="157" t="s">
+      <c r="E17" s="171" t="s">
         <v>69</v>
       </c>
-      <c r="F17" s="145"/>
-      <c r="G17" s="149"/>
-      <c r="H17" s="149">
+      <c r="F17" s="157"/>
+      <c r="G17" s="165"/>
+      <c r="H17" s="165">
         <v>43282</v>
       </c>
-      <c r="I17" s="149">
+      <c r="I17" s="165">
         <v>43290</v>
       </c>
-      <c r="J17" s="149">
+      <c r="J17" s="165">
         <v>43283</v>
       </c>
-      <c r="K17" s="161">
+      <c r="K17" s="167">
         <v>43288</v>
       </c>
-      <c r="L17" s="151"/>
-      <c r="M17" s="153"/>
-      <c r="N17" s="151"/>
-      <c r="O17" s="153"/>
-      <c r="P17" s="141" t="s">
+      <c r="L17" s="159"/>
+      <c r="M17" s="161"/>
+      <c r="N17" s="159"/>
+      <c r="O17" s="161"/>
+      <c r="P17" s="173" t="s">
         <v>64</v>
       </c>
-      <c r="Q17" s="163"/>
-      <c r="R17" s="159"/>
+      <c r="Q17" s="169"/>
+      <c r="R17" s="183"/>
       <c r="S17" s="82"/>
       <c r="T17" s="85"/>
       <c r="U17" s="84"/>
@@ -7763,23 +7862,23 @@
       <c r="EL17" s="93"/>
     </row>
     <row r="18" spans="2:142" ht="9" customHeight="1">
-      <c r="B18" s="215"/>
-      <c r="C18" s="217"/>
+      <c r="B18" s="151"/>
+      <c r="C18" s="152"/>
       <c r="D18" s="156"/>
-      <c r="E18" s="158"/>
-      <c r="F18" s="146"/>
-      <c r="G18" s="150"/>
-      <c r="H18" s="150"/>
-      <c r="I18" s="150"/>
-      <c r="J18" s="150"/>
-      <c r="K18" s="162"/>
-      <c r="L18" s="152"/>
-      <c r="M18" s="154"/>
-      <c r="N18" s="152"/>
-      <c r="O18" s="154"/>
-      <c r="P18" s="142"/>
-      <c r="Q18" s="164"/>
-      <c r="R18" s="160"/>
+      <c r="E18" s="172"/>
+      <c r="F18" s="158"/>
+      <c r="G18" s="166"/>
+      <c r="H18" s="166"/>
+      <c r="I18" s="166"/>
+      <c r="J18" s="166"/>
+      <c r="K18" s="168"/>
+      <c r="L18" s="160"/>
+      <c r="M18" s="162"/>
+      <c r="N18" s="160"/>
+      <c r="O18" s="162"/>
+      <c r="P18" s="174"/>
+      <c r="Q18" s="170"/>
+      <c r="R18" s="184"/>
       <c r="S18" s="82"/>
       <c r="T18" s="83"/>
       <c r="U18" s="83"/>
@@ -7906,35 +8005,35 @@
       <c r="EL18" s="94"/>
     </row>
     <row r="19" spans="2:142" ht="9" customHeight="1">
-      <c r="B19" s="214"/>
-      <c r="C19" s="216"/>
+      <c r="B19" s="181"/>
+      <c r="C19" s="180"/>
       <c r="D19" s="155"/>
-      <c r="E19" s="157" t="s">
+      <c r="E19" s="171" t="s">
         <v>70</v>
       </c>
-      <c r="F19" s="145"/>
-      <c r="G19" s="149"/>
-      <c r="H19" s="149">
+      <c r="F19" s="157"/>
+      <c r="G19" s="165"/>
+      <c r="H19" s="165">
         <v>43282</v>
       </c>
-      <c r="I19" s="149">
+      <c r="I19" s="165">
         <v>43290</v>
       </c>
-      <c r="J19" s="149">
+      <c r="J19" s="165">
         <v>43283</v>
       </c>
-      <c r="K19" s="161">
+      <c r="K19" s="167">
         <v>43288</v>
       </c>
-      <c r="L19" s="151"/>
-      <c r="M19" s="153"/>
-      <c r="N19" s="151"/>
-      <c r="O19" s="153"/>
-      <c r="P19" s="141" t="s">
+      <c r="L19" s="159"/>
+      <c r="M19" s="161"/>
+      <c r="N19" s="159"/>
+      <c r="O19" s="161"/>
+      <c r="P19" s="173" t="s">
         <v>64</v>
       </c>
-      <c r="Q19" s="163"/>
-      <c r="R19" s="159"/>
+      <c r="Q19" s="169"/>
+      <c r="R19" s="183"/>
       <c r="S19" s="82"/>
       <c r="T19" s="85"/>
       <c r="U19" s="84"/>
@@ -8061,23 +8160,23 @@
       <c r="EL19" s="93"/>
     </row>
     <row r="20" spans="2:142" ht="9" customHeight="1">
-      <c r="B20" s="215"/>
-      <c r="C20" s="217"/>
+      <c r="B20" s="151"/>
+      <c r="C20" s="152"/>
       <c r="D20" s="156"/>
-      <c r="E20" s="158"/>
-      <c r="F20" s="146"/>
-      <c r="G20" s="150"/>
-      <c r="H20" s="150"/>
-      <c r="I20" s="150"/>
-      <c r="J20" s="150"/>
-      <c r="K20" s="162"/>
-      <c r="L20" s="152"/>
-      <c r="M20" s="154"/>
-      <c r="N20" s="152"/>
-      <c r="O20" s="154"/>
-      <c r="P20" s="142"/>
-      <c r="Q20" s="164"/>
-      <c r="R20" s="160"/>
+      <c r="E20" s="172"/>
+      <c r="F20" s="158"/>
+      <c r="G20" s="166"/>
+      <c r="H20" s="166"/>
+      <c r="I20" s="166"/>
+      <c r="J20" s="166"/>
+      <c r="K20" s="168"/>
+      <c r="L20" s="160"/>
+      <c r="M20" s="162"/>
+      <c r="N20" s="160"/>
+      <c r="O20" s="162"/>
+      <c r="P20" s="174"/>
+      <c r="Q20" s="170"/>
+      <c r="R20" s="184"/>
       <c r="S20" s="82"/>
       <c r="T20" s="83"/>
       <c r="U20" s="83"/>
@@ -8204,39 +8303,39 @@
       <c r="EL20" s="94"/>
     </row>
     <row r="21" spans="2:142" ht="9" customHeight="1">
-      <c r="B21" s="218"/>
-      <c r="C21" s="206" t="s">
+      <c r="B21" s="150"/>
+      <c r="C21" s="163" t="s">
         <v>62</v>
       </c>
       <c r="D21" s="155"/>
-      <c r="E21" s="157" t="s">
+      <c r="E21" s="171" t="s">
         <v>71</v>
       </c>
-      <c r="F21" s="141" t="s">
+      <c r="F21" s="173" t="s">
         <v>72</v>
       </c>
-      <c r="G21" s="149"/>
-      <c r="H21" s="149">
+      <c r="G21" s="165"/>
+      <c r="H21" s="165">
         <v>43284</v>
       </c>
-      <c r="I21" s="149">
+      <c r="I21" s="165">
         <v>43286</v>
       </c>
-      <c r="J21" s="149">
+      <c r="J21" s="165">
         <v>43284</v>
       </c>
-      <c r="K21" s="149">
+      <c r="K21" s="165">
         <v>43286</v>
       </c>
-      <c r="L21" s="151"/>
-      <c r="M21" s="153"/>
-      <c r="N21" s="151"/>
-      <c r="O21" s="153"/>
-      <c r="P21" s="141" t="s">
+      <c r="L21" s="159"/>
+      <c r="M21" s="161"/>
+      <c r="N21" s="159"/>
+      <c r="O21" s="161"/>
+      <c r="P21" s="173" t="s">
         <v>64</v>
       </c>
-      <c r="Q21" s="163"/>
-      <c r="R21" s="159"/>
+      <c r="Q21" s="169"/>
+      <c r="R21" s="183"/>
       <c r="S21" s="82"/>
       <c r="T21" s="85"/>
       <c r="U21" s="84"/>
@@ -8363,23 +8462,23 @@
       <c r="EL21" s="93"/>
     </row>
     <row r="22" spans="2:142" ht="9" customHeight="1">
-      <c r="B22" s="215"/>
-      <c r="C22" s="206"/>
+      <c r="B22" s="151"/>
+      <c r="C22" s="163"/>
       <c r="D22" s="156"/>
-      <c r="E22" s="158"/>
-      <c r="F22" s="142"/>
-      <c r="G22" s="150"/>
-      <c r="H22" s="150"/>
-      <c r="I22" s="150"/>
-      <c r="J22" s="150"/>
-      <c r="K22" s="150"/>
-      <c r="L22" s="152"/>
-      <c r="M22" s="154"/>
-      <c r="N22" s="152"/>
-      <c r="O22" s="154"/>
-      <c r="P22" s="142"/>
-      <c r="Q22" s="164"/>
-      <c r="R22" s="160"/>
+      <c r="E22" s="172"/>
+      <c r="F22" s="174"/>
+      <c r="G22" s="166"/>
+      <c r="H22" s="166"/>
+      <c r="I22" s="166"/>
+      <c r="J22" s="166"/>
+      <c r="K22" s="166"/>
+      <c r="L22" s="160"/>
+      <c r="M22" s="162"/>
+      <c r="N22" s="160"/>
+      <c r="O22" s="162"/>
+      <c r="P22" s="174"/>
+      <c r="Q22" s="170"/>
+      <c r="R22" s="184"/>
       <c r="S22" s="82"/>
       <c r="T22" s="83"/>
       <c r="U22" s="83"/>
@@ -8506,35 +8605,35 @@
       <c r="EL22" s="94"/>
     </row>
     <row r="23" spans="2:142" ht="9" customHeight="1">
-      <c r="B23" s="218"/>
-      <c r="C23" s="217"/>
+      <c r="B23" s="150"/>
+      <c r="C23" s="152"/>
       <c r="D23" s="155"/>
-      <c r="E23" s="147"/>
-      <c r="F23" s="141" t="s">
+      <c r="E23" s="153"/>
+      <c r="F23" s="173" t="s">
         <v>73</v>
       </c>
-      <c r="G23" s="149"/>
-      <c r="H23" s="149">
+      <c r="G23" s="165"/>
+      <c r="H23" s="165">
         <v>43284</v>
       </c>
-      <c r="I23" s="149">
+      <c r="I23" s="165">
         <v>43286</v>
       </c>
-      <c r="J23" s="149">
+      <c r="J23" s="165">
         <v>43284</v>
       </c>
-      <c r="K23" s="149">
+      <c r="K23" s="165">
         <v>43286</v>
       </c>
-      <c r="L23" s="151"/>
-      <c r="M23" s="153"/>
-      <c r="N23" s="151"/>
-      <c r="O23" s="153"/>
-      <c r="P23" s="141" t="s">
+      <c r="L23" s="159"/>
+      <c r="M23" s="161"/>
+      <c r="N23" s="159"/>
+      <c r="O23" s="161"/>
+      <c r="P23" s="173" t="s">
         <v>64</v>
       </c>
-      <c r="Q23" s="163"/>
-      <c r="R23" s="159"/>
+      <c r="Q23" s="169"/>
+      <c r="R23" s="183"/>
       <c r="S23" s="82"/>
       <c r="T23" s="85"/>
       <c r="U23" s="84"/>
@@ -8661,23 +8760,23 @@
       <c r="EL23" s="93"/>
     </row>
     <row r="24" spans="2:142" ht="9" customHeight="1">
-      <c r="B24" s="215"/>
-      <c r="C24" s="217"/>
+      <c r="B24" s="151"/>
+      <c r="C24" s="152"/>
       <c r="D24" s="156"/>
-      <c r="E24" s="148"/>
-      <c r="F24" s="142"/>
-      <c r="G24" s="150"/>
-      <c r="H24" s="150"/>
-      <c r="I24" s="150"/>
-      <c r="J24" s="150"/>
-      <c r="K24" s="150"/>
-      <c r="L24" s="152"/>
-      <c r="M24" s="154"/>
-      <c r="N24" s="152"/>
-      <c r="O24" s="154"/>
-      <c r="P24" s="142"/>
-      <c r="Q24" s="164"/>
-      <c r="R24" s="160"/>
+      <c r="E24" s="154"/>
+      <c r="F24" s="174"/>
+      <c r="G24" s="166"/>
+      <c r="H24" s="166"/>
+      <c r="I24" s="166"/>
+      <c r="J24" s="166"/>
+      <c r="K24" s="166"/>
+      <c r="L24" s="160"/>
+      <c r="M24" s="162"/>
+      <c r="N24" s="160"/>
+      <c r="O24" s="162"/>
+      <c r="P24" s="174"/>
+      <c r="Q24" s="170"/>
+      <c r="R24" s="184"/>
       <c r="S24" s="82"/>
       <c r="T24" s="83"/>
       <c r="U24" s="83"/>
@@ -8804,35 +8903,35 @@
       <c r="EL24" s="94"/>
     </row>
     <row r="25" spans="2:142" ht="9" customHeight="1">
-      <c r="B25" s="218"/>
-      <c r="C25" s="217"/>
+      <c r="B25" s="150"/>
+      <c r="C25" s="152"/>
       <c r="D25" s="155"/>
-      <c r="E25" s="147"/>
-      <c r="F25" s="141" t="s">
+      <c r="E25" s="153"/>
+      <c r="F25" s="173" t="s">
         <v>74</v>
       </c>
-      <c r="G25" s="149"/>
-      <c r="H25" s="149">
+      <c r="G25" s="165"/>
+      <c r="H25" s="165">
         <v>43284</v>
       </c>
-      <c r="I25" s="149">
+      <c r="I25" s="165">
         <v>43286</v>
       </c>
-      <c r="J25" s="149">
+      <c r="J25" s="165">
         <v>43284</v>
       </c>
-      <c r="K25" s="149">
+      <c r="K25" s="165">
         <v>43286</v>
       </c>
-      <c r="L25" s="151"/>
-      <c r="M25" s="153"/>
-      <c r="N25" s="151"/>
-      <c r="O25" s="153"/>
-      <c r="P25" s="141" t="s">
+      <c r="L25" s="159"/>
+      <c r="M25" s="161"/>
+      <c r="N25" s="159"/>
+      <c r="O25" s="161"/>
+      <c r="P25" s="173" t="s">
         <v>64</v>
       </c>
-      <c r="Q25" s="163"/>
-      <c r="R25" s="159"/>
+      <c r="Q25" s="169"/>
+      <c r="R25" s="183"/>
       <c r="S25" s="82"/>
       <c r="T25" s="85"/>
       <c r="U25" s="84"/>
@@ -8959,23 +9058,23 @@
       <c r="EL25" s="93"/>
     </row>
     <row r="26" spans="2:142" ht="9" customHeight="1">
-      <c r="B26" s="215"/>
-      <c r="C26" s="217"/>
+      <c r="B26" s="151"/>
+      <c r="C26" s="152"/>
       <c r="D26" s="156"/>
-      <c r="E26" s="148"/>
-      <c r="F26" s="142"/>
-      <c r="G26" s="150"/>
-      <c r="H26" s="150"/>
-      <c r="I26" s="150"/>
-      <c r="J26" s="150"/>
-      <c r="K26" s="150"/>
-      <c r="L26" s="152"/>
-      <c r="M26" s="154"/>
-      <c r="N26" s="152"/>
-      <c r="O26" s="154"/>
-      <c r="P26" s="142"/>
-      <c r="Q26" s="164"/>
-      <c r="R26" s="160"/>
+      <c r="E26" s="154"/>
+      <c r="F26" s="174"/>
+      <c r="G26" s="166"/>
+      <c r="H26" s="166"/>
+      <c r="I26" s="166"/>
+      <c r="J26" s="166"/>
+      <c r="K26" s="166"/>
+      <c r="L26" s="160"/>
+      <c r="M26" s="162"/>
+      <c r="N26" s="160"/>
+      <c r="O26" s="162"/>
+      <c r="P26" s="174"/>
+      <c r="Q26" s="170"/>
+      <c r="R26" s="184"/>
       <c r="S26" s="82"/>
       <c r="T26" s="83"/>
       <c r="U26" s="83"/>
@@ -9102,35 +9201,35 @@
       <c r="EL26" s="94"/>
     </row>
     <row r="27" spans="2:142" ht="9" customHeight="1">
-      <c r="B27" s="218"/>
-      <c r="C27" s="217"/>
+      <c r="B27" s="150"/>
+      <c r="C27" s="152"/>
       <c r="D27" s="155"/>
-      <c r="E27" s="147"/>
-      <c r="F27" s="141" t="s">
+      <c r="E27" s="153"/>
+      <c r="F27" s="173" t="s">
         <v>75</v>
       </c>
-      <c r="G27" s="149"/>
-      <c r="H27" s="149">
+      <c r="G27" s="165"/>
+      <c r="H27" s="165">
         <v>43284</v>
       </c>
-      <c r="I27" s="149">
+      <c r="I27" s="165">
         <v>43286</v>
       </c>
-      <c r="J27" s="149">
+      <c r="J27" s="165">
         <v>43284</v>
       </c>
-      <c r="K27" s="149">
+      <c r="K27" s="165">
         <v>43286</v>
       </c>
-      <c r="L27" s="151"/>
-      <c r="M27" s="153"/>
-      <c r="N27" s="151"/>
-      <c r="O27" s="153"/>
-      <c r="P27" s="141" t="s">
+      <c r="L27" s="159"/>
+      <c r="M27" s="161"/>
+      <c r="N27" s="159"/>
+      <c r="O27" s="161"/>
+      <c r="P27" s="173" t="s">
         <v>64</v>
       </c>
-      <c r="Q27" s="163"/>
-      <c r="R27" s="159"/>
+      <c r="Q27" s="169"/>
+      <c r="R27" s="183"/>
       <c r="S27" s="82"/>
       <c r="T27" s="85"/>
       <c r="U27" s="84"/>
@@ -9257,23 +9356,23 @@
       <c r="EL27" s="93"/>
     </row>
     <row r="28" spans="2:142" ht="9" customHeight="1">
-      <c r="B28" s="215"/>
-      <c r="C28" s="217"/>
+      <c r="B28" s="151"/>
+      <c r="C28" s="152"/>
       <c r="D28" s="156"/>
-      <c r="E28" s="148"/>
-      <c r="F28" s="142"/>
-      <c r="G28" s="150"/>
-      <c r="H28" s="150"/>
-      <c r="I28" s="150"/>
-      <c r="J28" s="150"/>
-      <c r="K28" s="150"/>
-      <c r="L28" s="152"/>
-      <c r="M28" s="154"/>
-      <c r="N28" s="152"/>
-      <c r="O28" s="154"/>
-      <c r="P28" s="142"/>
-      <c r="Q28" s="164"/>
-      <c r="R28" s="160"/>
+      <c r="E28" s="154"/>
+      <c r="F28" s="174"/>
+      <c r="G28" s="166"/>
+      <c r="H28" s="166"/>
+      <c r="I28" s="166"/>
+      <c r="J28" s="166"/>
+      <c r="K28" s="166"/>
+      <c r="L28" s="160"/>
+      <c r="M28" s="162"/>
+      <c r="N28" s="160"/>
+      <c r="O28" s="162"/>
+      <c r="P28" s="174"/>
+      <c r="Q28" s="170"/>
+      <c r="R28" s="184"/>
       <c r="S28" s="82"/>
       <c r="T28" s="83"/>
       <c r="U28" s="83"/>
@@ -9400,43 +9499,43 @@
       <c r="EL28" s="94"/>
     </row>
     <row r="29" spans="2:142" ht="9" customHeight="1">
-      <c r="B29" s="219" t="s">
+      <c r="B29" s="177" t="s">
         <v>48</v>
       </c>
-      <c r="C29" s="206" t="s">
+      <c r="C29" s="163" t="s">
         <v>76</v>
       </c>
       <c r="D29" s="155"/>
-      <c r="E29" s="157" t="s">
+      <c r="E29" s="171" t="s">
         <v>77</v>
       </c>
-      <c r="F29" s="141" t="s">
+      <c r="F29" s="173" t="s">
         <v>78</v>
       </c>
-      <c r="G29" s="149"/>
-      <c r="H29" s="149">
+      <c r="G29" s="165"/>
+      <c r="H29" s="165">
         <v>43286</v>
       </c>
-      <c r="I29" s="149">
+      <c r="I29" s="165">
         <v>43286</v>
       </c>
-      <c r="J29" s="149">
+      <c r="J29" s="165">
         <v>43286</v>
       </c>
-      <c r="K29" s="149">
+      <c r="K29" s="165">
         <v>43286</v>
       </c>
-      <c r="L29" s="151"/>
-      <c r="M29" s="153"/>
-      <c r="N29" s="151"/>
-      <c r="O29" s="153"/>
-      <c r="P29" s="141" t="s">
+      <c r="L29" s="159"/>
+      <c r="M29" s="161"/>
+      <c r="N29" s="159"/>
+      <c r="O29" s="161"/>
+      <c r="P29" s="173" t="s">
         <v>64</v>
       </c>
-      <c r="Q29" s="165">
+      <c r="Q29" s="185">
         <v>5</v>
       </c>
-      <c r="R29" s="167">
+      <c r="R29" s="187">
         <v>5</v>
       </c>
       <c r="S29" s="82"/>
@@ -9565,23 +9664,23 @@
       <c r="EL29" s="93"/>
     </row>
     <row r="30" spans="2:142" ht="9" customHeight="1">
-      <c r="B30" s="220"/>
-      <c r="C30" s="206"/>
+      <c r="B30" s="178"/>
+      <c r="C30" s="163"/>
       <c r="D30" s="156"/>
-      <c r="E30" s="158"/>
-      <c r="F30" s="142"/>
-      <c r="G30" s="150"/>
-      <c r="H30" s="150"/>
-      <c r="I30" s="150"/>
-      <c r="J30" s="150"/>
-      <c r="K30" s="150"/>
-      <c r="L30" s="152"/>
-      <c r="M30" s="154"/>
-      <c r="N30" s="152"/>
-      <c r="O30" s="154"/>
-      <c r="P30" s="142"/>
-      <c r="Q30" s="166"/>
-      <c r="R30" s="168"/>
+      <c r="E30" s="172"/>
+      <c r="F30" s="174"/>
+      <c r="G30" s="166"/>
+      <c r="H30" s="166"/>
+      <c r="I30" s="166"/>
+      <c r="J30" s="166"/>
+      <c r="K30" s="166"/>
+      <c r="L30" s="160"/>
+      <c r="M30" s="162"/>
+      <c r="N30" s="160"/>
+      <c r="O30" s="162"/>
+      <c r="P30" s="174"/>
+      <c r="Q30" s="186"/>
+      <c r="R30" s="188"/>
       <c r="S30" s="82"/>
       <c r="T30" s="83"/>
       <c r="U30" s="83"/>
@@ -9708,33 +9807,33 @@
       <c r="EL30" s="94"/>
     </row>
     <row r="31" spans="2:142" ht="9" customHeight="1">
-      <c r="B31" s="218"/>
-      <c r="C31" s="217"/>
+      <c r="B31" s="150"/>
+      <c r="C31" s="152"/>
       <c r="D31" s="155"/>
-      <c r="E31" s="147"/>
-      <c r="F31" s="141" t="s">
+      <c r="E31" s="153"/>
+      <c r="F31" s="173" t="s">
         <v>79</v>
       </c>
-      <c r="G31" s="149"/>
-      <c r="H31" s="149">
+      <c r="G31" s="165"/>
+      <c r="H31" s="165">
         <v>43286</v>
       </c>
-      <c r="I31" s="149">
+      <c r="I31" s="165">
         <v>43286</v>
       </c>
-      <c r="J31" s="149">
+      <c r="J31" s="165">
         <v>43286</v>
       </c>
-      <c r="K31" s="149">
+      <c r="K31" s="165">
         <v>43286</v>
       </c>
-      <c r="L31" s="151"/>
-      <c r="M31" s="153"/>
-      <c r="N31" s="151"/>
-      <c r="O31" s="153"/>
-      <c r="P31" s="145"/>
-      <c r="Q31" s="163"/>
-      <c r="R31" s="159"/>
+      <c r="L31" s="159"/>
+      <c r="M31" s="161"/>
+      <c r="N31" s="159"/>
+      <c r="O31" s="161"/>
+      <c r="P31" s="157"/>
+      <c r="Q31" s="169"/>
+      <c r="R31" s="183"/>
       <c r="S31" s="82"/>
       <c r="T31" s="85"/>
       <c r="U31" s="84"/>
@@ -9861,23 +9960,23 @@
       <c r="EL31" s="93"/>
     </row>
     <row r="32" spans="2:142" ht="9" customHeight="1">
-      <c r="B32" s="215"/>
-      <c r="C32" s="217"/>
+      <c r="B32" s="151"/>
+      <c r="C32" s="152"/>
       <c r="D32" s="156"/>
-      <c r="E32" s="148"/>
-      <c r="F32" s="142"/>
-      <c r="G32" s="150"/>
-      <c r="H32" s="150"/>
-      <c r="I32" s="150"/>
-      <c r="J32" s="150"/>
-      <c r="K32" s="150"/>
-      <c r="L32" s="152"/>
-      <c r="M32" s="154"/>
-      <c r="N32" s="152"/>
-      <c r="O32" s="154"/>
-      <c r="P32" s="146"/>
-      <c r="Q32" s="164"/>
-      <c r="R32" s="160"/>
+      <c r="E32" s="154"/>
+      <c r="F32" s="174"/>
+      <c r="G32" s="166"/>
+      <c r="H32" s="166"/>
+      <c r="I32" s="166"/>
+      <c r="J32" s="166"/>
+      <c r="K32" s="166"/>
+      <c r="L32" s="160"/>
+      <c r="M32" s="162"/>
+      <c r="N32" s="160"/>
+      <c r="O32" s="162"/>
+      <c r="P32" s="158"/>
+      <c r="Q32" s="170"/>
+      <c r="R32" s="184"/>
       <c r="S32" s="82"/>
       <c r="T32" s="83"/>
       <c r="U32" s="83"/>
@@ -10004,33 +10103,33 @@
       <c r="EL32" s="94"/>
     </row>
     <row r="33" spans="2:142" ht="9" customHeight="1">
-      <c r="B33" s="218"/>
-      <c r="C33" s="217"/>
+      <c r="B33" s="150"/>
+      <c r="C33" s="152"/>
       <c r="D33" s="155"/>
-      <c r="E33" s="147"/>
-      <c r="F33" s="141" t="s">
+      <c r="E33" s="153"/>
+      <c r="F33" s="173" t="s">
         <v>80</v>
       </c>
-      <c r="G33" s="149"/>
-      <c r="H33" s="149">
+      <c r="G33" s="165"/>
+      <c r="H33" s="165">
         <v>43286</v>
       </c>
-      <c r="I33" s="149">
+      <c r="I33" s="165">
         <v>43286</v>
       </c>
-      <c r="J33" s="149">
+      <c r="J33" s="165">
         <v>43286</v>
       </c>
-      <c r="K33" s="149">
+      <c r="K33" s="165">
         <v>43286</v>
       </c>
-      <c r="L33" s="151"/>
-      <c r="M33" s="153"/>
-      <c r="N33" s="151"/>
-      <c r="O33" s="153"/>
-      <c r="P33" s="145"/>
-      <c r="Q33" s="163"/>
-      <c r="R33" s="159"/>
+      <c r="L33" s="159"/>
+      <c r="M33" s="161"/>
+      <c r="N33" s="159"/>
+      <c r="O33" s="161"/>
+      <c r="P33" s="157"/>
+      <c r="Q33" s="169"/>
+      <c r="R33" s="183"/>
       <c r="S33" s="82"/>
       <c r="T33" s="85"/>
       <c r="U33" s="84"/>
@@ -10157,23 +10256,23 @@
       <c r="EL33" s="93"/>
     </row>
     <row r="34" spans="2:142" ht="9" customHeight="1">
-      <c r="B34" s="215"/>
-      <c r="C34" s="217"/>
+      <c r="B34" s="151"/>
+      <c r="C34" s="152"/>
       <c r="D34" s="156"/>
-      <c r="E34" s="148"/>
-      <c r="F34" s="142"/>
-      <c r="G34" s="150"/>
-      <c r="H34" s="150"/>
-      <c r="I34" s="150"/>
-      <c r="J34" s="150"/>
-      <c r="K34" s="150"/>
-      <c r="L34" s="152"/>
-      <c r="M34" s="154"/>
-      <c r="N34" s="152"/>
-      <c r="O34" s="154"/>
-      <c r="P34" s="146"/>
-      <c r="Q34" s="164"/>
-      <c r="R34" s="160"/>
+      <c r="E34" s="154"/>
+      <c r="F34" s="174"/>
+      <c r="G34" s="166"/>
+      <c r="H34" s="166"/>
+      <c r="I34" s="166"/>
+      <c r="J34" s="166"/>
+      <c r="K34" s="166"/>
+      <c r="L34" s="160"/>
+      <c r="M34" s="162"/>
+      <c r="N34" s="160"/>
+      <c r="O34" s="162"/>
+      <c r="P34" s="158"/>
+      <c r="Q34" s="170"/>
+      <c r="R34" s="184"/>
       <c r="S34" s="82"/>
       <c r="T34" s="83"/>
       <c r="U34" s="83"/>
@@ -10300,33 +10399,33 @@
       <c r="EL34" s="94"/>
     </row>
     <row r="35" spans="2:142" ht="9" customHeight="1">
-      <c r="B35" s="218"/>
-      <c r="C35" s="217"/>
+      <c r="B35" s="150"/>
+      <c r="C35" s="152"/>
       <c r="D35" s="155"/>
-      <c r="E35" s="147"/>
-      <c r="F35" s="141" t="s">
+      <c r="E35" s="153"/>
+      <c r="F35" s="173" t="s">
         <v>81</v>
       </c>
-      <c r="G35" s="149"/>
-      <c r="H35" s="149">
+      <c r="G35" s="165"/>
+      <c r="H35" s="165">
         <v>43286</v>
       </c>
-      <c r="I35" s="149">
+      <c r="I35" s="165">
         <v>43286</v>
       </c>
-      <c r="J35" s="149">
+      <c r="J35" s="165">
         <v>43286</v>
       </c>
-      <c r="K35" s="149">
+      <c r="K35" s="165">
         <v>43286</v>
       </c>
-      <c r="L35" s="151"/>
-      <c r="M35" s="153"/>
-      <c r="N35" s="151"/>
-      <c r="O35" s="153"/>
-      <c r="P35" s="145"/>
-      <c r="Q35" s="163"/>
-      <c r="R35" s="159"/>
+      <c r="L35" s="159"/>
+      <c r="M35" s="161"/>
+      <c r="N35" s="159"/>
+      <c r="O35" s="161"/>
+      <c r="P35" s="157"/>
+      <c r="Q35" s="169"/>
+      <c r="R35" s="183"/>
       <c r="S35" s="82"/>
       <c r="T35" s="85"/>
       <c r="U35" s="84"/>
@@ -10453,23 +10552,23 @@
       <c r="EL35" s="93"/>
     </row>
     <row r="36" spans="2:142" ht="9" customHeight="1">
-      <c r="B36" s="215"/>
-      <c r="C36" s="217"/>
+      <c r="B36" s="151"/>
+      <c r="C36" s="152"/>
       <c r="D36" s="156"/>
-      <c r="E36" s="148"/>
-      <c r="F36" s="142"/>
-      <c r="G36" s="150"/>
-      <c r="H36" s="150"/>
-      <c r="I36" s="150"/>
-      <c r="J36" s="150"/>
-      <c r="K36" s="150"/>
-      <c r="L36" s="152"/>
-      <c r="M36" s="154"/>
-      <c r="N36" s="152"/>
-      <c r="O36" s="154"/>
-      <c r="P36" s="146"/>
-      <c r="Q36" s="164"/>
-      <c r="R36" s="160"/>
+      <c r="E36" s="154"/>
+      <c r="F36" s="174"/>
+      <c r="G36" s="166"/>
+      <c r="H36" s="166"/>
+      <c r="I36" s="166"/>
+      <c r="J36" s="166"/>
+      <c r="K36" s="166"/>
+      <c r="L36" s="160"/>
+      <c r="M36" s="162"/>
+      <c r="N36" s="160"/>
+      <c r="O36" s="162"/>
+      <c r="P36" s="158"/>
+      <c r="Q36" s="170"/>
+      <c r="R36" s="184"/>
       <c r="S36" s="82"/>
       <c r="T36" s="83"/>
       <c r="U36" s="83"/>
@@ -10596,33 +10695,33 @@
       <c r="EL36" s="94"/>
     </row>
     <row r="37" spans="2:142" ht="9" customHeight="1">
-      <c r="B37" s="218"/>
-      <c r="C37" s="217"/>
+      <c r="B37" s="150"/>
+      <c r="C37" s="152"/>
       <c r="D37" s="155"/>
-      <c r="E37" s="147"/>
-      <c r="F37" s="141" t="s">
+      <c r="E37" s="153"/>
+      <c r="F37" s="173" t="s">
         <v>82</v>
       </c>
-      <c r="G37" s="149"/>
-      <c r="H37" s="149">
+      <c r="G37" s="165"/>
+      <c r="H37" s="165">
         <v>43286</v>
       </c>
-      <c r="I37" s="149">
+      <c r="I37" s="165">
         <v>43286</v>
       </c>
-      <c r="J37" s="149">
+      <c r="J37" s="165">
         <v>43286</v>
       </c>
-      <c r="K37" s="149">
+      <c r="K37" s="165">
         <v>43286</v>
       </c>
-      <c r="L37" s="151"/>
-      <c r="M37" s="153"/>
-      <c r="N37" s="151"/>
-      <c r="O37" s="153"/>
-      <c r="P37" s="145"/>
-      <c r="Q37" s="163"/>
-      <c r="R37" s="159"/>
+      <c r="L37" s="159"/>
+      <c r="M37" s="161"/>
+      <c r="N37" s="159"/>
+      <c r="O37" s="161"/>
+      <c r="P37" s="157"/>
+      <c r="Q37" s="169"/>
+      <c r="R37" s="183"/>
       <c r="S37" s="82"/>
       <c r="T37" s="85"/>
       <c r="U37" s="84"/>
@@ -10749,23 +10848,23 @@
       <c r="EL37" s="93"/>
     </row>
     <row r="38" spans="2:142" ht="9" customHeight="1">
-      <c r="B38" s="215"/>
-      <c r="C38" s="217"/>
+      <c r="B38" s="151"/>
+      <c r="C38" s="152"/>
       <c r="D38" s="156"/>
-      <c r="E38" s="148"/>
-      <c r="F38" s="142"/>
-      <c r="G38" s="150"/>
-      <c r="H38" s="150"/>
-      <c r="I38" s="150"/>
-      <c r="J38" s="150"/>
-      <c r="K38" s="150"/>
-      <c r="L38" s="152"/>
-      <c r="M38" s="154"/>
-      <c r="N38" s="152"/>
-      <c r="O38" s="154"/>
-      <c r="P38" s="146"/>
-      <c r="Q38" s="164"/>
-      <c r="R38" s="160"/>
+      <c r="E38" s="154"/>
+      <c r="F38" s="174"/>
+      <c r="G38" s="166"/>
+      <c r="H38" s="166"/>
+      <c r="I38" s="166"/>
+      <c r="J38" s="166"/>
+      <c r="K38" s="166"/>
+      <c r="L38" s="160"/>
+      <c r="M38" s="162"/>
+      <c r="N38" s="160"/>
+      <c r="O38" s="162"/>
+      <c r="P38" s="158"/>
+      <c r="Q38" s="170"/>
+      <c r="R38" s="184"/>
       <c r="S38" s="82"/>
       <c r="T38" s="83"/>
       <c r="U38" s="83"/>
@@ -10892,37 +10991,37 @@
       <c r="EL38" s="94"/>
     </row>
     <row r="39" spans="2:142" ht="9" customHeight="1">
-      <c r="B39" s="218"/>
-      <c r="C39" s="217"/>
+      <c r="B39" s="150"/>
+      <c r="C39" s="152"/>
       <c r="D39" s="155"/>
-      <c r="E39" s="157" t="s">
+      <c r="E39" s="171" t="s">
         <v>83</v>
       </c>
-      <c r="F39" s="141" t="s">
+      <c r="F39" s="173" t="s">
         <v>84</v>
       </c>
-      <c r="G39" s="149"/>
-      <c r="H39" s="149">
+      <c r="G39" s="165"/>
+      <c r="H39" s="165">
         <v>43286</v>
       </c>
-      <c r="I39" s="149">
+      <c r="I39" s="165">
         <v>43286</v>
       </c>
-      <c r="J39" s="149">
+      <c r="J39" s="165">
         <v>43286</v>
       </c>
-      <c r="K39" s="149">
+      <c r="K39" s="165">
         <v>43286</v>
       </c>
-      <c r="L39" s="151"/>
-      <c r="M39" s="153"/>
-      <c r="N39" s="151"/>
-      <c r="O39" s="153"/>
-      <c r="P39" s="141" t="s">
+      <c r="L39" s="159"/>
+      <c r="M39" s="161"/>
+      <c r="N39" s="159"/>
+      <c r="O39" s="161"/>
+      <c r="P39" s="173" t="s">
         <v>64</v>
       </c>
-      <c r="Q39" s="163"/>
-      <c r="R39" s="159"/>
+      <c r="Q39" s="169"/>
+      <c r="R39" s="183"/>
       <c r="S39" s="82"/>
       <c r="T39" s="85"/>
       <c r="U39" s="84"/>
@@ -11049,23 +11148,23 @@
       <c r="EL39" s="93"/>
     </row>
     <row r="40" spans="2:142" ht="9" customHeight="1">
-      <c r="B40" s="215"/>
-      <c r="C40" s="217"/>
+      <c r="B40" s="151"/>
+      <c r="C40" s="152"/>
       <c r="D40" s="156"/>
-      <c r="E40" s="158"/>
-      <c r="F40" s="142"/>
-      <c r="G40" s="150"/>
-      <c r="H40" s="150"/>
-      <c r="I40" s="150"/>
-      <c r="J40" s="150"/>
-      <c r="K40" s="150"/>
-      <c r="L40" s="152"/>
-      <c r="M40" s="154"/>
-      <c r="N40" s="152"/>
-      <c r="O40" s="154"/>
-      <c r="P40" s="142"/>
-      <c r="Q40" s="164"/>
-      <c r="R40" s="160"/>
+      <c r="E40" s="172"/>
+      <c r="F40" s="174"/>
+      <c r="G40" s="166"/>
+      <c r="H40" s="166"/>
+      <c r="I40" s="166"/>
+      <c r="J40" s="166"/>
+      <c r="K40" s="166"/>
+      <c r="L40" s="160"/>
+      <c r="M40" s="162"/>
+      <c r="N40" s="160"/>
+      <c r="O40" s="162"/>
+      <c r="P40" s="174"/>
+      <c r="Q40" s="170"/>
+      <c r="R40" s="184"/>
       <c r="S40" s="82"/>
       <c r="T40" s="83"/>
       <c r="U40" s="83"/>
@@ -11192,33 +11291,33 @@
       <c r="EL40" s="94"/>
     </row>
     <row r="41" spans="2:142" ht="9" customHeight="1">
-      <c r="B41" s="218"/>
-      <c r="C41" s="217"/>
+      <c r="B41" s="150"/>
+      <c r="C41" s="152"/>
       <c r="D41" s="155"/>
-      <c r="E41" s="147"/>
-      <c r="F41" s="141" t="s">
+      <c r="E41" s="153"/>
+      <c r="F41" s="173" t="s">
         <v>85</v>
       </c>
-      <c r="G41" s="149"/>
-      <c r="H41" s="149">
+      <c r="G41" s="165"/>
+      <c r="H41" s="165">
         <v>43286</v>
       </c>
-      <c r="I41" s="149">
+      <c r="I41" s="165">
         <v>43286</v>
       </c>
-      <c r="J41" s="149">
+      <c r="J41" s="165">
         <v>43286</v>
       </c>
-      <c r="K41" s="149">
+      <c r="K41" s="165">
         <v>43286</v>
       </c>
-      <c r="L41" s="151"/>
-      <c r="M41" s="153"/>
-      <c r="N41" s="151"/>
-      <c r="O41" s="153"/>
-      <c r="P41" s="145"/>
-      <c r="Q41" s="163"/>
-      <c r="R41" s="159"/>
+      <c r="L41" s="159"/>
+      <c r="M41" s="161"/>
+      <c r="N41" s="159"/>
+      <c r="O41" s="161"/>
+      <c r="P41" s="157"/>
+      <c r="Q41" s="169"/>
+      <c r="R41" s="183"/>
       <c r="S41" s="82"/>
       <c r="T41" s="85"/>
       <c r="U41" s="84"/>
@@ -11345,23 +11444,23 @@
       <c r="EL41" s="93"/>
     </row>
     <row r="42" spans="2:142" ht="9" customHeight="1">
-      <c r="B42" s="215"/>
-      <c r="C42" s="217"/>
+      <c r="B42" s="151"/>
+      <c r="C42" s="152"/>
       <c r="D42" s="156"/>
-      <c r="E42" s="148"/>
-      <c r="F42" s="142"/>
-      <c r="G42" s="150"/>
-      <c r="H42" s="150"/>
-      <c r="I42" s="150"/>
-      <c r="J42" s="150"/>
-      <c r="K42" s="150"/>
-      <c r="L42" s="152"/>
-      <c r="M42" s="154"/>
-      <c r="N42" s="152"/>
-      <c r="O42" s="154"/>
-      <c r="P42" s="146"/>
-      <c r="Q42" s="164"/>
-      <c r="R42" s="160"/>
+      <c r="E42" s="154"/>
+      <c r="F42" s="174"/>
+      <c r="G42" s="166"/>
+      <c r="H42" s="166"/>
+      <c r="I42" s="166"/>
+      <c r="J42" s="166"/>
+      <c r="K42" s="166"/>
+      <c r="L42" s="160"/>
+      <c r="M42" s="162"/>
+      <c r="N42" s="160"/>
+      <c r="O42" s="162"/>
+      <c r="P42" s="158"/>
+      <c r="Q42" s="170"/>
+      <c r="R42" s="184"/>
       <c r="S42" s="82"/>
       <c r="T42" s="83"/>
       <c r="U42" s="83"/>
@@ -11488,33 +11587,33 @@
       <c r="EL42" s="94"/>
     </row>
     <row r="43" spans="2:142" ht="9" customHeight="1">
-      <c r="B43" s="218"/>
-      <c r="C43" s="217"/>
+      <c r="B43" s="150"/>
+      <c r="C43" s="152"/>
       <c r="D43" s="155"/>
-      <c r="E43" s="147"/>
-      <c r="F43" s="141" t="s">
+      <c r="E43" s="153"/>
+      <c r="F43" s="173" t="s">
         <v>86</v>
       </c>
-      <c r="G43" s="149"/>
-      <c r="H43" s="149">
+      <c r="G43" s="165"/>
+      <c r="H43" s="165">
         <v>43286</v>
       </c>
-      <c r="I43" s="149">
+      <c r="I43" s="165">
         <v>43286</v>
       </c>
-      <c r="J43" s="149">
+      <c r="J43" s="165">
         <v>43286</v>
       </c>
-      <c r="K43" s="149">
+      <c r="K43" s="165">
         <v>43286</v>
       </c>
-      <c r="L43" s="151"/>
-      <c r="M43" s="153"/>
-      <c r="N43" s="151"/>
-      <c r="O43" s="153"/>
-      <c r="P43" s="145"/>
-      <c r="Q43" s="163"/>
-      <c r="R43" s="159"/>
+      <c r="L43" s="159"/>
+      <c r="M43" s="161"/>
+      <c r="N43" s="159"/>
+      <c r="O43" s="161"/>
+      <c r="P43" s="157"/>
+      <c r="Q43" s="169"/>
+      <c r="R43" s="183"/>
       <c r="S43" s="82"/>
       <c r="T43" s="85"/>
       <c r="U43" s="84"/>
@@ -11641,23 +11740,23 @@
       <c r="EL43" s="93"/>
     </row>
     <row r="44" spans="2:142" ht="9" customHeight="1">
-      <c r="B44" s="215"/>
-      <c r="C44" s="217"/>
+      <c r="B44" s="151"/>
+      <c r="C44" s="152"/>
       <c r="D44" s="156"/>
-      <c r="E44" s="148"/>
-      <c r="F44" s="142"/>
-      <c r="G44" s="150"/>
-      <c r="H44" s="150"/>
-      <c r="I44" s="150"/>
-      <c r="J44" s="150"/>
-      <c r="K44" s="150"/>
-      <c r="L44" s="152"/>
-      <c r="M44" s="154"/>
-      <c r="N44" s="152"/>
-      <c r="O44" s="154"/>
-      <c r="P44" s="146"/>
-      <c r="Q44" s="164"/>
-      <c r="R44" s="160"/>
+      <c r="E44" s="154"/>
+      <c r="F44" s="174"/>
+      <c r="G44" s="166"/>
+      <c r="H44" s="166"/>
+      <c r="I44" s="166"/>
+      <c r="J44" s="166"/>
+      <c r="K44" s="166"/>
+      <c r="L44" s="160"/>
+      <c r="M44" s="162"/>
+      <c r="N44" s="160"/>
+      <c r="O44" s="162"/>
+      <c r="P44" s="158"/>
+      <c r="Q44" s="170"/>
+      <c r="R44" s="184"/>
       <c r="S44" s="82"/>
       <c r="T44" s="83"/>
       <c r="U44" s="83"/>
@@ -11784,37 +11883,37 @@
       <c r="EL44" s="94"/>
     </row>
     <row r="45" spans="2:142" ht="9" customHeight="1">
-      <c r="B45" s="218"/>
-      <c r="C45" s="222" t="s">
+      <c r="B45" s="150"/>
+      <c r="C45" s="179" t="s">
         <v>63</v>
       </c>
       <c r="D45" s="155"/>
-      <c r="E45" s="157" t="s">
+      <c r="E45" s="171" t="s">
         <v>77</v>
       </c>
-      <c r="F45" s="145"/>
-      <c r="G45" s="149"/>
-      <c r="H45" s="149">
+      <c r="F45" s="157"/>
+      <c r="G45" s="165"/>
+      <c r="H45" s="165">
         <v>43287</v>
       </c>
-      <c r="I45" s="149">
+      <c r="I45" s="165">
         <v>43287</v>
       </c>
-      <c r="J45" s="149">
+      <c r="J45" s="165">
         <v>43287</v>
       </c>
-      <c r="K45" s="149">
+      <c r="K45" s="165">
         <v>43287</v>
       </c>
-      <c r="L45" s="151"/>
-      <c r="M45" s="153"/>
-      <c r="N45" s="151"/>
-      <c r="O45" s="153"/>
-      <c r="P45" s="141" t="s">
+      <c r="L45" s="159"/>
+      <c r="M45" s="161"/>
+      <c r="N45" s="159"/>
+      <c r="O45" s="161"/>
+      <c r="P45" s="173" t="s">
         <v>64</v>
       </c>
-      <c r="Q45" s="163"/>
-      <c r="R45" s="159"/>
+      <c r="Q45" s="169"/>
+      <c r="R45" s="183"/>
       <c r="S45" s="82"/>
       <c r="T45" s="85"/>
       <c r="U45" s="84"/>
@@ -11941,23 +12040,23 @@
       <c r="EL45" s="93"/>
     </row>
     <row r="46" spans="2:142" ht="9" customHeight="1">
-      <c r="B46" s="215"/>
-      <c r="C46" s="222"/>
+      <c r="B46" s="151"/>
+      <c r="C46" s="179"/>
       <c r="D46" s="156"/>
-      <c r="E46" s="158"/>
-      <c r="F46" s="146"/>
-      <c r="G46" s="150"/>
-      <c r="H46" s="150"/>
-      <c r="I46" s="150"/>
-      <c r="J46" s="150"/>
-      <c r="K46" s="150"/>
-      <c r="L46" s="152"/>
-      <c r="M46" s="154"/>
-      <c r="N46" s="152"/>
-      <c r="O46" s="154"/>
-      <c r="P46" s="142"/>
-      <c r="Q46" s="164"/>
-      <c r="R46" s="160"/>
+      <c r="E46" s="172"/>
+      <c r="F46" s="158"/>
+      <c r="G46" s="166"/>
+      <c r="H46" s="166"/>
+      <c r="I46" s="166"/>
+      <c r="J46" s="166"/>
+      <c r="K46" s="166"/>
+      <c r="L46" s="160"/>
+      <c r="M46" s="162"/>
+      <c r="N46" s="160"/>
+      <c r="O46" s="162"/>
+      <c r="P46" s="174"/>
+      <c r="Q46" s="170"/>
+      <c r="R46" s="184"/>
       <c r="S46" s="82"/>
       <c r="T46" s="83"/>
       <c r="U46" s="83"/>
@@ -12084,33 +12183,33 @@
       <c r="EL46" s="94"/>
     </row>
     <row r="47" spans="2:142" ht="9" customHeight="1">
-      <c r="B47" s="218"/>
-      <c r="C47" s="217"/>
+      <c r="B47" s="150"/>
+      <c r="C47" s="152"/>
       <c r="D47" s="155"/>
-      <c r="E47" s="157" t="s">
+      <c r="E47" s="171" t="s">
         <v>83</v>
       </c>
-      <c r="F47" s="145"/>
-      <c r="G47" s="149"/>
-      <c r="H47" s="149">
+      <c r="F47" s="157"/>
+      <c r="G47" s="165"/>
+      <c r="H47" s="165">
         <v>43287</v>
       </c>
-      <c r="I47" s="149">
+      <c r="I47" s="165">
         <v>43287</v>
       </c>
-      <c r="J47" s="149">
+      <c r="J47" s="165">
         <v>43287</v>
       </c>
-      <c r="K47" s="149">
+      <c r="K47" s="165">
         <v>43287</v>
       </c>
-      <c r="L47" s="151"/>
-      <c r="M47" s="153"/>
-      <c r="N47" s="151"/>
-      <c r="O47" s="153"/>
-      <c r="P47" s="187"/>
-      <c r="Q47" s="163"/>
-      <c r="R47" s="159"/>
+      <c r="L47" s="159"/>
+      <c r="M47" s="161"/>
+      <c r="N47" s="159"/>
+      <c r="O47" s="161"/>
+      <c r="P47" s="218"/>
+      <c r="Q47" s="169"/>
+      <c r="R47" s="183"/>
       <c r="S47" s="82"/>
       <c r="T47" s="85"/>
       <c r="U47" s="84"/>
@@ -12237,23 +12336,23 @@
       <c r="EL47" s="93"/>
     </row>
     <row r="48" spans="2:142" ht="9" customHeight="1">
-      <c r="B48" s="215"/>
-      <c r="C48" s="217"/>
+      <c r="B48" s="151"/>
+      <c r="C48" s="152"/>
       <c r="D48" s="156"/>
-      <c r="E48" s="158"/>
-      <c r="F48" s="146"/>
-      <c r="G48" s="150"/>
-      <c r="H48" s="150"/>
-      <c r="I48" s="150"/>
-      <c r="J48" s="150"/>
-      <c r="K48" s="150"/>
-      <c r="L48" s="152"/>
-      <c r="M48" s="154"/>
-      <c r="N48" s="152"/>
-      <c r="O48" s="154"/>
-      <c r="P48" s="146"/>
-      <c r="Q48" s="164"/>
-      <c r="R48" s="160"/>
+      <c r="E48" s="172"/>
+      <c r="F48" s="158"/>
+      <c r="G48" s="166"/>
+      <c r="H48" s="166"/>
+      <c r="I48" s="166"/>
+      <c r="J48" s="166"/>
+      <c r="K48" s="166"/>
+      <c r="L48" s="160"/>
+      <c r="M48" s="162"/>
+      <c r="N48" s="160"/>
+      <c r="O48" s="162"/>
+      <c r="P48" s="158"/>
+      <c r="Q48" s="170"/>
+      <c r="R48" s="184"/>
       <c r="S48" s="82"/>
       <c r="T48" s="83"/>
       <c r="U48" s="83"/>
@@ -12380,41 +12479,41 @@
       <c r="EL48" s="94"/>
     </row>
     <row r="49" spans="2:142" ht="9" customHeight="1">
-      <c r="B49" s="219" t="s">
+      <c r="B49" s="177" t="s">
         <v>87</v>
       </c>
-      <c r="C49" s="223" t="s">
+      <c r="C49" s="164" t="s">
         <v>49</v>
       </c>
       <c r="D49" s="155"/>
-      <c r="E49" s="157" t="s">
+      <c r="E49" s="171" t="s">
         <v>88</v>
       </c>
-      <c r="F49" s="145"/>
-      <c r="G49" s="149"/>
-      <c r="H49" s="149">
+      <c r="F49" s="157"/>
+      <c r="G49" s="165"/>
+      <c r="H49" s="165">
         <v>43288</v>
       </c>
-      <c r="I49" s="149">
+      <c r="I49" s="165">
         <v>43289</v>
       </c>
-      <c r="J49" s="149">
+      <c r="J49" s="165">
         <v>43288</v>
       </c>
-      <c r="K49" s="149">
+      <c r="K49" s="165">
         <v>43290</v>
       </c>
-      <c r="L49" s="151"/>
-      <c r="M49" s="153"/>
-      <c r="N49" s="151"/>
-      <c r="O49" s="153"/>
-      <c r="P49" s="141" t="s">
+      <c r="L49" s="159"/>
+      <c r="M49" s="161"/>
+      <c r="N49" s="159"/>
+      <c r="O49" s="161"/>
+      <c r="P49" s="173" t="s">
         <v>64</v>
       </c>
-      <c r="Q49" s="165">
+      <c r="Q49" s="185">
         <v>10</v>
       </c>
-      <c r="R49" s="167">
+      <c r="R49" s="187">
         <v>10</v>
       </c>
       <c r="S49" s="82"/>
@@ -12543,23 +12642,23 @@
       <c r="EL49" s="93"/>
     </row>
     <row r="50" spans="2:142" ht="9" customHeight="1">
-      <c r="B50" s="220"/>
-      <c r="C50" s="223"/>
+      <c r="B50" s="178"/>
+      <c r="C50" s="164"/>
       <c r="D50" s="156"/>
-      <c r="E50" s="158"/>
-      <c r="F50" s="146"/>
-      <c r="G50" s="150"/>
-      <c r="H50" s="150"/>
-      <c r="I50" s="150"/>
-      <c r="J50" s="150"/>
-      <c r="K50" s="150"/>
-      <c r="L50" s="152"/>
-      <c r="M50" s="154"/>
-      <c r="N50" s="152"/>
-      <c r="O50" s="154"/>
-      <c r="P50" s="142"/>
-      <c r="Q50" s="166"/>
-      <c r="R50" s="168"/>
+      <c r="E50" s="172"/>
+      <c r="F50" s="158"/>
+      <c r="G50" s="166"/>
+      <c r="H50" s="166"/>
+      <c r="I50" s="166"/>
+      <c r="J50" s="166"/>
+      <c r="K50" s="166"/>
+      <c r="L50" s="160"/>
+      <c r="M50" s="162"/>
+      <c r="N50" s="160"/>
+      <c r="O50" s="162"/>
+      <c r="P50" s="174"/>
+      <c r="Q50" s="186"/>
+      <c r="R50" s="188"/>
       <c r="S50" s="82"/>
       <c r="T50" s="83"/>
       <c r="U50" s="83"/>
@@ -12686,35 +12785,35 @@
       <c r="EL50" s="94"/>
     </row>
     <row r="51" spans="2:142" ht="9" customHeight="1">
-      <c r="B51" s="218"/>
-      <c r="C51" s="217"/>
+      <c r="B51" s="150"/>
+      <c r="C51" s="152"/>
       <c r="D51" s="155"/>
-      <c r="E51" s="157" t="s">
+      <c r="E51" s="171" t="s">
         <v>89</v>
       </c>
-      <c r="F51" s="145"/>
-      <c r="G51" s="149"/>
-      <c r="H51" s="149">
+      <c r="F51" s="157"/>
+      <c r="G51" s="165"/>
+      <c r="H51" s="165">
         <v>43291</v>
       </c>
-      <c r="I51" s="149">
+      <c r="I51" s="165">
         <v>43291</v>
       </c>
-      <c r="J51" s="149">
+      <c r="J51" s="165">
         <v>43293</v>
       </c>
-      <c r="K51" s="149">
+      <c r="K51" s="165">
         <v>43293</v>
       </c>
-      <c r="L51" s="151"/>
-      <c r="M51" s="153"/>
-      <c r="N51" s="151"/>
-      <c r="O51" s="153"/>
-      <c r="P51" s="141" t="s">
+      <c r="L51" s="159"/>
+      <c r="M51" s="161"/>
+      <c r="N51" s="159"/>
+      <c r="O51" s="161"/>
+      <c r="P51" s="173" t="s">
         <v>64</v>
       </c>
-      <c r="Q51" s="163"/>
-      <c r="R51" s="159"/>
+      <c r="Q51" s="169"/>
+      <c r="R51" s="183"/>
       <c r="S51" s="82"/>
       <c r="T51" s="85"/>
       <c r="U51" s="84"/>
@@ -12841,23 +12940,23 @@
       <c r="EL51" s="93"/>
     </row>
     <row r="52" spans="2:142" ht="9" customHeight="1">
-      <c r="B52" s="215"/>
-      <c r="C52" s="217"/>
+      <c r="B52" s="151"/>
+      <c r="C52" s="152"/>
       <c r="D52" s="156"/>
-      <c r="E52" s="158"/>
-      <c r="F52" s="146"/>
-      <c r="G52" s="150"/>
-      <c r="H52" s="150"/>
-      <c r="I52" s="150"/>
-      <c r="J52" s="150"/>
-      <c r="K52" s="150"/>
-      <c r="L52" s="152"/>
-      <c r="M52" s="154"/>
-      <c r="N52" s="152"/>
-      <c r="O52" s="154"/>
-      <c r="P52" s="142"/>
-      <c r="Q52" s="164"/>
-      <c r="R52" s="160"/>
+      <c r="E52" s="172"/>
+      <c r="F52" s="158"/>
+      <c r="G52" s="166"/>
+      <c r="H52" s="166"/>
+      <c r="I52" s="166"/>
+      <c r="J52" s="166"/>
+      <c r="K52" s="166"/>
+      <c r="L52" s="160"/>
+      <c r="M52" s="162"/>
+      <c r="N52" s="160"/>
+      <c r="O52" s="162"/>
+      <c r="P52" s="174"/>
+      <c r="Q52" s="170"/>
+      <c r="R52" s="184"/>
       <c r="S52" s="82"/>
       <c r="T52" s="83"/>
       <c r="U52" s="83"/>
@@ -12984,35 +13083,35 @@
       <c r="EL52" s="94"/>
     </row>
     <row r="53" spans="2:142" ht="9" customHeight="1">
-      <c r="B53" s="218"/>
-      <c r="C53" s="223" t="s">
+      <c r="B53" s="150"/>
+      <c r="C53" s="164" t="s">
         <v>90</v>
       </c>
       <c r="D53" s="155"/>
-      <c r="E53" s="147"/>
-      <c r="F53" s="145"/>
-      <c r="G53" s="149"/>
-      <c r="H53" s="149">
+      <c r="E53" s="153"/>
+      <c r="F53" s="157"/>
+      <c r="G53" s="165"/>
+      <c r="H53" s="165">
         <v>43291</v>
       </c>
-      <c r="I53" s="149">
+      <c r="I53" s="165">
         <v>43294</v>
       </c>
-      <c r="J53" s="149">
+      <c r="J53" s="165">
         <v>43294</v>
       </c>
-      <c r="K53" s="149">
+      <c r="K53" s="165">
         <v>43295</v>
       </c>
-      <c r="L53" s="151"/>
-      <c r="M53" s="153"/>
-      <c r="N53" s="151"/>
-      <c r="O53" s="153"/>
-      <c r="P53" s="145"/>
-      <c r="Q53" s="165">
+      <c r="L53" s="159"/>
+      <c r="M53" s="161"/>
+      <c r="N53" s="159"/>
+      <c r="O53" s="161"/>
+      <c r="P53" s="157"/>
+      <c r="Q53" s="185">
         <v>10</v>
       </c>
-      <c r="R53" s="167">
+      <c r="R53" s="187">
         <v>5</v>
       </c>
       <c r="S53" s="82"/>
@@ -13141,23 +13240,23 @@
       <c r="EL53" s="93"/>
     </row>
     <row r="54" spans="2:142" ht="9" customHeight="1">
-      <c r="B54" s="215"/>
-      <c r="C54" s="223"/>
+      <c r="B54" s="151"/>
+      <c r="C54" s="164"/>
       <c r="D54" s="156"/>
-      <c r="E54" s="148"/>
-      <c r="F54" s="146"/>
-      <c r="G54" s="150"/>
-      <c r="H54" s="150"/>
-      <c r="I54" s="150"/>
-      <c r="J54" s="150"/>
-      <c r="K54" s="150"/>
-      <c r="L54" s="152"/>
-      <c r="M54" s="154"/>
-      <c r="N54" s="152"/>
-      <c r="O54" s="154"/>
-      <c r="P54" s="146"/>
-      <c r="Q54" s="166"/>
-      <c r="R54" s="168"/>
+      <c r="E54" s="154"/>
+      <c r="F54" s="158"/>
+      <c r="G54" s="166"/>
+      <c r="H54" s="166"/>
+      <c r="I54" s="166"/>
+      <c r="J54" s="166"/>
+      <c r="K54" s="166"/>
+      <c r="L54" s="160"/>
+      <c r="M54" s="162"/>
+      <c r="N54" s="160"/>
+      <c r="O54" s="162"/>
+      <c r="P54" s="158"/>
+      <c r="Q54" s="186"/>
+      <c r="R54" s="188"/>
       <c r="S54" s="82"/>
       <c r="T54" s="83"/>
       <c r="U54" s="83"/>
@@ -13284,44 +13383,44 @@
       <c r="EL54" s="94"/>
     </row>
     <row r="55" spans="2:142" ht="9" customHeight="1">
-      <c r="B55" s="219" t="s">
+      <c r="B55" s="177" t="s">
         <v>91</v>
       </c>
-      <c r="C55" s="223" t="s">
+      <c r="C55" s="164" t="s">
         <v>92</v>
       </c>
       <c r="D55" s="155"/>
-      <c r="E55" s="157" t="s">
+      <c r="E55" s="171" t="s">
         <v>93</v>
       </c>
-      <c r="F55" s="141" t="s">
+      <c r="F55" s="173" t="s">
         <v>94</v>
       </c>
-      <c r="G55" s="149"/>
-      <c r="H55" s="149">
+      <c r="G55" s="165"/>
+      <c r="H55" s="165">
         <v>43294</v>
       </c>
-      <c r="I55" s="149">
+      <c r="I55" s="165">
         <v>43296</v>
       </c>
-      <c r="J55" s="149">
+      <c r="J55" s="165">
         <v>43295</v>
       </c>
-      <c r="K55" s="149">
+      <c r="K55" s="165">
         <v>43297</v>
       </c>
-      <c r="L55" s="151"/>
-      <c r="M55" s="153"/>
-      <c r="N55" s="151"/>
-      <c r="O55" s="153"/>
-      <c r="P55" s="141" t="s">
+      <c r="L55" s="159"/>
+      <c r="M55" s="161"/>
+      <c r="N55" s="159"/>
+      <c r="O55" s="161"/>
+      <c r="P55" s="173" t="s">
         <v>64</v>
       </c>
-      <c r="Q55" s="165">
+      <c r="Q55" s="185">
         <v>10</v>
       </c>
-      <c r="R55" s="167">
-        <v>5</v>
+      <c r="R55" s="187">
+        <v>7</v>
       </c>
       <c r="S55" s="82"/>
       <c r="T55" s="85"/>
@@ -13449,23 +13548,23 @@
       <c r="EL55" s="93"/>
     </row>
     <row r="56" spans="2:142" ht="9" customHeight="1">
-      <c r="B56" s="220"/>
-      <c r="C56" s="223"/>
+      <c r="B56" s="178"/>
+      <c r="C56" s="164"/>
       <c r="D56" s="156"/>
-      <c r="E56" s="158"/>
-      <c r="F56" s="142"/>
-      <c r="G56" s="150"/>
-      <c r="H56" s="150"/>
-      <c r="I56" s="150"/>
-      <c r="J56" s="150"/>
-      <c r="K56" s="150"/>
-      <c r="L56" s="152"/>
-      <c r="M56" s="154"/>
-      <c r="N56" s="152"/>
-      <c r="O56" s="154"/>
-      <c r="P56" s="142"/>
-      <c r="Q56" s="166"/>
-      <c r="R56" s="168"/>
+      <c r="E56" s="172"/>
+      <c r="F56" s="174"/>
+      <c r="G56" s="166"/>
+      <c r="H56" s="166"/>
+      <c r="I56" s="166"/>
+      <c r="J56" s="166"/>
+      <c r="K56" s="166"/>
+      <c r="L56" s="160"/>
+      <c r="M56" s="162"/>
+      <c r="N56" s="160"/>
+      <c r="O56" s="162"/>
+      <c r="P56" s="174"/>
+      <c r="Q56" s="186"/>
+      <c r="R56" s="188"/>
       <c r="S56" s="82"/>
       <c r="T56" s="83"/>
       <c r="U56" s="83"/>
@@ -13592,35 +13691,35 @@
       <c r="EL56" s="94"/>
     </row>
     <row r="57" spans="2:142" ht="9" customHeight="1">
-      <c r="B57" s="218"/>
-      <c r="C57" s="217"/>
+      <c r="B57" s="150"/>
+      <c r="C57" s="152"/>
       <c r="D57" s="155"/>
-      <c r="E57" s="147"/>
-      <c r="F57" s="141" t="s">
+      <c r="E57" s="153"/>
+      <c r="F57" s="173" t="s">
         <v>95</v>
       </c>
-      <c r="G57" s="149"/>
-      <c r="H57" s="149">
+      <c r="G57" s="165"/>
+      <c r="H57" s="165">
         <v>43294</v>
       </c>
-      <c r="I57" s="149">
+      <c r="I57" s="165">
         <v>43296</v>
       </c>
-      <c r="J57" s="149">
+      <c r="J57" s="165">
         <v>43295</v>
       </c>
-      <c r="K57" s="149">
+      <c r="K57" s="165">
         <v>43297</v>
       </c>
-      <c r="L57" s="151"/>
-      <c r="M57" s="153"/>
-      <c r="N57" s="151"/>
-      <c r="O57" s="153"/>
-      <c r="P57" s="141" t="s">
+      <c r="L57" s="159"/>
+      <c r="M57" s="161"/>
+      <c r="N57" s="159"/>
+      <c r="O57" s="161"/>
+      <c r="P57" s="173" t="s">
         <v>64</v>
       </c>
-      <c r="Q57" s="163"/>
-      <c r="R57" s="159"/>
+      <c r="Q57" s="169"/>
+      <c r="R57" s="183"/>
       <c r="S57" s="82"/>
       <c r="T57" s="85"/>
       <c r="U57" s="84"/>
@@ -13747,23 +13846,23 @@
       <c r="EL57" s="93"/>
     </row>
     <row r="58" spans="2:142" ht="9" customHeight="1">
-      <c r="B58" s="215"/>
-      <c r="C58" s="217"/>
+      <c r="B58" s="151"/>
+      <c r="C58" s="152"/>
       <c r="D58" s="156"/>
-      <c r="E58" s="148"/>
-      <c r="F58" s="142"/>
-      <c r="G58" s="150"/>
-      <c r="H58" s="150"/>
-      <c r="I58" s="150"/>
-      <c r="J58" s="150"/>
-      <c r="K58" s="150"/>
-      <c r="L58" s="152"/>
-      <c r="M58" s="154"/>
-      <c r="N58" s="152"/>
-      <c r="O58" s="154"/>
-      <c r="P58" s="142"/>
-      <c r="Q58" s="164"/>
-      <c r="R58" s="160"/>
+      <c r="E58" s="154"/>
+      <c r="F58" s="174"/>
+      <c r="G58" s="166"/>
+      <c r="H58" s="166"/>
+      <c r="I58" s="166"/>
+      <c r="J58" s="166"/>
+      <c r="K58" s="166"/>
+      <c r="L58" s="160"/>
+      <c r="M58" s="162"/>
+      <c r="N58" s="160"/>
+      <c r="O58" s="162"/>
+      <c r="P58" s="174"/>
+      <c r="Q58" s="170"/>
+      <c r="R58" s="184"/>
       <c r="S58" s="82"/>
       <c r="T58" s="83"/>
       <c r="U58" s="83"/>
@@ -13890,35 +13989,35 @@
       <c r="EL58" s="94"/>
     </row>
     <row r="59" spans="2:142" ht="9" customHeight="1">
-      <c r="B59" s="218"/>
-      <c r="C59" s="217"/>
+      <c r="B59" s="150"/>
+      <c r="C59" s="152"/>
       <c r="D59" s="155"/>
-      <c r="E59" s="147"/>
-      <c r="F59" s="141" t="s">
+      <c r="E59" s="153"/>
+      <c r="F59" s="173" t="s">
         <v>96</v>
       </c>
-      <c r="G59" s="149"/>
-      <c r="H59" s="149">
+      <c r="G59" s="165"/>
+      <c r="H59" s="165">
         <v>43294</v>
       </c>
-      <c r="I59" s="149">
+      <c r="I59" s="165">
         <v>43296</v>
       </c>
-      <c r="J59" s="149">
+      <c r="J59" s="165">
         <v>43295</v>
       </c>
-      <c r="K59" s="149">
+      <c r="K59" s="165">
         <v>43297</v>
       </c>
-      <c r="L59" s="151"/>
-      <c r="M59" s="153"/>
-      <c r="N59" s="151"/>
-      <c r="O59" s="153"/>
-      <c r="P59" s="141" t="s">
+      <c r="L59" s="159"/>
+      <c r="M59" s="161"/>
+      <c r="N59" s="159"/>
+      <c r="O59" s="161"/>
+      <c r="P59" s="173" t="s">
         <v>64</v>
       </c>
-      <c r="Q59" s="163"/>
-      <c r="R59" s="159"/>
+      <c r="Q59" s="169"/>
+      <c r="R59" s="183"/>
       <c r="S59" s="82"/>
       <c r="T59" s="85"/>
       <c r="U59" s="84"/>
@@ -14045,23 +14144,23 @@
       <c r="EL59" s="93"/>
     </row>
     <row r="60" spans="2:142" ht="9" customHeight="1">
-      <c r="B60" s="215"/>
-      <c r="C60" s="217"/>
+      <c r="B60" s="151"/>
+      <c r="C60" s="152"/>
       <c r="D60" s="156"/>
-      <c r="E60" s="148"/>
-      <c r="F60" s="142"/>
-      <c r="G60" s="150"/>
-      <c r="H60" s="150"/>
-      <c r="I60" s="150"/>
-      <c r="J60" s="150"/>
-      <c r="K60" s="150"/>
-      <c r="L60" s="152"/>
-      <c r="M60" s="154"/>
-      <c r="N60" s="152"/>
-      <c r="O60" s="154"/>
-      <c r="P60" s="142"/>
-      <c r="Q60" s="164"/>
-      <c r="R60" s="160"/>
+      <c r="E60" s="154"/>
+      <c r="F60" s="174"/>
+      <c r="G60" s="166"/>
+      <c r="H60" s="166"/>
+      <c r="I60" s="166"/>
+      <c r="J60" s="166"/>
+      <c r="K60" s="166"/>
+      <c r="L60" s="160"/>
+      <c r="M60" s="162"/>
+      <c r="N60" s="160"/>
+      <c r="O60" s="162"/>
+      <c r="P60" s="174"/>
+      <c r="Q60" s="170"/>
+      <c r="R60" s="184"/>
       <c r="S60" s="82"/>
       <c r="T60" s="83"/>
       <c r="U60" s="83"/>
@@ -14188,35 +14287,35 @@
       <c r="EL60" s="94"/>
     </row>
     <row r="61" spans="2:142" ht="9" customHeight="1">
-      <c r="B61" s="218"/>
-      <c r="C61" s="217"/>
+      <c r="B61" s="150"/>
+      <c r="C61" s="152"/>
       <c r="D61" s="155"/>
-      <c r="E61" s="147"/>
-      <c r="F61" s="141" t="s">
+      <c r="E61" s="153"/>
+      <c r="F61" s="173" t="s">
         <v>97</v>
       </c>
-      <c r="G61" s="149"/>
-      <c r="H61" s="149">
+      <c r="G61" s="165"/>
+      <c r="H61" s="165">
         <v>43294</v>
       </c>
-      <c r="I61" s="149">
+      <c r="I61" s="165">
         <v>43296</v>
       </c>
-      <c r="J61" s="149">
+      <c r="J61" s="165">
         <v>43295</v>
       </c>
-      <c r="K61" s="149">
+      <c r="K61" s="165">
         <v>43297</v>
       </c>
-      <c r="L61" s="151"/>
-      <c r="M61" s="153"/>
-      <c r="N61" s="151"/>
-      <c r="O61" s="153"/>
-      <c r="P61" s="141" t="s">
+      <c r="L61" s="159"/>
+      <c r="M61" s="161"/>
+      <c r="N61" s="159"/>
+      <c r="O61" s="161"/>
+      <c r="P61" s="173" t="s">
         <v>64</v>
       </c>
-      <c r="Q61" s="163"/>
-      <c r="R61" s="159"/>
+      <c r="Q61" s="169"/>
+      <c r="R61" s="183"/>
       <c r="S61" s="82"/>
       <c r="T61" s="85"/>
       <c r="U61" s="84"/>
@@ -14343,23 +14442,23 @@
       <c r="EL61" s="93"/>
     </row>
     <row r="62" spans="2:142" ht="9" customHeight="1">
-      <c r="B62" s="215"/>
-      <c r="C62" s="217"/>
+      <c r="B62" s="151"/>
+      <c r="C62" s="152"/>
       <c r="D62" s="156"/>
-      <c r="E62" s="148"/>
-      <c r="F62" s="142"/>
-      <c r="G62" s="150"/>
-      <c r="H62" s="150"/>
-      <c r="I62" s="150"/>
-      <c r="J62" s="150"/>
-      <c r="K62" s="150"/>
-      <c r="L62" s="152"/>
-      <c r="M62" s="154"/>
-      <c r="N62" s="152"/>
-      <c r="O62" s="154"/>
-      <c r="P62" s="142"/>
-      <c r="Q62" s="164"/>
-      <c r="R62" s="160"/>
+      <c r="E62" s="154"/>
+      <c r="F62" s="174"/>
+      <c r="G62" s="166"/>
+      <c r="H62" s="166"/>
+      <c r="I62" s="166"/>
+      <c r="J62" s="166"/>
+      <c r="K62" s="166"/>
+      <c r="L62" s="160"/>
+      <c r="M62" s="162"/>
+      <c r="N62" s="160"/>
+      <c r="O62" s="162"/>
+      <c r="P62" s="174"/>
+      <c r="Q62" s="170"/>
+      <c r="R62" s="184"/>
       <c r="S62" s="82"/>
       <c r="T62" s="83"/>
       <c r="U62" s="83"/>
@@ -14486,35 +14585,35 @@
       <c r="EL62" s="94"/>
     </row>
     <row r="63" spans="2:142" ht="9" customHeight="1">
-      <c r="B63" s="218"/>
-      <c r="C63" s="217"/>
+      <c r="B63" s="150"/>
+      <c r="C63" s="152"/>
       <c r="D63" s="155"/>
-      <c r="E63" s="224" t="s">
+      <c r="E63" s="175" t="s">
         <v>102</v>
       </c>
-      <c r="F63" s="141"/>
-      <c r="G63" s="149"/>
-      <c r="H63" s="149">
+      <c r="F63" s="173"/>
+      <c r="G63" s="165"/>
+      <c r="H63" s="165">
         <v>43295</v>
       </c>
-      <c r="I63" s="149">
+      <c r="I63" s="165">
         <v>43296</v>
       </c>
-      <c r="J63" s="149">
+      <c r="J63" s="165">
         <v>43295</v>
       </c>
-      <c r="K63" s="149">
+      <c r="K63" s="165">
         <v>43297</v>
       </c>
-      <c r="L63" s="151"/>
-      <c r="M63" s="153"/>
-      <c r="N63" s="151"/>
-      <c r="O63" s="153"/>
-      <c r="P63" s="141" t="s">
+      <c r="L63" s="159"/>
+      <c r="M63" s="161"/>
+      <c r="N63" s="159"/>
+      <c r="O63" s="161"/>
+      <c r="P63" s="173" t="s">
         <v>64</v>
       </c>
-      <c r="Q63" s="163"/>
-      <c r="R63" s="159"/>
+      <c r="Q63" s="169"/>
+      <c r="R63" s="183"/>
       <c r="S63" s="82"/>
       <c r="T63" s="85"/>
       <c r="U63" s="84"/>
@@ -14641,23 +14740,23 @@
       <c r="EL63" s="93"/>
     </row>
     <row r="64" spans="2:142" ht="9" customHeight="1">
-      <c r="B64" s="215"/>
-      <c r="C64" s="217"/>
+      <c r="B64" s="151"/>
+      <c r="C64" s="152"/>
       <c r="D64" s="156"/>
-      <c r="E64" s="225"/>
-      <c r="F64" s="142"/>
-      <c r="G64" s="150"/>
-      <c r="H64" s="150"/>
-      <c r="I64" s="150"/>
-      <c r="J64" s="150"/>
-      <c r="K64" s="150"/>
-      <c r="L64" s="152"/>
-      <c r="M64" s="154"/>
-      <c r="N64" s="152"/>
-      <c r="O64" s="154"/>
-      <c r="P64" s="142"/>
-      <c r="Q64" s="164"/>
-      <c r="R64" s="160"/>
+      <c r="E64" s="176"/>
+      <c r="F64" s="174"/>
+      <c r="G64" s="166"/>
+      <c r="H64" s="166"/>
+      <c r="I64" s="166"/>
+      <c r="J64" s="166"/>
+      <c r="K64" s="166"/>
+      <c r="L64" s="160"/>
+      <c r="M64" s="162"/>
+      <c r="N64" s="160"/>
+      <c r="O64" s="162"/>
+      <c r="P64" s="174"/>
+      <c r="Q64" s="170"/>
+      <c r="R64" s="184"/>
       <c r="S64" s="82"/>
       <c r="T64" s="83"/>
       <c r="U64" s="83"/>
@@ -14784,37 +14883,37 @@
       <c r="EL64" s="94"/>
     </row>
     <row r="65" spans="2:142" ht="9" customHeight="1">
-      <c r="B65" s="218"/>
-      <c r="C65" s="217"/>
+      <c r="B65" s="150"/>
+      <c r="C65" s="152"/>
       <c r="D65" s="155"/>
-      <c r="E65" s="157" t="s">
+      <c r="E65" s="171" t="s">
         <v>98</v>
       </c>
-      <c r="F65" s="141" t="s">
+      <c r="F65" s="173" t="s">
         <v>99</v>
       </c>
-      <c r="G65" s="149"/>
-      <c r="H65" s="149">
+      <c r="G65" s="165"/>
+      <c r="H65" s="165">
         <v>43295</v>
       </c>
-      <c r="I65" s="149">
+      <c r="I65" s="165">
         <v>43297</v>
       </c>
-      <c r="J65" s="149">
+      <c r="J65" s="165">
         <v>43295</v>
       </c>
-      <c r="K65" s="149">
+      <c r="K65" s="165">
         <v>43297</v>
       </c>
-      <c r="L65" s="151"/>
-      <c r="M65" s="153"/>
-      <c r="N65" s="151"/>
-      <c r="O65" s="153"/>
-      <c r="P65" s="141" t="s">
+      <c r="L65" s="159"/>
+      <c r="M65" s="161"/>
+      <c r="N65" s="159"/>
+      <c r="O65" s="161"/>
+      <c r="P65" s="173" t="s">
         <v>64</v>
       </c>
-      <c r="Q65" s="163"/>
-      <c r="R65" s="159"/>
+      <c r="Q65" s="169"/>
+      <c r="R65" s="183"/>
       <c r="S65" s="82"/>
       <c r="T65" s="85"/>
       <c r="U65" s="84"/>
@@ -14941,23 +15040,23 @@
       <c r="EL65" s="93"/>
     </row>
     <row r="66" spans="2:142" ht="9" customHeight="1">
-      <c r="B66" s="215"/>
-      <c r="C66" s="217"/>
+      <c r="B66" s="151"/>
+      <c r="C66" s="152"/>
       <c r="D66" s="156"/>
-      <c r="E66" s="158"/>
-      <c r="F66" s="142"/>
-      <c r="G66" s="150"/>
-      <c r="H66" s="150"/>
-      <c r="I66" s="150"/>
-      <c r="J66" s="150"/>
-      <c r="K66" s="150"/>
-      <c r="L66" s="152"/>
-      <c r="M66" s="154"/>
-      <c r="N66" s="152"/>
-      <c r="O66" s="154"/>
-      <c r="P66" s="142"/>
-      <c r="Q66" s="164"/>
-      <c r="R66" s="160"/>
+      <c r="E66" s="172"/>
+      <c r="F66" s="174"/>
+      <c r="G66" s="166"/>
+      <c r="H66" s="166"/>
+      <c r="I66" s="166"/>
+      <c r="J66" s="166"/>
+      <c r="K66" s="166"/>
+      <c r="L66" s="160"/>
+      <c r="M66" s="162"/>
+      <c r="N66" s="160"/>
+      <c r="O66" s="162"/>
+      <c r="P66" s="174"/>
+      <c r="Q66" s="170"/>
+      <c r="R66" s="184"/>
       <c r="S66" s="82"/>
       <c r="T66" s="83"/>
       <c r="U66" s="83"/>
@@ -15084,35 +15183,35 @@
       <c r="EL66" s="94"/>
     </row>
     <row r="67" spans="2:142" ht="9" customHeight="1">
-      <c r="B67" s="218"/>
-      <c r="C67" s="217"/>
+      <c r="B67" s="150"/>
+      <c r="C67" s="152"/>
       <c r="D67" s="155"/>
-      <c r="E67" s="147"/>
-      <c r="F67" s="141" t="s">
+      <c r="E67" s="153"/>
+      <c r="F67" s="173" t="s">
         <v>100</v>
       </c>
-      <c r="G67" s="149"/>
-      <c r="H67" s="149">
+      <c r="G67" s="165"/>
+      <c r="H67" s="165">
         <v>43295</v>
       </c>
-      <c r="I67" s="149">
+      <c r="I67" s="165">
         <v>43297</v>
       </c>
-      <c r="J67" s="149">
+      <c r="J67" s="165">
         <v>43295</v>
       </c>
-      <c r="K67" s="149">
+      <c r="K67" s="165">
         <v>43297</v>
       </c>
-      <c r="L67" s="151"/>
-      <c r="M67" s="153"/>
-      <c r="N67" s="151"/>
-      <c r="O67" s="153"/>
-      <c r="P67" s="141" t="s">
+      <c r="L67" s="159"/>
+      <c r="M67" s="161"/>
+      <c r="N67" s="159"/>
+      <c r="O67" s="161"/>
+      <c r="P67" s="173" t="s">
         <v>64</v>
       </c>
-      <c r="Q67" s="163"/>
-      <c r="R67" s="159"/>
+      <c r="Q67" s="169"/>
+      <c r="R67" s="183"/>
       <c r="S67" s="82"/>
       <c r="T67" s="85"/>
       <c r="U67" s="84"/>
@@ -15239,23 +15338,23 @@
       <c r="EL67" s="93"/>
     </row>
     <row r="68" spans="2:142" ht="9" customHeight="1">
-      <c r="B68" s="215"/>
-      <c r="C68" s="217"/>
+      <c r="B68" s="151"/>
+      <c r="C68" s="152"/>
       <c r="D68" s="156"/>
-      <c r="E68" s="148"/>
-      <c r="F68" s="142"/>
-      <c r="G68" s="150"/>
-      <c r="H68" s="150"/>
-      <c r="I68" s="150"/>
-      <c r="J68" s="150"/>
-      <c r="K68" s="150"/>
-      <c r="L68" s="152"/>
-      <c r="M68" s="154"/>
-      <c r="N68" s="152"/>
-      <c r="O68" s="154"/>
-      <c r="P68" s="142"/>
-      <c r="Q68" s="164"/>
-      <c r="R68" s="160"/>
+      <c r="E68" s="154"/>
+      <c r="F68" s="174"/>
+      <c r="G68" s="166"/>
+      <c r="H68" s="166"/>
+      <c r="I68" s="166"/>
+      <c r="J68" s="166"/>
+      <c r="K68" s="166"/>
+      <c r="L68" s="160"/>
+      <c r="M68" s="162"/>
+      <c r="N68" s="160"/>
+      <c r="O68" s="162"/>
+      <c r="P68" s="174"/>
+      <c r="Q68" s="170"/>
+      <c r="R68" s="184"/>
       <c r="S68" s="82"/>
       <c r="T68" s="83"/>
       <c r="U68" s="83"/>
@@ -15382,35 +15481,35 @@
       <c r="EL68" s="94"/>
     </row>
     <row r="69" spans="2:142" ht="9" customHeight="1">
-      <c r="B69" s="218"/>
-      <c r="C69" s="217"/>
+      <c r="B69" s="150"/>
+      <c r="C69" s="152"/>
       <c r="D69" s="155"/>
-      <c r="E69" s="157"/>
-      <c r="F69" s="141" t="s">
+      <c r="E69" s="171"/>
+      <c r="F69" s="173" t="s">
         <v>101</v>
       </c>
-      <c r="G69" s="149"/>
-      <c r="H69" s="149">
+      <c r="G69" s="165"/>
+      <c r="H69" s="165">
         <v>43295</v>
       </c>
-      <c r="I69" s="149">
+      <c r="I69" s="165">
         <v>43297</v>
       </c>
-      <c r="J69" s="149">
+      <c r="J69" s="165">
         <v>43295</v>
       </c>
-      <c r="K69" s="149">
+      <c r="K69" s="165">
         <v>43297</v>
       </c>
-      <c r="L69" s="151"/>
-      <c r="M69" s="153"/>
-      <c r="N69" s="151"/>
-      <c r="O69" s="153"/>
-      <c r="P69" s="141" t="s">
+      <c r="L69" s="159"/>
+      <c r="M69" s="161"/>
+      <c r="N69" s="159"/>
+      <c r="O69" s="161"/>
+      <c r="P69" s="173" t="s">
         <v>64</v>
       </c>
-      <c r="Q69" s="163"/>
-      <c r="R69" s="159"/>
+      <c r="Q69" s="169"/>
+      <c r="R69" s="183"/>
       <c r="S69" s="82"/>
       <c r="T69" s="85"/>
       <c r="U69" s="84"/>
@@ -15537,23 +15636,23 @@
       <c r="EL69" s="93"/>
     </row>
     <row r="70" spans="2:142" ht="9" customHeight="1">
-      <c r="B70" s="215"/>
-      <c r="C70" s="217"/>
+      <c r="B70" s="151"/>
+      <c r="C70" s="152"/>
       <c r="D70" s="156"/>
-      <c r="E70" s="158"/>
-      <c r="F70" s="142"/>
-      <c r="G70" s="150"/>
-      <c r="H70" s="150"/>
-      <c r="I70" s="150"/>
-      <c r="J70" s="150"/>
-      <c r="K70" s="150"/>
-      <c r="L70" s="152"/>
-      <c r="M70" s="154"/>
-      <c r="N70" s="152"/>
-      <c r="O70" s="154"/>
-      <c r="P70" s="142"/>
-      <c r="Q70" s="164"/>
-      <c r="R70" s="160"/>
+      <c r="E70" s="172"/>
+      <c r="F70" s="174"/>
+      <c r="G70" s="166"/>
+      <c r="H70" s="166"/>
+      <c r="I70" s="166"/>
+      <c r="J70" s="166"/>
+      <c r="K70" s="166"/>
+      <c r="L70" s="160"/>
+      <c r="M70" s="162"/>
+      <c r="N70" s="160"/>
+      <c r="O70" s="162"/>
+      <c r="P70" s="174"/>
+      <c r="Q70" s="170"/>
+      <c r="R70" s="184"/>
       <c r="S70" s="82"/>
       <c r="T70" s="83"/>
       <c r="U70" s="83"/>
@@ -15680,23 +15779,33 @@
       <c r="EL70" s="94"/>
     </row>
     <row r="71" spans="2:142" ht="9" customHeight="1">
-      <c r="B71" s="218"/>
-      <c r="C71" s="217"/>
+      <c r="B71" s="150"/>
+      <c r="C71" s="152"/>
       <c r="D71" s="155"/>
-      <c r="E71" s="147"/>
-      <c r="F71" s="141"/>
-      <c r="G71" s="149"/>
-      <c r="H71" s="149"/>
-      <c r="I71" s="149"/>
-      <c r="J71" s="161"/>
-      <c r="K71" s="161"/>
-      <c r="L71" s="151"/>
-      <c r="M71" s="153"/>
-      <c r="N71" s="151"/>
-      <c r="O71" s="153"/>
-      <c r="P71" s="145"/>
-      <c r="Q71" s="163"/>
-      <c r="R71" s="159"/>
+      <c r="E71" s="153"/>
+      <c r="F71" s="173" t="s">
+        <v>103</v>
+      </c>
+      <c r="G71" s="165"/>
+      <c r="H71" s="165">
+        <v>43296</v>
+      </c>
+      <c r="I71" s="165">
+        <v>43297</v>
+      </c>
+      <c r="J71" s="165">
+        <v>43298</v>
+      </c>
+      <c r="K71" s="165">
+        <v>43298</v>
+      </c>
+      <c r="L71" s="159"/>
+      <c r="M71" s="161"/>
+      <c r="N71" s="159"/>
+      <c r="O71" s="161"/>
+      <c r="P71" s="157"/>
+      <c r="Q71" s="169"/>
+      <c r="R71" s="183"/>
       <c r="S71" s="82"/>
       <c r="T71" s="85"/>
       <c r="U71" s="84"/>
@@ -15823,23 +15932,23 @@
       <c r="EL71" s="93"/>
     </row>
     <row r="72" spans="2:142" ht="9" customHeight="1">
-      <c r="B72" s="215"/>
-      <c r="C72" s="217"/>
+      <c r="B72" s="151"/>
+      <c r="C72" s="152"/>
       <c r="D72" s="156"/>
-      <c r="E72" s="148"/>
-      <c r="F72" s="142"/>
-      <c r="G72" s="150"/>
-      <c r="H72" s="150"/>
-      <c r="I72" s="150"/>
-      <c r="J72" s="162"/>
-      <c r="K72" s="162"/>
-      <c r="L72" s="152"/>
-      <c r="M72" s="154"/>
-      <c r="N72" s="152"/>
-      <c r="O72" s="154"/>
-      <c r="P72" s="146"/>
-      <c r="Q72" s="164"/>
-      <c r="R72" s="160"/>
+      <c r="E72" s="154"/>
+      <c r="F72" s="174"/>
+      <c r="G72" s="166"/>
+      <c r="H72" s="166"/>
+      <c r="I72" s="166"/>
+      <c r="J72" s="166"/>
+      <c r="K72" s="166"/>
+      <c r="L72" s="160"/>
+      <c r="M72" s="162"/>
+      <c r="N72" s="160"/>
+      <c r="O72" s="162"/>
+      <c r="P72" s="158"/>
+      <c r="Q72" s="170"/>
+      <c r="R72" s="184"/>
       <c r="S72" s="82"/>
       <c r="T72" s="83"/>
       <c r="U72" s="83"/>
@@ -15966,23 +16075,33 @@
       <c r="EL72" s="94"/>
     </row>
     <row r="73" spans="2:142" ht="9" customHeight="1">
-      <c r="B73" s="218"/>
-      <c r="C73" s="217"/>
+      <c r="B73" s="150"/>
+      <c r="C73" s="152"/>
       <c r="D73" s="155"/>
-      <c r="E73" s="147"/>
-      <c r="F73" s="141"/>
-      <c r="G73" s="149"/>
-      <c r="H73" s="149"/>
-      <c r="I73" s="149"/>
-      <c r="J73" s="161"/>
-      <c r="K73" s="161"/>
-      <c r="L73" s="151"/>
-      <c r="M73" s="153"/>
-      <c r="N73" s="151"/>
-      <c r="O73" s="153"/>
-      <c r="P73" s="145"/>
-      <c r="Q73" s="163"/>
-      <c r="R73" s="159"/>
+      <c r="E73" s="153"/>
+      <c r="F73" s="173" t="s">
+        <v>104</v>
+      </c>
+      <c r="G73" s="165"/>
+      <c r="H73" s="165">
+        <v>43297</v>
+      </c>
+      <c r="I73" s="165">
+        <v>43297</v>
+      </c>
+      <c r="J73" s="165">
+        <v>43298</v>
+      </c>
+      <c r="K73" s="165">
+        <v>43298</v>
+      </c>
+      <c r="L73" s="159"/>
+      <c r="M73" s="161"/>
+      <c r="N73" s="159"/>
+      <c r="O73" s="161"/>
+      <c r="P73" s="157"/>
+      <c r="Q73" s="169"/>
+      <c r="R73" s="183"/>
       <c r="S73" s="82"/>
       <c r="T73" s="85"/>
       <c r="U73" s="84"/>
@@ -16109,23 +16228,23 @@
       <c r="EL73" s="93"/>
     </row>
     <row r="74" spans="2:142" ht="9" customHeight="1">
-      <c r="B74" s="215"/>
-      <c r="C74" s="217"/>
+      <c r="B74" s="151"/>
+      <c r="C74" s="152"/>
       <c r="D74" s="156"/>
-      <c r="E74" s="148"/>
-      <c r="F74" s="142"/>
-      <c r="G74" s="150"/>
-      <c r="H74" s="150"/>
-      <c r="I74" s="150"/>
-      <c r="J74" s="162"/>
-      <c r="K74" s="162"/>
-      <c r="L74" s="152"/>
-      <c r="M74" s="154"/>
-      <c r="N74" s="152"/>
-      <c r="O74" s="154"/>
-      <c r="P74" s="146"/>
-      <c r="Q74" s="164"/>
-      <c r="R74" s="160"/>
+      <c r="E74" s="154"/>
+      <c r="F74" s="174"/>
+      <c r="G74" s="166"/>
+      <c r="H74" s="166"/>
+      <c r="I74" s="166"/>
+      <c r="J74" s="166"/>
+      <c r="K74" s="166"/>
+      <c r="L74" s="160"/>
+      <c r="M74" s="162"/>
+      <c r="N74" s="160"/>
+      <c r="O74" s="162"/>
+      <c r="P74" s="158"/>
+      <c r="Q74" s="170"/>
+      <c r="R74" s="184"/>
       <c r="S74" s="82"/>
       <c r="T74" s="83"/>
       <c r="U74" s="83"/>
@@ -16252,23 +16371,35 @@
       <c r="EL74" s="94"/>
     </row>
     <row r="75" spans="2:142" ht="9" customHeight="1">
-      <c r="B75" s="218"/>
-      <c r="C75" s="217"/>
+      <c r="B75" s="150"/>
+      <c r="C75" s="163" t="s">
+        <v>75</v>
+      </c>
       <c r="D75" s="155"/>
-      <c r="E75" s="147"/>
-      <c r="F75" s="145"/>
-      <c r="G75" s="149"/>
-      <c r="H75" s="149"/>
-      <c r="I75" s="149"/>
-      <c r="J75" s="161"/>
-      <c r="K75" s="161"/>
-      <c r="L75" s="151"/>
-      <c r="M75" s="153"/>
-      <c r="N75" s="151"/>
-      <c r="O75" s="153"/>
-      <c r="P75" s="145"/>
-      <c r="Q75" s="163"/>
-      <c r="R75" s="159"/>
+      <c r="E75" s="171" t="s">
+        <v>105</v>
+      </c>
+      <c r="F75" s="157"/>
+      <c r="G75" s="165"/>
+      <c r="H75" s="165">
+        <v>43298</v>
+      </c>
+      <c r="I75" s="165">
+        <v>43299</v>
+      </c>
+      <c r="J75" s="165">
+        <v>43299</v>
+      </c>
+      <c r="K75" s="165">
+        <v>43300</v>
+      </c>
+      <c r="L75" s="159"/>
+      <c r="M75" s="161"/>
+      <c r="N75" s="159"/>
+      <c r="O75" s="161"/>
+      <c r="P75" s="157"/>
+      <c r="Q75" s="169"/>
+      <c r="R75" s="183"/>
       <c r="S75" s="82"/>
       <c r="T75" s="85"/>
       <c r="U75" s="84"/>
@@ -16395,23 +16526,23 @@
       <c r="EL75" s="93"/>
     </row>
     <row r="76" spans="2:142" ht="9" customHeight="1">
-      <c r="B76" s="215"/>
-      <c r="C76" s="217"/>
+      <c r="B76" s="151"/>
+      <c r="C76" s="163"/>
       <c r="D76" s="156"/>
-      <c r="E76" s="148"/>
-      <c r="F76" s="146"/>
-      <c r="G76" s="150"/>
-      <c r="H76" s="150"/>
-      <c r="I76" s="150"/>
-      <c r="J76" s="162"/>
-      <c r="K76" s="162"/>
-      <c r="L76" s="152"/>
-      <c r="M76" s="154"/>
-      <c r="N76" s="152"/>
-      <c r="O76" s="154"/>
-      <c r="P76" s="146"/>
-      <c r="Q76" s="164"/>
-      <c r="R76" s="160"/>
+      <c r="E76" s="172"/>
+      <c r="F76" s="158"/>
+      <c r="G76" s="166"/>
+      <c r="H76" s="166"/>
+      <c r="I76" s="166"/>
+      <c r="J76" s="166"/>
+      <c r="K76" s="166"/>
+      <c r="L76" s="160"/>
+      <c r="M76" s="162"/>
+      <c r="N76" s="160"/>
+      <c r="O76" s="162"/>
+      <c r="P76" s="158"/>
+      <c r="Q76" s="170"/>
+      <c r="R76" s="184"/>
       <c r="S76" s="82"/>
       <c r="T76" s="83"/>
       <c r="U76" s="83"/>
@@ -16538,23 +16669,33 @@
       <c r="EL76" s="94"/>
     </row>
     <row r="77" spans="2:142" ht="9" customHeight="1">
-      <c r="B77" s="218"/>
-      <c r="C77" s="217"/>
+      <c r="B77" s="150"/>
+      <c r="C77" s="152"/>
       <c r="D77" s="155"/>
-      <c r="E77" s="147"/>
-      <c r="F77" s="145"/>
-      <c r="G77" s="149"/>
-      <c r="H77" s="149"/>
-      <c r="I77" s="149"/>
-      <c r="J77" s="161"/>
-      <c r="K77" s="161"/>
-      <c r="L77" s="151"/>
-      <c r="M77" s="153"/>
-      <c r="N77" s="151"/>
-      <c r="O77" s="153"/>
-      <c r="P77" s="145"/>
-      <c r="Q77" s="163"/>
-      <c r="R77" s="159"/>
+      <c r="E77" s="171" t="s">
+        <v>106</v>
+      </c>
+      <c r="F77" s="157"/>
+      <c r="G77" s="165"/>
+      <c r="H77" s="165">
+        <v>43299</v>
+      </c>
+      <c r="I77" s="165">
+        <v>43300</v>
+      </c>
+      <c r="J77" s="165">
+        <v>43300</v>
+      </c>
+      <c r="K77" s="165">
+        <v>43301</v>
+      </c>
+      <c r="L77" s="159"/>
+      <c r="M77" s="161"/>
+      <c r="N77" s="159"/>
+      <c r="O77" s="161"/>
+      <c r="P77" s="157"/>
+      <c r="Q77" s="169"/>
+      <c r="R77" s="183"/>
       <c r="S77" s="82"/>
       <c r="T77" s="85"/>
       <c r="U77" s="84"/>
@@ -16681,23 +16822,23 @@
       <c r="EL77" s="93"/>
     </row>
     <row r="78" spans="2:142" ht="9" customHeight="1">
-      <c r="B78" s="215"/>
-      <c r="C78" s="217"/>
+      <c r="B78" s="151"/>
+      <c r="C78" s="152"/>
       <c r="D78" s="156"/>
-      <c r="E78" s="148"/>
-      <c r="F78" s="146"/>
-      <c r="G78" s="150"/>
-      <c r="H78" s="150"/>
-      <c r="I78" s="150"/>
-      <c r="J78" s="162"/>
-      <c r="K78" s="162"/>
-      <c r="L78" s="152"/>
-      <c r="M78" s="154"/>
-      <c r="N78" s="152"/>
-      <c r="O78" s="154"/>
-      <c r="P78" s="146"/>
-      <c r="Q78" s="164"/>
-      <c r="R78" s="160"/>
+      <c r="E78" s="172"/>
+      <c r="F78" s="158"/>
+      <c r="G78" s="166"/>
+      <c r="H78" s="166"/>
+      <c r="I78" s="166"/>
+      <c r="J78" s="166"/>
+      <c r="K78" s="166"/>
+      <c r="L78" s="160"/>
+      <c r="M78" s="162"/>
+      <c r="N78" s="160"/>
+      <c r="O78" s="162"/>
+      <c r="P78" s="158"/>
+      <c r="Q78" s="170"/>
+      <c r="R78" s="184"/>
       <c r="S78" s="82"/>
       <c r="T78" s="83"/>
       <c r="U78" s="83"/>
@@ -16824,23 +16965,33 @@
       <c r="EL78" s="94"/>
     </row>
     <row r="79" spans="2:142" ht="9" customHeight="1">
-      <c r="B79" s="218"/>
-      <c r="C79" s="217"/>
+      <c r="B79" s="150"/>
+      <c r="C79" s="152"/>
       <c r="D79" s="155"/>
-      <c r="E79" s="147"/>
-      <c r="F79" s="145"/>
-      <c r="G79" s="149"/>
-      <c r="H79" s="149"/>
-      <c r="I79" s="149"/>
-      <c r="J79" s="161"/>
-      <c r="K79" s="161"/>
-      <c r="L79" s="151"/>
-      <c r="M79" s="153"/>
-      <c r="N79" s="151"/>
-      <c r="O79" s="153"/>
-      <c r="P79" s="145"/>
-      <c r="Q79" s="163"/>
-      <c r="R79" s="159"/>
+      <c r="E79" s="171" t="s">
+        <v>107</v>
+      </c>
+      <c r="F79" s="157"/>
+      <c r="G79" s="165"/>
+      <c r="H79" s="165">
+        <v>43300</v>
+      </c>
+      <c r="I79" s="165">
+        <v>43301</v>
+      </c>
+      <c r="J79" s="165">
+        <v>43302</v>
+      </c>
+      <c r="K79" s="165">
+        <v>43303</v>
+      </c>
+      <c r="L79" s="159"/>
+      <c r="M79" s="161"/>
+      <c r="N79" s="159"/>
+      <c r="O79" s="161"/>
+      <c r="P79" s="157"/>
+      <c r="Q79" s="169"/>
+      <c r="R79" s="183"/>
       <c r="S79" s="82"/>
       <c r="T79" s="85"/>
       <c r="U79" s="84"/>
@@ -16967,23 +17118,23 @@
       <c r="EL79" s="93"/>
     </row>
     <row r="80" spans="2:142" ht="9" customHeight="1">
-      <c r="B80" s="215"/>
-      <c r="C80" s="217"/>
+      <c r="B80" s="151"/>
+      <c r="C80" s="152"/>
       <c r="D80" s="156"/>
-      <c r="E80" s="148"/>
-      <c r="F80" s="146"/>
-      <c r="G80" s="150"/>
-      <c r="H80" s="150"/>
-      <c r="I80" s="150"/>
-      <c r="J80" s="162"/>
-      <c r="K80" s="162"/>
-      <c r="L80" s="152"/>
-      <c r="M80" s="154"/>
-      <c r="N80" s="152"/>
-      <c r="O80" s="154"/>
-      <c r="P80" s="146"/>
-      <c r="Q80" s="164"/>
-      <c r="R80" s="160"/>
+      <c r="E80" s="172"/>
+      <c r="F80" s="158"/>
+      <c r="G80" s="166"/>
+      <c r="H80" s="166"/>
+      <c r="I80" s="166"/>
+      <c r="J80" s="166"/>
+      <c r="K80" s="166"/>
+      <c r="L80" s="160"/>
+      <c r="M80" s="162"/>
+      <c r="N80" s="160"/>
+      <c r="O80" s="162"/>
+      <c r="P80" s="158"/>
+      <c r="Q80" s="170"/>
+      <c r="R80" s="184"/>
       <c r="S80" s="82"/>
       <c r="T80" s="83"/>
       <c r="U80" s="83"/>
@@ -17110,23 +17261,39 @@
       <c r="EL80" s="94"/>
     </row>
     <row r="81" spans="2:142" ht="9" customHeight="1">
-      <c r="B81" s="218"/>
-      <c r="C81" s="217"/>
+      <c r="B81" s="150"/>
+      <c r="C81" s="164" t="s">
+        <v>50</v>
+      </c>
       <c r="D81" s="155"/>
-      <c r="E81" s="147"/>
-      <c r="F81" s="145"/>
-      <c r="G81" s="149"/>
-      <c r="H81" s="149"/>
-      <c r="I81" s="149"/>
-      <c r="J81" s="161"/>
-      <c r="K81" s="161"/>
-      <c r="L81" s="151"/>
-      <c r="M81" s="153"/>
-      <c r="N81" s="151"/>
-      <c r="O81" s="153"/>
-      <c r="P81" s="145"/>
-      <c r="Q81" s="163"/>
-      <c r="R81" s="159"/>
+      <c r="E81" s="153"/>
+      <c r="F81" s="157"/>
+      <c r="G81" s="165"/>
+      <c r="H81" s="165">
+        <v>43302</v>
+      </c>
+      <c r="I81" s="165">
+        <v>43303</v>
+      </c>
+      <c r="J81" s="165">
+        <v>43298</v>
+      </c>
+      <c r="K81" s="165">
+        <v>43304</v>
+      </c>
+      <c r="L81" s="159"/>
+      <c r="M81" s="161"/>
+      <c r="N81" s="159"/>
+      <c r="O81" s="161"/>
+      <c r="P81" s="173" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q81" s="169">
+        <v>10</v>
+      </c>
+      <c r="R81" s="183">
+        <v>10</v>
+      </c>
       <c r="S81" s="82"/>
       <c r="T81" s="85"/>
       <c r="U81" s="84"/>
@@ -17253,23 +17420,23 @@
       <c r="EL81" s="93"/>
     </row>
     <row r="82" spans="2:142" ht="9" customHeight="1">
-      <c r="B82" s="215"/>
-      <c r="C82" s="217"/>
+      <c r="B82" s="151"/>
+      <c r="C82" s="164"/>
       <c r="D82" s="156"/>
-      <c r="E82" s="148"/>
-      <c r="F82" s="146"/>
-      <c r="G82" s="150"/>
-      <c r="H82" s="150"/>
-      <c r="I82" s="150"/>
-      <c r="J82" s="162"/>
-      <c r="K82" s="162"/>
-      <c r="L82" s="152"/>
-      <c r="M82" s="154"/>
-      <c r="N82" s="152"/>
-      <c r="O82" s="154"/>
-      <c r="P82" s="146"/>
-      <c r="Q82" s="164"/>
-      <c r="R82" s="160"/>
+      <c r="E82" s="154"/>
+      <c r="F82" s="158"/>
+      <c r="G82" s="166"/>
+      <c r="H82" s="166"/>
+      <c r="I82" s="166"/>
+      <c r="J82" s="166"/>
+      <c r="K82" s="166"/>
+      <c r="L82" s="160"/>
+      <c r="M82" s="162"/>
+      <c r="N82" s="160"/>
+      <c r="O82" s="162"/>
+      <c r="P82" s="174"/>
+      <c r="Q82" s="170"/>
+      <c r="R82" s="184"/>
       <c r="S82" s="82"/>
       <c r="T82" s="83"/>
       <c r="U82" s="83"/>
@@ -17396,23 +17563,23 @@
       <c r="EL82" s="94"/>
     </row>
     <row r="83" spans="2:142" ht="9" customHeight="1">
-      <c r="B83" s="218"/>
-      <c r="C83" s="217"/>
+      <c r="B83" s="150"/>
+      <c r="C83" s="152"/>
       <c r="D83" s="155"/>
-      <c r="E83" s="147"/>
-      <c r="F83" s="145"/>
-      <c r="G83" s="149"/>
-      <c r="H83" s="149"/>
-      <c r="I83" s="149"/>
-      <c r="J83" s="161"/>
-      <c r="K83" s="161"/>
-      <c r="L83" s="151"/>
-      <c r="M83" s="153"/>
-      <c r="N83" s="151"/>
-      <c r="O83" s="153"/>
-      <c r="P83" s="145"/>
-      <c r="Q83" s="163"/>
-      <c r="R83" s="159"/>
+      <c r="E83" s="153"/>
+      <c r="F83" s="157"/>
+      <c r="G83" s="165"/>
+      <c r="H83" s="165"/>
+      <c r="I83" s="165"/>
+      <c r="J83" s="167"/>
+      <c r="K83" s="167"/>
+      <c r="L83" s="159"/>
+      <c r="M83" s="161"/>
+      <c r="N83" s="159"/>
+      <c r="O83" s="161"/>
+      <c r="P83" s="157"/>
+      <c r="Q83" s="169"/>
+      <c r="R83" s="183"/>
       <c r="S83" s="82"/>
       <c r="T83" s="85"/>
       <c r="U83" s="84"/>
@@ -17539,23 +17706,23 @@
       <c r="EL83" s="93"/>
     </row>
     <row r="84" spans="2:142" ht="9" customHeight="1">
-      <c r="B84" s="215"/>
-      <c r="C84" s="217"/>
+      <c r="B84" s="151"/>
+      <c r="C84" s="152"/>
       <c r="D84" s="156"/>
-      <c r="E84" s="148"/>
-      <c r="F84" s="146"/>
-      <c r="G84" s="150"/>
-      <c r="H84" s="150"/>
-      <c r="I84" s="150"/>
-      <c r="J84" s="162"/>
-      <c r="K84" s="162"/>
-      <c r="L84" s="152"/>
-      <c r="M84" s="154"/>
-      <c r="N84" s="152"/>
-      <c r="O84" s="154"/>
-      <c r="P84" s="146"/>
-      <c r="Q84" s="164"/>
-      <c r="R84" s="160"/>
+      <c r="E84" s="154"/>
+      <c r="F84" s="158"/>
+      <c r="G84" s="166"/>
+      <c r="H84" s="166"/>
+      <c r="I84" s="166"/>
+      <c r="J84" s="168"/>
+      <c r="K84" s="168"/>
+      <c r="L84" s="160"/>
+      <c r="M84" s="162"/>
+      <c r="N84" s="160"/>
+      <c r="O84" s="162"/>
+      <c r="P84" s="158"/>
+      <c r="Q84" s="170"/>
+      <c r="R84" s="184"/>
       <c r="S84" s="82"/>
       <c r="T84" s="83"/>
       <c r="U84" s="83"/>
@@ -17682,23 +17849,23 @@
       <c r="EL84" s="94"/>
     </row>
     <row r="85" spans="2:142" ht="9" customHeight="1">
-      <c r="B85" s="218"/>
-      <c r="C85" s="217"/>
+      <c r="B85" s="150"/>
+      <c r="C85" s="152"/>
       <c r="D85" s="155"/>
-      <c r="E85" s="147"/>
-      <c r="F85" s="145"/>
-      <c r="G85" s="149"/>
-      <c r="H85" s="149"/>
-      <c r="I85" s="149"/>
-      <c r="J85" s="161"/>
-      <c r="K85" s="161"/>
-      <c r="L85" s="151"/>
-      <c r="M85" s="153"/>
-      <c r="N85" s="151"/>
-      <c r="O85" s="153"/>
-      <c r="P85" s="145"/>
-      <c r="Q85" s="163"/>
-      <c r="R85" s="159"/>
+      <c r="E85" s="153"/>
+      <c r="F85" s="157"/>
+      <c r="G85" s="165"/>
+      <c r="H85" s="165"/>
+      <c r="I85" s="165"/>
+      <c r="J85" s="167"/>
+      <c r="K85" s="167"/>
+      <c r="L85" s="159"/>
+      <c r="M85" s="161"/>
+      <c r="N85" s="159"/>
+      <c r="O85" s="161"/>
+      <c r="P85" s="157"/>
+      <c r="Q85" s="169"/>
+      <c r="R85" s="183"/>
       <c r="S85" s="82"/>
       <c r="T85" s="85"/>
       <c r="U85" s="84"/>
@@ -17825,23 +17992,23 @@
       <c r="EL85" s="93"/>
     </row>
     <row r="86" spans="2:142" ht="9" customHeight="1">
-      <c r="B86" s="215"/>
-      <c r="C86" s="217"/>
+      <c r="B86" s="151"/>
+      <c r="C86" s="152"/>
       <c r="D86" s="156"/>
-      <c r="E86" s="148"/>
-      <c r="F86" s="146"/>
-      <c r="G86" s="150"/>
-      <c r="H86" s="150"/>
-      <c r="I86" s="150"/>
-      <c r="J86" s="162"/>
-      <c r="K86" s="162"/>
-      <c r="L86" s="152"/>
-      <c r="M86" s="154"/>
-      <c r="N86" s="152"/>
-      <c r="O86" s="154"/>
-      <c r="P86" s="146"/>
-      <c r="Q86" s="164"/>
-      <c r="R86" s="160"/>
+      <c r="E86" s="154"/>
+      <c r="F86" s="158"/>
+      <c r="G86" s="166"/>
+      <c r="H86" s="166"/>
+      <c r="I86" s="166"/>
+      <c r="J86" s="168"/>
+      <c r="K86" s="168"/>
+      <c r="L86" s="160"/>
+      <c r="M86" s="162"/>
+      <c r="N86" s="160"/>
+      <c r="O86" s="162"/>
+      <c r="P86" s="158"/>
+      <c r="Q86" s="170"/>
+      <c r="R86" s="184"/>
       <c r="S86" s="82"/>
       <c r="T86" s="83"/>
       <c r="U86" s="83"/>
@@ -17968,23 +18135,23 @@
       <c r="EL86" s="94"/>
     </row>
     <row r="87" spans="2:142" ht="9" customHeight="1">
-      <c r="B87" s="218"/>
-      <c r="C87" s="217"/>
+      <c r="B87" s="150"/>
+      <c r="C87" s="152"/>
       <c r="D87" s="155"/>
-      <c r="E87" s="147"/>
-      <c r="F87" s="145"/>
-      <c r="G87" s="149"/>
-      <c r="H87" s="149"/>
-      <c r="I87" s="149"/>
-      <c r="J87" s="161"/>
-      <c r="K87" s="161"/>
-      <c r="L87" s="151"/>
-      <c r="M87" s="153"/>
-      <c r="N87" s="151"/>
-      <c r="O87" s="153"/>
-      <c r="P87" s="145"/>
-      <c r="Q87" s="163"/>
-      <c r="R87" s="159"/>
+      <c r="E87" s="153"/>
+      <c r="F87" s="157"/>
+      <c r="G87" s="165"/>
+      <c r="H87" s="165"/>
+      <c r="I87" s="165"/>
+      <c r="J87" s="167"/>
+      <c r="K87" s="167"/>
+      <c r="L87" s="159"/>
+      <c r="M87" s="161"/>
+      <c r="N87" s="159"/>
+      <c r="O87" s="161"/>
+      <c r="P87" s="157"/>
+      <c r="Q87" s="169"/>
+      <c r="R87" s="183"/>
       <c r="S87" s="82"/>
       <c r="T87" s="85"/>
       <c r="U87" s="84"/>
@@ -18111,23 +18278,23 @@
       <c r="EL87" s="93"/>
     </row>
     <row r="88" spans="2:142" ht="9" customHeight="1">
-      <c r="B88" s="215"/>
-      <c r="C88" s="217"/>
+      <c r="B88" s="151"/>
+      <c r="C88" s="152"/>
       <c r="D88" s="156"/>
-      <c r="E88" s="148"/>
-      <c r="F88" s="146"/>
-      <c r="G88" s="150"/>
-      <c r="H88" s="150"/>
-      <c r="I88" s="150"/>
-      <c r="J88" s="162"/>
-      <c r="K88" s="162"/>
-      <c r="L88" s="152"/>
-      <c r="M88" s="154"/>
-      <c r="N88" s="152"/>
-      <c r="O88" s="154"/>
-      <c r="P88" s="146"/>
-      <c r="Q88" s="164"/>
-      <c r="R88" s="160"/>
+      <c r="E88" s="154"/>
+      <c r="F88" s="158"/>
+      <c r="G88" s="166"/>
+      <c r="H88" s="166"/>
+      <c r="I88" s="166"/>
+      <c r="J88" s="168"/>
+      <c r="K88" s="168"/>
+      <c r="L88" s="160"/>
+      <c r="M88" s="162"/>
+      <c r="N88" s="160"/>
+      <c r="O88" s="162"/>
+      <c r="P88" s="158"/>
+      <c r="Q88" s="170"/>
+      <c r="R88" s="184"/>
       <c r="S88" s="82"/>
       <c r="T88" s="83"/>
       <c r="U88" s="83"/>
@@ -18254,23 +18421,23 @@
       <c r="EL88" s="94"/>
     </row>
     <row r="89" spans="2:142" ht="9" customHeight="1">
-      <c r="B89" s="218"/>
-      <c r="C89" s="217"/>
+      <c r="B89" s="150"/>
+      <c r="C89" s="152"/>
       <c r="D89" s="155"/>
-      <c r="E89" s="147"/>
-      <c r="F89" s="145"/>
-      <c r="G89" s="149"/>
-      <c r="H89" s="149"/>
-      <c r="I89" s="149"/>
-      <c r="J89" s="161"/>
-      <c r="K89" s="161"/>
-      <c r="L89" s="151"/>
-      <c r="M89" s="153"/>
-      <c r="N89" s="151"/>
-      <c r="O89" s="153"/>
-      <c r="P89" s="145"/>
-      <c r="Q89" s="163"/>
-      <c r="R89" s="159"/>
+      <c r="E89" s="153"/>
+      <c r="F89" s="157"/>
+      <c r="G89" s="165"/>
+      <c r="H89" s="165"/>
+      <c r="I89" s="165"/>
+      <c r="J89" s="167"/>
+      <c r="K89" s="167"/>
+      <c r="L89" s="159"/>
+      <c r="M89" s="161"/>
+      <c r="N89" s="159"/>
+      <c r="O89" s="161"/>
+      <c r="P89" s="157"/>
+      <c r="Q89" s="169"/>
+      <c r="R89" s="183"/>
       <c r="S89" s="82"/>
       <c r="T89" s="85"/>
       <c r="U89" s="84"/>
@@ -18397,23 +18564,23 @@
       <c r="EL89" s="93"/>
     </row>
     <row r="90" spans="2:142" ht="9" customHeight="1">
-      <c r="B90" s="215"/>
-      <c r="C90" s="217"/>
+      <c r="B90" s="151"/>
+      <c r="C90" s="152"/>
       <c r="D90" s="156"/>
-      <c r="E90" s="148"/>
-      <c r="F90" s="146"/>
-      <c r="G90" s="150"/>
-      <c r="H90" s="150"/>
-      <c r="I90" s="150"/>
-      <c r="J90" s="162"/>
-      <c r="K90" s="162"/>
-      <c r="L90" s="152"/>
-      <c r="M90" s="154"/>
-      <c r="N90" s="152"/>
-      <c r="O90" s="154"/>
-      <c r="P90" s="146"/>
-      <c r="Q90" s="164"/>
-      <c r="R90" s="160"/>
+      <c r="E90" s="154"/>
+      <c r="F90" s="158"/>
+      <c r="G90" s="166"/>
+      <c r="H90" s="166"/>
+      <c r="I90" s="166"/>
+      <c r="J90" s="168"/>
+      <c r="K90" s="168"/>
+      <c r="L90" s="160"/>
+      <c r="M90" s="162"/>
+      <c r="N90" s="160"/>
+      <c r="O90" s="162"/>
+      <c r="P90" s="158"/>
+      <c r="Q90" s="170"/>
+      <c r="R90" s="184"/>
       <c r="S90" s="82"/>
       <c r="T90" s="83"/>
       <c r="U90" s="83"/>
@@ -18540,23 +18707,23 @@
       <c r="EL90" s="94"/>
     </row>
     <row r="91" spans="2:142" ht="9" customHeight="1">
-      <c r="B91" s="218"/>
-      <c r="C91" s="217"/>
+      <c r="B91" s="150"/>
+      <c r="C91" s="152"/>
       <c r="D91" s="155"/>
-      <c r="E91" s="147"/>
-      <c r="F91" s="145"/>
-      <c r="G91" s="149"/>
-      <c r="H91" s="149"/>
-      <c r="I91" s="149"/>
-      <c r="J91" s="161"/>
-      <c r="K91" s="161"/>
-      <c r="L91" s="151"/>
-      <c r="M91" s="153"/>
-      <c r="N91" s="151"/>
-      <c r="O91" s="153"/>
-      <c r="P91" s="145"/>
-      <c r="Q91" s="163"/>
-      <c r="R91" s="159"/>
+      <c r="E91" s="153"/>
+      <c r="F91" s="157"/>
+      <c r="G91" s="165"/>
+      <c r="H91" s="165"/>
+      <c r="I91" s="165"/>
+      <c r="J91" s="167"/>
+      <c r="K91" s="167"/>
+      <c r="L91" s="159"/>
+      <c r="M91" s="161"/>
+      <c r="N91" s="159"/>
+      <c r="O91" s="161"/>
+      <c r="P91" s="157"/>
+      <c r="Q91" s="169"/>
+      <c r="R91" s="183"/>
       <c r="S91" s="82"/>
       <c r="T91" s="85"/>
       <c r="U91" s="84"/>
@@ -18683,23 +18850,23 @@
       <c r="EL91" s="93"/>
     </row>
     <row r="92" spans="2:142" ht="9" customHeight="1">
-      <c r="B92" s="215"/>
-      <c r="C92" s="217"/>
+      <c r="B92" s="151"/>
+      <c r="C92" s="152"/>
       <c r="D92" s="156"/>
-      <c r="E92" s="148"/>
-      <c r="F92" s="146"/>
-      <c r="G92" s="150"/>
-      <c r="H92" s="150"/>
-      <c r="I92" s="150"/>
-      <c r="J92" s="162"/>
-      <c r="K92" s="162"/>
-      <c r="L92" s="152"/>
-      <c r="M92" s="154"/>
-      <c r="N92" s="152"/>
-      <c r="O92" s="154"/>
-      <c r="P92" s="146"/>
-      <c r="Q92" s="164"/>
-      <c r="R92" s="160"/>
+      <c r="E92" s="154"/>
+      <c r="F92" s="158"/>
+      <c r="G92" s="166"/>
+      <c r="H92" s="166"/>
+      <c r="I92" s="166"/>
+      <c r="J92" s="168"/>
+      <c r="K92" s="168"/>
+      <c r="L92" s="160"/>
+      <c r="M92" s="162"/>
+      <c r="N92" s="160"/>
+      <c r="O92" s="162"/>
+      <c r="P92" s="158"/>
+      <c r="Q92" s="170"/>
+      <c r="R92" s="184"/>
       <c r="S92" s="82"/>
       <c r="T92" s="83"/>
       <c r="U92" s="83"/>
@@ -18826,23 +18993,23 @@
       <c r="EL92" s="94"/>
     </row>
     <row r="93" spans="2:142" ht="9" customHeight="1">
-      <c r="B93" s="218"/>
-      <c r="C93" s="217"/>
+      <c r="B93" s="150"/>
+      <c r="C93" s="152"/>
       <c r="D93" s="155"/>
-      <c r="E93" s="147"/>
-      <c r="F93" s="145"/>
-      <c r="G93" s="149"/>
-      <c r="H93" s="149"/>
-      <c r="I93" s="149"/>
-      <c r="J93" s="161"/>
-      <c r="K93" s="161"/>
-      <c r="L93" s="151"/>
-      <c r="M93" s="153"/>
-      <c r="N93" s="151"/>
-      <c r="O93" s="153"/>
-      <c r="P93" s="145"/>
-      <c r="Q93" s="163"/>
-      <c r="R93" s="159"/>
+      <c r="E93" s="153"/>
+      <c r="F93" s="157"/>
+      <c r="G93" s="165"/>
+      <c r="H93" s="165"/>
+      <c r="I93" s="165"/>
+      <c r="J93" s="167"/>
+      <c r="K93" s="167"/>
+      <c r="L93" s="159"/>
+      <c r="M93" s="161"/>
+      <c r="N93" s="159"/>
+      <c r="O93" s="161"/>
+      <c r="P93" s="157"/>
+      <c r="Q93" s="169"/>
+      <c r="R93" s="183"/>
       <c r="S93" s="82"/>
       <c r="T93" s="85"/>
       <c r="U93" s="84"/>
@@ -18969,23 +19136,23 @@
       <c r="EL93" s="93"/>
     </row>
     <row r="94" spans="2:142" ht="9" customHeight="1">
-      <c r="B94" s="215"/>
-      <c r="C94" s="217"/>
+      <c r="B94" s="151"/>
+      <c r="C94" s="152"/>
       <c r="D94" s="156"/>
-      <c r="E94" s="148"/>
-      <c r="F94" s="146"/>
-      <c r="G94" s="150"/>
-      <c r="H94" s="150"/>
-      <c r="I94" s="150"/>
-      <c r="J94" s="162"/>
-      <c r="K94" s="162"/>
-      <c r="L94" s="152"/>
-      <c r="M94" s="154"/>
-      <c r="N94" s="152"/>
-      <c r="O94" s="154"/>
-      <c r="P94" s="146"/>
-      <c r="Q94" s="164"/>
-      <c r="R94" s="160"/>
+      <c r="E94" s="154"/>
+      <c r="F94" s="158"/>
+      <c r="G94" s="166"/>
+      <c r="H94" s="166"/>
+      <c r="I94" s="166"/>
+      <c r="J94" s="168"/>
+      <c r="K94" s="168"/>
+      <c r="L94" s="160"/>
+      <c r="M94" s="162"/>
+      <c r="N94" s="160"/>
+      <c r="O94" s="162"/>
+      <c r="P94" s="158"/>
+      <c r="Q94" s="170"/>
+      <c r="R94" s="184"/>
       <c r="S94" s="82"/>
       <c r="T94" s="83"/>
       <c r="U94" s="83"/>
@@ -19112,23 +19279,23 @@
       <c r="EL94" s="94"/>
     </row>
     <row r="95" spans="2:142" ht="9" customHeight="1">
-      <c r="B95" s="218"/>
-      <c r="C95" s="217"/>
+      <c r="B95" s="150"/>
+      <c r="C95" s="152"/>
       <c r="D95" s="155"/>
-      <c r="E95" s="147"/>
-      <c r="F95" s="145"/>
-      <c r="G95" s="149"/>
-      <c r="H95" s="149"/>
-      <c r="I95" s="149"/>
-      <c r="J95" s="161"/>
-      <c r="K95" s="161"/>
-      <c r="L95" s="151"/>
-      <c r="M95" s="153"/>
-      <c r="N95" s="151"/>
-      <c r="O95" s="153"/>
-      <c r="P95" s="145"/>
-      <c r="Q95" s="163"/>
-      <c r="R95" s="159"/>
+      <c r="E95" s="153"/>
+      <c r="F95" s="157"/>
+      <c r="G95" s="165"/>
+      <c r="H95" s="165"/>
+      <c r="I95" s="165"/>
+      <c r="J95" s="167"/>
+      <c r="K95" s="167"/>
+      <c r="L95" s="159"/>
+      <c r="M95" s="161"/>
+      <c r="N95" s="159"/>
+      <c r="O95" s="161"/>
+      <c r="P95" s="157"/>
+      <c r="Q95" s="169"/>
+      <c r="R95" s="183"/>
       <c r="S95" s="82"/>
       <c r="T95" s="85"/>
       <c r="U95" s="84"/>
@@ -19255,23 +19422,23 @@
       <c r="EL95" s="93"/>
     </row>
     <row r="96" spans="2:142" ht="9" customHeight="1">
-      <c r="B96" s="215"/>
-      <c r="C96" s="217"/>
+      <c r="B96" s="151"/>
+      <c r="C96" s="152"/>
       <c r="D96" s="156"/>
-      <c r="E96" s="148"/>
-      <c r="F96" s="146"/>
-      <c r="G96" s="150"/>
-      <c r="H96" s="150"/>
-      <c r="I96" s="150"/>
-      <c r="J96" s="162"/>
-      <c r="K96" s="162"/>
-      <c r="L96" s="152"/>
-      <c r="M96" s="154"/>
-      <c r="N96" s="152"/>
-      <c r="O96" s="154"/>
-      <c r="P96" s="146"/>
-      <c r="Q96" s="164"/>
-      <c r="R96" s="160"/>
+      <c r="E96" s="154"/>
+      <c r="F96" s="158"/>
+      <c r="G96" s="166"/>
+      <c r="H96" s="166"/>
+      <c r="I96" s="166"/>
+      <c r="J96" s="168"/>
+      <c r="K96" s="168"/>
+      <c r="L96" s="160"/>
+      <c r="M96" s="162"/>
+      <c r="N96" s="160"/>
+      <c r="O96" s="162"/>
+      <c r="P96" s="158"/>
+      <c r="Q96" s="170"/>
+      <c r="R96" s="184"/>
       <c r="S96" s="82"/>
       <c r="T96" s="83"/>
       <c r="U96" s="83"/>
@@ -19398,23 +19565,23 @@
       <c r="EL96" s="94"/>
     </row>
     <row r="97" spans="2:142" ht="9" customHeight="1">
-      <c r="B97" s="218"/>
-      <c r="C97" s="217"/>
+      <c r="B97" s="150"/>
+      <c r="C97" s="152"/>
       <c r="D97" s="155"/>
-      <c r="E97" s="147"/>
-      <c r="F97" s="145"/>
-      <c r="G97" s="149"/>
-      <c r="H97" s="149"/>
-      <c r="I97" s="149"/>
-      <c r="J97" s="161"/>
-      <c r="K97" s="161"/>
-      <c r="L97" s="151"/>
-      <c r="M97" s="153"/>
-      <c r="N97" s="151"/>
-      <c r="O97" s="153"/>
-      <c r="P97" s="145"/>
-      <c r="Q97" s="163"/>
-      <c r="R97" s="159"/>
+      <c r="E97" s="153"/>
+      <c r="F97" s="157"/>
+      <c r="G97" s="165"/>
+      <c r="H97" s="165"/>
+      <c r="I97" s="165"/>
+      <c r="J97" s="167"/>
+      <c r="K97" s="167"/>
+      <c r="L97" s="159"/>
+      <c r="M97" s="161"/>
+      <c r="N97" s="159"/>
+      <c r="O97" s="161"/>
+      <c r="P97" s="157"/>
+      <c r="Q97" s="169"/>
+      <c r="R97" s="183"/>
       <c r="S97" s="82"/>
       <c r="T97" s="85"/>
       <c r="U97" s="84"/>
@@ -19541,23 +19708,23 @@
       <c r="EL97" s="93"/>
     </row>
     <row r="98" spans="2:142" ht="9" customHeight="1">
-      <c r="B98" s="215"/>
-      <c r="C98" s="217"/>
+      <c r="B98" s="151"/>
+      <c r="C98" s="152"/>
       <c r="D98" s="156"/>
-      <c r="E98" s="148"/>
-      <c r="F98" s="146"/>
-      <c r="G98" s="150"/>
-      <c r="H98" s="150"/>
-      <c r="I98" s="150"/>
-      <c r="J98" s="162"/>
-      <c r="K98" s="162"/>
-      <c r="L98" s="152"/>
-      <c r="M98" s="154"/>
-      <c r="N98" s="152"/>
-      <c r="O98" s="154"/>
-      <c r="P98" s="146"/>
-      <c r="Q98" s="164"/>
-      <c r="R98" s="160"/>
+      <c r="E98" s="154"/>
+      <c r="F98" s="158"/>
+      <c r="G98" s="166"/>
+      <c r="H98" s="166"/>
+      <c r="I98" s="166"/>
+      <c r="J98" s="168"/>
+      <c r="K98" s="168"/>
+      <c r="L98" s="160"/>
+      <c r="M98" s="162"/>
+      <c r="N98" s="160"/>
+      <c r="O98" s="162"/>
+      <c r="P98" s="158"/>
+      <c r="Q98" s="170"/>
+      <c r="R98" s="184"/>
       <c r="S98" s="82"/>
       <c r="T98" s="83"/>
       <c r="U98" s="83"/>
@@ -19684,23 +19851,23 @@
       <c r="EL98" s="94"/>
     </row>
     <row r="99" spans="2:142" ht="9" customHeight="1">
-      <c r="B99" s="218"/>
-      <c r="C99" s="217"/>
+      <c r="B99" s="150"/>
+      <c r="C99" s="152"/>
       <c r="D99" s="155"/>
-      <c r="E99" s="147"/>
-      <c r="F99" s="145"/>
-      <c r="G99" s="149"/>
-      <c r="H99" s="149"/>
-      <c r="I99" s="149"/>
-      <c r="J99" s="161"/>
-      <c r="K99" s="161"/>
-      <c r="L99" s="151"/>
-      <c r="M99" s="153"/>
-      <c r="N99" s="151"/>
-      <c r="O99" s="153"/>
-      <c r="P99" s="145"/>
-      <c r="Q99" s="163"/>
-      <c r="R99" s="159"/>
+      <c r="E99" s="153"/>
+      <c r="F99" s="157"/>
+      <c r="G99" s="165"/>
+      <c r="H99" s="165"/>
+      <c r="I99" s="165"/>
+      <c r="J99" s="167"/>
+      <c r="K99" s="167"/>
+      <c r="L99" s="159"/>
+      <c r="M99" s="161"/>
+      <c r="N99" s="159"/>
+      <c r="O99" s="161"/>
+      <c r="P99" s="157"/>
+      <c r="Q99" s="169"/>
+      <c r="R99" s="183"/>
       <c r="S99" s="82"/>
       <c r="T99" s="85"/>
       <c r="U99" s="84"/>
@@ -19827,23 +19994,23 @@
       <c r="EL99" s="93"/>
     </row>
     <row r="100" spans="2:142" ht="9" customHeight="1">
-      <c r="B100" s="215"/>
-      <c r="C100" s="217"/>
+      <c r="B100" s="151"/>
+      <c r="C100" s="152"/>
       <c r="D100" s="156"/>
-      <c r="E100" s="148"/>
-      <c r="F100" s="146"/>
-      <c r="G100" s="150"/>
-      <c r="H100" s="150"/>
-      <c r="I100" s="150"/>
-      <c r="J100" s="162"/>
-      <c r="K100" s="162"/>
-      <c r="L100" s="152"/>
-      <c r="M100" s="154"/>
-      <c r="N100" s="152"/>
-      <c r="O100" s="154"/>
-      <c r="P100" s="146"/>
-      <c r="Q100" s="164"/>
-      <c r="R100" s="160"/>
+      <c r="E100" s="154"/>
+      <c r="F100" s="158"/>
+      <c r="G100" s="166"/>
+      <c r="H100" s="166"/>
+      <c r="I100" s="166"/>
+      <c r="J100" s="168"/>
+      <c r="K100" s="168"/>
+      <c r="L100" s="160"/>
+      <c r="M100" s="162"/>
+      <c r="N100" s="160"/>
+      <c r="O100" s="162"/>
+      <c r="P100" s="158"/>
+      <c r="Q100" s="170"/>
+      <c r="R100" s="184"/>
       <c r="S100" s="82"/>
       <c r="T100" s="83"/>
       <c r="U100" s="83"/>
@@ -19970,23 +20137,23 @@
       <c r="EL100" s="94"/>
     </row>
     <row r="101" spans="2:142" ht="9" customHeight="1">
-      <c r="B101" s="218"/>
-      <c r="C101" s="217"/>
+      <c r="B101" s="150"/>
+      <c r="C101" s="152"/>
       <c r="D101" s="155"/>
-      <c r="E101" s="147"/>
-      <c r="F101" s="145"/>
-      <c r="G101" s="149"/>
-      <c r="H101" s="149"/>
-      <c r="I101" s="149"/>
-      <c r="J101" s="161"/>
-      <c r="K101" s="161"/>
-      <c r="L101" s="151"/>
-      <c r="M101" s="153"/>
-      <c r="N101" s="151"/>
-      <c r="O101" s="153"/>
-      <c r="P101" s="145"/>
-      <c r="Q101" s="163"/>
-      <c r="R101" s="159"/>
+      <c r="E101" s="153"/>
+      <c r="F101" s="157"/>
+      <c r="G101" s="165"/>
+      <c r="H101" s="165"/>
+      <c r="I101" s="165"/>
+      <c r="J101" s="167"/>
+      <c r="K101" s="167"/>
+      <c r="L101" s="159"/>
+      <c r="M101" s="161"/>
+      <c r="N101" s="159"/>
+      <c r="O101" s="161"/>
+      <c r="P101" s="157"/>
+      <c r="Q101" s="169"/>
+      <c r="R101" s="183"/>
       <c r="S101" s="82"/>
       <c r="T101" s="85"/>
       <c r="U101" s="84"/>
@@ -20113,23 +20280,23 @@
       <c r="EL101" s="93"/>
     </row>
     <row r="102" spans="2:142" ht="9" customHeight="1">
-      <c r="B102" s="215"/>
-      <c r="C102" s="217"/>
+      <c r="B102" s="151"/>
+      <c r="C102" s="152"/>
       <c r="D102" s="156"/>
-      <c r="E102" s="148"/>
-      <c r="F102" s="146"/>
-      <c r="G102" s="150"/>
-      <c r="H102" s="150"/>
-      <c r="I102" s="150"/>
-      <c r="J102" s="162"/>
-      <c r="K102" s="162"/>
-      <c r="L102" s="152"/>
-      <c r="M102" s="154"/>
-      <c r="N102" s="152"/>
-      <c r="O102" s="154"/>
-      <c r="P102" s="146"/>
-      <c r="Q102" s="164"/>
-      <c r="R102" s="160"/>
+      <c r="E102" s="154"/>
+      <c r="F102" s="158"/>
+      <c r="G102" s="166"/>
+      <c r="H102" s="166"/>
+      <c r="I102" s="166"/>
+      <c r="J102" s="168"/>
+      <c r="K102" s="168"/>
+      <c r="L102" s="160"/>
+      <c r="M102" s="162"/>
+      <c r="N102" s="160"/>
+      <c r="O102" s="162"/>
+      <c r="P102" s="158"/>
+      <c r="Q102" s="170"/>
+      <c r="R102" s="184"/>
       <c r="S102" s="82"/>
       <c r="T102" s="83"/>
       <c r="U102" s="83"/>
@@ -20256,23 +20423,23 @@
       <c r="EL102" s="94"/>
     </row>
     <row r="103" spans="2:142" ht="9" customHeight="1">
-      <c r="B103" s="218"/>
-      <c r="C103" s="217"/>
+      <c r="B103" s="150"/>
+      <c r="C103" s="152"/>
       <c r="D103" s="155"/>
-      <c r="E103" s="147"/>
-      <c r="F103" s="145"/>
-      <c r="G103" s="149"/>
-      <c r="H103" s="149"/>
-      <c r="I103" s="149"/>
-      <c r="J103" s="161"/>
-      <c r="K103" s="161"/>
-      <c r="L103" s="151"/>
-      <c r="M103" s="153"/>
-      <c r="N103" s="151"/>
-      <c r="O103" s="153"/>
-      <c r="P103" s="145"/>
-      <c r="Q103" s="163"/>
-      <c r="R103" s="159"/>
+      <c r="E103" s="153"/>
+      <c r="F103" s="157"/>
+      <c r="G103" s="165"/>
+      <c r="H103" s="165"/>
+      <c r="I103" s="165"/>
+      <c r="J103" s="167"/>
+      <c r="K103" s="167"/>
+      <c r="L103" s="159"/>
+      <c r="M103" s="161"/>
+      <c r="N103" s="159"/>
+      <c r="O103" s="161"/>
+      <c r="P103" s="157"/>
+      <c r="Q103" s="169"/>
+      <c r="R103" s="183"/>
       <c r="S103" s="82"/>
       <c r="T103" s="85"/>
       <c r="U103" s="84"/>
@@ -20399,23 +20566,23 @@
       <c r="EL103" s="93"/>
     </row>
     <row r="104" spans="2:142" ht="9" customHeight="1">
-      <c r="B104" s="215"/>
-      <c r="C104" s="217"/>
+      <c r="B104" s="151"/>
+      <c r="C104" s="152"/>
       <c r="D104" s="156"/>
-      <c r="E104" s="148"/>
-      <c r="F104" s="146"/>
-      <c r="G104" s="150"/>
-      <c r="H104" s="150"/>
-      <c r="I104" s="150"/>
-      <c r="J104" s="162"/>
-      <c r="K104" s="162"/>
-      <c r="L104" s="152"/>
-      <c r="M104" s="154"/>
-      <c r="N104" s="152"/>
-      <c r="O104" s="154"/>
-      <c r="P104" s="146"/>
-      <c r="Q104" s="164"/>
-      <c r="R104" s="160"/>
+      <c r="E104" s="154"/>
+      <c r="F104" s="158"/>
+      <c r="G104" s="166"/>
+      <c r="H104" s="166"/>
+      <c r="I104" s="166"/>
+      <c r="J104" s="168"/>
+      <c r="K104" s="168"/>
+      <c r="L104" s="160"/>
+      <c r="M104" s="162"/>
+      <c r="N104" s="160"/>
+      <c r="O104" s="162"/>
+      <c r="P104" s="158"/>
+      <c r="Q104" s="170"/>
+      <c r="R104" s="184"/>
       <c r="S104" s="82"/>
       <c r="T104" s="83"/>
       <c r="U104" s="83"/>
@@ -20542,23 +20709,23 @@
       <c r="EL104" s="94"/>
     </row>
     <row r="105" spans="2:142" ht="9" customHeight="1">
-      <c r="B105" s="218"/>
-      <c r="C105" s="217"/>
+      <c r="B105" s="150"/>
+      <c r="C105" s="152"/>
       <c r="D105" s="155"/>
-      <c r="E105" s="147"/>
-      <c r="F105" s="145"/>
-      <c r="G105" s="149"/>
-      <c r="H105" s="149"/>
-      <c r="I105" s="149"/>
-      <c r="J105" s="161"/>
-      <c r="K105" s="161"/>
-      <c r="L105" s="151"/>
-      <c r="M105" s="153"/>
-      <c r="N105" s="151"/>
-      <c r="O105" s="153"/>
-      <c r="P105" s="145"/>
-      <c r="Q105" s="163"/>
-      <c r="R105" s="159"/>
+      <c r="E105" s="153"/>
+      <c r="F105" s="157"/>
+      <c r="G105" s="165"/>
+      <c r="H105" s="165"/>
+      <c r="I105" s="165"/>
+      <c r="J105" s="167"/>
+      <c r="K105" s="167"/>
+      <c r="L105" s="159"/>
+      <c r="M105" s="161"/>
+      <c r="N105" s="159"/>
+      <c r="O105" s="161"/>
+      <c r="P105" s="157"/>
+      <c r="Q105" s="169"/>
+      <c r="R105" s="183"/>
       <c r="S105" s="82"/>
       <c r="T105" s="85"/>
       <c r="U105" s="84"/>
@@ -20685,23 +20852,23 @@
       <c r="EL105" s="93"/>
     </row>
     <row r="106" spans="2:142" ht="9" customHeight="1">
-      <c r="B106" s="215"/>
-      <c r="C106" s="217"/>
+      <c r="B106" s="151"/>
+      <c r="C106" s="152"/>
       <c r="D106" s="156"/>
-      <c r="E106" s="148"/>
-      <c r="F106" s="146"/>
-      <c r="G106" s="150"/>
-      <c r="H106" s="150"/>
-      <c r="I106" s="150"/>
-      <c r="J106" s="162"/>
-      <c r="K106" s="162"/>
-      <c r="L106" s="152"/>
-      <c r="M106" s="154"/>
-      <c r="N106" s="152"/>
-      <c r="O106" s="154"/>
-      <c r="P106" s="146"/>
-      <c r="Q106" s="164"/>
-      <c r="R106" s="160"/>
+      <c r="E106" s="154"/>
+      <c r="F106" s="158"/>
+      <c r="G106" s="166"/>
+      <c r="H106" s="166"/>
+      <c r="I106" s="166"/>
+      <c r="J106" s="168"/>
+      <c r="K106" s="168"/>
+      <c r="L106" s="160"/>
+      <c r="M106" s="162"/>
+      <c r="N106" s="160"/>
+      <c r="O106" s="162"/>
+      <c r="P106" s="158"/>
+      <c r="Q106" s="170"/>
+      <c r="R106" s="184"/>
       <c r="S106" s="82"/>
       <c r="T106" s="83"/>
       <c r="U106" s="83"/>
@@ -20828,23 +20995,23 @@
       <c r="EL106" s="94"/>
     </row>
     <row r="107" spans="2:142" ht="9" customHeight="1">
-      <c r="B107" s="218"/>
-      <c r="C107" s="217"/>
+      <c r="B107" s="150"/>
+      <c r="C107" s="152"/>
       <c r="D107" s="155"/>
-      <c r="E107" s="147"/>
-      <c r="F107" s="145"/>
-      <c r="G107" s="149"/>
-      <c r="H107" s="149"/>
-      <c r="I107" s="149"/>
-      <c r="J107" s="161"/>
-      <c r="K107" s="161"/>
-      <c r="L107" s="151"/>
-      <c r="M107" s="153"/>
-      <c r="N107" s="151"/>
-      <c r="O107" s="153"/>
-      <c r="P107" s="145"/>
-      <c r="Q107" s="163"/>
-      <c r="R107" s="159"/>
+      <c r="E107" s="153"/>
+      <c r="F107" s="157"/>
+      <c r="G107" s="165"/>
+      <c r="H107" s="165"/>
+      <c r="I107" s="165"/>
+      <c r="J107" s="167"/>
+      <c r="K107" s="167"/>
+      <c r="L107" s="159"/>
+      <c r="M107" s="161"/>
+      <c r="N107" s="159"/>
+      <c r="O107" s="161"/>
+      <c r="P107" s="157"/>
+      <c r="Q107" s="169"/>
+      <c r="R107" s="183"/>
       <c r="S107" s="82"/>
       <c r="T107" s="85"/>
       <c r="U107" s="84"/>
@@ -20971,23 +21138,23 @@
       <c r="EL107" s="93"/>
     </row>
     <row r="108" spans="2:142" ht="9" customHeight="1">
-      <c r="B108" s="215"/>
-      <c r="C108" s="217"/>
+      <c r="B108" s="151"/>
+      <c r="C108" s="152"/>
       <c r="D108" s="156"/>
-      <c r="E108" s="148"/>
-      <c r="F108" s="146"/>
-      <c r="G108" s="150"/>
-      <c r="H108" s="150"/>
-      <c r="I108" s="150"/>
-      <c r="J108" s="162"/>
-      <c r="K108" s="162"/>
-      <c r="L108" s="152"/>
-      <c r="M108" s="154"/>
-      <c r="N108" s="152"/>
-      <c r="O108" s="154"/>
-      <c r="P108" s="146"/>
-      <c r="Q108" s="164"/>
-      <c r="R108" s="160"/>
+      <c r="E108" s="154"/>
+      <c r="F108" s="158"/>
+      <c r="G108" s="166"/>
+      <c r="H108" s="166"/>
+      <c r="I108" s="166"/>
+      <c r="J108" s="168"/>
+      <c r="K108" s="168"/>
+      <c r="L108" s="160"/>
+      <c r="M108" s="162"/>
+      <c r="N108" s="160"/>
+      <c r="O108" s="162"/>
+      <c r="P108" s="158"/>
+      <c r="Q108" s="170"/>
+      <c r="R108" s="184"/>
       <c r="S108" s="82"/>
       <c r="T108" s="83"/>
       <c r="U108" s="83"/>
@@ -21114,23 +21281,23 @@
       <c r="EL108" s="94"/>
     </row>
     <row r="109" spans="2:142" ht="9" customHeight="1">
-      <c r="B109" s="218"/>
-      <c r="C109" s="217"/>
+      <c r="B109" s="150"/>
+      <c r="C109" s="152"/>
       <c r="D109" s="155"/>
-      <c r="E109" s="147"/>
-      <c r="F109" s="145"/>
-      <c r="G109" s="149"/>
-      <c r="H109" s="149"/>
-      <c r="I109" s="149"/>
-      <c r="J109" s="161"/>
-      <c r="K109" s="161"/>
-      <c r="L109" s="151"/>
-      <c r="M109" s="153"/>
-      <c r="N109" s="151"/>
-      <c r="O109" s="153"/>
-      <c r="P109" s="145"/>
-      <c r="Q109" s="163"/>
-      <c r="R109" s="159"/>
+      <c r="E109" s="153"/>
+      <c r="F109" s="157"/>
+      <c r="G109" s="165"/>
+      <c r="H109" s="165"/>
+      <c r="I109" s="165"/>
+      <c r="J109" s="167"/>
+      <c r="K109" s="167"/>
+      <c r="L109" s="159"/>
+      <c r="M109" s="161"/>
+      <c r="N109" s="159"/>
+      <c r="O109" s="161"/>
+      <c r="P109" s="157"/>
+      <c r="Q109" s="169"/>
+      <c r="R109" s="183"/>
       <c r="S109" s="82"/>
       <c r="T109" s="85"/>
       <c r="U109" s="84"/>
@@ -21257,23 +21424,23 @@
       <c r="EL109" s="93"/>
     </row>
     <row r="110" spans="2:142" ht="9" customHeight="1">
-      <c r="B110" s="215"/>
-      <c r="C110" s="217"/>
+      <c r="B110" s="151"/>
+      <c r="C110" s="152"/>
       <c r="D110" s="156"/>
-      <c r="E110" s="148"/>
-      <c r="F110" s="146"/>
-      <c r="G110" s="150"/>
-      <c r="H110" s="150"/>
-      <c r="I110" s="150"/>
-      <c r="J110" s="162"/>
-      <c r="K110" s="162"/>
-      <c r="L110" s="152"/>
-      <c r="M110" s="154"/>
-      <c r="N110" s="152"/>
-      <c r="O110" s="154"/>
-      <c r="P110" s="146"/>
-      <c r="Q110" s="164"/>
-      <c r="R110" s="160"/>
+      <c r="E110" s="154"/>
+      <c r="F110" s="158"/>
+      <c r="G110" s="166"/>
+      <c r="H110" s="166"/>
+      <c r="I110" s="166"/>
+      <c r="J110" s="168"/>
+      <c r="K110" s="168"/>
+      <c r="L110" s="160"/>
+      <c r="M110" s="162"/>
+      <c r="N110" s="160"/>
+      <c r="O110" s="162"/>
+      <c r="P110" s="158"/>
+      <c r="Q110" s="170"/>
+      <c r="R110" s="184"/>
       <c r="S110" s="82"/>
       <c r="T110" s="83"/>
       <c r="U110" s="83"/>
@@ -21400,23 +21567,23 @@
       <c r="EL110" s="94"/>
     </row>
     <row r="111" spans="2:142" ht="9" customHeight="1">
-      <c r="B111" s="218"/>
-      <c r="C111" s="217"/>
+      <c r="B111" s="150"/>
+      <c r="C111" s="152"/>
       <c r="D111" s="155"/>
-      <c r="E111" s="147"/>
-      <c r="F111" s="145"/>
-      <c r="G111" s="149"/>
-      <c r="H111" s="149"/>
-      <c r="I111" s="149"/>
-      <c r="J111" s="161"/>
-      <c r="K111" s="161"/>
-      <c r="L111" s="151"/>
-      <c r="M111" s="153"/>
-      <c r="N111" s="151"/>
-      <c r="O111" s="153"/>
-      <c r="P111" s="145"/>
-      <c r="Q111" s="163"/>
-      <c r="R111" s="159"/>
+      <c r="E111" s="153"/>
+      <c r="F111" s="157"/>
+      <c r="G111" s="165"/>
+      <c r="H111" s="165"/>
+      <c r="I111" s="165"/>
+      <c r="J111" s="167"/>
+      <c r="K111" s="167"/>
+      <c r="L111" s="159"/>
+      <c r="M111" s="161"/>
+      <c r="N111" s="159"/>
+      <c r="O111" s="161"/>
+      <c r="P111" s="157"/>
+      <c r="Q111" s="169"/>
+      <c r="R111" s="183"/>
       <c r="S111" s="82"/>
       <c r="T111" s="85"/>
       <c r="U111" s="84"/>
@@ -21543,23 +21710,23 @@
       <c r="EL111" s="93"/>
     </row>
     <row r="112" spans="2:142" ht="9" customHeight="1">
-      <c r="B112" s="215"/>
-      <c r="C112" s="217"/>
+      <c r="B112" s="151"/>
+      <c r="C112" s="152"/>
       <c r="D112" s="156"/>
-      <c r="E112" s="148"/>
-      <c r="F112" s="146"/>
-      <c r="G112" s="150"/>
-      <c r="H112" s="150"/>
-      <c r="I112" s="150"/>
-      <c r="J112" s="162"/>
-      <c r="K112" s="162"/>
-      <c r="L112" s="152"/>
-      <c r="M112" s="154"/>
-      <c r="N112" s="152"/>
-      <c r="O112" s="154"/>
-      <c r="P112" s="146"/>
-      <c r="Q112" s="164"/>
-      <c r="R112" s="160"/>
+      <c r="E112" s="154"/>
+      <c r="F112" s="158"/>
+      <c r="G112" s="166"/>
+      <c r="H112" s="166"/>
+      <c r="I112" s="166"/>
+      <c r="J112" s="168"/>
+      <c r="K112" s="168"/>
+      <c r="L112" s="160"/>
+      <c r="M112" s="162"/>
+      <c r="N112" s="160"/>
+      <c r="O112" s="162"/>
+      <c r="P112" s="158"/>
+      <c r="Q112" s="170"/>
+      <c r="R112" s="184"/>
       <c r="S112" s="82"/>
       <c r="T112" s="83"/>
       <c r="U112" s="83"/>
@@ -21686,23 +21853,23 @@
       <c r="EL112" s="94"/>
     </row>
     <row r="113" spans="2:142" ht="9" customHeight="1">
-      <c r="B113" s="218"/>
-      <c r="C113" s="217"/>
+      <c r="B113" s="150"/>
+      <c r="C113" s="152"/>
       <c r="D113" s="155"/>
-      <c r="E113" s="147"/>
-      <c r="F113" s="145"/>
-      <c r="G113" s="149"/>
-      <c r="H113" s="149"/>
-      <c r="I113" s="149"/>
-      <c r="J113" s="161"/>
-      <c r="K113" s="161"/>
-      <c r="L113" s="151"/>
-      <c r="M113" s="153"/>
-      <c r="N113" s="151"/>
-      <c r="O113" s="153"/>
-      <c r="P113" s="145"/>
-      <c r="Q113" s="163"/>
-      <c r="R113" s="159"/>
+      <c r="E113" s="153"/>
+      <c r="F113" s="157"/>
+      <c r="G113" s="165"/>
+      <c r="H113" s="165"/>
+      <c r="I113" s="165"/>
+      <c r="J113" s="167"/>
+      <c r="K113" s="167"/>
+      <c r="L113" s="159"/>
+      <c r="M113" s="161"/>
+      <c r="N113" s="159"/>
+      <c r="O113" s="161"/>
+      <c r="P113" s="157"/>
+      <c r="Q113" s="169"/>
+      <c r="R113" s="183"/>
       <c r="S113" s="82"/>
       <c r="T113" s="85"/>
       <c r="U113" s="84"/>
@@ -21829,23 +21996,23 @@
       <c r="EL113" s="93"/>
     </row>
     <row r="114" spans="2:142" ht="9" customHeight="1">
-      <c r="B114" s="215"/>
-      <c r="C114" s="217"/>
+      <c r="B114" s="151"/>
+      <c r="C114" s="152"/>
       <c r="D114" s="156"/>
-      <c r="E114" s="148"/>
-      <c r="F114" s="146"/>
-      <c r="G114" s="150"/>
-      <c r="H114" s="150"/>
-      <c r="I114" s="150"/>
-      <c r="J114" s="162"/>
-      <c r="K114" s="162"/>
-      <c r="L114" s="152"/>
-      <c r="M114" s="154"/>
-      <c r="N114" s="152"/>
-      <c r="O114" s="154"/>
-      <c r="P114" s="146"/>
-      <c r="Q114" s="164"/>
-      <c r="R114" s="160"/>
+      <c r="E114" s="154"/>
+      <c r="F114" s="158"/>
+      <c r="G114" s="166"/>
+      <c r="H114" s="166"/>
+      <c r="I114" s="166"/>
+      <c r="J114" s="168"/>
+      <c r="K114" s="168"/>
+      <c r="L114" s="160"/>
+      <c r="M114" s="162"/>
+      <c r="N114" s="160"/>
+      <c r="O114" s="162"/>
+      <c r="P114" s="158"/>
+      <c r="Q114" s="170"/>
+      <c r="R114" s="184"/>
       <c r="S114" s="82"/>
       <c r="T114" s="83"/>
       <c r="U114" s="83"/>
@@ -21972,23 +22139,23 @@
       <c r="EL114" s="94"/>
     </row>
     <row r="115" spans="2:142" ht="9" customHeight="1">
-      <c r="B115" s="218"/>
-      <c r="C115" s="217"/>
+      <c r="B115" s="150"/>
+      <c r="C115" s="152"/>
       <c r="D115" s="155"/>
-      <c r="E115" s="147"/>
-      <c r="F115" s="145"/>
-      <c r="G115" s="149"/>
-      <c r="H115" s="149"/>
-      <c r="I115" s="149"/>
-      <c r="J115" s="161"/>
-      <c r="K115" s="161"/>
-      <c r="L115" s="151"/>
-      <c r="M115" s="153"/>
-      <c r="N115" s="151"/>
-      <c r="O115" s="153"/>
-      <c r="P115" s="145"/>
-      <c r="Q115" s="163"/>
-      <c r="R115" s="159"/>
+      <c r="E115" s="153"/>
+      <c r="F115" s="157"/>
+      <c r="G115" s="165"/>
+      <c r="H115" s="165"/>
+      <c r="I115" s="165"/>
+      <c r="J115" s="167"/>
+      <c r="K115" s="167"/>
+      <c r="L115" s="159"/>
+      <c r="M115" s="161"/>
+      <c r="N115" s="159"/>
+      <c r="O115" s="161"/>
+      <c r="P115" s="157"/>
+      <c r="Q115" s="169"/>
+      <c r="R115" s="183"/>
       <c r="S115" s="82"/>
       <c r="T115" s="85"/>
       <c r="U115" s="84"/>
@@ -22115,23 +22282,23 @@
       <c r="EL115" s="93"/>
     </row>
     <row r="116" spans="2:142" ht="9" customHeight="1">
-      <c r="B116" s="215"/>
-      <c r="C116" s="217"/>
+      <c r="B116" s="151"/>
+      <c r="C116" s="152"/>
       <c r="D116" s="156"/>
-      <c r="E116" s="148"/>
-      <c r="F116" s="146"/>
-      <c r="G116" s="150"/>
-      <c r="H116" s="150"/>
-      <c r="I116" s="150"/>
-      <c r="J116" s="162"/>
-      <c r="K116" s="162"/>
-      <c r="L116" s="152"/>
-      <c r="M116" s="154"/>
-      <c r="N116" s="152"/>
-      <c r="O116" s="154"/>
-      <c r="P116" s="146"/>
-      <c r="Q116" s="164"/>
-      <c r="R116" s="160"/>
+      <c r="E116" s="154"/>
+      <c r="F116" s="158"/>
+      <c r="G116" s="166"/>
+      <c r="H116" s="166"/>
+      <c r="I116" s="166"/>
+      <c r="J116" s="168"/>
+      <c r="K116" s="168"/>
+      <c r="L116" s="160"/>
+      <c r="M116" s="162"/>
+      <c r="N116" s="160"/>
+      <c r="O116" s="162"/>
+      <c r="P116" s="158"/>
+      <c r="Q116" s="170"/>
+      <c r="R116" s="184"/>
       <c r="S116" s="82"/>
       <c r="T116" s="83"/>
       <c r="U116" s="83"/>
@@ -22258,23 +22425,23 @@
       <c r="EL116" s="94"/>
     </row>
     <row r="117" spans="2:142" ht="9" customHeight="1">
-      <c r="B117" s="218"/>
-      <c r="C117" s="217"/>
+      <c r="B117" s="150"/>
+      <c r="C117" s="152"/>
       <c r="D117" s="155"/>
-      <c r="E117" s="147"/>
-      <c r="F117" s="145"/>
-      <c r="G117" s="149"/>
-      <c r="H117" s="149"/>
-      <c r="I117" s="149"/>
-      <c r="J117" s="161"/>
-      <c r="K117" s="161"/>
-      <c r="L117" s="151"/>
-      <c r="M117" s="153"/>
-      <c r="N117" s="151"/>
-      <c r="O117" s="153"/>
-      <c r="P117" s="145"/>
-      <c r="Q117" s="163"/>
-      <c r="R117" s="159"/>
+      <c r="E117" s="153"/>
+      <c r="F117" s="157"/>
+      <c r="G117" s="165"/>
+      <c r="H117" s="165"/>
+      <c r="I117" s="165"/>
+      <c r="J117" s="167"/>
+      <c r="K117" s="167"/>
+      <c r="L117" s="159"/>
+      <c r="M117" s="161"/>
+      <c r="N117" s="159"/>
+      <c r="O117" s="161"/>
+      <c r="P117" s="157"/>
+      <c r="Q117" s="169"/>
+      <c r="R117" s="183"/>
       <c r="S117" s="82"/>
       <c r="T117" s="85"/>
       <c r="U117" s="84"/>
@@ -22401,23 +22568,23 @@
       <c r="EL117" s="93"/>
     </row>
     <row r="118" spans="2:142" ht="9" customHeight="1">
-      <c r="B118" s="215"/>
-      <c r="C118" s="217"/>
+      <c r="B118" s="151"/>
+      <c r="C118" s="152"/>
       <c r="D118" s="156"/>
-      <c r="E118" s="148"/>
-      <c r="F118" s="146"/>
-      <c r="G118" s="150"/>
-      <c r="H118" s="150"/>
-      <c r="I118" s="150"/>
-      <c r="J118" s="162"/>
-      <c r="K118" s="162"/>
-      <c r="L118" s="152"/>
-      <c r="M118" s="154"/>
-      <c r="N118" s="152"/>
-      <c r="O118" s="154"/>
-      <c r="P118" s="146"/>
-      <c r="Q118" s="164"/>
-      <c r="R118" s="160"/>
+      <c r="E118" s="154"/>
+      <c r="F118" s="158"/>
+      <c r="G118" s="166"/>
+      <c r="H118" s="166"/>
+      <c r="I118" s="166"/>
+      <c r="J118" s="168"/>
+      <c r="K118" s="168"/>
+      <c r="L118" s="160"/>
+      <c r="M118" s="162"/>
+      <c r="N118" s="160"/>
+      <c r="O118" s="162"/>
+      <c r="P118" s="158"/>
+      <c r="Q118" s="170"/>
+      <c r="R118" s="184"/>
       <c r="S118" s="82"/>
       <c r="T118" s="83"/>
       <c r="U118" s="83"/>
@@ -22544,23 +22711,23 @@
       <c r="EL118" s="94"/>
     </row>
     <row r="119" spans="2:142" ht="9" customHeight="1">
-      <c r="B119" s="218"/>
-      <c r="C119" s="217"/>
+      <c r="B119" s="150"/>
+      <c r="C119" s="152"/>
       <c r="D119" s="155"/>
-      <c r="E119" s="147"/>
-      <c r="F119" s="145"/>
-      <c r="G119" s="149"/>
-      <c r="H119" s="149"/>
-      <c r="I119" s="149"/>
-      <c r="J119" s="161"/>
-      <c r="K119" s="161"/>
-      <c r="L119" s="151"/>
-      <c r="M119" s="153"/>
-      <c r="N119" s="151"/>
-      <c r="O119" s="153"/>
-      <c r="P119" s="145"/>
-      <c r="Q119" s="163"/>
-      <c r="R119" s="159"/>
+      <c r="E119" s="153"/>
+      <c r="F119" s="157"/>
+      <c r="G119" s="165"/>
+      <c r="H119" s="165"/>
+      <c r="I119" s="165"/>
+      <c r="J119" s="167"/>
+      <c r="K119" s="167"/>
+      <c r="L119" s="159"/>
+      <c r="M119" s="161"/>
+      <c r="N119" s="159"/>
+      <c r="O119" s="161"/>
+      <c r="P119" s="157"/>
+      <c r="Q119" s="169"/>
+      <c r="R119" s="183"/>
       <c r="S119" s="82"/>
       <c r="T119" s="85"/>
       <c r="U119" s="84"/>
@@ -22687,23 +22854,23 @@
       <c r="EL119" s="93"/>
     </row>
     <row r="120" spans="2:142" ht="9" customHeight="1">
-      <c r="B120" s="215"/>
-      <c r="C120" s="217"/>
+      <c r="B120" s="151"/>
+      <c r="C120" s="152"/>
       <c r="D120" s="156"/>
-      <c r="E120" s="148"/>
-      <c r="F120" s="146"/>
-      <c r="G120" s="150"/>
-      <c r="H120" s="150"/>
-      <c r="I120" s="150"/>
-      <c r="J120" s="162"/>
-      <c r="K120" s="162"/>
-      <c r="L120" s="152"/>
-      <c r="M120" s="154"/>
-      <c r="N120" s="152"/>
-      <c r="O120" s="154"/>
-      <c r="P120" s="146"/>
-      <c r="Q120" s="164"/>
-      <c r="R120" s="160"/>
+      <c r="E120" s="154"/>
+      <c r="F120" s="158"/>
+      <c r="G120" s="166"/>
+      <c r="H120" s="166"/>
+      <c r="I120" s="166"/>
+      <c r="J120" s="168"/>
+      <c r="K120" s="168"/>
+      <c r="L120" s="160"/>
+      <c r="M120" s="162"/>
+      <c r="N120" s="160"/>
+      <c r="O120" s="162"/>
+      <c r="P120" s="158"/>
+      <c r="Q120" s="170"/>
+      <c r="R120" s="184"/>
       <c r="S120" s="82"/>
       <c r="T120" s="83"/>
       <c r="U120" s="83"/>
@@ -22836,58 +23003,913 @@
   </autoFilter>
   <dataConsolidate/>
   <mergeCells count="985">
-    <mergeCell ref="DM2:DO2"/>
-    <mergeCell ref="DM3:DO3"/>
-    <mergeCell ref="CX2:CZ2"/>
-    <mergeCell ref="CX3:CZ3"/>
-    <mergeCell ref="DA2:DC2"/>
-    <mergeCell ref="DA3:DC3"/>
-    <mergeCell ref="DD2:DF2"/>
-    <mergeCell ref="DD3:DF3"/>
-    <mergeCell ref="DG2:DI2"/>
-    <mergeCell ref="DG3:DI3"/>
-    <mergeCell ref="DJ2:DL2"/>
-    <mergeCell ref="DJ3:DL3"/>
-    <mergeCell ref="CI2:CK2"/>
-    <mergeCell ref="CI3:CK3"/>
-    <mergeCell ref="CL2:CN2"/>
-    <mergeCell ref="CL3:CN3"/>
-    <mergeCell ref="CO2:CQ2"/>
-    <mergeCell ref="CO3:CQ3"/>
-    <mergeCell ref="CR2:CT2"/>
-    <mergeCell ref="CR3:CT3"/>
-    <mergeCell ref="CU2:CW2"/>
-    <mergeCell ref="CU3:CW3"/>
-    <mergeCell ref="B107:B108"/>
-    <mergeCell ref="C107:C108"/>
-    <mergeCell ref="E107:E108"/>
-    <mergeCell ref="B109:B110"/>
-    <mergeCell ref="C109:C110"/>
-    <mergeCell ref="E109:E110"/>
-    <mergeCell ref="B111:B112"/>
-    <mergeCell ref="C111:C112"/>
-    <mergeCell ref="E111:E112"/>
-    <mergeCell ref="B113:B114"/>
-    <mergeCell ref="C113:C114"/>
-    <mergeCell ref="E113:E114"/>
-    <mergeCell ref="B115:B116"/>
-    <mergeCell ref="C115:C116"/>
-    <mergeCell ref="B117:B118"/>
-    <mergeCell ref="C117:C118"/>
-    <mergeCell ref="B119:B120"/>
-    <mergeCell ref="C119:C120"/>
-    <mergeCell ref="D119:D120"/>
-    <mergeCell ref="D117:D118"/>
-    <mergeCell ref="E117:E118"/>
-    <mergeCell ref="B97:B98"/>
-    <mergeCell ref="C97:C98"/>
-    <mergeCell ref="D97:D98"/>
-    <mergeCell ref="E97:E98"/>
-    <mergeCell ref="F97:F98"/>
-    <mergeCell ref="P97:P98"/>
-    <mergeCell ref="B99:B100"/>
-    <mergeCell ref="C99:C100"/>
-    <mergeCell ref="E99:E100"/>
+    <mergeCell ref="P59:P60"/>
+    <mergeCell ref="P63:P64"/>
+    <mergeCell ref="P65:P66"/>
+    <mergeCell ref="P9:P10"/>
+    <mergeCell ref="P11:P12"/>
+    <mergeCell ref="P15:P16"/>
+    <mergeCell ref="P17:P18"/>
+    <mergeCell ref="P19:P20"/>
+    <mergeCell ref="P21:P22"/>
+    <mergeCell ref="P23:P24"/>
+    <mergeCell ref="P39:P40"/>
+    <mergeCell ref="P31:P32"/>
+    <mergeCell ref="P41:P42"/>
+    <mergeCell ref="F57:F58"/>
+    <mergeCell ref="G57:G58"/>
+    <mergeCell ref="H57:H58"/>
+    <mergeCell ref="I57:I58"/>
+    <mergeCell ref="J57:J58"/>
+    <mergeCell ref="P53:P54"/>
+    <mergeCell ref="P55:P56"/>
+    <mergeCell ref="P57:P58"/>
+    <mergeCell ref="K57:K58"/>
+    <mergeCell ref="L57:L58"/>
+    <mergeCell ref="L53:L54"/>
+    <mergeCell ref="M53:M54"/>
+    <mergeCell ref="N53:N54"/>
+    <mergeCell ref="D55:D56"/>
+    <mergeCell ref="H55:H56"/>
+    <mergeCell ref="I55:I56"/>
+    <mergeCell ref="J55:J56"/>
+    <mergeCell ref="K55:K56"/>
+    <mergeCell ref="L55:L56"/>
+    <mergeCell ref="M55:M56"/>
+    <mergeCell ref="N55:N56"/>
+    <mergeCell ref="G53:G54"/>
+    <mergeCell ref="F53:F54"/>
+    <mergeCell ref="F55:F56"/>
+    <mergeCell ref="R59:R60"/>
+    <mergeCell ref="M57:M58"/>
+    <mergeCell ref="E89:E90"/>
+    <mergeCell ref="G89:G90"/>
+    <mergeCell ref="J59:J60"/>
+    <mergeCell ref="K59:K60"/>
+    <mergeCell ref="L59:L60"/>
+    <mergeCell ref="D61:D62"/>
+    <mergeCell ref="G61:G62"/>
+    <mergeCell ref="H61:H62"/>
+    <mergeCell ref="I61:I62"/>
+    <mergeCell ref="J61:J62"/>
+    <mergeCell ref="K61:K62"/>
+    <mergeCell ref="L61:L62"/>
+    <mergeCell ref="M61:M62"/>
+    <mergeCell ref="N61:N62"/>
+    <mergeCell ref="J65:J66"/>
+    <mergeCell ref="K65:K66"/>
+    <mergeCell ref="N63:N64"/>
+    <mergeCell ref="O63:O64"/>
+    <mergeCell ref="D69:D70"/>
+    <mergeCell ref="D77:D78"/>
+    <mergeCell ref="D57:D58"/>
+    <mergeCell ref="E57:E58"/>
+    <mergeCell ref="R61:R62"/>
+    <mergeCell ref="G97:G98"/>
+    <mergeCell ref="H97:H98"/>
+    <mergeCell ref="I97:I98"/>
+    <mergeCell ref="J97:J98"/>
+    <mergeCell ref="K97:K98"/>
+    <mergeCell ref="L97:L98"/>
+    <mergeCell ref="M97:M98"/>
+    <mergeCell ref="N97:N98"/>
+    <mergeCell ref="O97:O98"/>
+    <mergeCell ref="Q97:Q98"/>
+    <mergeCell ref="R97:R98"/>
+    <mergeCell ref="P75:P76"/>
+    <mergeCell ref="G73:G74"/>
+    <mergeCell ref="H73:H74"/>
+    <mergeCell ref="I73:I74"/>
+    <mergeCell ref="N87:N88"/>
+    <mergeCell ref="O87:O88"/>
+    <mergeCell ref="Q87:Q88"/>
+    <mergeCell ref="R87:R88"/>
+    <mergeCell ref="P87:P88"/>
+    <mergeCell ref="N79:N80"/>
+    <mergeCell ref="O79:O80"/>
+    <mergeCell ref="Q83:Q84"/>
+    <mergeCell ref="D51:D52"/>
+    <mergeCell ref="H51:H52"/>
+    <mergeCell ref="I51:I52"/>
+    <mergeCell ref="J51:J52"/>
+    <mergeCell ref="K51:K52"/>
+    <mergeCell ref="D47:D48"/>
+    <mergeCell ref="H47:H48"/>
+    <mergeCell ref="I47:I48"/>
+    <mergeCell ref="J47:J48"/>
+    <mergeCell ref="K47:K48"/>
+    <mergeCell ref="D49:D50"/>
+    <mergeCell ref="H49:H50"/>
+    <mergeCell ref="I49:I50"/>
+    <mergeCell ref="J49:J50"/>
+    <mergeCell ref="K49:K50"/>
+    <mergeCell ref="G51:G52"/>
+    <mergeCell ref="E49:E50"/>
+    <mergeCell ref="E51:E52"/>
+    <mergeCell ref="F47:F48"/>
+    <mergeCell ref="F49:F50"/>
+    <mergeCell ref="F51:F52"/>
+    <mergeCell ref="O49:O50"/>
+    <mergeCell ref="G45:G46"/>
+    <mergeCell ref="G47:G48"/>
+    <mergeCell ref="L47:L48"/>
+    <mergeCell ref="G49:G50"/>
+    <mergeCell ref="G117:G118"/>
+    <mergeCell ref="H117:H118"/>
+    <mergeCell ref="I117:I118"/>
+    <mergeCell ref="J117:J118"/>
+    <mergeCell ref="O115:O116"/>
+    <mergeCell ref="K117:K118"/>
+    <mergeCell ref="K107:K108"/>
+    <mergeCell ref="L107:L108"/>
+    <mergeCell ref="M107:M108"/>
+    <mergeCell ref="N107:N108"/>
+    <mergeCell ref="O107:O108"/>
+    <mergeCell ref="O105:O106"/>
+    <mergeCell ref="I91:I92"/>
+    <mergeCell ref="J91:J92"/>
+    <mergeCell ref="K91:K92"/>
+    <mergeCell ref="L91:L92"/>
+    <mergeCell ref="I53:I54"/>
+    <mergeCell ref="J53:J54"/>
+    <mergeCell ref="K53:K54"/>
+    <mergeCell ref="F117:F118"/>
+    <mergeCell ref="F119:F120"/>
+    <mergeCell ref="E119:E120"/>
+    <mergeCell ref="R45:R46"/>
+    <mergeCell ref="P45:P46"/>
+    <mergeCell ref="N57:N58"/>
+    <mergeCell ref="O57:O58"/>
+    <mergeCell ref="G55:G56"/>
+    <mergeCell ref="E53:E54"/>
+    <mergeCell ref="E55:E56"/>
+    <mergeCell ref="Q49:Q50"/>
+    <mergeCell ref="R49:R50"/>
+    <mergeCell ref="M47:M48"/>
+    <mergeCell ref="N47:N48"/>
+    <mergeCell ref="O47:O48"/>
+    <mergeCell ref="I45:I46"/>
+    <mergeCell ref="J45:J46"/>
+    <mergeCell ref="K45:K46"/>
+    <mergeCell ref="L45:L46"/>
+    <mergeCell ref="M45:M46"/>
+    <mergeCell ref="G119:G120"/>
+    <mergeCell ref="H119:H120"/>
+    <mergeCell ref="I119:I120"/>
+    <mergeCell ref="J119:J120"/>
+    <mergeCell ref="N43:N44"/>
+    <mergeCell ref="O43:O44"/>
+    <mergeCell ref="R41:R42"/>
+    <mergeCell ref="Q43:Q44"/>
+    <mergeCell ref="R43:R44"/>
+    <mergeCell ref="N45:N46"/>
+    <mergeCell ref="O45:O46"/>
+    <mergeCell ref="Q45:Q46"/>
+    <mergeCell ref="H43:H44"/>
+    <mergeCell ref="P117:P118"/>
+    <mergeCell ref="P119:P120"/>
+    <mergeCell ref="L117:L118"/>
+    <mergeCell ref="M117:M118"/>
+    <mergeCell ref="N117:N118"/>
+    <mergeCell ref="O117:O118"/>
+    <mergeCell ref="Q117:Q118"/>
+    <mergeCell ref="R117:R118"/>
+    <mergeCell ref="O119:O120"/>
+    <mergeCell ref="Q119:Q120"/>
+    <mergeCell ref="R119:R120"/>
+    <mergeCell ref="K119:K120"/>
+    <mergeCell ref="L119:L120"/>
+    <mergeCell ref="M119:M120"/>
+    <mergeCell ref="N119:N120"/>
+    <mergeCell ref="Q111:Q112"/>
+    <mergeCell ref="R111:R112"/>
+    <mergeCell ref="F111:F112"/>
+    <mergeCell ref="K113:K114"/>
+    <mergeCell ref="L113:L114"/>
+    <mergeCell ref="M113:M114"/>
+    <mergeCell ref="N113:N114"/>
+    <mergeCell ref="O113:O114"/>
+    <mergeCell ref="Q113:Q114"/>
+    <mergeCell ref="R113:R114"/>
+    <mergeCell ref="P111:P112"/>
+    <mergeCell ref="P113:P114"/>
+    <mergeCell ref="G111:G112"/>
+    <mergeCell ref="H111:H112"/>
+    <mergeCell ref="I111:I112"/>
+    <mergeCell ref="G113:G114"/>
+    <mergeCell ref="H113:H114"/>
+    <mergeCell ref="Q115:Q116"/>
+    <mergeCell ref="R115:R116"/>
+    <mergeCell ref="P115:P116"/>
+    <mergeCell ref="M111:M112"/>
+    <mergeCell ref="N111:N112"/>
+    <mergeCell ref="O111:O112"/>
+    <mergeCell ref="D113:D114"/>
+    <mergeCell ref="D115:D116"/>
+    <mergeCell ref="G115:G116"/>
+    <mergeCell ref="H115:H116"/>
+    <mergeCell ref="I115:I116"/>
+    <mergeCell ref="J115:J116"/>
+    <mergeCell ref="K115:K116"/>
+    <mergeCell ref="L115:L116"/>
+    <mergeCell ref="M115:M116"/>
+    <mergeCell ref="N115:N116"/>
+    <mergeCell ref="I113:I114"/>
+    <mergeCell ref="J113:J114"/>
+    <mergeCell ref="E115:E116"/>
+    <mergeCell ref="F113:F114"/>
+    <mergeCell ref="F115:F116"/>
+    <mergeCell ref="D111:D112"/>
+    <mergeCell ref="J111:J112"/>
+    <mergeCell ref="K111:K112"/>
+    <mergeCell ref="L111:L112"/>
+    <mergeCell ref="Q107:Q108"/>
+    <mergeCell ref="R107:R108"/>
+    <mergeCell ref="D109:D110"/>
+    <mergeCell ref="G109:G110"/>
+    <mergeCell ref="H109:H110"/>
+    <mergeCell ref="I109:I110"/>
+    <mergeCell ref="J109:J110"/>
+    <mergeCell ref="K109:K110"/>
+    <mergeCell ref="L109:L110"/>
+    <mergeCell ref="M109:M110"/>
+    <mergeCell ref="N109:N110"/>
+    <mergeCell ref="O109:O110"/>
+    <mergeCell ref="Q109:Q110"/>
+    <mergeCell ref="R109:R110"/>
+    <mergeCell ref="D107:D108"/>
+    <mergeCell ref="G107:G108"/>
+    <mergeCell ref="H107:H108"/>
+    <mergeCell ref="I107:I108"/>
+    <mergeCell ref="J107:J108"/>
+    <mergeCell ref="F109:F110"/>
+    <mergeCell ref="P109:P110"/>
+    <mergeCell ref="Q105:Q106"/>
+    <mergeCell ref="R105:R106"/>
+    <mergeCell ref="E105:E106"/>
+    <mergeCell ref="D103:D104"/>
+    <mergeCell ref="J101:J102"/>
+    <mergeCell ref="K101:K102"/>
+    <mergeCell ref="L101:L102"/>
+    <mergeCell ref="P91:P92"/>
+    <mergeCell ref="P93:P94"/>
+    <mergeCell ref="P95:P96"/>
+    <mergeCell ref="P99:P100"/>
+    <mergeCell ref="P101:P102"/>
+    <mergeCell ref="P103:P104"/>
+    <mergeCell ref="P105:P106"/>
+    <mergeCell ref="O91:O92"/>
+    <mergeCell ref="Q91:Q92"/>
+    <mergeCell ref="R91:R92"/>
+    <mergeCell ref="I95:I96"/>
+    <mergeCell ref="J95:J96"/>
+    <mergeCell ref="K95:K96"/>
+    <mergeCell ref="F95:F96"/>
+    <mergeCell ref="K99:K100"/>
+    <mergeCell ref="M105:M106"/>
+    <mergeCell ref="N105:N106"/>
+    <mergeCell ref="D93:D94"/>
+    <mergeCell ref="R89:R90"/>
+    <mergeCell ref="F89:F90"/>
+    <mergeCell ref="M101:M102"/>
+    <mergeCell ref="N101:N102"/>
+    <mergeCell ref="F101:F102"/>
+    <mergeCell ref="F103:F104"/>
+    <mergeCell ref="M95:M96"/>
+    <mergeCell ref="O95:O96"/>
+    <mergeCell ref="Q95:Q96"/>
+    <mergeCell ref="L89:L90"/>
+    <mergeCell ref="M89:M90"/>
+    <mergeCell ref="N89:N90"/>
+    <mergeCell ref="O89:O90"/>
+    <mergeCell ref="Q89:Q90"/>
+    <mergeCell ref="P89:P90"/>
+    <mergeCell ref="M103:M104"/>
+    <mergeCell ref="N103:N104"/>
+    <mergeCell ref="O103:O104"/>
+    <mergeCell ref="Q103:Q104"/>
+    <mergeCell ref="R103:R104"/>
+    <mergeCell ref="L99:L100"/>
+    <mergeCell ref="Q99:Q100"/>
+    <mergeCell ref="R101:R102"/>
+    <mergeCell ref="O101:O102"/>
+    <mergeCell ref="Q101:Q102"/>
+    <mergeCell ref="H89:H90"/>
+    <mergeCell ref="I89:I90"/>
+    <mergeCell ref="O93:O94"/>
+    <mergeCell ref="Q93:Q94"/>
+    <mergeCell ref="R93:R94"/>
+    <mergeCell ref="N93:N94"/>
+    <mergeCell ref="M91:M92"/>
+    <mergeCell ref="N91:N92"/>
+    <mergeCell ref="F91:F92"/>
+    <mergeCell ref="G103:G104"/>
+    <mergeCell ref="H103:H104"/>
+    <mergeCell ref="I103:I104"/>
+    <mergeCell ref="J103:J104"/>
+    <mergeCell ref="E93:E94"/>
+    <mergeCell ref="G93:G94"/>
+    <mergeCell ref="I99:I100"/>
+    <mergeCell ref="M87:M88"/>
+    <mergeCell ref="J89:J90"/>
+    <mergeCell ref="K89:K90"/>
+    <mergeCell ref="L103:L104"/>
+    <mergeCell ref="K93:K94"/>
+    <mergeCell ref="G99:G100"/>
+    <mergeCell ref="H99:H100"/>
+    <mergeCell ref="L95:L96"/>
+    <mergeCell ref="H93:H94"/>
+    <mergeCell ref="M93:M94"/>
+    <mergeCell ref="M99:M100"/>
+    <mergeCell ref="K103:K104"/>
+    <mergeCell ref="E85:E86"/>
+    <mergeCell ref="G85:G86"/>
+    <mergeCell ref="H85:H86"/>
+    <mergeCell ref="I85:I86"/>
+    <mergeCell ref="R85:R86"/>
+    <mergeCell ref="F85:F86"/>
+    <mergeCell ref="L85:L86"/>
+    <mergeCell ref="M85:M86"/>
+    <mergeCell ref="N85:N86"/>
+    <mergeCell ref="O85:O86"/>
+    <mergeCell ref="Q85:Q86"/>
+    <mergeCell ref="P85:P86"/>
+    <mergeCell ref="J85:J86"/>
+    <mergeCell ref="K85:K86"/>
+    <mergeCell ref="D83:D84"/>
+    <mergeCell ref="D81:D82"/>
+    <mergeCell ref="G83:G84"/>
+    <mergeCell ref="H83:H84"/>
+    <mergeCell ref="I83:I84"/>
+    <mergeCell ref="J83:J84"/>
+    <mergeCell ref="K83:K84"/>
+    <mergeCell ref="R83:R84"/>
+    <mergeCell ref="G81:G82"/>
+    <mergeCell ref="H81:H82"/>
+    <mergeCell ref="I81:I82"/>
+    <mergeCell ref="E83:E84"/>
+    <mergeCell ref="E81:E82"/>
+    <mergeCell ref="J81:J82"/>
+    <mergeCell ref="K81:K82"/>
+    <mergeCell ref="Q81:Q82"/>
+    <mergeCell ref="R81:R82"/>
+    <mergeCell ref="L81:L82"/>
+    <mergeCell ref="M81:M82"/>
+    <mergeCell ref="N81:N82"/>
+    <mergeCell ref="O81:O82"/>
+    <mergeCell ref="F79:F80"/>
+    <mergeCell ref="F81:F82"/>
+    <mergeCell ref="F83:F84"/>
+    <mergeCell ref="I79:I80"/>
+    <mergeCell ref="J79:J80"/>
+    <mergeCell ref="K79:K80"/>
+    <mergeCell ref="R77:R78"/>
+    <mergeCell ref="E77:E78"/>
+    <mergeCell ref="G77:G78"/>
+    <mergeCell ref="H77:H78"/>
+    <mergeCell ref="I77:I78"/>
+    <mergeCell ref="L79:L80"/>
+    <mergeCell ref="P79:P80"/>
+    <mergeCell ref="P81:P82"/>
+    <mergeCell ref="P83:P84"/>
+    <mergeCell ref="E79:E80"/>
+    <mergeCell ref="N83:N84"/>
+    <mergeCell ref="O83:O84"/>
+    <mergeCell ref="L83:L84"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="J17:J18"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="K17:K18"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="P71:P72"/>
+    <mergeCell ref="P77:P78"/>
+    <mergeCell ref="R69:R70"/>
+    <mergeCell ref="O73:O74"/>
+    <mergeCell ref="Q73:Q74"/>
+    <mergeCell ref="R73:R74"/>
+    <mergeCell ref="K77:K78"/>
+    <mergeCell ref="N69:N70"/>
+    <mergeCell ref="O75:O76"/>
+    <mergeCell ref="Q75:Q76"/>
+    <mergeCell ref="F77:F78"/>
+    <mergeCell ref="Q39:Q40"/>
+    <mergeCell ref="R39:R40"/>
+    <mergeCell ref="O55:O56"/>
+    <mergeCell ref="H41:H42"/>
+    <mergeCell ref="I41:I42"/>
+    <mergeCell ref="J41:J42"/>
+    <mergeCell ref="K41:K42"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="H19:H20"/>
+    <mergeCell ref="I19:I20"/>
+    <mergeCell ref="J19:J20"/>
+    <mergeCell ref="K19:K20"/>
+    <mergeCell ref="L19:L20"/>
+    <mergeCell ref="M19:M20"/>
+    <mergeCell ref="M15:M16"/>
+    <mergeCell ref="N15:N16"/>
+    <mergeCell ref="EL8:EL10"/>
+    <mergeCell ref="M13:M14"/>
+    <mergeCell ref="O15:O16"/>
+    <mergeCell ref="Q15:Q16"/>
+    <mergeCell ref="R15:R16"/>
+    <mergeCell ref="H15:H16"/>
+    <mergeCell ref="J13:J14"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="O11:O12"/>
+    <mergeCell ref="Q11:Q12"/>
+    <mergeCell ref="P13:P14"/>
+    <mergeCell ref="R11:R12"/>
+    <mergeCell ref="L11:L12"/>
+    <mergeCell ref="H13:H14"/>
+    <mergeCell ref="I13:I14"/>
+    <mergeCell ref="N13:N14"/>
+    <mergeCell ref="Q37:Q38"/>
+    <mergeCell ref="R37:R38"/>
+    <mergeCell ref="N37:N38"/>
+    <mergeCell ref="R33:R34"/>
+    <mergeCell ref="H35:H36"/>
+    <mergeCell ref="I35:I36"/>
+    <mergeCell ref="J35:J36"/>
+    <mergeCell ref="K35:K36"/>
+    <mergeCell ref="L35:L36"/>
+    <mergeCell ref="H37:H38"/>
+    <mergeCell ref="I37:I38"/>
+    <mergeCell ref="J37:J38"/>
+    <mergeCell ref="R63:R64"/>
+    <mergeCell ref="M71:M72"/>
+    <mergeCell ref="N71:N72"/>
+    <mergeCell ref="R99:R100"/>
+    <mergeCell ref="G95:G96"/>
+    <mergeCell ref="D95:D96"/>
+    <mergeCell ref="E95:E96"/>
+    <mergeCell ref="D99:D100"/>
+    <mergeCell ref="Q71:Q72"/>
+    <mergeCell ref="R71:R72"/>
+    <mergeCell ref="R65:R66"/>
+    <mergeCell ref="L65:L66"/>
+    <mergeCell ref="R67:R68"/>
+    <mergeCell ref="L73:L74"/>
+    <mergeCell ref="M73:M74"/>
+    <mergeCell ref="M65:M66"/>
+    <mergeCell ref="N65:N66"/>
+    <mergeCell ref="O65:O66"/>
+    <mergeCell ref="Q65:Q66"/>
+    <mergeCell ref="R75:R76"/>
+    <mergeCell ref="Q77:Q78"/>
+    <mergeCell ref="O69:O70"/>
+    <mergeCell ref="P73:P74"/>
+    <mergeCell ref="M69:M70"/>
+    <mergeCell ref="D105:D106"/>
+    <mergeCell ref="G105:G106"/>
+    <mergeCell ref="H105:H106"/>
+    <mergeCell ref="M63:M64"/>
+    <mergeCell ref="L77:L78"/>
+    <mergeCell ref="M77:M78"/>
+    <mergeCell ref="N77:N78"/>
+    <mergeCell ref="O77:O78"/>
+    <mergeCell ref="K67:K68"/>
+    <mergeCell ref="I71:I72"/>
+    <mergeCell ref="D63:D64"/>
+    <mergeCell ref="O71:O72"/>
+    <mergeCell ref="D75:D76"/>
+    <mergeCell ref="E75:E76"/>
+    <mergeCell ref="G75:G76"/>
+    <mergeCell ref="H75:H76"/>
+    <mergeCell ref="I75:I76"/>
+    <mergeCell ref="K63:K64"/>
+    <mergeCell ref="I67:I68"/>
+    <mergeCell ref="J77:J78"/>
+    <mergeCell ref="K71:K72"/>
+    <mergeCell ref="L71:L72"/>
+    <mergeCell ref="D65:D66"/>
+    <mergeCell ref="M83:M84"/>
+    <mergeCell ref="M17:M18"/>
+    <mergeCell ref="K33:K34"/>
+    <mergeCell ref="H33:H34"/>
+    <mergeCell ref="L33:L34"/>
+    <mergeCell ref="M33:M34"/>
+    <mergeCell ref="N33:N34"/>
+    <mergeCell ref="O33:O34"/>
+    <mergeCell ref="Q33:Q34"/>
+    <mergeCell ref="Q31:Q32"/>
+    <mergeCell ref="H31:H32"/>
+    <mergeCell ref="J21:J22"/>
+    <mergeCell ref="K21:K22"/>
+    <mergeCell ref="L21:L22"/>
+    <mergeCell ref="M21:M22"/>
+    <mergeCell ref="N21:N22"/>
+    <mergeCell ref="O21:O22"/>
+    <mergeCell ref="Q21:Q22"/>
+    <mergeCell ref="Q25:Q26"/>
+    <mergeCell ref="O17:O18"/>
+    <mergeCell ref="O19:O20"/>
+    <mergeCell ref="Q19:Q20"/>
+    <mergeCell ref="K27:K28"/>
+    <mergeCell ref="N17:N18"/>
+    <mergeCell ref="N19:N20"/>
+    <mergeCell ref="BZ2:CB2"/>
+    <mergeCell ref="CC2:CE2"/>
+    <mergeCell ref="CF2:CH2"/>
+    <mergeCell ref="CC3:CE3"/>
+    <mergeCell ref="BZ3:CB3"/>
+    <mergeCell ref="CF3:CH3"/>
+    <mergeCell ref="O53:O54"/>
+    <mergeCell ref="Q53:Q54"/>
+    <mergeCell ref="R53:R54"/>
+    <mergeCell ref="Q2:R2"/>
+    <mergeCell ref="Q3:R3"/>
+    <mergeCell ref="O35:O36"/>
+    <mergeCell ref="Q35:Q36"/>
+    <mergeCell ref="R35:R36"/>
+    <mergeCell ref="P33:P34"/>
+    <mergeCell ref="P35:P36"/>
+    <mergeCell ref="Q47:Q48"/>
+    <mergeCell ref="R47:R48"/>
+    <mergeCell ref="O51:O52"/>
+    <mergeCell ref="Q51:Q52"/>
+    <mergeCell ref="R51:R52"/>
+    <mergeCell ref="P37:P38"/>
+    <mergeCell ref="R19:R20"/>
+    <mergeCell ref="O37:O38"/>
+    <mergeCell ref="R31:R32"/>
+    <mergeCell ref="K31:K32"/>
+    <mergeCell ref="K37:K38"/>
+    <mergeCell ref="Q55:Q56"/>
+    <mergeCell ref="R55:R56"/>
+    <mergeCell ref="L67:L68"/>
+    <mergeCell ref="Q17:Q18"/>
+    <mergeCell ref="L63:L64"/>
+    <mergeCell ref="L51:L52"/>
+    <mergeCell ref="M51:M52"/>
+    <mergeCell ref="N51:N52"/>
+    <mergeCell ref="Q57:Q58"/>
+    <mergeCell ref="R57:R58"/>
+    <mergeCell ref="O61:O62"/>
+    <mergeCell ref="M59:M60"/>
+    <mergeCell ref="N59:N60"/>
+    <mergeCell ref="O59:O60"/>
+    <mergeCell ref="Q59:Q60"/>
+    <mergeCell ref="Q61:Q62"/>
+    <mergeCell ref="P43:P44"/>
+    <mergeCell ref="P47:P48"/>
+    <mergeCell ref="P49:P50"/>
+    <mergeCell ref="P51:P52"/>
+    <mergeCell ref="Q41:Q42"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="N3:O3"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="O13:O14"/>
+    <mergeCell ref="Q13:Q14"/>
+    <mergeCell ref="R13:R14"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="Q9:R10"/>
+    <mergeCell ref="N9:O9"/>
+    <mergeCell ref="H7:O7"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="N11:N12"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="H11:H12"/>
+    <mergeCell ref="I11:I12"/>
+    <mergeCell ref="J11:J12"/>
+    <mergeCell ref="K11:K12"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="M11:M12"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="Q63:Q64"/>
+    <mergeCell ref="L93:L94"/>
+    <mergeCell ref="M79:M80"/>
+    <mergeCell ref="D71:D72"/>
+    <mergeCell ref="D73:D74"/>
+    <mergeCell ref="F99:F100"/>
+    <mergeCell ref="F37:F38"/>
+    <mergeCell ref="F31:F32"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="H91:H92"/>
+    <mergeCell ref="D53:D54"/>
+    <mergeCell ref="F93:F94"/>
+    <mergeCell ref="D79:D80"/>
+    <mergeCell ref="G79:G80"/>
+    <mergeCell ref="H79:H80"/>
+    <mergeCell ref="D89:D90"/>
+    <mergeCell ref="G91:G92"/>
+    <mergeCell ref="E47:E48"/>
+    <mergeCell ref="F63:F64"/>
+    <mergeCell ref="F65:F66"/>
+    <mergeCell ref="D39:D40"/>
+    <mergeCell ref="D35:D36"/>
+    <mergeCell ref="D37:D38"/>
+    <mergeCell ref="J63:J64"/>
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="D43:D44"/>
+    <mergeCell ref="I29:I30"/>
+    <mergeCell ref="O27:O28"/>
+    <mergeCell ref="F61:F62"/>
+    <mergeCell ref="P61:P62"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="G39:G40"/>
+    <mergeCell ref="E39:E40"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="F29:F30"/>
+    <mergeCell ref="M35:M36"/>
+    <mergeCell ref="N35:N36"/>
+    <mergeCell ref="M37:M38"/>
+    <mergeCell ref="J39:J40"/>
+    <mergeCell ref="K39:K40"/>
+    <mergeCell ref="L39:L40"/>
+    <mergeCell ref="M39:M40"/>
+    <mergeCell ref="N39:N40"/>
+    <mergeCell ref="O39:O40"/>
+    <mergeCell ref="E41:E42"/>
+    <mergeCell ref="E43:E44"/>
+    <mergeCell ref="L49:L50"/>
+    <mergeCell ref="M49:M50"/>
+    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="H21:H22"/>
+    <mergeCell ref="K25:K26"/>
+    <mergeCell ref="L25:L26"/>
+    <mergeCell ref="M25:M26"/>
+    <mergeCell ref="N25:N26"/>
+    <mergeCell ref="L27:L28"/>
+    <mergeCell ref="M27:M28"/>
+    <mergeCell ref="G35:G36"/>
+    <mergeCell ref="G29:G30"/>
+    <mergeCell ref="H29:H30"/>
+    <mergeCell ref="I21:I22"/>
+    <mergeCell ref="J33:J34"/>
+    <mergeCell ref="G25:G26"/>
+    <mergeCell ref="H25:H26"/>
+    <mergeCell ref="I25:I26"/>
+    <mergeCell ref="J25:J26"/>
+    <mergeCell ref="G33:G34"/>
+    <mergeCell ref="M75:M76"/>
+    <mergeCell ref="N75:N76"/>
+    <mergeCell ref="J73:J74"/>
+    <mergeCell ref="P29:P30"/>
+    <mergeCell ref="J29:J30"/>
+    <mergeCell ref="K29:K30"/>
+    <mergeCell ref="L29:L30"/>
+    <mergeCell ref="M29:M30"/>
+    <mergeCell ref="N29:N30"/>
+    <mergeCell ref="O29:O30"/>
+    <mergeCell ref="L31:L32"/>
+    <mergeCell ref="M31:M32"/>
+    <mergeCell ref="L37:L38"/>
+    <mergeCell ref="N31:N32"/>
+    <mergeCell ref="O31:O32"/>
+    <mergeCell ref="N49:N50"/>
+    <mergeCell ref="L41:L42"/>
+    <mergeCell ref="M41:M42"/>
+    <mergeCell ref="N41:N42"/>
+    <mergeCell ref="O41:O42"/>
+    <mergeCell ref="J43:J44"/>
+    <mergeCell ref="K43:K44"/>
+    <mergeCell ref="L43:L44"/>
+    <mergeCell ref="M43:M44"/>
+    <mergeCell ref="I105:I106"/>
+    <mergeCell ref="J105:J106"/>
+    <mergeCell ref="K105:K106"/>
+    <mergeCell ref="L105:L106"/>
+    <mergeCell ref="F67:F68"/>
+    <mergeCell ref="F69:F70"/>
+    <mergeCell ref="F71:F72"/>
+    <mergeCell ref="F73:F74"/>
+    <mergeCell ref="F75:F76"/>
+    <mergeCell ref="G67:G68"/>
+    <mergeCell ref="G101:G102"/>
+    <mergeCell ref="G71:G72"/>
+    <mergeCell ref="H71:H72"/>
+    <mergeCell ref="G87:G88"/>
+    <mergeCell ref="H87:H88"/>
+    <mergeCell ref="I87:I88"/>
+    <mergeCell ref="J87:J88"/>
+    <mergeCell ref="K87:K88"/>
+    <mergeCell ref="L87:L88"/>
+    <mergeCell ref="J71:J72"/>
+    <mergeCell ref="J67:J68"/>
+    <mergeCell ref="J75:J76"/>
+    <mergeCell ref="K75:K76"/>
+    <mergeCell ref="L75:L76"/>
+    <mergeCell ref="R25:R26"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="F27:F28"/>
+    <mergeCell ref="G27:G28"/>
+    <mergeCell ref="H27:H28"/>
+    <mergeCell ref="I27:I28"/>
+    <mergeCell ref="J27:J28"/>
+    <mergeCell ref="N27:N28"/>
+    <mergeCell ref="Q29:Q30"/>
+    <mergeCell ref="R29:R30"/>
+    <mergeCell ref="H53:H54"/>
+    <mergeCell ref="O25:O26"/>
+    <mergeCell ref="R27:R28"/>
+    <mergeCell ref="R21:R22"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="G23:G24"/>
+    <mergeCell ref="H23:H24"/>
+    <mergeCell ref="I23:I24"/>
+    <mergeCell ref="J23:J24"/>
+    <mergeCell ref="K23:K24"/>
+    <mergeCell ref="L23:L24"/>
+    <mergeCell ref="M23:M24"/>
+    <mergeCell ref="N23:N24"/>
+    <mergeCell ref="O23:O24"/>
+    <mergeCell ref="Q23:Q24"/>
+    <mergeCell ref="R23:R24"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="G31:G32"/>
+    <mergeCell ref="R17:R18"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="P107:P108"/>
+    <mergeCell ref="R95:R96"/>
+    <mergeCell ref="H95:H96"/>
+    <mergeCell ref="P69:P70"/>
+    <mergeCell ref="Q79:Q80"/>
+    <mergeCell ref="R79:R80"/>
+    <mergeCell ref="Q27:Q28"/>
+    <mergeCell ref="P25:P26"/>
+    <mergeCell ref="P27:P28"/>
+    <mergeCell ref="I31:I32"/>
+    <mergeCell ref="J31:J32"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="F25:F26"/>
+    <mergeCell ref="F105:F106"/>
+    <mergeCell ref="F107:F108"/>
+    <mergeCell ref="J99:J100"/>
+    <mergeCell ref="H101:H102"/>
+    <mergeCell ref="I101:I102"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="K13:K14"/>
+    <mergeCell ref="L13:L14"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="H17:H18"/>
+    <mergeCell ref="I17:I18"/>
+    <mergeCell ref="L17:L18"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="I15:I16"/>
+    <mergeCell ref="J15:J16"/>
+    <mergeCell ref="K15:K16"/>
+    <mergeCell ref="L15:L16"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="C41:C42"/>
+    <mergeCell ref="B43:B44"/>
+    <mergeCell ref="C43:C44"/>
+    <mergeCell ref="B45:B46"/>
+    <mergeCell ref="C45:C46"/>
+    <mergeCell ref="D41:D42"/>
+    <mergeCell ref="I43:I44"/>
+    <mergeCell ref="D45:D46"/>
+    <mergeCell ref="H45:H46"/>
+    <mergeCell ref="G41:G42"/>
+    <mergeCell ref="E45:E46"/>
+    <mergeCell ref="G43:G44"/>
+    <mergeCell ref="F43:F44"/>
+    <mergeCell ref="F45:F46"/>
+    <mergeCell ref="F41:F42"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="C33:C34"/>
+    <mergeCell ref="I33:I34"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="C35:C36"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="C37:C38"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="C39:C40"/>
+    <mergeCell ref="H39:H40"/>
+    <mergeCell ref="I39:I40"/>
+    <mergeCell ref="F39:F40"/>
+    <mergeCell ref="D33:D34"/>
+    <mergeCell ref="F33:F34"/>
+    <mergeCell ref="F35:F36"/>
+    <mergeCell ref="G37:G38"/>
+    <mergeCell ref="E37:E38"/>
+    <mergeCell ref="E33:E34"/>
+    <mergeCell ref="E35:E36"/>
+    <mergeCell ref="B65:B66"/>
+    <mergeCell ref="C65:C66"/>
+    <mergeCell ref="E65:E66"/>
+    <mergeCell ref="G65:G66"/>
+    <mergeCell ref="H65:H66"/>
+    <mergeCell ref="I65:I66"/>
+    <mergeCell ref="B47:B48"/>
+    <mergeCell ref="C47:C48"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="C49:C50"/>
+    <mergeCell ref="B51:B52"/>
+    <mergeCell ref="C51:C52"/>
+    <mergeCell ref="B53:B54"/>
+    <mergeCell ref="C53:C54"/>
+    <mergeCell ref="B55:B56"/>
+    <mergeCell ref="C55:C56"/>
+    <mergeCell ref="B57:B58"/>
+    <mergeCell ref="C57:C58"/>
+    <mergeCell ref="B59:B60"/>
+    <mergeCell ref="C59:C60"/>
+    <mergeCell ref="B61:B62"/>
+    <mergeCell ref="C61:C62"/>
+    <mergeCell ref="B63:B64"/>
+    <mergeCell ref="C63:C64"/>
+    <mergeCell ref="E63:E64"/>
+    <mergeCell ref="G63:G64"/>
+    <mergeCell ref="H63:H64"/>
+    <mergeCell ref="I63:I64"/>
+    <mergeCell ref="D59:D60"/>
+    <mergeCell ref="E59:E60"/>
+    <mergeCell ref="F59:F60"/>
+    <mergeCell ref="G59:G60"/>
+    <mergeCell ref="H59:H60"/>
+    <mergeCell ref="I59:I60"/>
+    <mergeCell ref="E61:E62"/>
+    <mergeCell ref="B67:B68"/>
+    <mergeCell ref="C67:C68"/>
+    <mergeCell ref="E67:E68"/>
+    <mergeCell ref="M67:M68"/>
+    <mergeCell ref="N67:N68"/>
+    <mergeCell ref="O67:O68"/>
+    <mergeCell ref="Q67:Q68"/>
+    <mergeCell ref="B69:B70"/>
+    <mergeCell ref="C69:C70"/>
+    <mergeCell ref="E69:E70"/>
+    <mergeCell ref="G69:G70"/>
+    <mergeCell ref="H69:H70"/>
+    <mergeCell ref="I69:I70"/>
+    <mergeCell ref="J69:J70"/>
+    <mergeCell ref="K69:K70"/>
+    <mergeCell ref="L69:L70"/>
+    <mergeCell ref="Q69:Q70"/>
+    <mergeCell ref="D67:D68"/>
+    <mergeCell ref="P67:P68"/>
+    <mergeCell ref="H67:H68"/>
+    <mergeCell ref="B95:B96"/>
+    <mergeCell ref="C95:C96"/>
+    <mergeCell ref="B71:B72"/>
+    <mergeCell ref="C71:C72"/>
+    <mergeCell ref="E71:E72"/>
+    <mergeCell ref="B73:B74"/>
+    <mergeCell ref="C73:C74"/>
+    <mergeCell ref="E73:E74"/>
+    <mergeCell ref="N73:N74"/>
+    <mergeCell ref="B75:B76"/>
+    <mergeCell ref="C75:C76"/>
+    <mergeCell ref="B77:B78"/>
+    <mergeCell ref="C77:C78"/>
+    <mergeCell ref="B79:B80"/>
+    <mergeCell ref="C79:C80"/>
+    <mergeCell ref="B81:B82"/>
+    <mergeCell ref="C81:C82"/>
+    <mergeCell ref="B83:B84"/>
+    <mergeCell ref="C83:C84"/>
+    <mergeCell ref="I93:I94"/>
+    <mergeCell ref="J93:J94"/>
+    <mergeCell ref="N95:N96"/>
+    <mergeCell ref="F87:F88"/>
+    <mergeCell ref="K73:K74"/>
     <mergeCell ref="B101:B102"/>
     <mergeCell ref="C101:C102"/>
     <mergeCell ref="E101:E102"/>
@@ -22912,1921 +23934,1110 @@
     <mergeCell ref="D87:D88"/>
     <mergeCell ref="D85:D86"/>
     <mergeCell ref="E87:E88"/>
-    <mergeCell ref="B95:B96"/>
-    <mergeCell ref="C95:C96"/>
-    <mergeCell ref="B71:B72"/>
-    <mergeCell ref="C71:C72"/>
-    <mergeCell ref="E71:E72"/>
-    <mergeCell ref="B73:B74"/>
-    <mergeCell ref="C73:C74"/>
-    <mergeCell ref="E73:E74"/>
-    <mergeCell ref="N73:N74"/>
-    <mergeCell ref="B75:B76"/>
-    <mergeCell ref="C75:C76"/>
-    <mergeCell ref="B77:B78"/>
-    <mergeCell ref="C77:C78"/>
-    <mergeCell ref="B79:B80"/>
-    <mergeCell ref="C79:C80"/>
-    <mergeCell ref="B81:B82"/>
-    <mergeCell ref="C81:C82"/>
-    <mergeCell ref="B83:B84"/>
-    <mergeCell ref="C83:C84"/>
-    <mergeCell ref="I93:I94"/>
-    <mergeCell ref="J93:J94"/>
-    <mergeCell ref="N95:N96"/>
-    <mergeCell ref="B67:B68"/>
-    <mergeCell ref="C67:C68"/>
-    <mergeCell ref="E67:E68"/>
-    <mergeCell ref="M67:M68"/>
-    <mergeCell ref="N67:N68"/>
-    <mergeCell ref="O67:O68"/>
-    <mergeCell ref="Q67:Q68"/>
-    <mergeCell ref="B69:B70"/>
-    <mergeCell ref="C69:C70"/>
-    <mergeCell ref="E69:E70"/>
-    <mergeCell ref="G69:G70"/>
-    <mergeCell ref="H69:H70"/>
-    <mergeCell ref="I69:I70"/>
-    <mergeCell ref="J69:J70"/>
-    <mergeCell ref="K69:K70"/>
-    <mergeCell ref="L69:L70"/>
-    <mergeCell ref="Q69:Q70"/>
-    <mergeCell ref="D67:D68"/>
-    <mergeCell ref="P67:P68"/>
-    <mergeCell ref="E63:E64"/>
-    <mergeCell ref="G63:G64"/>
-    <mergeCell ref="H63:H64"/>
-    <mergeCell ref="I63:I64"/>
-    <mergeCell ref="D59:D60"/>
-    <mergeCell ref="E59:E60"/>
-    <mergeCell ref="F59:F60"/>
-    <mergeCell ref="G59:G60"/>
-    <mergeCell ref="H59:H60"/>
-    <mergeCell ref="I59:I60"/>
-    <mergeCell ref="B65:B66"/>
-    <mergeCell ref="C65:C66"/>
-    <mergeCell ref="E65:E66"/>
-    <mergeCell ref="G65:G66"/>
-    <mergeCell ref="H65:H66"/>
-    <mergeCell ref="I65:I66"/>
-    <mergeCell ref="B47:B48"/>
-    <mergeCell ref="C47:C48"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="C49:C50"/>
-    <mergeCell ref="B51:B52"/>
-    <mergeCell ref="C51:C52"/>
-    <mergeCell ref="B53:B54"/>
-    <mergeCell ref="C53:C54"/>
-    <mergeCell ref="B55:B56"/>
-    <mergeCell ref="C55:C56"/>
-    <mergeCell ref="B57:B58"/>
-    <mergeCell ref="C57:C58"/>
-    <mergeCell ref="B59:B60"/>
-    <mergeCell ref="C59:C60"/>
-    <mergeCell ref="B61:B62"/>
-    <mergeCell ref="C61:C62"/>
-    <mergeCell ref="B63:B64"/>
-    <mergeCell ref="C63:C64"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="C29:C30"/>
-    <mergeCell ref="E61:E62"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="C33:C34"/>
-    <mergeCell ref="I33:I34"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="C35:C36"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="C37:C38"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="C39:C40"/>
-    <mergeCell ref="H39:H40"/>
-    <mergeCell ref="I39:I40"/>
-    <mergeCell ref="B41:B42"/>
-    <mergeCell ref="C41:C42"/>
-    <mergeCell ref="B43:B44"/>
-    <mergeCell ref="C43:C44"/>
-    <mergeCell ref="B45:B46"/>
-    <mergeCell ref="C45:C46"/>
-    <mergeCell ref="D41:D42"/>
-    <mergeCell ref="I43:I44"/>
-    <mergeCell ref="D45:D46"/>
-    <mergeCell ref="H45:H46"/>
-    <mergeCell ref="L31:L32"/>
-    <mergeCell ref="M31:M32"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="K13:K14"/>
-    <mergeCell ref="L13:L14"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="H17:H18"/>
-    <mergeCell ref="I17:I18"/>
-    <mergeCell ref="I21:I22"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="R17:R18"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="P107:P108"/>
-    <mergeCell ref="R95:R96"/>
-    <mergeCell ref="H95:H96"/>
-    <mergeCell ref="P69:P70"/>
-    <mergeCell ref="Q79:Q80"/>
-    <mergeCell ref="R79:R80"/>
-    <mergeCell ref="Q27:Q28"/>
-    <mergeCell ref="P25:P26"/>
-    <mergeCell ref="P27:P28"/>
-    <mergeCell ref="I31:I32"/>
-    <mergeCell ref="J31:J32"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="F25:F26"/>
-    <mergeCell ref="F105:F106"/>
-    <mergeCell ref="F107:F108"/>
-    <mergeCell ref="J99:J100"/>
-    <mergeCell ref="H101:H102"/>
-    <mergeCell ref="I101:I102"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="C31:C32"/>
-    <mergeCell ref="H67:H68"/>
-    <mergeCell ref="F87:F88"/>
-    <mergeCell ref="H53:H54"/>
-    <mergeCell ref="O25:O26"/>
-    <mergeCell ref="R27:R28"/>
-    <mergeCell ref="R21:R22"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="F23:F24"/>
-    <mergeCell ref="G23:G24"/>
-    <mergeCell ref="H23:H24"/>
-    <mergeCell ref="I23:I24"/>
-    <mergeCell ref="J23:J24"/>
-    <mergeCell ref="K23:K24"/>
-    <mergeCell ref="L23:L24"/>
-    <mergeCell ref="M23:M24"/>
-    <mergeCell ref="N23:N24"/>
-    <mergeCell ref="O23:O24"/>
-    <mergeCell ref="Q23:Q24"/>
-    <mergeCell ref="R23:R24"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="G31:G32"/>
-    <mergeCell ref="F39:F40"/>
-    <mergeCell ref="F41:F42"/>
-    <mergeCell ref="F43:F44"/>
-    <mergeCell ref="F45:F46"/>
-    <mergeCell ref="F47:F48"/>
-    <mergeCell ref="F49:F50"/>
-    <mergeCell ref="F51:F52"/>
-    <mergeCell ref="F53:F54"/>
-    <mergeCell ref="F55:F56"/>
-    <mergeCell ref="R25:R26"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="F27:F28"/>
-    <mergeCell ref="G27:G28"/>
-    <mergeCell ref="H27:H28"/>
-    <mergeCell ref="I27:I28"/>
-    <mergeCell ref="J27:J28"/>
-    <mergeCell ref="N27:N28"/>
-    <mergeCell ref="J29:J30"/>
-    <mergeCell ref="K29:K30"/>
-    <mergeCell ref="L29:L30"/>
-    <mergeCell ref="M29:M30"/>
-    <mergeCell ref="N29:N30"/>
-    <mergeCell ref="O29:O30"/>
-    <mergeCell ref="Q29:Q30"/>
-    <mergeCell ref="R29:R30"/>
-    <mergeCell ref="P29:P30"/>
-    <mergeCell ref="G35:G36"/>
-    <mergeCell ref="D29:D30"/>
-    <mergeCell ref="G29:G30"/>
-    <mergeCell ref="H29:H30"/>
-    <mergeCell ref="I105:I106"/>
-    <mergeCell ref="J105:J106"/>
-    <mergeCell ref="K105:K106"/>
-    <mergeCell ref="L105:L106"/>
-    <mergeCell ref="F67:F68"/>
-    <mergeCell ref="F69:F70"/>
-    <mergeCell ref="F71:F72"/>
-    <mergeCell ref="F73:F74"/>
-    <mergeCell ref="F75:F76"/>
-    <mergeCell ref="G67:G68"/>
-    <mergeCell ref="G101:G102"/>
-    <mergeCell ref="G71:G72"/>
-    <mergeCell ref="H71:H72"/>
-    <mergeCell ref="G87:G88"/>
-    <mergeCell ref="H87:H88"/>
-    <mergeCell ref="I87:I88"/>
-    <mergeCell ref="J87:J88"/>
-    <mergeCell ref="K87:K88"/>
-    <mergeCell ref="L87:L88"/>
-    <mergeCell ref="K103:K104"/>
-    <mergeCell ref="G41:G42"/>
-    <mergeCell ref="L37:L38"/>
-    <mergeCell ref="E45:E46"/>
-    <mergeCell ref="G43:G44"/>
-    <mergeCell ref="N31:N32"/>
-    <mergeCell ref="O31:O32"/>
-    <mergeCell ref="G21:G22"/>
-    <mergeCell ref="H21:H22"/>
-    <mergeCell ref="D33:D34"/>
-    <mergeCell ref="J33:J34"/>
-    <mergeCell ref="F33:F34"/>
-    <mergeCell ref="F35:F36"/>
-    <mergeCell ref="G37:G38"/>
-    <mergeCell ref="E37:E38"/>
-    <mergeCell ref="G25:G26"/>
-    <mergeCell ref="H25:H26"/>
-    <mergeCell ref="I25:I26"/>
-    <mergeCell ref="J25:J26"/>
-    <mergeCell ref="K25:K26"/>
-    <mergeCell ref="L25:L26"/>
-    <mergeCell ref="M25:M26"/>
-    <mergeCell ref="N25:N26"/>
-    <mergeCell ref="L27:L28"/>
-    <mergeCell ref="M27:M28"/>
-    <mergeCell ref="E33:E34"/>
-    <mergeCell ref="E35:E36"/>
-    <mergeCell ref="G33:G34"/>
-    <mergeCell ref="D43:D44"/>
-    <mergeCell ref="I29:I30"/>
-    <mergeCell ref="O27:O28"/>
-    <mergeCell ref="F61:F62"/>
-    <mergeCell ref="P61:P62"/>
-    <mergeCell ref="E31:E32"/>
-    <mergeCell ref="G39:G40"/>
-    <mergeCell ref="E39:E40"/>
-    <mergeCell ref="E29:E30"/>
-    <mergeCell ref="F29:F30"/>
-    <mergeCell ref="M35:M36"/>
-    <mergeCell ref="N35:N36"/>
-    <mergeCell ref="M37:M38"/>
-    <mergeCell ref="J39:J40"/>
-    <mergeCell ref="K39:K40"/>
-    <mergeCell ref="L39:L40"/>
-    <mergeCell ref="M39:M40"/>
-    <mergeCell ref="N39:N40"/>
-    <mergeCell ref="O39:O40"/>
-    <mergeCell ref="E41:E42"/>
-    <mergeCell ref="E43:E44"/>
-    <mergeCell ref="L79:L80"/>
-    <mergeCell ref="Q63:Q64"/>
-    <mergeCell ref="L93:L94"/>
-    <mergeCell ref="M79:M80"/>
-    <mergeCell ref="D71:D72"/>
-    <mergeCell ref="D73:D74"/>
-    <mergeCell ref="F99:F100"/>
-    <mergeCell ref="F37:F38"/>
-    <mergeCell ref="F31:F32"/>
-    <mergeCell ref="D31:D32"/>
-    <mergeCell ref="H91:H92"/>
-    <mergeCell ref="D53:D54"/>
-    <mergeCell ref="F93:F94"/>
-    <mergeCell ref="D79:D80"/>
-    <mergeCell ref="G79:G80"/>
-    <mergeCell ref="H79:H80"/>
-    <mergeCell ref="D89:D90"/>
-    <mergeCell ref="G91:G92"/>
-    <mergeCell ref="E47:E48"/>
-    <mergeCell ref="F63:F64"/>
-    <mergeCell ref="F65:F66"/>
-    <mergeCell ref="D39:D40"/>
-    <mergeCell ref="D35:D36"/>
-    <mergeCell ref="D37:D38"/>
-    <mergeCell ref="J63:J64"/>
-    <mergeCell ref="J71:J72"/>
-    <mergeCell ref="J67:J68"/>
-    <mergeCell ref="J75:J76"/>
-    <mergeCell ref="K75:K76"/>
-    <mergeCell ref="L75:L76"/>
-    <mergeCell ref="M75:M76"/>
-    <mergeCell ref="N75:N76"/>
-    <mergeCell ref="J73:J74"/>
-    <mergeCell ref="K73:K74"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="H11:H12"/>
-    <mergeCell ref="I11:I12"/>
-    <mergeCell ref="J11:J12"/>
-    <mergeCell ref="K11:K12"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="M11:M12"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="J9:K9"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="N3:O3"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="O13:O14"/>
-    <mergeCell ref="Q13:Q14"/>
-    <mergeCell ref="R13:R14"/>
-    <mergeCell ref="L9:M9"/>
-    <mergeCell ref="Q9:R10"/>
-    <mergeCell ref="N9:O9"/>
-    <mergeCell ref="H7:O7"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="N11:N12"/>
-    <mergeCell ref="R31:R32"/>
-    <mergeCell ref="K31:K32"/>
-    <mergeCell ref="K37:K38"/>
-    <mergeCell ref="Q55:Q56"/>
-    <mergeCell ref="R55:R56"/>
-    <mergeCell ref="L67:L68"/>
-    <mergeCell ref="Q17:Q18"/>
-    <mergeCell ref="L63:L64"/>
-    <mergeCell ref="L51:L52"/>
-    <mergeCell ref="M51:M52"/>
-    <mergeCell ref="N51:N52"/>
-    <mergeCell ref="Q57:Q58"/>
-    <mergeCell ref="R57:R58"/>
-    <mergeCell ref="O61:O62"/>
-    <mergeCell ref="M59:M60"/>
-    <mergeCell ref="N59:N60"/>
-    <mergeCell ref="O59:O60"/>
-    <mergeCell ref="Q59:Q60"/>
-    <mergeCell ref="Q61:Q62"/>
-    <mergeCell ref="P43:P44"/>
-    <mergeCell ref="P47:P48"/>
-    <mergeCell ref="P49:P50"/>
-    <mergeCell ref="P51:P52"/>
-    <mergeCell ref="Q41:Q42"/>
-    <mergeCell ref="BZ2:CB2"/>
-    <mergeCell ref="CC2:CE2"/>
-    <mergeCell ref="CF2:CH2"/>
-    <mergeCell ref="CC3:CE3"/>
-    <mergeCell ref="BZ3:CB3"/>
-    <mergeCell ref="CF3:CH3"/>
-    <mergeCell ref="O53:O54"/>
-    <mergeCell ref="Q53:Q54"/>
-    <mergeCell ref="R53:R54"/>
-    <mergeCell ref="Q2:R2"/>
-    <mergeCell ref="Q3:R3"/>
-    <mergeCell ref="O35:O36"/>
-    <mergeCell ref="Q35:Q36"/>
-    <mergeCell ref="R35:R36"/>
-    <mergeCell ref="P33:P34"/>
-    <mergeCell ref="P35:P36"/>
-    <mergeCell ref="Q47:Q48"/>
-    <mergeCell ref="R47:R48"/>
-    <mergeCell ref="O51:O52"/>
-    <mergeCell ref="Q51:Q52"/>
-    <mergeCell ref="R51:R52"/>
-    <mergeCell ref="P37:P38"/>
-    <mergeCell ref="R19:R20"/>
-    <mergeCell ref="O37:O38"/>
-    <mergeCell ref="L17:L18"/>
-    <mergeCell ref="M17:M18"/>
-    <mergeCell ref="K33:K34"/>
-    <mergeCell ref="H33:H34"/>
-    <mergeCell ref="L33:L34"/>
-    <mergeCell ref="M33:M34"/>
-    <mergeCell ref="N33:N34"/>
-    <mergeCell ref="O33:O34"/>
-    <mergeCell ref="Q33:Q34"/>
-    <mergeCell ref="Q31:Q32"/>
-    <mergeCell ref="H31:H32"/>
-    <mergeCell ref="J21:J22"/>
-    <mergeCell ref="K21:K22"/>
-    <mergeCell ref="L21:L22"/>
-    <mergeCell ref="M21:M22"/>
-    <mergeCell ref="N21:N22"/>
-    <mergeCell ref="O21:O22"/>
-    <mergeCell ref="Q21:Q22"/>
-    <mergeCell ref="Q25:Q26"/>
-    <mergeCell ref="O17:O18"/>
-    <mergeCell ref="O19:O20"/>
-    <mergeCell ref="Q19:Q20"/>
-    <mergeCell ref="K27:K28"/>
-    <mergeCell ref="N17:N18"/>
-    <mergeCell ref="D105:D106"/>
-    <mergeCell ref="G105:G106"/>
-    <mergeCell ref="H105:H106"/>
-    <mergeCell ref="M63:M64"/>
-    <mergeCell ref="L77:L78"/>
-    <mergeCell ref="M77:M78"/>
-    <mergeCell ref="N77:N78"/>
-    <mergeCell ref="O77:O78"/>
-    <mergeCell ref="K67:K68"/>
-    <mergeCell ref="I71:I72"/>
-    <mergeCell ref="D63:D64"/>
-    <mergeCell ref="O71:O72"/>
-    <mergeCell ref="D75:D76"/>
-    <mergeCell ref="E75:E76"/>
-    <mergeCell ref="G75:G76"/>
-    <mergeCell ref="H75:H76"/>
-    <mergeCell ref="I75:I76"/>
-    <mergeCell ref="K63:K64"/>
-    <mergeCell ref="I67:I68"/>
-    <mergeCell ref="J77:J78"/>
-    <mergeCell ref="K71:K72"/>
-    <mergeCell ref="L71:L72"/>
-    <mergeCell ref="D65:D66"/>
-    <mergeCell ref="M83:M84"/>
-    <mergeCell ref="R63:R64"/>
-    <mergeCell ref="M71:M72"/>
-    <mergeCell ref="N71:N72"/>
-    <mergeCell ref="R99:R100"/>
-    <mergeCell ref="G95:G96"/>
-    <mergeCell ref="D95:D96"/>
-    <mergeCell ref="E95:E96"/>
-    <mergeCell ref="D99:D100"/>
-    <mergeCell ref="Q71:Q72"/>
-    <mergeCell ref="R71:R72"/>
-    <mergeCell ref="R65:R66"/>
-    <mergeCell ref="L65:L66"/>
-    <mergeCell ref="R67:R68"/>
-    <mergeCell ref="L73:L74"/>
-    <mergeCell ref="M73:M74"/>
-    <mergeCell ref="M65:M66"/>
-    <mergeCell ref="N65:N66"/>
-    <mergeCell ref="O65:O66"/>
-    <mergeCell ref="Q65:Q66"/>
-    <mergeCell ref="R75:R76"/>
-    <mergeCell ref="Q77:Q78"/>
-    <mergeCell ref="O69:O70"/>
-    <mergeCell ref="P73:P74"/>
-    <mergeCell ref="M69:M70"/>
-    <mergeCell ref="Q37:Q38"/>
-    <mergeCell ref="R37:R38"/>
-    <mergeCell ref="N37:N38"/>
-    <mergeCell ref="R33:R34"/>
-    <mergeCell ref="H35:H36"/>
-    <mergeCell ref="I35:I36"/>
-    <mergeCell ref="J35:J36"/>
-    <mergeCell ref="K35:K36"/>
-    <mergeCell ref="L35:L36"/>
-    <mergeCell ref="H37:H38"/>
-    <mergeCell ref="I37:I38"/>
-    <mergeCell ref="J37:J38"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="I15:I16"/>
-    <mergeCell ref="J15:J16"/>
-    <mergeCell ref="K15:K16"/>
-    <mergeCell ref="L15:L16"/>
-    <mergeCell ref="M15:M16"/>
-    <mergeCell ref="N15:N16"/>
-    <mergeCell ref="EL8:EL10"/>
-    <mergeCell ref="M13:M14"/>
-    <mergeCell ref="O15:O16"/>
-    <mergeCell ref="Q15:Q16"/>
-    <mergeCell ref="R15:R16"/>
-    <mergeCell ref="H15:H16"/>
-    <mergeCell ref="J13:J14"/>
-    <mergeCell ref="N8:O8"/>
-    <mergeCell ref="O11:O12"/>
-    <mergeCell ref="Q11:Q12"/>
-    <mergeCell ref="P13:P14"/>
-    <mergeCell ref="R11:R12"/>
-    <mergeCell ref="L11:L12"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="H13:H14"/>
-    <mergeCell ref="I13:I14"/>
-    <mergeCell ref="N13:N14"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="G19:G20"/>
-    <mergeCell ref="H19:H20"/>
-    <mergeCell ref="I19:I20"/>
-    <mergeCell ref="J19:J20"/>
-    <mergeCell ref="K19:K20"/>
-    <mergeCell ref="L19:L20"/>
-    <mergeCell ref="M19:M20"/>
-    <mergeCell ref="N19:N20"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="G17:G18"/>
-    <mergeCell ref="J17:J18"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="K17:K18"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="R77:R78"/>
-    <mergeCell ref="E77:E78"/>
-    <mergeCell ref="G77:G78"/>
-    <mergeCell ref="H77:H78"/>
-    <mergeCell ref="I77:I78"/>
-    <mergeCell ref="P71:P72"/>
-    <mergeCell ref="P77:P78"/>
-    <mergeCell ref="R69:R70"/>
-    <mergeCell ref="O73:O74"/>
-    <mergeCell ref="Q73:Q74"/>
-    <mergeCell ref="R73:R74"/>
-    <mergeCell ref="K77:K78"/>
-    <mergeCell ref="N69:N70"/>
-    <mergeCell ref="O75:O76"/>
-    <mergeCell ref="Q75:Q76"/>
-    <mergeCell ref="D83:D84"/>
-    <mergeCell ref="D81:D82"/>
-    <mergeCell ref="G83:G84"/>
-    <mergeCell ref="H83:H84"/>
-    <mergeCell ref="I83:I84"/>
-    <mergeCell ref="J83:J84"/>
-    <mergeCell ref="K83:K84"/>
-    <mergeCell ref="F77:F78"/>
-    <mergeCell ref="F79:F80"/>
-    <mergeCell ref="F81:F82"/>
-    <mergeCell ref="F83:F84"/>
-    <mergeCell ref="I79:I80"/>
-    <mergeCell ref="J79:J80"/>
-    <mergeCell ref="K79:K80"/>
-    <mergeCell ref="N79:N80"/>
-    <mergeCell ref="O79:O80"/>
-    <mergeCell ref="Q83:Q84"/>
-    <mergeCell ref="R83:R84"/>
-    <mergeCell ref="G81:G82"/>
-    <mergeCell ref="H81:H82"/>
-    <mergeCell ref="I81:I82"/>
-    <mergeCell ref="E83:E84"/>
-    <mergeCell ref="E81:E82"/>
-    <mergeCell ref="J81:J82"/>
-    <mergeCell ref="K81:K82"/>
-    <mergeCell ref="Q81:Q82"/>
-    <mergeCell ref="R81:R82"/>
-    <mergeCell ref="L81:L82"/>
-    <mergeCell ref="M81:M82"/>
-    <mergeCell ref="N81:N82"/>
-    <mergeCell ref="O81:O82"/>
-    <mergeCell ref="P79:P80"/>
-    <mergeCell ref="P81:P82"/>
-    <mergeCell ref="P83:P84"/>
-    <mergeCell ref="E79:E80"/>
-    <mergeCell ref="N83:N84"/>
-    <mergeCell ref="O83:O84"/>
-    <mergeCell ref="L83:L84"/>
-    <mergeCell ref="N87:N88"/>
-    <mergeCell ref="O87:O88"/>
-    <mergeCell ref="Q87:Q88"/>
-    <mergeCell ref="R87:R88"/>
-    <mergeCell ref="E85:E86"/>
-    <mergeCell ref="G85:G86"/>
-    <mergeCell ref="H85:H86"/>
-    <mergeCell ref="I85:I86"/>
-    <mergeCell ref="R85:R86"/>
-    <mergeCell ref="F85:F86"/>
-    <mergeCell ref="L85:L86"/>
-    <mergeCell ref="M85:M86"/>
-    <mergeCell ref="N85:N86"/>
-    <mergeCell ref="O85:O86"/>
-    <mergeCell ref="Q85:Q86"/>
-    <mergeCell ref="P85:P86"/>
-    <mergeCell ref="P87:P88"/>
-    <mergeCell ref="J85:J86"/>
-    <mergeCell ref="K85:K86"/>
-    <mergeCell ref="F91:F92"/>
-    <mergeCell ref="G103:G104"/>
-    <mergeCell ref="H103:H104"/>
-    <mergeCell ref="I103:I104"/>
-    <mergeCell ref="J103:J104"/>
-    <mergeCell ref="E93:E94"/>
-    <mergeCell ref="G93:G94"/>
-    <mergeCell ref="I99:I100"/>
-    <mergeCell ref="M87:M88"/>
-    <mergeCell ref="J89:J90"/>
-    <mergeCell ref="K89:K90"/>
-    <mergeCell ref="L103:L104"/>
-    <mergeCell ref="K93:K94"/>
-    <mergeCell ref="G99:G100"/>
-    <mergeCell ref="H99:H100"/>
-    <mergeCell ref="L95:L96"/>
-    <mergeCell ref="H93:H94"/>
-    <mergeCell ref="M93:M94"/>
-    <mergeCell ref="M99:M100"/>
+    <mergeCell ref="B97:B98"/>
+    <mergeCell ref="C97:C98"/>
+    <mergeCell ref="D97:D98"/>
+    <mergeCell ref="E97:E98"/>
+    <mergeCell ref="F97:F98"/>
+    <mergeCell ref="P97:P98"/>
+    <mergeCell ref="B99:B100"/>
+    <mergeCell ref="C99:C100"/>
+    <mergeCell ref="E99:E100"/>
     <mergeCell ref="N99:N100"/>
     <mergeCell ref="O99:O100"/>
-    <mergeCell ref="Q99:Q100"/>
-    <mergeCell ref="R101:R102"/>
-    <mergeCell ref="O101:O102"/>
-    <mergeCell ref="Q101:Q102"/>
-    <mergeCell ref="H89:H90"/>
-    <mergeCell ref="I89:I90"/>
-    <mergeCell ref="O93:O94"/>
-    <mergeCell ref="Q93:Q94"/>
-    <mergeCell ref="R93:R94"/>
-    <mergeCell ref="N93:N94"/>
-    <mergeCell ref="M91:M92"/>
-    <mergeCell ref="N91:N92"/>
-    <mergeCell ref="D93:D94"/>
-    <mergeCell ref="R89:R90"/>
-    <mergeCell ref="F89:F90"/>
-    <mergeCell ref="M101:M102"/>
-    <mergeCell ref="N101:N102"/>
-    <mergeCell ref="F101:F102"/>
-    <mergeCell ref="F103:F104"/>
-    <mergeCell ref="M95:M96"/>
-    <mergeCell ref="O95:O96"/>
-    <mergeCell ref="Q95:Q96"/>
-    <mergeCell ref="L89:L90"/>
-    <mergeCell ref="M89:M90"/>
-    <mergeCell ref="N89:N90"/>
-    <mergeCell ref="O89:O90"/>
-    <mergeCell ref="Q89:Q90"/>
-    <mergeCell ref="P89:P90"/>
-    <mergeCell ref="M103:M104"/>
-    <mergeCell ref="N103:N104"/>
-    <mergeCell ref="O103:O104"/>
-    <mergeCell ref="Q103:Q104"/>
-    <mergeCell ref="R103:R104"/>
-    <mergeCell ref="L99:L100"/>
-    <mergeCell ref="Q105:Q106"/>
-    <mergeCell ref="R105:R106"/>
-    <mergeCell ref="E105:E106"/>
-    <mergeCell ref="D103:D104"/>
-    <mergeCell ref="J101:J102"/>
-    <mergeCell ref="K101:K102"/>
-    <mergeCell ref="L101:L102"/>
-    <mergeCell ref="P91:P92"/>
-    <mergeCell ref="P93:P94"/>
-    <mergeCell ref="P95:P96"/>
-    <mergeCell ref="P99:P100"/>
-    <mergeCell ref="P101:P102"/>
-    <mergeCell ref="P103:P104"/>
-    <mergeCell ref="P105:P106"/>
-    <mergeCell ref="O91:O92"/>
-    <mergeCell ref="Q91:Q92"/>
-    <mergeCell ref="R91:R92"/>
-    <mergeCell ref="I95:I96"/>
-    <mergeCell ref="J95:J96"/>
-    <mergeCell ref="K95:K96"/>
-    <mergeCell ref="F95:F96"/>
-    <mergeCell ref="K99:K100"/>
-    <mergeCell ref="M105:M106"/>
-    <mergeCell ref="N105:N106"/>
-    <mergeCell ref="Q107:Q108"/>
-    <mergeCell ref="R107:R108"/>
-    <mergeCell ref="D109:D110"/>
-    <mergeCell ref="G109:G110"/>
-    <mergeCell ref="H109:H110"/>
-    <mergeCell ref="I109:I110"/>
-    <mergeCell ref="J109:J110"/>
-    <mergeCell ref="K109:K110"/>
-    <mergeCell ref="L109:L110"/>
-    <mergeCell ref="M109:M110"/>
-    <mergeCell ref="N109:N110"/>
-    <mergeCell ref="O109:O110"/>
-    <mergeCell ref="Q109:Q110"/>
-    <mergeCell ref="R109:R110"/>
-    <mergeCell ref="D107:D108"/>
-    <mergeCell ref="G107:G108"/>
-    <mergeCell ref="H107:H108"/>
-    <mergeCell ref="I107:I108"/>
-    <mergeCell ref="J107:J108"/>
-    <mergeCell ref="F109:F110"/>
-    <mergeCell ref="P109:P110"/>
-    <mergeCell ref="I113:I114"/>
-    <mergeCell ref="J113:J114"/>
-    <mergeCell ref="E115:E116"/>
-    <mergeCell ref="F113:F114"/>
-    <mergeCell ref="F115:F116"/>
-    <mergeCell ref="D111:D112"/>
-    <mergeCell ref="J111:J112"/>
-    <mergeCell ref="K111:K112"/>
-    <mergeCell ref="L111:L112"/>
-    <mergeCell ref="M111:M112"/>
-    <mergeCell ref="N111:N112"/>
-    <mergeCell ref="O111:O112"/>
-    <mergeCell ref="D113:D114"/>
-    <mergeCell ref="D115:D116"/>
-    <mergeCell ref="G115:G116"/>
-    <mergeCell ref="H115:H116"/>
-    <mergeCell ref="I115:I116"/>
-    <mergeCell ref="J115:J116"/>
-    <mergeCell ref="K115:K116"/>
-    <mergeCell ref="L115:L116"/>
-    <mergeCell ref="M115:M116"/>
-    <mergeCell ref="N115:N116"/>
-    <mergeCell ref="K119:K120"/>
-    <mergeCell ref="L119:L120"/>
-    <mergeCell ref="M119:M120"/>
-    <mergeCell ref="N119:N120"/>
-    <mergeCell ref="Q111:Q112"/>
-    <mergeCell ref="R111:R112"/>
-    <mergeCell ref="F111:F112"/>
-    <mergeCell ref="K113:K114"/>
-    <mergeCell ref="L113:L114"/>
-    <mergeCell ref="M113:M114"/>
-    <mergeCell ref="N113:N114"/>
-    <mergeCell ref="O113:O114"/>
-    <mergeCell ref="Q113:Q114"/>
-    <mergeCell ref="R113:R114"/>
-    <mergeCell ref="P111:P112"/>
-    <mergeCell ref="P113:P114"/>
-    <mergeCell ref="G111:G112"/>
-    <mergeCell ref="H111:H112"/>
-    <mergeCell ref="I111:I112"/>
-    <mergeCell ref="G113:G114"/>
-    <mergeCell ref="H113:H114"/>
-    <mergeCell ref="Q115:Q116"/>
-    <mergeCell ref="R115:R116"/>
-    <mergeCell ref="P115:P116"/>
-    <mergeCell ref="P117:P118"/>
-    <mergeCell ref="P119:P120"/>
-    <mergeCell ref="L117:L118"/>
-    <mergeCell ref="M117:M118"/>
-    <mergeCell ref="N117:N118"/>
-    <mergeCell ref="O117:O118"/>
-    <mergeCell ref="Q117:Q118"/>
-    <mergeCell ref="R117:R118"/>
-    <mergeCell ref="O119:O120"/>
-    <mergeCell ref="Q119:Q120"/>
-    <mergeCell ref="R119:R120"/>
-    <mergeCell ref="Q39:Q40"/>
-    <mergeCell ref="R39:R40"/>
-    <mergeCell ref="O55:O56"/>
-    <mergeCell ref="H41:H42"/>
-    <mergeCell ref="I41:I42"/>
-    <mergeCell ref="J41:J42"/>
-    <mergeCell ref="K41:K42"/>
-    <mergeCell ref="L41:L42"/>
-    <mergeCell ref="M41:M42"/>
-    <mergeCell ref="N41:N42"/>
-    <mergeCell ref="O41:O42"/>
-    <mergeCell ref="J43:J44"/>
-    <mergeCell ref="K43:K44"/>
-    <mergeCell ref="L43:L44"/>
-    <mergeCell ref="M43:M44"/>
-    <mergeCell ref="N43:N44"/>
-    <mergeCell ref="O43:O44"/>
-    <mergeCell ref="R41:R42"/>
-    <mergeCell ref="Q43:Q44"/>
-    <mergeCell ref="R43:R44"/>
-    <mergeCell ref="N45:N46"/>
-    <mergeCell ref="O45:O46"/>
-    <mergeCell ref="Q45:Q46"/>
-    <mergeCell ref="H43:H44"/>
-    <mergeCell ref="F117:F118"/>
-    <mergeCell ref="F119:F120"/>
-    <mergeCell ref="E119:E120"/>
-    <mergeCell ref="R45:R46"/>
-    <mergeCell ref="P45:P46"/>
-    <mergeCell ref="N57:N58"/>
-    <mergeCell ref="O57:O58"/>
-    <mergeCell ref="G55:G56"/>
-    <mergeCell ref="E53:E54"/>
-    <mergeCell ref="E55:E56"/>
-    <mergeCell ref="Q49:Q50"/>
-    <mergeCell ref="R49:R50"/>
-    <mergeCell ref="M47:M48"/>
-    <mergeCell ref="N47:N48"/>
-    <mergeCell ref="O47:O48"/>
-    <mergeCell ref="I45:I46"/>
-    <mergeCell ref="J45:J46"/>
-    <mergeCell ref="K45:K46"/>
-    <mergeCell ref="L45:L46"/>
-    <mergeCell ref="M45:M46"/>
-    <mergeCell ref="G119:G120"/>
-    <mergeCell ref="H119:H120"/>
-    <mergeCell ref="I119:I120"/>
-    <mergeCell ref="J119:J120"/>
-    <mergeCell ref="L49:L50"/>
-    <mergeCell ref="M49:M50"/>
-    <mergeCell ref="N49:N50"/>
-    <mergeCell ref="O49:O50"/>
-    <mergeCell ref="G45:G46"/>
-    <mergeCell ref="G47:G48"/>
-    <mergeCell ref="L47:L48"/>
-    <mergeCell ref="G49:G50"/>
-    <mergeCell ref="G117:G118"/>
-    <mergeCell ref="H117:H118"/>
-    <mergeCell ref="I117:I118"/>
-    <mergeCell ref="J117:J118"/>
-    <mergeCell ref="O115:O116"/>
-    <mergeCell ref="K117:K118"/>
-    <mergeCell ref="K107:K108"/>
-    <mergeCell ref="L107:L108"/>
-    <mergeCell ref="M107:M108"/>
-    <mergeCell ref="N107:N108"/>
-    <mergeCell ref="O107:O108"/>
-    <mergeCell ref="O105:O106"/>
-    <mergeCell ref="I91:I92"/>
-    <mergeCell ref="J91:J92"/>
-    <mergeCell ref="K91:K92"/>
-    <mergeCell ref="L91:L92"/>
-    <mergeCell ref="D51:D52"/>
-    <mergeCell ref="H51:H52"/>
-    <mergeCell ref="I51:I52"/>
-    <mergeCell ref="J51:J52"/>
-    <mergeCell ref="K51:K52"/>
-    <mergeCell ref="D47:D48"/>
-    <mergeCell ref="H47:H48"/>
-    <mergeCell ref="I47:I48"/>
-    <mergeCell ref="J47:J48"/>
-    <mergeCell ref="K47:K48"/>
-    <mergeCell ref="D49:D50"/>
-    <mergeCell ref="H49:H50"/>
-    <mergeCell ref="I49:I50"/>
-    <mergeCell ref="J49:J50"/>
-    <mergeCell ref="K49:K50"/>
-    <mergeCell ref="G51:G52"/>
-    <mergeCell ref="E49:E50"/>
-    <mergeCell ref="E51:E52"/>
-    <mergeCell ref="R61:R62"/>
-    <mergeCell ref="G97:G98"/>
-    <mergeCell ref="H97:H98"/>
-    <mergeCell ref="I97:I98"/>
-    <mergeCell ref="J97:J98"/>
-    <mergeCell ref="K97:K98"/>
-    <mergeCell ref="L97:L98"/>
-    <mergeCell ref="M97:M98"/>
-    <mergeCell ref="N97:N98"/>
-    <mergeCell ref="O97:O98"/>
-    <mergeCell ref="Q97:Q98"/>
-    <mergeCell ref="R97:R98"/>
-    <mergeCell ref="P75:P76"/>
-    <mergeCell ref="G73:G74"/>
-    <mergeCell ref="H73:H74"/>
-    <mergeCell ref="I73:I74"/>
-    <mergeCell ref="R59:R60"/>
-    <mergeCell ref="M57:M58"/>
-    <mergeCell ref="E89:E90"/>
-    <mergeCell ref="G89:G90"/>
-    <mergeCell ref="J59:J60"/>
-    <mergeCell ref="K59:K60"/>
-    <mergeCell ref="L59:L60"/>
-    <mergeCell ref="D61:D62"/>
-    <mergeCell ref="G61:G62"/>
-    <mergeCell ref="H61:H62"/>
-    <mergeCell ref="I61:I62"/>
-    <mergeCell ref="J61:J62"/>
-    <mergeCell ref="K61:K62"/>
-    <mergeCell ref="L61:L62"/>
-    <mergeCell ref="M61:M62"/>
-    <mergeCell ref="N61:N62"/>
-    <mergeCell ref="J65:J66"/>
-    <mergeCell ref="K65:K66"/>
-    <mergeCell ref="N63:N64"/>
-    <mergeCell ref="O63:O64"/>
-    <mergeCell ref="D69:D70"/>
-    <mergeCell ref="D77:D78"/>
-    <mergeCell ref="I53:I54"/>
-    <mergeCell ref="J53:J54"/>
-    <mergeCell ref="K53:K54"/>
-    <mergeCell ref="L53:L54"/>
-    <mergeCell ref="M53:M54"/>
-    <mergeCell ref="N53:N54"/>
-    <mergeCell ref="D55:D56"/>
-    <mergeCell ref="H55:H56"/>
-    <mergeCell ref="I55:I56"/>
-    <mergeCell ref="J55:J56"/>
-    <mergeCell ref="K55:K56"/>
-    <mergeCell ref="L55:L56"/>
-    <mergeCell ref="M55:M56"/>
-    <mergeCell ref="N55:N56"/>
-    <mergeCell ref="G53:G54"/>
-    <mergeCell ref="D57:D58"/>
-    <mergeCell ref="E57:E58"/>
-    <mergeCell ref="F57:F58"/>
-    <mergeCell ref="G57:G58"/>
-    <mergeCell ref="H57:H58"/>
-    <mergeCell ref="I57:I58"/>
-    <mergeCell ref="J57:J58"/>
-    <mergeCell ref="P53:P54"/>
-    <mergeCell ref="P55:P56"/>
-    <mergeCell ref="P57:P58"/>
-    <mergeCell ref="K57:K58"/>
-    <mergeCell ref="L57:L58"/>
-    <mergeCell ref="P59:P60"/>
-    <mergeCell ref="P63:P64"/>
-    <mergeCell ref="P65:P66"/>
-    <mergeCell ref="P9:P10"/>
-    <mergeCell ref="P11:P12"/>
-    <mergeCell ref="P15:P16"/>
-    <mergeCell ref="P17:P18"/>
-    <mergeCell ref="P19:P20"/>
-    <mergeCell ref="P21:P22"/>
-    <mergeCell ref="P23:P24"/>
-    <mergeCell ref="P39:P40"/>
-    <mergeCell ref="P31:P32"/>
-    <mergeCell ref="P41:P42"/>
+    <mergeCell ref="B113:B114"/>
+    <mergeCell ref="C113:C114"/>
+    <mergeCell ref="E113:E114"/>
+    <mergeCell ref="B115:B116"/>
+    <mergeCell ref="C115:C116"/>
+    <mergeCell ref="B117:B118"/>
+    <mergeCell ref="C117:C118"/>
+    <mergeCell ref="B119:B120"/>
+    <mergeCell ref="C119:C120"/>
+    <mergeCell ref="D119:D120"/>
+    <mergeCell ref="D117:D118"/>
+    <mergeCell ref="E117:E118"/>
+    <mergeCell ref="B107:B108"/>
+    <mergeCell ref="C107:C108"/>
+    <mergeCell ref="E107:E108"/>
+    <mergeCell ref="B109:B110"/>
+    <mergeCell ref="C109:C110"/>
+    <mergeCell ref="E109:E110"/>
+    <mergeCell ref="B111:B112"/>
+    <mergeCell ref="C111:C112"/>
+    <mergeCell ref="E111:E112"/>
+    <mergeCell ref="CI2:CK2"/>
+    <mergeCell ref="CI3:CK3"/>
+    <mergeCell ref="CL2:CN2"/>
+    <mergeCell ref="CL3:CN3"/>
+    <mergeCell ref="CO2:CQ2"/>
+    <mergeCell ref="CO3:CQ3"/>
+    <mergeCell ref="CR2:CT2"/>
+    <mergeCell ref="CR3:CT3"/>
+    <mergeCell ref="CU2:CW2"/>
+    <mergeCell ref="CU3:CW3"/>
+    <mergeCell ref="DM2:DO2"/>
+    <mergeCell ref="DM3:DO3"/>
+    <mergeCell ref="CX2:CZ2"/>
+    <mergeCell ref="CX3:CZ3"/>
+    <mergeCell ref="DA2:DC2"/>
+    <mergeCell ref="DA3:DC3"/>
+    <mergeCell ref="DD2:DF2"/>
+    <mergeCell ref="DD3:DF3"/>
+    <mergeCell ref="DG2:DI2"/>
+    <mergeCell ref="DG3:DI3"/>
+    <mergeCell ref="DJ2:DL2"/>
+    <mergeCell ref="DJ3:DL3"/>
   </mergeCells>
   <phoneticPr fontId="5"/>
   <conditionalFormatting sqref="S8:EK8">
-    <cfRule type="expression" dxfId="273" priority="1979" stopIfTrue="1">
+    <cfRule type="expression" dxfId="285" priority="1997" stopIfTrue="1">
       <formula>IF(TEXT(S$9,"d")="1",TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="272" priority="1980" stopIfTrue="1">
+    <cfRule type="expression" dxfId="284" priority="1998" stopIfTrue="1">
       <formula>OR(IF(TEXT(S$9,"d")&lt;&gt;"1",TRUE,FALSE))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S9:EK10">
-    <cfRule type="expression" dxfId="271" priority="1987" stopIfTrue="1">
+    <cfRule type="expression" dxfId="283" priority="2005" stopIfTrue="1">
       <formula>IF(S$9=TODAY(),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="270" priority="1988" stopIfTrue="1">
+    <cfRule type="expression" dxfId="282" priority="2006" stopIfTrue="1">
       <formula>IF(WEEKDAY(S$9)=7,TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="269" priority="1989" stopIfTrue="1">
+    <cfRule type="expression" dxfId="281" priority="2007" stopIfTrue="1">
       <formula>IF(OR(WEEKDAY(S$9)=1,IF(ISNA(MATCH(S$9,Holiday,0)),FALSE,TRUE)),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S11:EK120">
-    <cfRule type="expression" dxfId="268" priority="3669" stopIfTrue="1">
+    <cfRule type="expression" dxfId="280" priority="3687" stopIfTrue="1">
       <formula>IF(OR(WEEKDAY(S$9)=7,WEEKDAY(S$9)=1,IF(ISNA(MATCH(S$9,Holiday,0)),FALSE,TRUE)),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="267" priority="3670" stopIfTrue="1">
+    <cfRule type="expression" dxfId="279" priority="3688" stopIfTrue="1">
       <formula>IF(AND($D11&lt;&gt;"",S11&lt;&gt;""),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="266" priority="3671" stopIfTrue="1">
+    <cfRule type="expression" dxfId="278" priority="3689" stopIfTrue="1">
       <formula>IF(AND($D11="",S11&lt;&gt;""),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J11:K11 B11:F11 B13:F13 J15 K19 B15:F15 B17:F17 B19:F19 B21:F21 B23:F23 B25:F25 B27:F27 B29:F29 B31:F31 B33:F33 B35:F35 B37:F37 B39:F39 B41:F41 B43:F43 B45:F45 B47:F47 B49:F49 B51:F51 B53:F53 B55:F55 B57:F57 B59:F59 B61:F61 J71:K71 B63:F63 B65:D65 B67:E67 B69:D69 B71:E71 J73:K73 B73:E73 J75:K75 J77:K77 J79:K79 J81:K81 J83:K83 B75:F75 B77:F77 B79:F79 B81:F81 B83:F83 J85:K85 B85:F85 J87:K87 J89:K89 J91:K91 J93:K93 J95:K95 B87:F87 B89:F89 B91:F91 B93:F93 B95:F95 J97:K97 B97:F97 J99:K99 J101:K101 J103:K103 J105:K105 J107:K107 B99:F99 B101:F101 B103:F103 B105:F105 B107:F107 J109:K109 B109:F109 J111:K111 J113:K113 J115:K115 J117:K117 J119:K119 B111:F111 B113:F113 B115:F115 B117:F117 B119:F119 L11:O120 Q11:R120 G71:I120 G55:G70 G11:I30 G51:I54 G31:H34 G35:G50">
-    <cfRule type="expression" dxfId="265" priority="5122" stopIfTrue="1">
+  <conditionalFormatting sqref="J11:K11 B11:F11 B13:F13 J15 K19 B15:F15 B17:F17 B19:F19 B21:F21 B23:F23 B25:F25 B27:F27 B29:F29 B31:F31 B33:F33 B35:F35 B37:F37 B39:F39 B41:F41 B43:F43 B45:F45 B47:F47 B49:F49 B51:F51 B53:F53 B55:F55 B57:F57 B59:F59 B61:F61 B63:F63 B65:D65 B67:E67 B69:D69 B71:E71 B73:E73 J83:K83 B75:F75 B77:F77 B79:F79 B81:F81 B83:F83 J85:K85 B85:F85 J87:K87 J89:K89 J91:K91 J93:K93 J95:K95 B87:F87 B89:F89 B91:F91 B93:F93 B95:F95 J97:K97 B97:F97 J99:K99 J101:K101 J103:K103 J105:K105 J107:K107 B99:F99 B101:F101 B103:F103 B105:F105 B107:F107 J109:K109 B109:F109 J111:K111 J113:K113 J115:K115 J117:K117 J119:K119 B111:F111 B113:F113 B115:F115 B117:F117 B119:F119 L11:O120 Q11:R120 G83:I120 G11:I30 G51:I54 G31:H34 G35:G50 I71:I72 G55:G82">
+    <cfRule type="expression" dxfId="277" priority="5140" stopIfTrue="1">
       <formula>IF(AND($D11&lt;&gt;"",$J11&lt;&gt;"",$K11&lt;&gt;""),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="264" priority="5123" stopIfTrue="1">
+    <cfRule type="expression" dxfId="276" priority="5141" stopIfTrue="1">
       <formula>IF(AND($D11&lt;&gt;"",$K11="",$I11&lt;TODAY()),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="263" priority="5124" stopIfTrue="1">
+    <cfRule type="expression" dxfId="275" priority="5142" stopIfTrue="1">
       <formula>IF(OR(AND($D11&lt;&gt;"",$J11&lt;&gt;"",$Q11&lt;100),TODAY()&gt;=$H11),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CJ11:DM120">
-    <cfRule type="expression" dxfId="262" priority="6202" stopIfTrue="1">
+    <cfRule type="expression" dxfId="274" priority="6220" stopIfTrue="1">
       <formula>IF(OR(WEEKDAY(CJ$9)=7,WEEKDAY(CJ$9)=1,IF(ISNA(MATCH(CJ$9,Holiday,0)),FALSE,TRUE)),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="261" priority="6203" stopIfTrue="1">
+    <cfRule type="expression" dxfId="273" priority="6221" stopIfTrue="1">
       <formula>IF(AND($D11="",$S11&lt;&gt;""),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P11 P31 P33 P35 P37 P41 P43 P53 P71 P73 P75 P77 P79 P81 P83 P85 P87 P89 P91 P93 P95 P97 P99 P101 P103 P105 P107 P109 P111 P113 P115 P117 P119">
-    <cfRule type="expression" dxfId="260" priority="371" stopIfTrue="1">
+    <cfRule type="expression" dxfId="272" priority="389" stopIfTrue="1">
       <formula>IF(AND($D11&lt;&gt;"",$J11&lt;&gt;"",$K11&lt;&gt;""),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="259" priority="372" stopIfTrue="1">
+    <cfRule type="expression" dxfId="271" priority="390" stopIfTrue="1">
       <formula>IF(AND($D11&lt;&gt;"",$K11="",$I11&lt;TODAY()),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="258" priority="373" stopIfTrue="1">
+    <cfRule type="expression" dxfId="270" priority="391" stopIfTrue="1">
       <formula>IF(OR(AND($D11&lt;&gt;"",$J11&lt;&gt;"",$Q11&lt;100),TODAY()&gt;=$H11),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P47">
-    <cfRule type="expression" dxfId="257" priority="265" stopIfTrue="1">
+    <cfRule type="expression" dxfId="269" priority="283" stopIfTrue="1">
       <formula>IF(AND($D47&lt;&gt;"",$J47&lt;&gt;"",$K47&lt;&gt;""),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="256" priority="266" stopIfTrue="1">
+    <cfRule type="expression" dxfId="268" priority="284" stopIfTrue="1">
       <formula>IF(AND($D47&lt;&gt;"",$K47="",$I47&lt;TODAY()),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="255" priority="267" stopIfTrue="1">
+    <cfRule type="expression" dxfId="267" priority="285" stopIfTrue="1">
       <formula>IF(OR(AND($D47&lt;&gt;"",$J47&lt;&gt;"",$Q47&lt;100),TODAY()&gt;=$H47),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P13">
-    <cfRule type="expression" dxfId="254" priority="262" stopIfTrue="1">
+    <cfRule type="expression" dxfId="266" priority="280" stopIfTrue="1">
       <formula>IF(AND($D13&lt;&gt;"",$J13&lt;&gt;"",$K13&lt;&gt;""),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="253" priority="263" stopIfTrue="1">
+    <cfRule type="expression" dxfId="265" priority="281" stopIfTrue="1">
       <formula>IF(AND($D13&lt;&gt;"",$K13="",$I13&lt;TODAY()),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="252" priority="264" stopIfTrue="1">
+    <cfRule type="expression" dxfId="264" priority="282" stopIfTrue="1">
       <formula>IF(OR(AND($D13&lt;&gt;"",$J13&lt;&gt;"",$Q13&lt;100),TODAY()&gt;=$H13),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P15">
-    <cfRule type="expression" dxfId="251" priority="259" stopIfTrue="1">
+    <cfRule type="expression" dxfId="263" priority="277" stopIfTrue="1">
       <formula>IF(AND($D15&lt;&gt;"",$J15&lt;&gt;"",$K15&lt;&gt;""),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="250" priority="260" stopIfTrue="1">
+    <cfRule type="expression" dxfId="262" priority="278" stopIfTrue="1">
       <formula>IF(AND($D15&lt;&gt;"",$K15="",$I15&lt;TODAY()),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="249" priority="261" stopIfTrue="1">
+    <cfRule type="expression" dxfId="261" priority="279" stopIfTrue="1">
       <formula>IF(OR(AND($D15&lt;&gt;"",$J15&lt;&gt;"",$Q15&lt;100),TODAY()&gt;=$H15),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P17">
-    <cfRule type="expression" dxfId="248" priority="256" stopIfTrue="1">
+    <cfRule type="expression" dxfId="260" priority="274" stopIfTrue="1">
       <formula>IF(AND($D17&lt;&gt;"",$J17&lt;&gt;"",$K17&lt;&gt;""),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="247" priority="257" stopIfTrue="1">
+    <cfRule type="expression" dxfId="259" priority="275" stopIfTrue="1">
       <formula>IF(AND($D17&lt;&gt;"",$K17="",$I17&lt;TODAY()),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="246" priority="258" stopIfTrue="1">
+    <cfRule type="expression" dxfId="258" priority="276" stopIfTrue="1">
       <formula>IF(OR(AND($D17&lt;&gt;"",$J17&lt;&gt;"",$Q17&lt;100),TODAY()&gt;=$H17),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P19">
-    <cfRule type="expression" dxfId="245" priority="253" stopIfTrue="1">
+    <cfRule type="expression" dxfId="257" priority="271" stopIfTrue="1">
       <formula>IF(AND($D19&lt;&gt;"",$J19&lt;&gt;"",$K19&lt;&gt;""),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="244" priority="254" stopIfTrue="1">
+    <cfRule type="expression" dxfId="256" priority="272" stopIfTrue="1">
       <formula>IF(AND($D19&lt;&gt;"",$K19="",$I19&lt;TODAY()),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="243" priority="255" stopIfTrue="1">
+    <cfRule type="expression" dxfId="255" priority="273" stopIfTrue="1">
       <formula>IF(OR(AND($D19&lt;&gt;"",$J19&lt;&gt;"",$Q19&lt;100),TODAY()&gt;=$H19),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P21">
-    <cfRule type="expression" dxfId="242" priority="250" stopIfTrue="1">
+    <cfRule type="expression" dxfId="254" priority="268" stopIfTrue="1">
       <formula>IF(AND($D21&lt;&gt;"",$J21&lt;&gt;"",$K21&lt;&gt;""),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="241" priority="251" stopIfTrue="1">
+    <cfRule type="expression" dxfId="253" priority="269" stopIfTrue="1">
       <formula>IF(AND($D21&lt;&gt;"",$K21="",$I21&lt;TODAY()),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="240" priority="252" stopIfTrue="1">
+    <cfRule type="expression" dxfId="252" priority="270" stopIfTrue="1">
       <formula>IF(OR(AND($D21&lt;&gt;"",$J21&lt;&gt;"",$Q21&lt;100),TODAY()&gt;=$H21),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P29">
-    <cfRule type="expression" dxfId="239" priority="247" stopIfTrue="1">
+    <cfRule type="expression" dxfId="251" priority="265" stopIfTrue="1">
       <formula>IF(AND($D29&lt;&gt;"",$J29&lt;&gt;"",$K29&lt;&gt;""),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="238" priority="248" stopIfTrue="1">
+    <cfRule type="expression" dxfId="250" priority="266" stopIfTrue="1">
       <formula>IF(AND($D29&lt;&gt;"",$K29="",$I29&lt;TODAY()),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="237" priority="249" stopIfTrue="1">
+    <cfRule type="expression" dxfId="249" priority="267" stopIfTrue="1">
       <formula>IF(OR(AND($D29&lt;&gt;"",$J29&lt;&gt;"",$Q29&lt;100),TODAY()&gt;=$H29),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P39">
-    <cfRule type="expression" dxfId="236" priority="244" stopIfTrue="1">
+    <cfRule type="expression" dxfId="248" priority="262" stopIfTrue="1">
       <formula>IF(AND($D39&lt;&gt;"",$J39&lt;&gt;"",$K39&lt;&gt;""),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="235" priority="245" stopIfTrue="1">
+    <cfRule type="expression" dxfId="247" priority="263" stopIfTrue="1">
       <formula>IF(AND($D39&lt;&gt;"",$K39="",$I39&lt;TODAY()),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="234" priority="246" stopIfTrue="1">
+    <cfRule type="expression" dxfId="246" priority="264" stopIfTrue="1">
       <formula>IF(OR(AND($D39&lt;&gt;"",$J39&lt;&gt;"",$Q39&lt;100),TODAY()&gt;=$H39),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P45">
-    <cfRule type="expression" dxfId="233" priority="241" stopIfTrue="1">
+    <cfRule type="expression" dxfId="245" priority="259" stopIfTrue="1">
       <formula>IF(AND($D45&lt;&gt;"",$J45&lt;&gt;"",$K45&lt;&gt;""),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="232" priority="242" stopIfTrue="1">
+    <cfRule type="expression" dxfId="244" priority="260" stopIfTrue="1">
       <formula>IF(AND($D45&lt;&gt;"",$K45="",$I45&lt;TODAY()),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="231" priority="243" stopIfTrue="1">
+    <cfRule type="expression" dxfId="243" priority="261" stopIfTrue="1">
       <formula>IF(OR(AND($D45&lt;&gt;"",$J45&lt;&gt;"",$Q45&lt;100),TODAY()&gt;=$H45),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P49">
-    <cfRule type="expression" dxfId="230" priority="238" stopIfTrue="1">
+    <cfRule type="expression" dxfId="242" priority="256" stopIfTrue="1">
       <formula>IF(AND($D49&lt;&gt;"",$J49&lt;&gt;"",$K49&lt;&gt;""),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="229" priority="239" stopIfTrue="1">
+    <cfRule type="expression" dxfId="241" priority="257" stopIfTrue="1">
       <formula>IF(AND($D49&lt;&gt;"",$K49="",$I49&lt;TODAY()),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="228" priority="240" stopIfTrue="1">
+    <cfRule type="expression" dxfId="240" priority="258" stopIfTrue="1">
       <formula>IF(OR(AND($D49&lt;&gt;"",$J49&lt;&gt;"",$Q49&lt;100),TODAY()&gt;=$H49),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P51">
-    <cfRule type="expression" dxfId="227" priority="235" stopIfTrue="1">
+    <cfRule type="expression" dxfId="239" priority="253" stopIfTrue="1">
       <formula>IF(AND($D51&lt;&gt;"",$J51&lt;&gt;"",$K51&lt;&gt;""),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="226" priority="236" stopIfTrue="1">
+    <cfRule type="expression" dxfId="238" priority="254" stopIfTrue="1">
       <formula>IF(AND($D51&lt;&gt;"",$K51="",$I51&lt;TODAY()),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="225" priority="237" stopIfTrue="1">
+    <cfRule type="expression" dxfId="237" priority="255" stopIfTrue="1">
       <formula>IF(OR(AND($D51&lt;&gt;"",$J51&lt;&gt;"",$Q51&lt;100),TODAY()&gt;=$H51),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P63">
-    <cfRule type="expression" dxfId="224" priority="232" stopIfTrue="1">
+    <cfRule type="expression" dxfId="236" priority="250" stopIfTrue="1">
       <formula>IF(AND($D63&lt;&gt;"",$J63&lt;&gt;"",$K63&lt;&gt;""),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="223" priority="233" stopIfTrue="1">
+    <cfRule type="expression" dxfId="235" priority="251" stopIfTrue="1">
       <formula>IF(AND($D63&lt;&gt;"",$K63="",$I63&lt;TODAY()),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="222" priority="234" stopIfTrue="1">
+    <cfRule type="expression" dxfId="234" priority="252" stopIfTrue="1">
       <formula>IF(OR(AND($D63&lt;&gt;"",$J63&lt;&gt;"",$Q63&lt;100),TODAY()&gt;=$H63),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P65">
-    <cfRule type="expression" dxfId="221" priority="229" stopIfTrue="1">
+    <cfRule type="expression" dxfId="233" priority="247" stopIfTrue="1">
       <formula>IF(AND($D65&lt;&gt;"",$J65&lt;&gt;"",$K65&lt;&gt;""),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="220" priority="230" stopIfTrue="1">
+    <cfRule type="expression" dxfId="232" priority="248" stopIfTrue="1">
       <formula>IF(AND($D65&lt;&gt;"",$K65="",$I65&lt;TODAY()),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="219" priority="231" stopIfTrue="1">
+    <cfRule type="expression" dxfId="231" priority="249" stopIfTrue="1">
       <formula>IF(OR(AND($D65&lt;&gt;"",$J65&lt;&gt;"",$Q65&lt;100),TODAY()&gt;=$H65),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P67">
-    <cfRule type="expression" dxfId="218" priority="226" stopIfTrue="1">
+    <cfRule type="expression" dxfId="230" priority="244" stopIfTrue="1">
       <formula>IF(AND($D67&lt;&gt;"",$J67&lt;&gt;"",$K67&lt;&gt;""),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="217" priority="227" stopIfTrue="1">
+    <cfRule type="expression" dxfId="229" priority="245" stopIfTrue="1">
       <formula>IF(AND($D67&lt;&gt;"",$K67="",$I67&lt;TODAY()),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="216" priority="228" stopIfTrue="1">
+    <cfRule type="expression" dxfId="228" priority="246" stopIfTrue="1">
       <formula>IF(OR(AND($D67&lt;&gt;"",$J67&lt;&gt;"",$Q67&lt;100),TODAY()&gt;=$H67),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P23">
-    <cfRule type="expression" dxfId="215" priority="223" stopIfTrue="1">
+    <cfRule type="expression" dxfId="227" priority="241" stopIfTrue="1">
       <formula>IF(AND($D23&lt;&gt;"",$J23&lt;&gt;"",$K23&lt;&gt;""),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="214" priority="224" stopIfTrue="1">
+    <cfRule type="expression" dxfId="226" priority="242" stopIfTrue="1">
       <formula>IF(AND($D23&lt;&gt;"",$K23="",$I23&lt;TODAY()),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="213" priority="225" stopIfTrue="1">
+    <cfRule type="expression" dxfId="225" priority="243" stopIfTrue="1">
       <formula>IF(OR(AND($D23&lt;&gt;"",$J23&lt;&gt;"",$Q23&lt;100),TODAY()&gt;=$H23),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P25">
-    <cfRule type="expression" dxfId="212" priority="220" stopIfTrue="1">
+    <cfRule type="expression" dxfId="224" priority="238" stopIfTrue="1">
       <formula>IF(AND($D25&lt;&gt;"",$J25&lt;&gt;"",$K25&lt;&gt;""),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="211" priority="221" stopIfTrue="1">
+    <cfRule type="expression" dxfId="223" priority="239" stopIfTrue="1">
       <formula>IF(AND($D25&lt;&gt;"",$K25="",$I25&lt;TODAY()),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="210" priority="222" stopIfTrue="1">
+    <cfRule type="expression" dxfId="222" priority="240" stopIfTrue="1">
       <formula>IF(OR(AND($D25&lt;&gt;"",$J25&lt;&gt;"",$Q25&lt;100),TODAY()&gt;=$H25),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P27">
-    <cfRule type="expression" dxfId="209" priority="217" stopIfTrue="1">
+    <cfRule type="expression" dxfId="221" priority="235" stopIfTrue="1">
       <formula>IF(AND($D27&lt;&gt;"",$J27&lt;&gt;"",$K27&lt;&gt;""),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="208" priority="218" stopIfTrue="1">
+    <cfRule type="expression" dxfId="220" priority="236" stopIfTrue="1">
       <formula>IF(AND($D27&lt;&gt;"",$K27="",$I27&lt;TODAY()),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="207" priority="219" stopIfTrue="1">
+    <cfRule type="expression" dxfId="219" priority="237" stopIfTrue="1">
       <formula>IF(OR(AND($D27&lt;&gt;"",$J27&lt;&gt;"",$Q27&lt;100),TODAY()&gt;=$H27),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P55">
-    <cfRule type="expression" dxfId="206" priority="214" stopIfTrue="1">
+    <cfRule type="expression" dxfId="218" priority="232" stopIfTrue="1">
       <formula>IF(AND($D55&lt;&gt;"",$J55&lt;&gt;"",$K55&lt;&gt;""),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="205" priority="215" stopIfTrue="1">
+    <cfRule type="expression" dxfId="217" priority="233" stopIfTrue="1">
       <formula>IF(AND($D55&lt;&gt;"",$K55="",$I55&lt;TODAY()),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="204" priority="216" stopIfTrue="1">
+    <cfRule type="expression" dxfId="216" priority="234" stopIfTrue="1">
       <formula>IF(OR(AND($D55&lt;&gt;"",$J55&lt;&gt;"",$Q55&lt;100),TODAY()&gt;=$H55),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P57">
-    <cfRule type="expression" dxfId="203" priority="211" stopIfTrue="1">
+    <cfRule type="expression" dxfId="215" priority="229" stopIfTrue="1">
       <formula>IF(AND($D57&lt;&gt;"",$J57&lt;&gt;"",$K57&lt;&gt;""),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="202" priority="212" stopIfTrue="1">
+    <cfRule type="expression" dxfId="214" priority="230" stopIfTrue="1">
       <formula>IF(AND($D57&lt;&gt;"",$K57="",$I57&lt;TODAY()),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="201" priority="213" stopIfTrue="1">
+    <cfRule type="expression" dxfId="213" priority="231" stopIfTrue="1">
       <formula>IF(OR(AND($D57&lt;&gt;"",$J57&lt;&gt;"",$Q57&lt;100),TODAY()&gt;=$H57),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P59">
-    <cfRule type="expression" dxfId="200" priority="208" stopIfTrue="1">
+    <cfRule type="expression" dxfId="212" priority="226" stopIfTrue="1">
       <formula>IF(AND($D59&lt;&gt;"",$J59&lt;&gt;"",$K59&lt;&gt;""),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="199" priority="209" stopIfTrue="1">
+    <cfRule type="expression" dxfId="211" priority="227" stopIfTrue="1">
       <formula>IF(AND($D59&lt;&gt;"",$K59="",$I59&lt;TODAY()),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="198" priority="210" stopIfTrue="1">
+    <cfRule type="expression" dxfId="210" priority="228" stopIfTrue="1">
       <formula>IF(OR(AND($D59&lt;&gt;"",$J59&lt;&gt;"",$Q59&lt;100),TODAY()&gt;=$H59),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P61">
-    <cfRule type="expression" dxfId="197" priority="205" stopIfTrue="1">
+    <cfRule type="expression" dxfId="209" priority="223" stopIfTrue="1">
       <formula>IF(AND($D61&lt;&gt;"",$J61&lt;&gt;"",$K61&lt;&gt;""),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="196" priority="206" stopIfTrue="1">
+    <cfRule type="expression" dxfId="208" priority="224" stopIfTrue="1">
       <formula>IF(AND($D61&lt;&gt;"",$K61="",$I61&lt;TODAY()),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="195" priority="207" stopIfTrue="1">
+    <cfRule type="expression" dxfId="207" priority="225" stopIfTrue="1">
       <formula>IF(OR(AND($D61&lt;&gt;"",$J61&lt;&gt;"",$Q61&lt;100),TODAY()&gt;=$H61),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E69">
-    <cfRule type="expression" dxfId="194" priority="202" stopIfTrue="1">
+    <cfRule type="expression" dxfId="206" priority="220" stopIfTrue="1">
       <formula>IF(AND($D69&lt;&gt;"",$J69&lt;&gt;"",$K69&lt;&gt;""),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="193" priority="203" stopIfTrue="1">
+    <cfRule type="expression" dxfId="205" priority="221" stopIfTrue="1">
       <formula>IF(AND($D69&lt;&gt;"",$K69="",$I69&lt;TODAY()),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="192" priority="204" stopIfTrue="1">
+    <cfRule type="expression" dxfId="204" priority="222" stopIfTrue="1">
       <formula>IF(OR(AND($D69&lt;&gt;"",$J69&lt;&gt;"",$Q69&lt;100),TODAY()&gt;=$H69),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F71">
-    <cfRule type="expression" dxfId="191" priority="196" stopIfTrue="1">
+    <cfRule type="expression" dxfId="203" priority="214" stopIfTrue="1">
       <formula>IF(AND($D71&lt;&gt;"",$J71&lt;&gt;"",$K71&lt;&gt;""),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="190" priority="197" stopIfTrue="1">
+    <cfRule type="expression" dxfId="202" priority="215" stopIfTrue="1">
       <formula>IF(AND($D71&lt;&gt;"",$K71="",$I71&lt;TODAY()),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="189" priority="198" stopIfTrue="1">
+    <cfRule type="expression" dxfId="201" priority="216" stopIfTrue="1">
       <formula>IF(OR(AND($D71&lt;&gt;"",$J71&lt;&gt;"",$Q71&lt;100),TODAY()&gt;=$H71),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F73">
-    <cfRule type="expression" dxfId="188" priority="193" stopIfTrue="1">
+    <cfRule type="expression" dxfId="200" priority="211" stopIfTrue="1">
       <formula>IF(AND($D73&lt;&gt;"",$J73&lt;&gt;"",$K73&lt;&gt;""),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="187" priority="194" stopIfTrue="1">
+    <cfRule type="expression" dxfId="199" priority="212" stopIfTrue="1">
       <formula>IF(AND($D73&lt;&gt;"",$K73="",$I73&lt;TODAY()),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="186" priority="195" stopIfTrue="1">
+    <cfRule type="expression" dxfId="198" priority="213" stopIfTrue="1">
       <formula>IF(OR(AND($D73&lt;&gt;"",$J73&lt;&gt;"",$Q73&lt;100),TODAY()&gt;=$H73),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E65">
-    <cfRule type="expression" dxfId="185" priority="190" stopIfTrue="1">
+    <cfRule type="expression" dxfId="197" priority="208" stopIfTrue="1">
       <formula>IF(AND($D65&lt;&gt;"",$J65&lt;&gt;"",$K65&lt;&gt;""),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="184" priority="191" stopIfTrue="1">
+    <cfRule type="expression" dxfId="196" priority="209" stopIfTrue="1">
       <formula>IF(AND($D65&lt;&gt;"",$K65="",$I65&lt;TODAY()),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="183" priority="192" stopIfTrue="1">
+    <cfRule type="expression" dxfId="195" priority="210" stopIfTrue="1">
       <formula>IF(OR(AND($D65&lt;&gt;"",$J65&lt;&gt;"",$Q65&lt;100),TODAY()&gt;=$H65),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F65">
-    <cfRule type="expression" dxfId="182" priority="187" stopIfTrue="1">
+    <cfRule type="expression" dxfId="194" priority="205" stopIfTrue="1">
       <formula>IF(AND($D65&lt;&gt;"",$J65&lt;&gt;"",$K65&lt;&gt;""),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="181" priority="188" stopIfTrue="1">
+    <cfRule type="expression" dxfId="193" priority="206" stopIfTrue="1">
       <formula>IF(AND($D65&lt;&gt;"",$K65="",$I65&lt;TODAY()),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="180" priority="189" stopIfTrue="1">
+    <cfRule type="expression" dxfId="192" priority="207" stopIfTrue="1">
       <formula>IF(OR(AND($D65&lt;&gt;"",$J65&lt;&gt;"",$Q65&lt;100),TODAY()&gt;=$H65),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F67">
-    <cfRule type="expression" dxfId="179" priority="184" stopIfTrue="1">
+    <cfRule type="expression" dxfId="191" priority="202" stopIfTrue="1">
       <formula>IF(AND($D67&lt;&gt;"",$J67&lt;&gt;"",$K67&lt;&gt;""),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="178" priority="185" stopIfTrue="1">
+    <cfRule type="expression" dxfId="190" priority="203" stopIfTrue="1">
       <formula>IF(AND($D67&lt;&gt;"",$K67="",$I67&lt;TODAY()),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="177" priority="186" stopIfTrue="1">
+    <cfRule type="expression" dxfId="189" priority="204" stopIfTrue="1">
       <formula>IF(OR(AND($D67&lt;&gt;"",$J67&lt;&gt;"",$Q67&lt;100),TODAY()&gt;=$H67),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F69">
-    <cfRule type="expression" dxfId="176" priority="181" stopIfTrue="1">
+    <cfRule type="expression" dxfId="188" priority="199" stopIfTrue="1">
       <formula>IF(AND($D69&lt;&gt;"",$J69&lt;&gt;"",$K69&lt;&gt;""),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="175" priority="182" stopIfTrue="1">
+    <cfRule type="expression" dxfId="187" priority="200" stopIfTrue="1">
       <formula>IF(AND($D69&lt;&gt;"",$K69="",$I69&lt;TODAY()),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="174" priority="183" stopIfTrue="1">
+    <cfRule type="expression" dxfId="186" priority="201" stopIfTrue="1">
       <formula>IF(OR(AND($D69&lt;&gt;"",$J69&lt;&gt;"",$Q69&lt;100),TODAY()&gt;=$H69),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P69">
-    <cfRule type="expression" dxfId="173" priority="178" stopIfTrue="1">
+    <cfRule type="expression" dxfId="185" priority="196" stopIfTrue="1">
       <formula>IF(AND($D69&lt;&gt;"",$J69&lt;&gt;"",$K69&lt;&gt;""),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="172" priority="179" stopIfTrue="1">
+    <cfRule type="expression" dxfId="184" priority="197" stopIfTrue="1">
       <formula>IF(AND($D69&lt;&gt;"",$K69="",$I69&lt;TODAY()),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="171" priority="180" stopIfTrue="1">
+    <cfRule type="expression" dxfId="183" priority="198" stopIfTrue="1">
       <formula>IF(OR(AND($D69&lt;&gt;"",$J69&lt;&gt;"",$Q69&lt;100),TODAY()&gt;=$H69),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J51:J52">
-    <cfRule type="expression" dxfId="170" priority="175" stopIfTrue="1">
+    <cfRule type="expression" dxfId="182" priority="193" stopIfTrue="1">
       <formula>IF(AND($D51&lt;&gt;"",$J51&lt;&gt;"",$K51&lt;&gt;""),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="169" priority="176" stopIfTrue="1">
+    <cfRule type="expression" dxfId="181" priority="194" stopIfTrue="1">
       <formula>IF(AND($D51&lt;&gt;"",$K51="",$I51&lt;TODAY()),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="168" priority="177" stopIfTrue="1">
+    <cfRule type="expression" dxfId="180" priority="195" stopIfTrue="1">
       <formula>IF(OR(AND($D51&lt;&gt;"",$J51&lt;&gt;"",$Q51&lt;100),TODAY()&gt;=$H51),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K51:K52">
-    <cfRule type="expression" dxfId="167" priority="172" stopIfTrue="1">
+    <cfRule type="expression" dxfId="179" priority="190" stopIfTrue="1">
       <formula>IF(AND($D51&lt;&gt;"",$J51&lt;&gt;"",$K51&lt;&gt;""),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="166" priority="173" stopIfTrue="1">
+    <cfRule type="expression" dxfId="178" priority="191" stopIfTrue="1">
       <formula>IF(AND($D51&lt;&gt;"",$K51="",$I51&lt;TODAY()),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="165" priority="174" stopIfTrue="1">
+    <cfRule type="expression" dxfId="177" priority="192" stopIfTrue="1">
       <formula>IF(OR(AND($D51&lt;&gt;"",$J51&lt;&gt;"",$Q51&lt;100),TODAY()&gt;=$H51),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J53:J54">
-    <cfRule type="expression" dxfId="164" priority="169" stopIfTrue="1">
+    <cfRule type="expression" dxfId="176" priority="187" stopIfTrue="1">
       <formula>IF(AND($D53&lt;&gt;"",$J53&lt;&gt;"",$K53&lt;&gt;""),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="163" priority="170" stopIfTrue="1">
+    <cfRule type="expression" dxfId="175" priority="188" stopIfTrue="1">
       <formula>IF(AND($D53&lt;&gt;"",$K53="",$I53&lt;TODAY()),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="162" priority="171" stopIfTrue="1">
+    <cfRule type="expression" dxfId="174" priority="189" stopIfTrue="1">
       <formula>IF(OR(AND($D53&lt;&gt;"",$J53&lt;&gt;"",$Q53&lt;100),TODAY()&gt;=$H53),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K53:K54">
-    <cfRule type="expression" dxfId="161" priority="166" stopIfTrue="1">
+    <cfRule type="expression" dxfId="173" priority="184" stopIfTrue="1">
       <formula>IF(AND($D53&lt;&gt;"",$J53&lt;&gt;"",$K53&lt;&gt;""),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="160" priority="167" stopIfTrue="1">
+    <cfRule type="expression" dxfId="172" priority="185" stopIfTrue="1">
       <formula>IF(AND($D53&lt;&gt;"",$K53="",$I53&lt;TODAY()),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="159" priority="168" stopIfTrue="1">
+    <cfRule type="expression" dxfId="171" priority="186" stopIfTrue="1">
       <formula>IF(OR(AND($D53&lt;&gt;"",$J53&lt;&gt;"",$Q53&lt;100),TODAY()&gt;=$H53),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H55:H56">
-    <cfRule type="expression" dxfId="158" priority="163" stopIfTrue="1">
+    <cfRule type="expression" dxfId="170" priority="181" stopIfTrue="1">
       <formula>IF(AND($D55&lt;&gt;"",$J55&lt;&gt;"",$K55&lt;&gt;""),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="157" priority="164" stopIfTrue="1">
+    <cfRule type="expression" dxfId="169" priority="182" stopIfTrue="1">
       <formula>IF(AND($D55&lt;&gt;"",$K55="",$I55&lt;TODAY()),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="156" priority="165" stopIfTrue="1">
+    <cfRule type="expression" dxfId="168" priority="183" stopIfTrue="1">
       <formula>IF(OR(AND($D55&lt;&gt;"",$J55&lt;&gt;"",$Q55&lt;100),TODAY()&gt;=$H55),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I55:I56">
-    <cfRule type="expression" dxfId="155" priority="160" stopIfTrue="1">
+    <cfRule type="expression" dxfId="167" priority="178" stopIfTrue="1">
       <formula>IF(AND($D55&lt;&gt;"",$J55&lt;&gt;"",$K55&lt;&gt;""),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="154" priority="161" stopIfTrue="1">
+    <cfRule type="expression" dxfId="166" priority="179" stopIfTrue="1">
       <formula>IF(AND($D55&lt;&gt;"",$K55="",$I55&lt;TODAY()),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="153" priority="162" stopIfTrue="1">
+    <cfRule type="expression" dxfId="165" priority="180" stopIfTrue="1">
       <formula>IF(OR(AND($D55&lt;&gt;"",$J55&lt;&gt;"",$Q55&lt;100),TODAY()&gt;=$H55),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J55:J56">
-    <cfRule type="expression" dxfId="152" priority="157" stopIfTrue="1">
+    <cfRule type="expression" dxfId="164" priority="175" stopIfTrue="1">
       <formula>IF(AND($D55&lt;&gt;"",$J55&lt;&gt;"",$K55&lt;&gt;""),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="151" priority="158" stopIfTrue="1">
+    <cfRule type="expression" dxfId="163" priority="176" stopIfTrue="1">
       <formula>IF(AND($D55&lt;&gt;"",$K55="",$I55&lt;TODAY()),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="150" priority="159" stopIfTrue="1">
+    <cfRule type="expression" dxfId="162" priority="177" stopIfTrue="1">
       <formula>IF(OR(AND($D55&lt;&gt;"",$J55&lt;&gt;"",$Q55&lt;100),TODAY()&gt;=$H55),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K55:K56">
-    <cfRule type="expression" dxfId="149" priority="154" stopIfTrue="1">
+    <cfRule type="expression" dxfId="161" priority="172" stopIfTrue="1">
       <formula>IF(AND($D55&lt;&gt;"",$J55&lt;&gt;"",$K55&lt;&gt;""),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="148" priority="155" stopIfTrue="1">
+    <cfRule type="expression" dxfId="160" priority="173" stopIfTrue="1">
       <formula>IF(AND($D55&lt;&gt;"",$K55="",$I55&lt;TODAY()),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="147" priority="156" stopIfTrue="1">
+    <cfRule type="expression" dxfId="159" priority="174" stopIfTrue="1">
       <formula>IF(OR(AND($D55&lt;&gt;"",$J55&lt;&gt;"",$Q55&lt;100),TODAY()&gt;=$H55),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J57:J58">
-    <cfRule type="expression" dxfId="146" priority="151" stopIfTrue="1">
+    <cfRule type="expression" dxfId="158" priority="169" stopIfTrue="1">
       <formula>IF(AND($D57&lt;&gt;"",$J57&lt;&gt;"",$K57&lt;&gt;""),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="145" priority="152" stopIfTrue="1">
+    <cfRule type="expression" dxfId="157" priority="170" stopIfTrue="1">
       <formula>IF(AND($D57&lt;&gt;"",$K57="",$I57&lt;TODAY()),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="144" priority="153" stopIfTrue="1">
+    <cfRule type="expression" dxfId="156" priority="171" stopIfTrue="1">
       <formula>IF(OR(AND($D57&lt;&gt;"",$J57&lt;&gt;"",$Q57&lt;100),TODAY()&gt;=$H57),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J59:J60">
-    <cfRule type="expression" dxfId="143" priority="148" stopIfTrue="1">
+    <cfRule type="expression" dxfId="155" priority="166" stopIfTrue="1">
       <formula>IF(AND($D59&lt;&gt;"",$J59&lt;&gt;"",$K59&lt;&gt;""),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="142" priority="149" stopIfTrue="1">
+    <cfRule type="expression" dxfId="154" priority="167" stopIfTrue="1">
       <formula>IF(AND($D59&lt;&gt;"",$K59="",$I59&lt;TODAY()),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="141" priority="150" stopIfTrue="1">
+    <cfRule type="expression" dxfId="153" priority="168" stopIfTrue="1">
       <formula>IF(OR(AND($D59&lt;&gt;"",$J59&lt;&gt;"",$Q59&lt;100),TODAY()&gt;=$H59),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J61:J62">
-    <cfRule type="expression" dxfId="140" priority="145" stopIfTrue="1">
+    <cfRule type="expression" dxfId="152" priority="163" stopIfTrue="1">
       <formula>IF(AND($D61&lt;&gt;"",$J61&lt;&gt;"",$K61&lt;&gt;""),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="139" priority="146" stopIfTrue="1">
+    <cfRule type="expression" dxfId="151" priority="164" stopIfTrue="1">
       <formula>IF(AND($D61&lt;&gt;"",$K61="",$I61&lt;TODAY()),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="138" priority="147" stopIfTrue="1">
+    <cfRule type="expression" dxfId="150" priority="165" stopIfTrue="1">
       <formula>IF(OR(AND($D61&lt;&gt;"",$J61&lt;&gt;"",$Q61&lt;100),TODAY()&gt;=$H61),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J63:J64">
-    <cfRule type="expression" dxfId="137" priority="142" stopIfTrue="1">
+    <cfRule type="expression" dxfId="149" priority="160" stopIfTrue="1">
       <formula>IF(AND($D63&lt;&gt;"",$J63&lt;&gt;"",$K63&lt;&gt;""),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="136" priority="143" stopIfTrue="1">
+    <cfRule type="expression" dxfId="148" priority="161" stopIfTrue="1">
       <formula>IF(AND($D63&lt;&gt;"",$K63="",$I63&lt;TODAY()),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="135" priority="144" stopIfTrue="1">
+    <cfRule type="expression" dxfId="147" priority="162" stopIfTrue="1">
       <formula>IF(OR(AND($D63&lt;&gt;"",$J63&lt;&gt;"",$Q63&lt;100),TODAY()&gt;=$H63),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J65:J66">
-    <cfRule type="expression" dxfId="134" priority="139" stopIfTrue="1">
+    <cfRule type="expression" dxfId="146" priority="157" stopIfTrue="1">
       <formula>IF(AND($D65&lt;&gt;"",$J65&lt;&gt;"",$K65&lt;&gt;""),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="133" priority="140" stopIfTrue="1">
+    <cfRule type="expression" dxfId="145" priority="158" stopIfTrue="1">
       <formula>IF(AND($D65&lt;&gt;"",$K65="",$I65&lt;TODAY()),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="132" priority="141" stopIfTrue="1">
+    <cfRule type="expression" dxfId="144" priority="159" stopIfTrue="1">
       <formula>IF(OR(AND($D65&lt;&gt;"",$J65&lt;&gt;"",$Q65&lt;100),TODAY()&gt;=$H65),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J67:J68">
-    <cfRule type="expression" dxfId="131" priority="136" stopIfTrue="1">
+    <cfRule type="expression" dxfId="143" priority="154" stopIfTrue="1">
       <formula>IF(AND($D67&lt;&gt;"",$J67&lt;&gt;"",$K67&lt;&gt;""),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="130" priority="137" stopIfTrue="1">
+    <cfRule type="expression" dxfId="142" priority="155" stopIfTrue="1">
       <formula>IF(AND($D67&lt;&gt;"",$K67="",$I67&lt;TODAY()),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="129" priority="138" stopIfTrue="1">
+    <cfRule type="expression" dxfId="141" priority="156" stopIfTrue="1">
       <formula>IF(OR(AND($D67&lt;&gt;"",$J67&lt;&gt;"",$Q67&lt;100),TODAY()&gt;=$H67),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J69:J70">
-    <cfRule type="expression" dxfId="128" priority="133" stopIfTrue="1">
+    <cfRule type="expression" dxfId="140" priority="151" stopIfTrue="1">
       <formula>IF(AND($D69&lt;&gt;"",$J69&lt;&gt;"",$K69&lt;&gt;""),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="127" priority="134" stopIfTrue="1">
+    <cfRule type="expression" dxfId="139" priority="152" stopIfTrue="1">
       <formula>IF(AND($D69&lt;&gt;"",$K69="",$I69&lt;TODAY()),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="126" priority="135" stopIfTrue="1">
+    <cfRule type="expression" dxfId="138" priority="153" stopIfTrue="1">
       <formula>IF(OR(AND($D69&lt;&gt;"",$J69&lt;&gt;"",$Q69&lt;100),TODAY()&gt;=$H69),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K57:K58">
-    <cfRule type="expression" dxfId="125" priority="130" stopIfTrue="1">
+    <cfRule type="expression" dxfId="137" priority="148" stopIfTrue="1">
       <formula>IF(AND($D57&lt;&gt;"",$J57&lt;&gt;"",$K57&lt;&gt;""),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="124" priority="131" stopIfTrue="1">
+    <cfRule type="expression" dxfId="136" priority="149" stopIfTrue="1">
       <formula>IF(AND($D57&lt;&gt;"",$K57="",$I57&lt;TODAY()),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="123" priority="132" stopIfTrue="1">
+    <cfRule type="expression" dxfId="135" priority="150" stopIfTrue="1">
       <formula>IF(OR(AND($D57&lt;&gt;"",$J57&lt;&gt;"",$Q57&lt;100),TODAY()&gt;=$H57),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K59:K60">
-    <cfRule type="expression" dxfId="122" priority="127" stopIfTrue="1">
+    <cfRule type="expression" dxfId="134" priority="145" stopIfTrue="1">
       <formula>IF(AND($D59&lt;&gt;"",$J59&lt;&gt;"",$K59&lt;&gt;""),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="121" priority="128" stopIfTrue="1">
+    <cfRule type="expression" dxfId="133" priority="146" stopIfTrue="1">
       <formula>IF(AND($D59&lt;&gt;"",$K59="",$I59&lt;TODAY()),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="120" priority="129" stopIfTrue="1">
+    <cfRule type="expression" dxfId="132" priority="147" stopIfTrue="1">
       <formula>IF(OR(AND($D59&lt;&gt;"",$J59&lt;&gt;"",$Q59&lt;100),TODAY()&gt;=$H59),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K61:K62">
-    <cfRule type="expression" dxfId="119" priority="124" stopIfTrue="1">
+    <cfRule type="expression" dxfId="131" priority="142" stopIfTrue="1">
       <formula>IF(AND($D61&lt;&gt;"",$J61&lt;&gt;"",$K61&lt;&gt;""),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="118" priority="125" stopIfTrue="1">
+    <cfRule type="expression" dxfId="130" priority="143" stopIfTrue="1">
       <formula>IF(AND($D61&lt;&gt;"",$K61="",$I61&lt;TODAY()),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="117" priority="126" stopIfTrue="1">
+    <cfRule type="expression" dxfId="129" priority="144" stopIfTrue="1">
       <formula>IF(OR(AND($D61&lt;&gt;"",$J61&lt;&gt;"",$Q61&lt;100),TODAY()&gt;=$H61),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K63:K64">
-    <cfRule type="expression" dxfId="116" priority="121" stopIfTrue="1">
+    <cfRule type="expression" dxfId="128" priority="139" stopIfTrue="1">
       <formula>IF(AND($D63&lt;&gt;"",$J63&lt;&gt;"",$K63&lt;&gt;""),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="115" priority="122" stopIfTrue="1">
+    <cfRule type="expression" dxfId="127" priority="140" stopIfTrue="1">
       <formula>IF(AND($D63&lt;&gt;"",$K63="",$I63&lt;TODAY()),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="114" priority="123" stopIfTrue="1">
+    <cfRule type="expression" dxfId="126" priority="141" stopIfTrue="1">
       <formula>IF(OR(AND($D63&lt;&gt;"",$J63&lt;&gt;"",$Q63&lt;100),TODAY()&gt;=$H63),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K65:K66">
-    <cfRule type="expression" dxfId="113" priority="118" stopIfTrue="1">
+    <cfRule type="expression" dxfId="125" priority="136" stopIfTrue="1">
       <formula>IF(AND($D65&lt;&gt;"",$J65&lt;&gt;"",$K65&lt;&gt;""),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="112" priority="119" stopIfTrue="1">
+    <cfRule type="expression" dxfId="124" priority="137" stopIfTrue="1">
       <formula>IF(AND($D65&lt;&gt;"",$K65="",$I65&lt;TODAY()),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="111" priority="120" stopIfTrue="1">
+    <cfRule type="expression" dxfId="123" priority="138" stopIfTrue="1">
       <formula>IF(OR(AND($D65&lt;&gt;"",$J65&lt;&gt;"",$Q65&lt;100),TODAY()&gt;=$H65),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K67:K68">
-    <cfRule type="expression" dxfId="110" priority="115" stopIfTrue="1">
+    <cfRule type="expression" dxfId="122" priority="133" stopIfTrue="1">
       <formula>IF(AND($D67&lt;&gt;"",$J67&lt;&gt;"",$K67&lt;&gt;""),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="109" priority="116" stopIfTrue="1">
+    <cfRule type="expression" dxfId="121" priority="134" stopIfTrue="1">
       <formula>IF(AND($D67&lt;&gt;"",$K67="",$I67&lt;TODAY()),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="108" priority="117" stopIfTrue="1">
+    <cfRule type="expression" dxfId="120" priority="135" stopIfTrue="1">
       <formula>IF(OR(AND($D67&lt;&gt;"",$J67&lt;&gt;"",$Q67&lt;100),TODAY()&gt;=$H67),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K69:K70">
-    <cfRule type="expression" dxfId="107" priority="112" stopIfTrue="1">
+    <cfRule type="expression" dxfId="119" priority="130" stopIfTrue="1">
       <formula>IF(AND($D69&lt;&gt;"",$J69&lt;&gt;"",$K69&lt;&gt;""),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="106" priority="113" stopIfTrue="1">
+    <cfRule type="expression" dxfId="118" priority="131" stopIfTrue="1">
       <formula>IF(AND($D69&lt;&gt;"",$K69="",$I69&lt;TODAY()),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="105" priority="114" stopIfTrue="1">
+    <cfRule type="expression" dxfId="117" priority="132" stopIfTrue="1">
       <formula>IF(OR(AND($D69&lt;&gt;"",$J69&lt;&gt;"",$Q69&lt;100),TODAY()&gt;=$H69),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H65:H66">
-    <cfRule type="expression" dxfId="104" priority="109" stopIfTrue="1">
+    <cfRule type="expression" dxfId="116" priority="127" stopIfTrue="1">
       <formula>IF(AND($D65&lt;&gt;"",$J65&lt;&gt;"",$K65&lt;&gt;""),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="103" priority="110" stopIfTrue="1">
+    <cfRule type="expression" dxfId="115" priority="128" stopIfTrue="1">
       <formula>IF(AND($D65&lt;&gt;"",$K65="",$I65&lt;TODAY()),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="102" priority="111" stopIfTrue="1">
+    <cfRule type="expression" dxfId="114" priority="129" stopIfTrue="1">
       <formula>IF(OR(AND($D65&lt;&gt;"",$J65&lt;&gt;"",$Q65&lt;100),TODAY()&gt;=$H65),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H63:H64">
-    <cfRule type="expression" dxfId="101" priority="106" stopIfTrue="1">
+    <cfRule type="expression" dxfId="113" priority="124" stopIfTrue="1">
       <formula>IF(AND($D63&lt;&gt;"",$J63&lt;&gt;"",$K63&lt;&gt;""),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="100" priority="107" stopIfTrue="1">
+    <cfRule type="expression" dxfId="112" priority="125" stopIfTrue="1">
       <formula>IF(AND($D63&lt;&gt;"",$K63="",$I63&lt;TODAY()),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="99" priority="108" stopIfTrue="1">
+    <cfRule type="expression" dxfId="111" priority="126" stopIfTrue="1">
       <formula>IF(OR(AND($D63&lt;&gt;"",$J63&lt;&gt;"",$Q63&lt;100),TODAY()&gt;=$H63),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I63:I64">
-    <cfRule type="expression" dxfId="98" priority="103" stopIfTrue="1">
+    <cfRule type="expression" dxfId="110" priority="121" stopIfTrue="1">
       <formula>IF(AND($D63&lt;&gt;"",$J63&lt;&gt;"",$K63&lt;&gt;""),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="97" priority="104" stopIfTrue="1">
+    <cfRule type="expression" dxfId="109" priority="122" stopIfTrue="1">
       <formula>IF(AND($D63&lt;&gt;"",$K63="",$I63&lt;TODAY()),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="96" priority="105" stopIfTrue="1">
+    <cfRule type="expression" dxfId="108" priority="123" stopIfTrue="1">
       <formula>IF(OR(AND($D63&lt;&gt;"",$J63&lt;&gt;"",$Q63&lt;100),TODAY()&gt;=$H63),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I65:I66">
-    <cfRule type="expression" dxfId="95" priority="100" stopIfTrue="1">
+    <cfRule type="expression" dxfId="107" priority="118" stopIfTrue="1">
       <formula>IF(AND($D65&lt;&gt;"",$J65&lt;&gt;"",$K65&lt;&gt;""),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="94" priority="101" stopIfTrue="1">
+    <cfRule type="expression" dxfId="106" priority="119" stopIfTrue="1">
       <formula>IF(AND($D65&lt;&gt;"",$K65="",$I65&lt;TODAY()),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="93" priority="102" stopIfTrue="1">
+    <cfRule type="expression" dxfId="105" priority="120" stopIfTrue="1">
       <formula>IF(OR(AND($D65&lt;&gt;"",$J65&lt;&gt;"",$Q65&lt;100),TODAY()&gt;=$H65),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H67:H68">
-    <cfRule type="expression" dxfId="92" priority="97" stopIfTrue="1">
+    <cfRule type="expression" dxfId="104" priority="115" stopIfTrue="1">
       <formula>IF(AND($D67&lt;&gt;"",$J67&lt;&gt;"",$K67&lt;&gt;""),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="91" priority="98" stopIfTrue="1">
+    <cfRule type="expression" dxfId="103" priority="116" stopIfTrue="1">
       <formula>IF(AND($D67&lt;&gt;"",$K67="",$I67&lt;TODAY()),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="90" priority="99" stopIfTrue="1">
+    <cfRule type="expression" dxfId="102" priority="117" stopIfTrue="1">
       <formula>IF(OR(AND($D67&lt;&gt;"",$J67&lt;&gt;"",$Q67&lt;100),TODAY()&gt;=$H67),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H69:H70">
-    <cfRule type="expression" dxfId="89" priority="94" stopIfTrue="1">
+    <cfRule type="expression" dxfId="101" priority="112" stopIfTrue="1">
       <formula>IF(AND($D69&lt;&gt;"",$J69&lt;&gt;"",$K69&lt;&gt;""),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="88" priority="95" stopIfTrue="1">
+    <cfRule type="expression" dxfId="100" priority="113" stopIfTrue="1">
       <formula>IF(AND($D69&lt;&gt;"",$K69="",$I69&lt;TODAY()),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="87" priority="96" stopIfTrue="1">
+    <cfRule type="expression" dxfId="99" priority="114" stopIfTrue="1">
       <formula>IF(OR(AND($D69&lt;&gt;"",$J69&lt;&gt;"",$Q69&lt;100),TODAY()&gt;=$H69),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I67:I68">
-    <cfRule type="expression" dxfId="86" priority="91" stopIfTrue="1">
+    <cfRule type="expression" dxfId="98" priority="109" stopIfTrue="1">
       <formula>IF(AND($D67&lt;&gt;"",$J67&lt;&gt;"",$K67&lt;&gt;""),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="85" priority="92" stopIfTrue="1">
+    <cfRule type="expression" dxfId="97" priority="110" stopIfTrue="1">
       <formula>IF(AND($D67&lt;&gt;"",$K67="",$I67&lt;TODAY()),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="84" priority="93" stopIfTrue="1">
+    <cfRule type="expression" dxfId="96" priority="111" stopIfTrue="1">
       <formula>IF(OR(AND($D67&lt;&gt;"",$J67&lt;&gt;"",$Q67&lt;100),TODAY()&gt;=$H67),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I69:I70">
-    <cfRule type="expression" dxfId="83" priority="88" stopIfTrue="1">
+    <cfRule type="expression" dxfId="95" priority="106" stopIfTrue="1">
       <formula>IF(AND($D69&lt;&gt;"",$J69&lt;&gt;"",$K69&lt;&gt;""),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="82" priority="89" stopIfTrue="1">
+    <cfRule type="expression" dxfId="94" priority="107" stopIfTrue="1">
       <formula>IF(AND($D69&lt;&gt;"",$K69="",$I69&lt;TODAY()),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="81" priority="90" stopIfTrue="1">
+    <cfRule type="expression" dxfId="93" priority="108" stopIfTrue="1">
       <formula>IF(OR(AND($D69&lt;&gt;"",$J69&lt;&gt;"",$Q69&lt;100),TODAY()&gt;=$H69),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I57:I58">
-    <cfRule type="expression" dxfId="80" priority="85" stopIfTrue="1">
+    <cfRule type="expression" dxfId="92" priority="103" stopIfTrue="1">
       <formula>IF(AND($D57&lt;&gt;"",$J57&lt;&gt;"",$K57&lt;&gt;""),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="79" priority="86" stopIfTrue="1">
+    <cfRule type="expression" dxfId="91" priority="104" stopIfTrue="1">
       <formula>IF(AND($D57&lt;&gt;"",$K57="",$I57&lt;TODAY()),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="78" priority="87" stopIfTrue="1">
+    <cfRule type="expression" dxfId="90" priority="105" stopIfTrue="1">
       <formula>IF(OR(AND($D57&lt;&gt;"",$J57&lt;&gt;"",$Q57&lt;100),TODAY()&gt;=$H57),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I59:I60">
-    <cfRule type="expression" dxfId="77" priority="82" stopIfTrue="1">
+    <cfRule type="expression" dxfId="89" priority="100" stopIfTrue="1">
       <formula>IF(AND($D59&lt;&gt;"",$J59&lt;&gt;"",$K59&lt;&gt;""),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="76" priority="83" stopIfTrue="1">
+    <cfRule type="expression" dxfId="88" priority="101" stopIfTrue="1">
       <formula>IF(AND($D59&lt;&gt;"",$K59="",$I59&lt;TODAY()),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="75" priority="84" stopIfTrue="1">
+    <cfRule type="expression" dxfId="87" priority="102" stopIfTrue="1">
       <formula>IF(OR(AND($D59&lt;&gt;"",$J59&lt;&gt;"",$Q59&lt;100),TODAY()&gt;=$H59),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I61:I62">
-    <cfRule type="expression" dxfId="74" priority="79" stopIfTrue="1">
+    <cfRule type="expression" dxfId="86" priority="97" stopIfTrue="1">
       <formula>IF(AND($D61&lt;&gt;"",$J61&lt;&gt;"",$K61&lt;&gt;""),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="73" priority="80" stopIfTrue="1">
+    <cfRule type="expression" dxfId="85" priority="98" stopIfTrue="1">
       <formula>IF(AND($D61&lt;&gt;"",$K61="",$I61&lt;TODAY()),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="72" priority="81" stopIfTrue="1">
+    <cfRule type="expression" dxfId="84" priority="99" stopIfTrue="1">
       <formula>IF(OR(AND($D61&lt;&gt;"",$J61&lt;&gt;"",$Q61&lt;100),TODAY()&gt;=$H61),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H57:H58">
-    <cfRule type="expression" dxfId="71" priority="76" stopIfTrue="1">
+    <cfRule type="expression" dxfId="83" priority="94" stopIfTrue="1">
       <formula>IF(AND($D57&lt;&gt;"",$J57&lt;&gt;"",$K57&lt;&gt;""),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="70" priority="77" stopIfTrue="1">
+    <cfRule type="expression" dxfId="82" priority="95" stopIfTrue="1">
       <formula>IF(AND($D57&lt;&gt;"",$K57="",$I57&lt;TODAY()),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="69" priority="78" stopIfTrue="1">
+    <cfRule type="expression" dxfId="81" priority="96" stopIfTrue="1">
       <formula>IF(OR(AND($D57&lt;&gt;"",$J57&lt;&gt;"",$Q57&lt;100),TODAY()&gt;=$H57),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H59:H60">
-    <cfRule type="expression" dxfId="68" priority="73" stopIfTrue="1">
+    <cfRule type="expression" dxfId="80" priority="91" stopIfTrue="1">
       <formula>IF(AND($D59&lt;&gt;"",$J59&lt;&gt;"",$K59&lt;&gt;""),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="67" priority="74" stopIfTrue="1">
+    <cfRule type="expression" dxfId="79" priority="92" stopIfTrue="1">
       <formula>IF(AND($D59&lt;&gt;"",$K59="",$I59&lt;TODAY()),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="66" priority="75" stopIfTrue="1">
+    <cfRule type="expression" dxfId="78" priority="93" stopIfTrue="1">
       <formula>IF(OR(AND($D59&lt;&gt;"",$J59&lt;&gt;"",$Q59&lt;100),TODAY()&gt;=$H59),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H61:H62">
-    <cfRule type="expression" dxfId="65" priority="70" stopIfTrue="1">
+    <cfRule type="expression" dxfId="77" priority="88" stopIfTrue="1">
       <formula>IF(AND($D61&lt;&gt;"",$J61&lt;&gt;"",$K61&lt;&gt;""),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="64" priority="71" stopIfTrue="1">
+    <cfRule type="expression" dxfId="76" priority="89" stopIfTrue="1">
       <formula>IF(AND($D61&lt;&gt;"",$K61="",$I61&lt;TODAY()),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="63" priority="72" stopIfTrue="1">
+    <cfRule type="expression" dxfId="75" priority="90" stopIfTrue="1">
       <formula>IF(OR(AND($D61&lt;&gt;"",$J61&lt;&gt;"",$Q61&lt;100),TODAY()&gt;=$H61),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J13">
-    <cfRule type="expression" dxfId="62" priority="67" stopIfTrue="1">
+    <cfRule type="expression" dxfId="74" priority="85" stopIfTrue="1">
       <formula>IF(AND($D13&lt;&gt;"",$J13&lt;&gt;"",$K13&lt;&gt;""),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="61" priority="68" stopIfTrue="1">
+    <cfRule type="expression" dxfId="73" priority="86" stopIfTrue="1">
       <formula>IF(AND($D13&lt;&gt;"",$K13="",$I13&lt;TODAY()),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="60" priority="69" stopIfTrue="1">
+    <cfRule type="expression" dxfId="72" priority="87" stopIfTrue="1">
       <formula>IF(OR(AND($D13&lt;&gt;"",$J13&lt;&gt;"",$Q13&lt;100),TODAY()&gt;=$H13),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J17:J18">
-    <cfRule type="expression" dxfId="59" priority="58" stopIfTrue="1">
+    <cfRule type="expression" dxfId="71" priority="76" stopIfTrue="1">
       <formula>IF(AND($D17&lt;&gt;"",$J17&lt;&gt;"",$K17&lt;&gt;""),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="58" priority="59" stopIfTrue="1">
+    <cfRule type="expression" dxfId="70" priority="77" stopIfTrue="1">
       <formula>IF(AND($D17&lt;&gt;"",$K17="",$I17&lt;TODAY()),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="57" priority="60" stopIfTrue="1">
+    <cfRule type="expression" dxfId="69" priority="78" stopIfTrue="1">
       <formula>IF(OR(AND($D17&lt;&gt;"",$J17&lt;&gt;"",$Q17&lt;100),TODAY()&gt;=$H17),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J19:J20">
-    <cfRule type="expression" dxfId="56" priority="55" stopIfTrue="1">
+    <cfRule type="expression" dxfId="68" priority="73" stopIfTrue="1">
       <formula>IF(AND($D19&lt;&gt;"",$J19&lt;&gt;"",$K19&lt;&gt;""),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="55" priority="56" stopIfTrue="1">
+    <cfRule type="expression" dxfId="67" priority="74" stopIfTrue="1">
       <formula>IF(AND($D19&lt;&gt;"",$K19="",$I19&lt;TODAY()),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="54" priority="57" stopIfTrue="1">
+    <cfRule type="expression" dxfId="66" priority="75" stopIfTrue="1">
       <formula>IF(OR(AND($D19&lt;&gt;"",$J19&lt;&gt;"",$Q19&lt;100),TODAY()&gt;=$H19),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K13">
-    <cfRule type="expression" dxfId="53" priority="52" stopIfTrue="1">
+    <cfRule type="expression" dxfId="65" priority="70" stopIfTrue="1">
       <formula>IF(AND($D13&lt;&gt;"",$J13&lt;&gt;"",$K13&lt;&gt;""),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="52" priority="53" stopIfTrue="1">
+    <cfRule type="expression" dxfId="64" priority="71" stopIfTrue="1">
       <formula>IF(AND($D13&lt;&gt;"",$K13="",$I13&lt;TODAY()),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="51" priority="54" stopIfTrue="1">
+    <cfRule type="expression" dxfId="63" priority="72" stopIfTrue="1">
       <formula>IF(OR(AND($D13&lt;&gt;"",$J13&lt;&gt;"",$Q13&lt;100),TODAY()&gt;=$H13),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K15:K16">
-    <cfRule type="expression" dxfId="50" priority="49" stopIfTrue="1">
+    <cfRule type="expression" dxfId="62" priority="67" stopIfTrue="1">
       <formula>IF(AND($D15&lt;&gt;"",$J15&lt;&gt;"",$K15&lt;&gt;""),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="49" priority="50" stopIfTrue="1">
+    <cfRule type="expression" dxfId="61" priority="68" stopIfTrue="1">
       <formula>IF(AND($D15&lt;&gt;"",$K15="",$I15&lt;TODAY()),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="48" priority="51" stopIfTrue="1">
+    <cfRule type="expression" dxfId="60" priority="69" stopIfTrue="1">
       <formula>IF(OR(AND($D15&lt;&gt;"",$J15&lt;&gt;"",$Q15&lt;100),TODAY()&gt;=$H15),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K17">
-    <cfRule type="expression" dxfId="47" priority="46" stopIfTrue="1">
+    <cfRule type="expression" dxfId="59" priority="64" stopIfTrue="1">
       <formula>IF(AND($D17&lt;&gt;"",$J17&lt;&gt;"",$K17&lt;&gt;""),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="46" priority="47" stopIfTrue="1">
+    <cfRule type="expression" dxfId="58" priority="65" stopIfTrue="1">
       <formula>IF(AND($D17&lt;&gt;"",$K17="",$I17&lt;TODAY()),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="45" priority="48" stopIfTrue="1">
+    <cfRule type="expression" dxfId="57" priority="66" stopIfTrue="1">
       <formula>IF(OR(AND($D17&lt;&gt;"",$J17&lt;&gt;"",$Q17&lt;100),TODAY()&gt;=$H17),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K21:K22">
-    <cfRule type="expression" dxfId="44" priority="43" stopIfTrue="1">
+    <cfRule type="expression" dxfId="56" priority="61" stopIfTrue="1">
       <formula>IF(AND($D21&lt;&gt;"",$J21&lt;&gt;"",$K21&lt;&gt;""),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="43" priority="44" stopIfTrue="1">
+    <cfRule type="expression" dxfId="55" priority="62" stopIfTrue="1">
       <formula>IF(AND($D21&lt;&gt;"",$K21="",$I21&lt;TODAY()),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="42" priority="45" stopIfTrue="1">
+    <cfRule type="expression" dxfId="54" priority="63" stopIfTrue="1">
       <formula>IF(OR(AND($D21&lt;&gt;"",$J21&lt;&gt;"",$Q21&lt;100),TODAY()&gt;=$H21),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K23:K26">
-    <cfRule type="expression" dxfId="41" priority="40" stopIfTrue="1">
+    <cfRule type="expression" dxfId="53" priority="58" stopIfTrue="1">
       <formula>IF(AND($D23&lt;&gt;"",$J23&lt;&gt;"",$K23&lt;&gt;""),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="40" priority="41" stopIfTrue="1">
+    <cfRule type="expression" dxfId="52" priority="59" stopIfTrue="1">
       <formula>IF(AND($D23&lt;&gt;"",$K23="",$I23&lt;TODAY()),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="39" priority="42" stopIfTrue="1">
+    <cfRule type="expression" dxfId="51" priority="60" stopIfTrue="1">
       <formula>IF(OR(AND($D23&lt;&gt;"",$J23&lt;&gt;"",$Q23&lt;100),TODAY()&gt;=$H23),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K27:K28">
-    <cfRule type="expression" dxfId="38" priority="37" stopIfTrue="1">
+    <cfRule type="expression" dxfId="50" priority="55" stopIfTrue="1">
       <formula>IF(AND($D27&lt;&gt;"",$J27&lt;&gt;"",$K27&lt;&gt;""),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="37" priority="38" stopIfTrue="1">
+    <cfRule type="expression" dxfId="49" priority="56" stopIfTrue="1">
       <formula>IF(AND($D27&lt;&gt;"",$K27="",$I27&lt;TODAY()),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="36" priority="39" stopIfTrue="1">
+    <cfRule type="expression" dxfId="48" priority="57" stopIfTrue="1">
       <formula>IF(OR(AND($D27&lt;&gt;"",$J27&lt;&gt;"",$Q27&lt;100),TODAY()&gt;=$H27),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J21:J28">
-    <cfRule type="expression" dxfId="35" priority="34" stopIfTrue="1">
+    <cfRule type="expression" dxfId="47" priority="52" stopIfTrue="1">
       <formula>IF(AND($D21&lt;&gt;"",$J21&lt;&gt;"",$K21&lt;&gt;""),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="34" priority="35" stopIfTrue="1">
+    <cfRule type="expression" dxfId="46" priority="53" stopIfTrue="1">
       <formula>IF(AND($D21&lt;&gt;"",$K21="",$I21&lt;TODAY()),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="33" priority="36" stopIfTrue="1">
+    <cfRule type="expression" dxfId="45" priority="54" stopIfTrue="1">
       <formula>IF(OR(AND($D21&lt;&gt;"",$J21&lt;&gt;"",$Q21&lt;100),TODAY()&gt;=$H21),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J29:J30">
-    <cfRule type="expression" dxfId="32" priority="31" stopIfTrue="1">
+    <cfRule type="expression" dxfId="44" priority="49" stopIfTrue="1">
       <formula>IF(AND($D29&lt;&gt;"",$J29&lt;&gt;"",$K29&lt;&gt;""),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="31" priority="32" stopIfTrue="1">
+    <cfRule type="expression" dxfId="43" priority="50" stopIfTrue="1">
       <formula>IF(AND($D29&lt;&gt;"",$K29="",$I29&lt;TODAY()),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="30" priority="33" stopIfTrue="1">
+    <cfRule type="expression" dxfId="42" priority="51" stopIfTrue="1">
       <formula>IF(OR(AND($D29&lt;&gt;"",$J29&lt;&gt;"",$Q29&lt;100),TODAY()&gt;=$H29),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K29:K30">
-    <cfRule type="expression" dxfId="29" priority="28" stopIfTrue="1">
+    <cfRule type="expression" dxfId="41" priority="46" stopIfTrue="1">
       <formula>IF(AND($D29&lt;&gt;"",$J29&lt;&gt;"",$K29&lt;&gt;""),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="28" priority="29" stopIfTrue="1">
+    <cfRule type="expression" dxfId="40" priority="47" stopIfTrue="1">
       <formula>IF(AND($D29&lt;&gt;"",$K29="",$I29&lt;TODAY()),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="27" priority="30" stopIfTrue="1">
+    <cfRule type="expression" dxfId="39" priority="48" stopIfTrue="1">
       <formula>IF(OR(AND($D29&lt;&gt;"",$J29&lt;&gt;"",$Q29&lt;100),TODAY()&gt;=$H29),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H35:K44">
-    <cfRule type="expression" dxfId="26" priority="25" stopIfTrue="1">
+    <cfRule type="expression" dxfId="38" priority="43" stopIfTrue="1">
       <formula>IF(AND($D35&lt;&gt;"",$J35&lt;&gt;"",$K35&lt;&gt;""),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="25" priority="26" stopIfTrue="1">
+    <cfRule type="expression" dxfId="37" priority="44" stopIfTrue="1">
       <formula>IF(AND($D35&lt;&gt;"",$K35="",$I35&lt;TODAY()),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="24" priority="27" stopIfTrue="1">
+    <cfRule type="expression" dxfId="36" priority="45" stopIfTrue="1">
       <formula>IF(OR(AND($D35&lt;&gt;"",$J35&lt;&gt;"",$Q35&lt;100),TODAY()&gt;=$H35),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I31:K34">
-    <cfRule type="expression" dxfId="23" priority="22" stopIfTrue="1">
+    <cfRule type="expression" dxfId="35" priority="40" stopIfTrue="1">
       <formula>IF(AND($D31&lt;&gt;"",$J31&lt;&gt;"",$K31&lt;&gt;""),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="22" priority="23" stopIfTrue="1">
+    <cfRule type="expression" dxfId="34" priority="41" stopIfTrue="1">
       <formula>IF(AND($D31&lt;&gt;"",$K31="",$I31&lt;TODAY()),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="21" priority="24" stopIfTrue="1">
+    <cfRule type="expression" dxfId="33" priority="42" stopIfTrue="1">
       <formula>IF(OR(AND($D31&lt;&gt;"",$J31&lt;&gt;"",$Q31&lt;100),TODAY()&gt;=$H31),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H45:H46">
-    <cfRule type="expression" dxfId="20" priority="19" stopIfTrue="1">
+    <cfRule type="expression" dxfId="32" priority="37" stopIfTrue="1">
       <formula>IF(AND($D45&lt;&gt;"",$J45&lt;&gt;"",$K45&lt;&gt;""),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="19" priority="20" stopIfTrue="1">
+    <cfRule type="expression" dxfId="31" priority="38" stopIfTrue="1">
       <formula>IF(AND($D45&lt;&gt;"",$K45="",$I45&lt;TODAY()),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="18" priority="21" stopIfTrue="1">
+    <cfRule type="expression" dxfId="30" priority="39" stopIfTrue="1">
       <formula>IF(OR(AND($D45&lt;&gt;"",$J45&lt;&gt;"",$Q45&lt;100),TODAY()&gt;=$H45),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H47:H48">
-    <cfRule type="expression" dxfId="17" priority="16" stopIfTrue="1">
+    <cfRule type="expression" dxfId="29" priority="34" stopIfTrue="1">
       <formula>IF(AND($D47&lt;&gt;"",$J47&lt;&gt;"",$K47&lt;&gt;""),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="16" priority="17" stopIfTrue="1">
+    <cfRule type="expression" dxfId="28" priority="35" stopIfTrue="1">
       <formula>IF(AND($D47&lt;&gt;"",$K47="",$I47&lt;TODAY()),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="15" priority="18" stopIfTrue="1">
+    <cfRule type="expression" dxfId="27" priority="36" stopIfTrue="1">
       <formula>IF(OR(AND($D47&lt;&gt;"",$J47&lt;&gt;"",$Q47&lt;100),TODAY()&gt;=$H47),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I45:K48">
-    <cfRule type="expression" dxfId="14" priority="13" stopIfTrue="1">
+    <cfRule type="expression" dxfId="26" priority="31" stopIfTrue="1">
       <formula>IF(AND($D45&lt;&gt;"",$J45&lt;&gt;"",$K45&lt;&gt;""),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="13" priority="14" stopIfTrue="1">
+    <cfRule type="expression" dxfId="25" priority="32" stopIfTrue="1">
       <formula>IF(AND($D45&lt;&gt;"",$K45="",$I45&lt;TODAY()),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="15" stopIfTrue="1">
+    <cfRule type="expression" dxfId="24" priority="33" stopIfTrue="1">
       <formula>IF(OR(AND($D45&lt;&gt;"",$J45&lt;&gt;"",$Q45&lt;100),TODAY()&gt;=$H45),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H49:H50">
-    <cfRule type="expression" dxfId="11" priority="10" stopIfTrue="1">
+    <cfRule type="expression" dxfId="23" priority="28" stopIfTrue="1">
       <formula>IF(AND($D49&lt;&gt;"",$J49&lt;&gt;"",$K49&lt;&gt;""),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="11" stopIfTrue="1">
+    <cfRule type="expression" dxfId="22" priority="29" stopIfTrue="1">
       <formula>IF(AND($D49&lt;&gt;"",$K49="",$I49&lt;TODAY()),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="9" priority="12" stopIfTrue="1">
+    <cfRule type="expression" dxfId="21" priority="30" stopIfTrue="1">
       <formula>IF(OR(AND($D49&lt;&gt;"",$J49&lt;&gt;"",$Q49&lt;100),TODAY()&gt;=$H49),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I49:I50">
-    <cfRule type="expression" dxfId="8" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="20" priority="25" stopIfTrue="1">
       <formula>IF(AND($D49&lt;&gt;"",$J49&lt;&gt;"",$K49&lt;&gt;""),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="7" priority="8" stopIfTrue="1">
+    <cfRule type="expression" dxfId="19" priority="26" stopIfTrue="1">
       <formula>IF(AND($D49&lt;&gt;"",$K49="",$I49&lt;TODAY()),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="9" stopIfTrue="1">
+    <cfRule type="expression" dxfId="18" priority="27" stopIfTrue="1">
       <formula>IF(OR(AND($D49&lt;&gt;"",$J49&lt;&gt;"",$Q49&lt;100),TODAY()&gt;=$H49),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J49:J50">
-    <cfRule type="expression" dxfId="5" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="17" priority="22" stopIfTrue="1">
       <formula>IF(AND($D49&lt;&gt;"",$J49&lt;&gt;"",$K49&lt;&gt;""),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="16" priority="23" stopIfTrue="1">
       <formula>IF(AND($D49&lt;&gt;"",$K49="",$I49&lt;TODAY()),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="15" priority="24" stopIfTrue="1">
       <formula>IF(OR(AND($D49&lt;&gt;"",$J49&lt;&gt;"",$Q49&lt;100),TODAY()&gt;=$H49),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K49:K50">
+    <cfRule type="expression" dxfId="14" priority="19" stopIfTrue="1">
+      <formula>IF(AND($D49&lt;&gt;"",$J49&lt;&gt;"",$K49&lt;&gt;""),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="13" priority="20" stopIfTrue="1">
+      <formula>IF(AND($D49&lt;&gt;"",$K49="",$I49&lt;TODAY()),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="12" priority="21" stopIfTrue="1">
+      <formula>IF(OR(AND($D49&lt;&gt;"",$J49&lt;&gt;"",$Q49&lt;100),TODAY()&gt;=$H49),TRUE,FALSE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H71:H72">
+    <cfRule type="expression" dxfId="11" priority="13" stopIfTrue="1">
+      <formula>IF(AND($D71&lt;&gt;"",$J71&lt;&gt;"",$K71&lt;&gt;""),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="10" priority="14" stopIfTrue="1">
+      <formula>IF(AND($D71&lt;&gt;"",$K71="",$I71&lt;TODAY()),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="9" priority="15" stopIfTrue="1">
+      <formula>IF(OR(AND($D71&lt;&gt;"",$J71&lt;&gt;"",$Q71&lt;100),TODAY()&gt;=$H71),TRUE,FALSE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J71:J72">
+    <cfRule type="expression" dxfId="8" priority="10" stopIfTrue="1">
+      <formula>IF(AND($D71&lt;&gt;"",$J71&lt;&gt;"",$K71&lt;&gt;""),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="7" priority="11" stopIfTrue="1">
+      <formula>IF(AND($D71&lt;&gt;"",$K71="",$I71&lt;TODAY()),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="12" stopIfTrue="1">
+      <formula>IF(OR(AND($D71&lt;&gt;"",$J71&lt;&gt;"",$Q71&lt;100),TODAY()&gt;=$H71),TRUE,FALSE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K71:K72">
+    <cfRule type="expression" dxfId="5" priority="7" stopIfTrue="1">
+      <formula>IF(AND($D71&lt;&gt;"",$J71&lt;&gt;"",$K71&lt;&gt;""),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="8" stopIfTrue="1">
+      <formula>IF(AND($D71&lt;&gt;"",$K71="",$I71&lt;TODAY()),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="9" stopIfTrue="1">
+      <formula>IF(OR(AND($D71&lt;&gt;"",$J71&lt;&gt;"",$Q71&lt;100),TODAY()&gt;=$H71),TRUE,FALSE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H73:K82">
     <cfRule type="expression" dxfId="2" priority="1" stopIfTrue="1">
-      <formula>IF(AND($D49&lt;&gt;"",$J49&lt;&gt;"",$K49&lt;&gt;""),TRUE,FALSE)</formula>
+      <formula>IF(AND($D73&lt;&gt;"",$J73&lt;&gt;"",$K73&lt;&gt;""),TRUE,FALSE)</formula>
     </cfRule>
     <cfRule type="expression" dxfId="1" priority="2" stopIfTrue="1">
-      <formula>IF(AND($D49&lt;&gt;"",$K49="",$I49&lt;TODAY()),TRUE,FALSE)</formula>
+      <formula>IF(AND($D73&lt;&gt;"",$K73="",$I73&lt;TODAY()),TRUE,FALSE)</formula>
     </cfRule>
     <cfRule type="expression" dxfId="0" priority="3" stopIfTrue="1">
-      <formula>IF(OR(AND($D49&lt;&gt;"",$J49&lt;&gt;"",$Q49&lt;100),TODAY()&gt;=$H49),TRUE,FALSE)</formula>
+      <formula>IF(OR(AND($D73&lt;&gt;"",$J73&lt;&gt;"",$Q73&lt;100),TODAY()&gt;=$H73),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">

--- a/6_Schedure/SAMPLE_WBS.xlsx
+++ b/6_Schedure/SAMPLE_WBS.xlsx
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="112">
   <si>
     <t>○</t>
     <phoneticPr fontId="5"/>
@@ -421,6 +421,18 @@
   </si>
   <si>
     <t>fetch</t>
+  </si>
+  <si>
+    <t>API</t>
+  </si>
+  <si>
+    <t>Product Detail</t>
+  </si>
+  <si>
+    <t>Top Product</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AsyncStorage </t>
   </si>
 </sst>
 </file>
@@ -2133,6 +2145,14 @@
     <xf numFmtId="14" fontId="6" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="167" fontId="6" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
@@ -2147,14 +2167,6 @@
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -2353,7 +2365,196 @@
     <cellStyle name="Normal 2 2" xfId="6"/>
     <cellStyle name="Normal 3" xfId="5"/>
   </cellStyles>
-  <dxfs count="286">
+  <dxfs count="331">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF7D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF8585"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF7D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF8585"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF7D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF8585"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF7D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF8585"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF7D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF8585"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF7D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF8585"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF7D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF8585"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF7D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF8585"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF7D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF8585"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -4382,6 +4583,132 @@
           <color indexed="64"/>
         </bottom>
       </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF7D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF8585"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF7D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF8585"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF7D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF8585"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF7D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF8585"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF7D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF8585"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF7D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF8585"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -4858,7 +5185,7 @@
   <dimension ref="A1:EL120"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <pane xSplit="18" ySplit="10" topLeftCell="S74" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="18" ySplit="10" topLeftCell="S83" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="W1" sqref="W1"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
       <selection pane="bottomRight" activeCell="J4" sqref="J4"/>
@@ -5000,7 +5327,7 @@
       <c r="P2" s="116"/>
       <c r="Q2" s="222">
         <f ca="1">TODAY()</f>
-        <v>43304</v>
+        <v>43313</v>
       </c>
       <c r="R2" s="223"/>
       <c r="S2" s="34"/>
@@ -5156,7 +5483,7 @@
       <c r="EK2" s="39"/>
       <c r="EL2" s="15" t="str">
         <f ca="1">"Date："&amp;TEXT(TODAY()," yyyy/mm/dd")</f>
-        <v>Date： 2018/07/23</v>
+        <v>Date： 2018/08/01</v>
       </c>
     </row>
     <row r="3" spans="1:142" ht="18.75" customHeight="1">
@@ -5172,7 +5499,7 @@
         <v>100</v>
       </c>
       <c r="I3" s="80">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="J3" s="80">
         <f>COUNTIF(R11:R12,"=△") + COUNTIF(R11:R12,"=▲")  +  COUNTIF(R11:R12,"=★")</f>
@@ -6812,7 +7139,7 @@
         <v>61</v>
       </c>
       <c r="D11" s="155"/>
-      <c r="E11" s="171" t="s">
+      <c r="E11" s="173" t="s">
         <v>66</v>
       </c>
       <c r="F11" s="157"/>
@@ -6833,7 +7160,7 @@
       <c r="M11" s="161"/>
       <c r="N11" s="159"/>
       <c r="O11" s="161"/>
-      <c r="P11" s="173" t="s">
+      <c r="P11" s="169" t="s">
         <v>64</v>
       </c>
       <c r="Q11" s="185">
@@ -6971,7 +7298,7 @@
       <c r="B12" s="178"/>
       <c r="C12" s="163"/>
       <c r="D12" s="156"/>
-      <c r="E12" s="172"/>
+      <c r="E12" s="174"/>
       <c r="F12" s="158"/>
       <c r="G12" s="166"/>
       <c r="H12" s="166"/>
@@ -6982,7 +7309,7 @@
       <c r="M12" s="162"/>
       <c r="N12" s="160"/>
       <c r="O12" s="162"/>
-      <c r="P12" s="174"/>
+      <c r="P12" s="170"/>
       <c r="Q12" s="186"/>
       <c r="R12" s="188"/>
       <c r="S12" s="82"/>
@@ -7114,7 +7441,7 @@
       <c r="B13" s="150"/>
       <c r="C13" s="180"/>
       <c r="D13" s="155"/>
-      <c r="E13" s="171" t="s">
+      <c r="E13" s="173" t="s">
         <v>67</v>
       </c>
       <c r="F13" s="157"/>
@@ -7135,10 +7462,10 @@
       <c r="M13" s="161"/>
       <c r="N13" s="159"/>
       <c r="O13" s="161"/>
-      <c r="P13" s="173" t="s">
+      <c r="P13" s="169" t="s">
         <v>64</v>
       </c>
-      <c r="Q13" s="169"/>
+      <c r="Q13" s="171"/>
       <c r="R13" s="183"/>
       <c r="S13" s="82"/>
       <c r="T13" s="85"/>
@@ -7269,7 +7596,7 @@
       <c r="B14" s="151"/>
       <c r="C14" s="152"/>
       <c r="D14" s="156"/>
-      <c r="E14" s="172"/>
+      <c r="E14" s="174"/>
       <c r="F14" s="158"/>
       <c r="G14" s="166"/>
       <c r="H14" s="166"/>
@@ -7280,8 +7607,8 @@
       <c r="M14" s="162"/>
       <c r="N14" s="160"/>
       <c r="O14" s="162"/>
-      <c r="P14" s="174"/>
-      <c r="Q14" s="170"/>
+      <c r="P14" s="170"/>
+      <c r="Q14" s="172"/>
       <c r="R14" s="184"/>
       <c r="S14" s="82"/>
       <c r="T14" s="83"/>
@@ -7412,7 +7739,7 @@
       <c r="B15" s="181"/>
       <c r="C15" s="180"/>
       <c r="D15" s="155"/>
-      <c r="E15" s="171" t="s">
+      <c r="E15" s="173" t="s">
         <v>68</v>
       </c>
       <c r="F15" s="157"/>
@@ -7433,10 +7760,10 @@
       <c r="M15" s="161"/>
       <c r="N15" s="159"/>
       <c r="O15" s="161"/>
-      <c r="P15" s="173" t="s">
+      <c r="P15" s="169" t="s">
         <v>64</v>
       </c>
-      <c r="Q15" s="169"/>
+      <c r="Q15" s="171"/>
       <c r="R15" s="183"/>
       <c r="S15" s="82"/>
       <c r="T15" s="85"/>
@@ -7567,7 +7894,7 @@
       <c r="B16" s="182"/>
       <c r="C16" s="180"/>
       <c r="D16" s="156"/>
-      <c r="E16" s="172"/>
+      <c r="E16" s="174"/>
       <c r="F16" s="158"/>
       <c r="G16" s="166"/>
       <c r="H16" s="166"/>
@@ -7578,8 +7905,8 @@
       <c r="M16" s="162"/>
       <c r="N16" s="160"/>
       <c r="O16" s="162"/>
-      <c r="P16" s="174"/>
-      <c r="Q16" s="170"/>
+      <c r="P16" s="170"/>
+      <c r="Q16" s="172"/>
       <c r="R16" s="184"/>
       <c r="S16" s="82"/>
       <c r="T16" s="83"/>
@@ -7710,7 +8037,7 @@
       <c r="B17" s="150"/>
       <c r="C17" s="180"/>
       <c r="D17" s="155"/>
-      <c r="E17" s="171" t="s">
+      <c r="E17" s="173" t="s">
         <v>69</v>
       </c>
       <c r="F17" s="157"/>
@@ -7731,10 +8058,10 @@
       <c r="M17" s="161"/>
       <c r="N17" s="159"/>
       <c r="O17" s="161"/>
-      <c r="P17" s="173" t="s">
+      <c r="P17" s="169" t="s">
         <v>64</v>
       </c>
-      <c r="Q17" s="169"/>
+      <c r="Q17" s="171"/>
       <c r="R17" s="183"/>
       <c r="S17" s="82"/>
       <c r="T17" s="85"/>
@@ -7865,7 +8192,7 @@
       <c r="B18" s="151"/>
       <c r="C18" s="152"/>
       <c r="D18" s="156"/>
-      <c r="E18" s="172"/>
+      <c r="E18" s="174"/>
       <c r="F18" s="158"/>
       <c r="G18" s="166"/>
       <c r="H18" s="166"/>
@@ -7876,8 +8203,8 @@
       <c r="M18" s="162"/>
       <c r="N18" s="160"/>
       <c r="O18" s="162"/>
-      <c r="P18" s="174"/>
-      <c r="Q18" s="170"/>
+      <c r="P18" s="170"/>
+      <c r="Q18" s="172"/>
       <c r="R18" s="184"/>
       <c r="S18" s="82"/>
       <c r="T18" s="83"/>
@@ -8008,7 +8335,7 @@
       <c r="B19" s="181"/>
       <c r="C19" s="180"/>
       <c r="D19" s="155"/>
-      <c r="E19" s="171" t="s">
+      <c r="E19" s="173" t="s">
         <v>70</v>
       </c>
       <c r="F19" s="157"/>
@@ -8029,10 +8356,10 @@
       <c r="M19" s="161"/>
       <c r="N19" s="159"/>
       <c r="O19" s="161"/>
-      <c r="P19" s="173" t="s">
+      <c r="P19" s="169" t="s">
         <v>64</v>
       </c>
-      <c r="Q19" s="169"/>
+      <c r="Q19" s="171"/>
       <c r="R19" s="183"/>
       <c r="S19" s="82"/>
       <c r="T19" s="85"/>
@@ -8163,7 +8490,7 @@
       <c r="B20" s="151"/>
       <c r="C20" s="152"/>
       <c r="D20" s="156"/>
-      <c r="E20" s="172"/>
+      <c r="E20" s="174"/>
       <c r="F20" s="158"/>
       <c r="G20" s="166"/>
       <c r="H20" s="166"/>
@@ -8174,8 +8501,8 @@
       <c r="M20" s="162"/>
       <c r="N20" s="160"/>
       <c r="O20" s="162"/>
-      <c r="P20" s="174"/>
-      <c r="Q20" s="170"/>
+      <c r="P20" s="170"/>
+      <c r="Q20" s="172"/>
       <c r="R20" s="184"/>
       <c r="S20" s="82"/>
       <c r="T20" s="83"/>
@@ -8308,10 +8635,10 @@
         <v>62</v>
       </c>
       <c r="D21" s="155"/>
-      <c r="E21" s="171" t="s">
+      <c r="E21" s="173" t="s">
         <v>71</v>
       </c>
-      <c r="F21" s="173" t="s">
+      <c r="F21" s="169" t="s">
         <v>72</v>
       </c>
       <c r="G21" s="165"/>
@@ -8331,10 +8658,10 @@
       <c r="M21" s="161"/>
       <c r="N21" s="159"/>
       <c r="O21" s="161"/>
-      <c r="P21" s="173" t="s">
+      <c r="P21" s="169" t="s">
         <v>64</v>
       </c>
-      <c r="Q21" s="169"/>
+      <c r="Q21" s="171"/>
       <c r="R21" s="183"/>
       <c r="S21" s="82"/>
       <c r="T21" s="85"/>
@@ -8465,8 +8792,8 @@
       <c r="B22" s="151"/>
       <c r="C22" s="163"/>
       <c r="D22" s="156"/>
-      <c r="E22" s="172"/>
-      <c r="F22" s="174"/>
+      <c r="E22" s="174"/>
+      <c r="F22" s="170"/>
       <c r="G22" s="166"/>
       <c r="H22" s="166"/>
       <c r="I22" s="166"/>
@@ -8476,8 +8803,8 @@
       <c r="M22" s="162"/>
       <c r="N22" s="160"/>
       <c r="O22" s="162"/>
-      <c r="P22" s="174"/>
-      <c r="Q22" s="170"/>
+      <c r="P22" s="170"/>
+      <c r="Q22" s="172"/>
       <c r="R22" s="184"/>
       <c r="S22" s="82"/>
       <c r="T22" s="83"/>
@@ -8609,7 +8936,7 @@
       <c r="C23" s="152"/>
       <c r="D23" s="155"/>
       <c r="E23" s="153"/>
-      <c r="F23" s="173" t="s">
+      <c r="F23" s="169" t="s">
         <v>73</v>
       </c>
       <c r="G23" s="165"/>
@@ -8629,10 +8956,10 @@
       <c r="M23" s="161"/>
       <c r="N23" s="159"/>
       <c r="O23" s="161"/>
-      <c r="P23" s="173" t="s">
+      <c r="P23" s="169" t="s">
         <v>64</v>
       </c>
-      <c r="Q23" s="169"/>
+      <c r="Q23" s="171"/>
       <c r="R23" s="183"/>
       <c r="S23" s="82"/>
       <c r="T23" s="85"/>
@@ -8764,7 +9091,7 @@
       <c r="C24" s="152"/>
       <c r="D24" s="156"/>
       <c r="E24" s="154"/>
-      <c r="F24" s="174"/>
+      <c r="F24" s="170"/>
       <c r="G24" s="166"/>
       <c r="H24" s="166"/>
       <c r="I24" s="166"/>
@@ -8774,8 +9101,8 @@
       <c r="M24" s="162"/>
       <c r="N24" s="160"/>
       <c r="O24" s="162"/>
-      <c r="P24" s="174"/>
-      <c r="Q24" s="170"/>
+      <c r="P24" s="170"/>
+      <c r="Q24" s="172"/>
       <c r="R24" s="184"/>
       <c r="S24" s="82"/>
       <c r="T24" s="83"/>
@@ -8907,7 +9234,7 @@
       <c r="C25" s="152"/>
       <c r="D25" s="155"/>
       <c r="E25" s="153"/>
-      <c r="F25" s="173" t="s">
+      <c r="F25" s="169" t="s">
         <v>74</v>
       </c>
       <c r="G25" s="165"/>
@@ -8927,10 +9254,10 @@
       <c r="M25" s="161"/>
       <c r="N25" s="159"/>
       <c r="O25" s="161"/>
-      <c r="P25" s="173" t="s">
+      <c r="P25" s="169" t="s">
         <v>64</v>
       </c>
-      <c r="Q25" s="169"/>
+      <c r="Q25" s="171"/>
       <c r="R25" s="183"/>
       <c r="S25" s="82"/>
       <c r="T25" s="85"/>
@@ -9062,7 +9389,7 @@
       <c r="C26" s="152"/>
       <c r="D26" s="156"/>
       <c r="E26" s="154"/>
-      <c r="F26" s="174"/>
+      <c r="F26" s="170"/>
       <c r="G26" s="166"/>
       <c r="H26" s="166"/>
       <c r="I26" s="166"/>
@@ -9072,8 +9399,8 @@
       <c r="M26" s="162"/>
       <c r="N26" s="160"/>
       <c r="O26" s="162"/>
-      <c r="P26" s="174"/>
-      <c r="Q26" s="170"/>
+      <c r="P26" s="170"/>
+      <c r="Q26" s="172"/>
       <c r="R26" s="184"/>
       <c r="S26" s="82"/>
       <c r="T26" s="83"/>
@@ -9205,7 +9532,7 @@
       <c r="C27" s="152"/>
       <c r="D27" s="155"/>
       <c r="E27" s="153"/>
-      <c r="F27" s="173" t="s">
+      <c r="F27" s="169" t="s">
         <v>75</v>
       </c>
       <c r="G27" s="165"/>
@@ -9225,10 +9552,10 @@
       <c r="M27" s="161"/>
       <c r="N27" s="159"/>
       <c r="O27" s="161"/>
-      <c r="P27" s="173" t="s">
+      <c r="P27" s="169" t="s">
         <v>64</v>
       </c>
-      <c r="Q27" s="169"/>
+      <c r="Q27" s="171"/>
       <c r="R27" s="183"/>
       <c r="S27" s="82"/>
       <c r="T27" s="85"/>
@@ -9360,7 +9687,7 @@
       <c r="C28" s="152"/>
       <c r="D28" s="156"/>
       <c r="E28" s="154"/>
-      <c r="F28" s="174"/>
+      <c r="F28" s="170"/>
       <c r="G28" s="166"/>
       <c r="H28" s="166"/>
       <c r="I28" s="166"/>
@@ -9370,8 +9697,8 @@
       <c r="M28" s="162"/>
       <c r="N28" s="160"/>
       <c r="O28" s="162"/>
-      <c r="P28" s="174"/>
-      <c r="Q28" s="170"/>
+      <c r="P28" s="170"/>
+      <c r="Q28" s="172"/>
       <c r="R28" s="184"/>
       <c r="S28" s="82"/>
       <c r="T28" s="83"/>
@@ -9506,10 +9833,10 @@
         <v>76</v>
       </c>
       <c r="D29" s="155"/>
-      <c r="E29" s="171" t="s">
+      <c r="E29" s="173" t="s">
         <v>77</v>
       </c>
-      <c r="F29" s="173" t="s">
+      <c r="F29" s="169" t="s">
         <v>78</v>
       </c>
       <c r="G29" s="165"/>
@@ -9529,7 +9856,7 @@
       <c r="M29" s="161"/>
       <c r="N29" s="159"/>
       <c r="O29" s="161"/>
-      <c r="P29" s="173" t="s">
+      <c r="P29" s="169" t="s">
         <v>64</v>
       </c>
       <c r="Q29" s="185">
@@ -9667,8 +9994,8 @@
       <c r="B30" s="178"/>
       <c r="C30" s="163"/>
       <c r="D30" s="156"/>
-      <c r="E30" s="172"/>
-      <c r="F30" s="174"/>
+      <c r="E30" s="174"/>
+      <c r="F30" s="170"/>
       <c r="G30" s="166"/>
       <c r="H30" s="166"/>
       <c r="I30" s="166"/>
@@ -9678,7 +10005,7 @@
       <c r="M30" s="162"/>
       <c r="N30" s="160"/>
       <c r="O30" s="162"/>
-      <c r="P30" s="174"/>
+      <c r="P30" s="170"/>
       <c r="Q30" s="186"/>
       <c r="R30" s="188"/>
       <c r="S30" s="82"/>
@@ -9811,7 +10138,7 @@
       <c r="C31" s="152"/>
       <c r="D31" s="155"/>
       <c r="E31" s="153"/>
-      <c r="F31" s="173" t="s">
+      <c r="F31" s="169" t="s">
         <v>79</v>
       </c>
       <c r="G31" s="165"/>
@@ -9832,7 +10159,7 @@
       <c r="N31" s="159"/>
       <c r="O31" s="161"/>
       <c r="P31" s="157"/>
-      <c r="Q31" s="169"/>
+      <c r="Q31" s="171"/>
       <c r="R31" s="183"/>
       <c r="S31" s="82"/>
       <c r="T31" s="85"/>
@@ -9964,7 +10291,7 @@
       <c r="C32" s="152"/>
       <c r="D32" s="156"/>
       <c r="E32" s="154"/>
-      <c r="F32" s="174"/>
+      <c r="F32" s="170"/>
       <c r="G32" s="166"/>
       <c r="H32" s="166"/>
       <c r="I32" s="166"/>
@@ -9975,7 +10302,7 @@
       <c r="N32" s="160"/>
       <c r="O32" s="162"/>
       <c r="P32" s="158"/>
-      <c r="Q32" s="170"/>
+      <c r="Q32" s="172"/>
       <c r="R32" s="184"/>
       <c r="S32" s="82"/>
       <c r="T32" s="83"/>
@@ -10107,7 +10434,7 @@
       <c r="C33" s="152"/>
       <c r="D33" s="155"/>
       <c r="E33" s="153"/>
-      <c r="F33" s="173" t="s">
+      <c r="F33" s="169" t="s">
         <v>80</v>
       </c>
       <c r="G33" s="165"/>
@@ -10128,7 +10455,7 @@
       <c r="N33" s="159"/>
       <c r="O33" s="161"/>
       <c r="P33" s="157"/>
-      <c r="Q33" s="169"/>
+      <c r="Q33" s="171"/>
       <c r="R33" s="183"/>
       <c r="S33" s="82"/>
       <c r="T33" s="85"/>
@@ -10260,7 +10587,7 @@
       <c r="C34" s="152"/>
       <c r="D34" s="156"/>
       <c r="E34" s="154"/>
-      <c r="F34" s="174"/>
+      <c r="F34" s="170"/>
       <c r="G34" s="166"/>
       <c r="H34" s="166"/>
       <c r="I34" s="166"/>
@@ -10271,7 +10598,7 @@
       <c r="N34" s="160"/>
       <c r="O34" s="162"/>
       <c r="P34" s="158"/>
-      <c r="Q34" s="170"/>
+      <c r="Q34" s="172"/>
       <c r="R34" s="184"/>
       <c r="S34" s="82"/>
       <c r="T34" s="83"/>
@@ -10403,7 +10730,7 @@
       <c r="C35" s="152"/>
       <c r="D35" s="155"/>
       <c r="E35" s="153"/>
-      <c r="F35" s="173" t="s">
+      <c r="F35" s="169" t="s">
         <v>81</v>
       </c>
       <c r="G35" s="165"/>
@@ -10424,7 +10751,7 @@
       <c r="N35" s="159"/>
       <c r="O35" s="161"/>
       <c r="P35" s="157"/>
-      <c r="Q35" s="169"/>
+      <c r="Q35" s="171"/>
       <c r="R35" s="183"/>
       <c r="S35" s="82"/>
       <c r="T35" s="85"/>
@@ -10556,7 +10883,7 @@
       <c r="C36" s="152"/>
       <c r="D36" s="156"/>
       <c r="E36" s="154"/>
-      <c r="F36" s="174"/>
+      <c r="F36" s="170"/>
       <c r="G36" s="166"/>
       <c r="H36" s="166"/>
       <c r="I36" s="166"/>
@@ -10567,7 +10894,7 @@
       <c r="N36" s="160"/>
       <c r="O36" s="162"/>
       <c r="P36" s="158"/>
-      <c r="Q36" s="170"/>
+      <c r="Q36" s="172"/>
       <c r="R36" s="184"/>
       <c r="S36" s="82"/>
       <c r="T36" s="83"/>
@@ -10699,7 +11026,7 @@
       <c r="C37" s="152"/>
       <c r="D37" s="155"/>
       <c r="E37" s="153"/>
-      <c r="F37" s="173" t="s">
+      <c r="F37" s="169" t="s">
         <v>82</v>
       </c>
       <c r="G37" s="165"/>
@@ -10720,7 +11047,7 @@
       <c r="N37" s="159"/>
       <c r="O37" s="161"/>
       <c r="P37" s="157"/>
-      <c r="Q37" s="169"/>
+      <c r="Q37" s="171"/>
       <c r="R37" s="183"/>
       <c r="S37" s="82"/>
       <c r="T37" s="85"/>
@@ -10852,7 +11179,7 @@
       <c r="C38" s="152"/>
       <c r="D38" s="156"/>
       <c r="E38" s="154"/>
-      <c r="F38" s="174"/>
+      <c r="F38" s="170"/>
       <c r="G38" s="166"/>
       <c r="H38" s="166"/>
       <c r="I38" s="166"/>
@@ -10863,7 +11190,7 @@
       <c r="N38" s="160"/>
       <c r="O38" s="162"/>
       <c r="P38" s="158"/>
-      <c r="Q38" s="170"/>
+      <c r="Q38" s="172"/>
       <c r="R38" s="184"/>
       <c r="S38" s="82"/>
       <c r="T38" s="83"/>
@@ -10994,10 +11321,10 @@
       <c r="B39" s="150"/>
       <c r="C39" s="152"/>
       <c r="D39" s="155"/>
-      <c r="E39" s="171" t="s">
+      <c r="E39" s="173" t="s">
         <v>83</v>
       </c>
-      <c r="F39" s="173" t="s">
+      <c r="F39" s="169" t="s">
         <v>84</v>
       </c>
       <c r="G39" s="165"/>
@@ -11017,10 +11344,10 @@
       <c r="M39" s="161"/>
       <c r="N39" s="159"/>
       <c r="O39" s="161"/>
-      <c r="P39" s="173" t="s">
+      <c r="P39" s="169" t="s">
         <v>64</v>
       </c>
-      <c r="Q39" s="169"/>
+      <c r="Q39" s="171"/>
       <c r="R39" s="183"/>
       <c r="S39" s="82"/>
       <c r="T39" s="85"/>
@@ -11151,8 +11478,8 @@
       <c r="B40" s="151"/>
       <c r="C40" s="152"/>
       <c r="D40" s="156"/>
-      <c r="E40" s="172"/>
-      <c r="F40" s="174"/>
+      <c r="E40" s="174"/>
+      <c r="F40" s="170"/>
       <c r="G40" s="166"/>
       <c r="H40" s="166"/>
       <c r="I40" s="166"/>
@@ -11162,8 +11489,8 @@
       <c r="M40" s="162"/>
       <c r="N40" s="160"/>
       <c r="O40" s="162"/>
-      <c r="P40" s="174"/>
-      <c r="Q40" s="170"/>
+      <c r="P40" s="170"/>
+      <c r="Q40" s="172"/>
       <c r="R40" s="184"/>
       <c r="S40" s="82"/>
       <c r="T40" s="83"/>
@@ -11295,7 +11622,7 @@
       <c r="C41" s="152"/>
       <c r="D41" s="155"/>
       <c r="E41" s="153"/>
-      <c r="F41" s="173" t="s">
+      <c r="F41" s="169" t="s">
         <v>85</v>
       </c>
       <c r="G41" s="165"/>
@@ -11316,7 +11643,7 @@
       <c r="N41" s="159"/>
       <c r="O41" s="161"/>
       <c r="P41" s="157"/>
-      <c r="Q41" s="169"/>
+      <c r="Q41" s="171"/>
       <c r="R41" s="183"/>
       <c r="S41" s="82"/>
       <c r="T41" s="85"/>
@@ -11448,7 +11775,7 @@
       <c r="C42" s="152"/>
       <c r="D42" s="156"/>
       <c r="E42" s="154"/>
-      <c r="F42" s="174"/>
+      <c r="F42" s="170"/>
       <c r="G42" s="166"/>
       <c r="H42" s="166"/>
       <c r="I42" s="166"/>
@@ -11459,7 +11786,7 @@
       <c r="N42" s="160"/>
       <c r="O42" s="162"/>
       <c r="P42" s="158"/>
-      <c r="Q42" s="170"/>
+      <c r="Q42" s="172"/>
       <c r="R42" s="184"/>
       <c r="S42" s="82"/>
       <c r="T42" s="83"/>
@@ -11591,7 +11918,7 @@
       <c r="C43" s="152"/>
       <c r="D43" s="155"/>
       <c r="E43" s="153"/>
-      <c r="F43" s="173" t="s">
+      <c r="F43" s="169" t="s">
         <v>86</v>
       </c>
       <c r="G43" s="165"/>
@@ -11612,7 +11939,7 @@
       <c r="N43" s="159"/>
       <c r="O43" s="161"/>
       <c r="P43" s="157"/>
-      <c r="Q43" s="169"/>
+      <c r="Q43" s="171"/>
       <c r="R43" s="183"/>
       <c r="S43" s="82"/>
       <c r="T43" s="85"/>
@@ -11744,7 +12071,7 @@
       <c r="C44" s="152"/>
       <c r="D44" s="156"/>
       <c r="E44" s="154"/>
-      <c r="F44" s="174"/>
+      <c r="F44" s="170"/>
       <c r="G44" s="166"/>
       <c r="H44" s="166"/>
       <c r="I44" s="166"/>
@@ -11755,7 +12082,7 @@
       <c r="N44" s="160"/>
       <c r="O44" s="162"/>
       <c r="P44" s="158"/>
-      <c r="Q44" s="170"/>
+      <c r="Q44" s="172"/>
       <c r="R44" s="184"/>
       <c r="S44" s="82"/>
       <c r="T44" s="83"/>
@@ -11888,7 +12215,7 @@
         <v>63</v>
       </c>
       <c r="D45" s="155"/>
-      <c r="E45" s="171" t="s">
+      <c r="E45" s="173" t="s">
         <v>77</v>
       </c>
       <c r="F45" s="157"/>
@@ -11909,10 +12236,10 @@
       <c r="M45" s="161"/>
       <c r="N45" s="159"/>
       <c r="O45" s="161"/>
-      <c r="P45" s="173" t="s">
+      <c r="P45" s="169" t="s">
         <v>64</v>
       </c>
-      <c r="Q45" s="169"/>
+      <c r="Q45" s="171"/>
       <c r="R45" s="183"/>
       <c r="S45" s="82"/>
       <c r="T45" s="85"/>
@@ -12043,7 +12370,7 @@
       <c r="B46" s="151"/>
       <c r="C46" s="179"/>
       <c r="D46" s="156"/>
-      <c r="E46" s="172"/>
+      <c r="E46" s="174"/>
       <c r="F46" s="158"/>
       <c r="G46" s="166"/>
       <c r="H46" s="166"/>
@@ -12054,8 +12381,8 @@
       <c r="M46" s="162"/>
       <c r="N46" s="160"/>
       <c r="O46" s="162"/>
-      <c r="P46" s="174"/>
-      <c r="Q46" s="170"/>
+      <c r="P46" s="170"/>
+      <c r="Q46" s="172"/>
       <c r="R46" s="184"/>
       <c r="S46" s="82"/>
       <c r="T46" s="83"/>
@@ -12186,7 +12513,7 @@
       <c r="B47" s="150"/>
       <c r="C47" s="152"/>
       <c r="D47" s="155"/>
-      <c r="E47" s="171" t="s">
+      <c r="E47" s="173" t="s">
         <v>83</v>
       </c>
       <c r="F47" s="157"/>
@@ -12208,7 +12535,7 @@
       <c r="N47" s="159"/>
       <c r="O47" s="161"/>
       <c r="P47" s="218"/>
-      <c r="Q47" s="169"/>
+      <c r="Q47" s="171"/>
       <c r="R47" s="183"/>
       <c r="S47" s="82"/>
       <c r="T47" s="85"/>
@@ -12339,7 +12666,7 @@
       <c r="B48" s="151"/>
       <c r="C48" s="152"/>
       <c r="D48" s="156"/>
-      <c r="E48" s="172"/>
+      <c r="E48" s="174"/>
       <c r="F48" s="158"/>
       <c r="G48" s="166"/>
       <c r="H48" s="166"/>
@@ -12351,7 +12678,7 @@
       <c r="N48" s="160"/>
       <c r="O48" s="162"/>
       <c r="P48" s="158"/>
-      <c r="Q48" s="170"/>
+      <c r="Q48" s="172"/>
       <c r="R48" s="184"/>
       <c r="S48" s="82"/>
       <c r="T48" s="83"/>
@@ -12486,7 +12813,7 @@
         <v>49</v>
       </c>
       <c r="D49" s="155"/>
-      <c r="E49" s="171" t="s">
+      <c r="E49" s="173" t="s">
         <v>88</v>
       </c>
       <c r="F49" s="157"/>
@@ -12507,7 +12834,7 @@
       <c r="M49" s="161"/>
       <c r="N49" s="159"/>
       <c r="O49" s="161"/>
-      <c r="P49" s="173" t="s">
+      <c r="P49" s="169" t="s">
         <v>64</v>
       </c>
       <c r="Q49" s="185">
@@ -12645,7 +12972,7 @@
       <c r="B50" s="178"/>
       <c r="C50" s="164"/>
       <c r="D50" s="156"/>
-      <c r="E50" s="172"/>
+      <c r="E50" s="174"/>
       <c r="F50" s="158"/>
       <c r="G50" s="166"/>
       <c r="H50" s="166"/>
@@ -12656,7 +12983,7 @@
       <c r="M50" s="162"/>
       <c r="N50" s="160"/>
       <c r="O50" s="162"/>
-      <c r="P50" s="174"/>
+      <c r="P50" s="170"/>
       <c r="Q50" s="186"/>
       <c r="R50" s="188"/>
       <c r="S50" s="82"/>
@@ -12788,7 +13115,7 @@
       <c r="B51" s="150"/>
       <c r="C51" s="152"/>
       <c r="D51" s="155"/>
-      <c r="E51" s="171" t="s">
+      <c r="E51" s="173" t="s">
         <v>89</v>
       </c>
       <c r="F51" s="157"/>
@@ -12809,10 +13136,10 @@
       <c r="M51" s="161"/>
       <c r="N51" s="159"/>
       <c r="O51" s="161"/>
-      <c r="P51" s="173" t="s">
+      <c r="P51" s="169" t="s">
         <v>64</v>
       </c>
-      <c r="Q51" s="169"/>
+      <c r="Q51" s="171"/>
       <c r="R51" s="183"/>
       <c r="S51" s="82"/>
       <c r="T51" s="85"/>
@@ -12943,7 +13270,7 @@
       <c r="B52" s="151"/>
       <c r="C52" s="152"/>
       <c r="D52" s="156"/>
-      <c r="E52" s="172"/>
+      <c r="E52" s="174"/>
       <c r="F52" s="158"/>
       <c r="G52" s="166"/>
       <c r="H52" s="166"/>
@@ -12954,8 +13281,8 @@
       <c r="M52" s="162"/>
       <c r="N52" s="160"/>
       <c r="O52" s="162"/>
-      <c r="P52" s="174"/>
-      <c r="Q52" s="170"/>
+      <c r="P52" s="170"/>
+      <c r="Q52" s="172"/>
       <c r="R52" s="184"/>
       <c r="S52" s="82"/>
       <c r="T52" s="83"/>
@@ -13390,10 +13717,10 @@
         <v>92</v>
       </c>
       <c r="D55" s="155"/>
-      <c r="E55" s="171" t="s">
+      <c r="E55" s="173" t="s">
         <v>93</v>
       </c>
-      <c r="F55" s="173" t="s">
+      <c r="F55" s="169" t="s">
         <v>94</v>
       </c>
       <c r="G55" s="165"/>
@@ -13413,7 +13740,7 @@
       <c r="M55" s="161"/>
       <c r="N55" s="159"/>
       <c r="O55" s="161"/>
-      <c r="P55" s="173" t="s">
+      <c r="P55" s="169" t="s">
         <v>64</v>
       </c>
       <c r="Q55" s="185">
@@ -13551,8 +13878,8 @@
       <c r="B56" s="178"/>
       <c r="C56" s="164"/>
       <c r="D56" s="156"/>
-      <c r="E56" s="172"/>
-      <c r="F56" s="174"/>
+      <c r="E56" s="174"/>
+      <c r="F56" s="170"/>
       <c r="G56" s="166"/>
       <c r="H56" s="166"/>
       <c r="I56" s="166"/>
@@ -13562,7 +13889,7 @@
       <c r="M56" s="162"/>
       <c r="N56" s="160"/>
       <c r="O56" s="162"/>
-      <c r="P56" s="174"/>
+      <c r="P56" s="170"/>
       <c r="Q56" s="186"/>
       <c r="R56" s="188"/>
       <c r="S56" s="82"/>
@@ -13695,7 +14022,7 @@
       <c r="C57" s="152"/>
       <c r="D57" s="155"/>
       <c r="E57" s="153"/>
-      <c r="F57" s="173" t="s">
+      <c r="F57" s="169" t="s">
         <v>95</v>
       </c>
       <c r="G57" s="165"/>
@@ -13715,10 +14042,10 @@
       <c r="M57" s="161"/>
       <c r="N57" s="159"/>
       <c r="O57" s="161"/>
-      <c r="P57" s="173" t="s">
+      <c r="P57" s="169" t="s">
         <v>64</v>
       </c>
-      <c r="Q57" s="169"/>
+      <c r="Q57" s="171"/>
       <c r="R57" s="183"/>
       <c r="S57" s="82"/>
       <c r="T57" s="85"/>
@@ -13850,7 +14177,7 @@
       <c r="C58" s="152"/>
       <c r="D58" s="156"/>
       <c r="E58" s="154"/>
-      <c r="F58" s="174"/>
+      <c r="F58" s="170"/>
       <c r="G58" s="166"/>
       <c r="H58" s="166"/>
       <c r="I58" s="166"/>
@@ -13860,8 +14187,8 @@
       <c r="M58" s="162"/>
       <c r="N58" s="160"/>
       <c r="O58" s="162"/>
-      <c r="P58" s="174"/>
-      <c r="Q58" s="170"/>
+      <c r="P58" s="170"/>
+      <c r="Q58" s="172"/>
       <c r="R58" s="184"/>
       <c r="S58" s="82"/>
       <c r="T58" s="83"/>
@@ -13993,7 +14320,7 @@
       <c r="C59" s="152"/>
       <c r="D59" s="155"/>
       <c r="E59" s="153"/>
-      <c r="F59" s="173" t="s">
+      <c r="F59" s="169" t="s">
         <v>96</v>
       </c>
       <c r="G59" s="165"/>
@@ -14013,10 +14340,10 @@
       <c r="M59" s="161"/>
       <c r="N59" s="159"/>
       <c r="O59" s="161"/>
-      <c r="P59" s="173" t="s">
+      <c r="P59" s="169" t="s">
         <v>64</v>
       </c>
-      <c r="Q59" s="169"/>
+      <c r="Q59" s="171"/>
       <c r="R59" s="183"/>
       <c r="S59" s="82"/>
       <c r="T59" s="85"/>
@@ -14148,7 +14475,7 @@
       <c r="C60" s="152"/>
       <c r="D60" s="156"/>
       <c r="E60" s="154"/>
-      <c r="F60" s="174"/>
+      <c r="F60" s="170"/>
       <c r="G60" s="166"/>
       <c r="H60" s="166"/>
       <c r="I60" s="166"/>
@@ -14158,8 +14485,8 @@
       <c r="M60" s="162"/>
       <c r="N60" s="160"/>
       <c r="O60" s="162"/>
-      <c r="P60" s="174"/>
-      <c r="Q60" s="170"/>
+      <c r="P60" s="170"/>
+      <c r="Q60" s="172"/>
       <c r="R60" s="184"/>
       <c r="S60" s="82"/>
       <c r="T60" s="83"/>
@@ -14291,7 +14618,7 @@
       <c r="C61" s="152"/>
       <c r="D61" s="155"/>
       <c r="E61" s="153"/>
-      <c r="F61" s="173" t="s">
+      <c r="F61" s="169" t="s">
         <v>97</v>
       </c>
       <c r="G61" s="165"/>
@@ -14311,10 +14638,10 @@
       <c r="M61" s="161"/>
       <c r="N61" s="159"/>
       <c r="O61" s="161"/>
-      <c r="P61" s="173" t="s">
+      <c r="P61" s="169" t="s">
         <v>64</v>
       </c>
-      <c r="Q61" s="169"/>
+      <c r="Q61" s="171"/>
       <c r="R61" s="183"/>
       <c r="S61" s="82"/>
       <c r="T61" s="85"/>
@@ -14446,7 +14773,7 @@
       <c r="C62" s="152"/>
       <c r="D62" s="156"/>
       <c r="E62" s="154"/>
-      <c r="F62" s="174"/>
+      <c r="F62" s="170"/>
       <c r="G62" s="166"/>
       <c r="H62" s="166"/>
       <c r="I62" s="166"/>
@@ -14456,8 +14783,8 @@
       <c r="M62" s="162"/>
       <c r="N62" s="160"/>
       <c r="O62" s="162"/>
-      <c r="P62" s="174"/>
-      <c r="Q62" s="170"/>
+      <c r="P62" s="170"/>
+      <c r="Q62" s="172"/>
       <c r="R62" s="184"/>
       <c r="S62" s="82"/>
       <c r="T62" s="83"/>
@@ -14591,7 +14918,7 @@
       <c r="E63" s="175" t="s">
         <v>102</v>
       </c>
-      <c r="F63" s="173"/>
+      <c r="F63" s="169"/>
       <c r="G63" s="165"/>
       <c r="H63" s="165">
         <v>43295</v>
@@ -14609,10 +14936,10 @@
       <c r="M63" s="161"/>
       <c r="N63" s="159"/>
       <c r="O63" s="161"/>
-      <c r="P63" s="173" t="s">
+      <c r="P63" s="169" t="s">
         <v>64</v>
       </c>
-      <c r="Q63" s="169"/>
+      <c r="Q63" s="171"/>
       <c r="R63" s="183"/>
       <c r="S63" s="82"/>
       <c r="T63" s="85"/>
@@ -14744,7 +15071,7 @@
       <c r="C64" s="152"/>
       <c r="D64" s="156"/>
       <c r="E64" s="176"/>
-      <c r="F64" s="174"/>
+      <c r="F64" s="170"/>
       <c r="G64" s="166"/>
       <c r="H64" s="166"/>
       <c r="I64" s="166"/>
@@ -14754,8 +15081,8 @@
       <c r="M64" s="162"/>
       <c r="N64" s="160"/>
       <c r="O64" s="162"/>
-      <c r="P64" s="174"/>
-      <c r="Q64" s="170"/>
+      <c r="P64" s="170"/>
+      <c r="Q64" s="172"/>
       <c r="R64" s="184"/>
       <c r="S64" s="82"/>
       <c r="T64" s="83"/>
@@ -14886,10 +15213,10 @@
       <c r="B65" s="150"/>
       <c r="C65" s="152"/>
       <c r="D65" s="155"/>
-      <c r="E65" s="171" t="s">
+      <c r="E65" s="173" t="s">
         <v>98</v>
       </c>
-      <c r="F65" s="173" t="s">
+      <c r="F65" s="169" t="s">
         <v>99</v>
       </c>
       <c r="G65" s="165"/>
@@ -14909,10 +15236,10 @@
       <c r="M65" s="161"/>
       <c r="N65" s="159"/>
       <c r="O65" s="161"/>
-      <c r="P65" s="173" t="s">
+      <c r="P65" s="169" t="s">
         <v>64</v>
       </c>
-      <c r="Q65" s="169"/>
+      <c r="Q65" s="171"/>
       <c r="R65" s="183"/>
       <c r="S65" s="82"/>
       <c r="T65" s="85"/>
@@ -15043,8 +15370,8 @@
       <c r="B66" s="151"/>
       <c r="C66" s="152"/>
       <c r="D66" s="156"/>
-      <c r="E66" s="172"/>
-      <c r="F66" s="174"/>
+      <c r="E66" s="174"/>
+      <c r="F66" s="170"/>
       <c r="G66" s="166"/>
       <c r="H66" s="166"/>
       <c r="I66" s="166"/>
@@ -15054,8 +15381,8 @@
       <c r="M66" s="162"/>
       <c r="N66" s="160"/>
       <c r="O66" s="162"/>
-      <c r="P66" s="174"/>
-      <c r="Q66" s="170"/>
+      <c r="P66" s="170"/>
+      <c r="Q66" s="172"/>
       <c r="R66" s="184"/>
       <c r="S66" s="82"/>
       <c r="T66" s="83"/>
@@ -15187,7 +15514,7 @@
       <c r="C67" s="152"/>
       <c r="D67" s="155"/>
       <c r="E67" s="153"/>
-      <c r="F67" s="173" t="s">
+      <c r="F67" s="169" t="s">
         <v>100</v>
       </c>
       <c r="G67" s="165"/>
@@ -15207,10 +15534,10 @@
       <c r="M67" s="161"/>
       <c r="N67" s="159"/>
       <c r="O67" s="161"/>
-      <c r="P67" s="173" t="s">
+      <c r="P67" s="169" t="s">
         <v>64</v>
       </c>
-      <c r="Q67" s="169"/>
+      <c r="Q67" s="171"/>
       <c r="R67" s="183"/>
       <c r="S67" s="82"/>
       <c r="T67" s="85"/>
@@ -15342,7 +15669,7 @@
       <c r="C68" s="152"/>
       <c r="D68" s="156"/>
       <c r="E68" s="154"/>
-      <c r="F68" s="174"/>
+      <c r="F68" s="170"/>
       <c r="G68" s="166"/>
       <c r="H68" s="166"/>
       <c r="I68" s="166"/>
@@ -15352,8 +15679,8 @@
       <c r="M68" s="162"/>
       <c r="N68" s="160"/>
       <c r="O68" s="162"/>
-      <c r="P68" s="174"/>
-      <c r="Q68" s="170"/>
+      <c r="P68" s="170"/>
+      <c r="Q68" s="172"/>
       <c r="R68" s="184"/>
       <c r="S68" s="82"/>
       <c r="T68" s="83"/>
@@ -15484,8 +15811,8 @@
       <c r="B69" s="150"/>
       <c r="C69" s="152"/>
       <c r="D69" s="155"/>
-      <c r="E69" s="171"/>
-      <c r="F69" s="173" t="s">
+      <c r="E69" s="173"/>
+      <c r="F69" s="169" t="s">
         <v>101</v>
       </c>
       <c r="G69" s="165"/>
@@ -15505,10 +15832,10 @@
       <c r="M69" s="161"/>
       <c r="N69" s="159"/>
       <c r="O69" s="161"/>
-      <c r="P69" s="173" t="s">
+      <c r="P69" s="169" t="s">
         <v>64</v>
       </c>
-      <c r="Q69" s="169"/>
+      <c r="Q69" s="171"/>
       <c r="R69" s="183"/>
       <c r="S69" s="82"/>
       <c r="T69" s="85"/>
@@ -15639,8 +15966,8 @@
       <c r="B70" s="151"/>
       <c r="C70" s="152"/>
       <c r="D70" s="156"/>
-      <c r="E70" s="172"/>
-      <c r="F70" s="174"/>
+      <c r="E70" s="174"/>
+      <c r="F70" s="170"/>
       <c r="G70" s="166"/>
       <c r="H70" s="166"/>
       <c r="I70" s="166"/>
@@ -15650,8 +15977,8 @@
       <c r="M70" s="162"/>
       <c r="N70" s="160"/>
       <c r="O70" s="162"/>
-      <c r="P70" s="174"/>
-      <c r="Q70" s="170"/>
+      <c r="P70" s="170"/>
+      <c r="Q70" s="172"/>
       <c r="R70" s="184"/>
       <c r="S70" s="82"/>
       <c r="T70" s="83"/>
@@ -15783,7 +16110,7 @@
       <c r="C71" s="152"/>
       <c r="D71" s="155"/>
       <c r="E71" s="153"/>
-      <c r="F71" s="173" t="s">
+      <c r="F71" s="169" t="s">
         <v>103</v>
       </c>
       <c r="G71" s="165"/>
@@ -15804,7 +16131,7 @@
       <c r="N71" s="159"/>
       <c r="O71" s="161"/>
       <c r="P71" s="157"/>
-      <c r="Q71" s="169"/>
+      <c r="Q71" s="171"/>
       <c r="R71" s="183"/>
       <c r="S71" s="82"/>
       <c r="T71" s="85"/>
@@ -15936,7 +16263,7 @@
       <c r="C72" s="152"/>
       <c r="D72" s="156"/>
       <c r="E72" s="154"/>
-      <c r="F72" s="174"/>
+      <c r="F72" s="170"/>
       <c r="G72" s="166"/>
       <c r="H72" s="166"/>
       <c r="I72" s="166"/>
@@ -15947,7 +16274,7 @@
       <c r="N72" s="160"/>
       <c r="O72" s="162"/>
       <c r="P72" s="158"/>
-      <c r="Q72" s="170"/>
+      <c r="Q72" s="172"/>
       <c r="R72" s="184"/>
       <c r="S72" s="82"/>
       <c r="T72" s="83"/>
@@ -16079,7 +16406,7 @@
       <c r="C73" s="152"/>
       <c r="D73" s="155"/>
       <c r="E73" s="153"/>
-      <c r="F73" s="173" t="s">
+      <c r="F73" s="169" t="s">
         <v>104</v>
       </c>
       <c r="G73" s="165"/>
@@ -16100,7 +16427,7 @@
       <c r="N73" s="159"/>
       <c r="O73" s="161"/>
       <c r="P73" s="157"/>
-      <c r="Q73" s="169"/>
+      <c r="Q73" s="171"/>
       <c r="R73" s="183"/>
       <c r="S73" s="82"/>
       <c r="T73" s="85"/>
@@ -16232,7 +16559,7 @@
       <c r="C74" s="152"/>
       <c r="D74" s="156"/>
       <c r="E74" s="154"/>
-      <c r="F74" s="174"/>
+      <c r="F74" s="170"/>
       <c r="G74" s="166"/>
       <c r="H74" s="166"/>
       <c r="I74" s="166"/>
@@ -16243,7 +16570,7 @@
       <c r="N74" s="160"/>
       <c r="O74" s="162"/>
       <c r="P74" s="158"/>
-      <c r="Q74" s="170"/>
+      <c r="Q74" s="172"/>
       <c r="R74" s="184"/>
       <c r="S74" s="82"/>
       <c r="T74" s="83"/>
@@ -16376,7 +16703,7 @@
         <v>75</v>
       </c>
       <c r="D75" s="155"/>
-      <c r="E75" s="171" t="s">
+      <c r="E75" s="173" t="s">
         <v>105</v>
       </c>
       <c r="F75" s="157"/>
@@ -16398,7 +16725,7 @@
       <c r="N75" s="159"/>
       <c r="O75" s="161"/>
       <c r="P75" s="157"/>
-      <c r="Q75" s="169"/>
+      <c r="Q75" s="171"/>
       <c r="R75" s="183"/>
       <c r="S75" s="82"/>
       <c r="T75" s="85"/>
@@ -16529,7 +16856,7 @@
       <c r="B76" s="151"/>
       <c r="C76" s="163"/>
       <c r="D76" s="156"/>
-      <c r="E76" s="172"/>
+      <c r="E76" s="174"/>
       <c r="F76" s="158"/>
       <c r="G76" s="166"/>
       <c r="H76" s="166"/>
@@ -16541,7 +16868,7 @@
       <c r="N76" s="160"/>
       <c r="O76" s="162"/>
       <c r="P76" s="158"/>
-      <c r="Q76" s="170"/>
+      <c r="Q76" s="172"/>
       <c r="R76" s="184"/>
       <c r="S76" s="82"/>
       <c r="T76" s="83"/>
@@ -16672,7 +16999,7 @@
       <c r="B77" s="150"/>
       <c r="C77" s="152"/>
       <c r="D77" s="155"/>
-      <c r="E77" s="171" t="s">
+      <c r="E77" s="173" t="s">
         <v>106</v>
       </c>
       <c r="F77" s="157"/>
@@ -16694,7 +17021,7 @@
       <c r="N77" s="159"/>
       <c r="O77" s="161"/>
       <c r="P77" s="157"/>
-      <c r="Q77" s="169"/>
+      <c r="Q77" s="171"/>
       <c r="R77" s="183"/>
       <c r="S77" s="82"/>
       <c r="T77" s="85"/>
@@ -16825,7 +17152,7 @@
       <c r="B78" s="151"/>
       <c r="C78" s="152"/>
       <c r="D78" s="156"/>
-      <c r="E78" s="172"/>
+      <c r="E78" s="174"/>
       <c r="F78" s="158"/>
       <c r="G78" s="166"/>
       <c r="H78" s="166"/>
@@ -16837,7 +17164,7 @@
       <c r="N78" s="160"/>
       <c r="O78" s="162"/>
       <c r="P78" s="158"/>
-      <c r="Q78" s="170"/>
+      <c r="Q78" s="172"/>
       <c r="R78" s="184"/>
       <c r="S78" s="82"/>
       <c r="T78" s="83"/>
@@ -16968,7 +17295,7 @@
       <c r="B79" s="150"/>
       <c r="C79" s="152"/>
       <c r="D79" s="155"/>
-      <c r="E79" s="171" t="s">
+      <c r="E79" s="173" t="s">
         <v>107</v>
       </c>
       <c r="F79" s="157"/>
@@ -16990,7 +17317,7 @@
       <c r="N79" s="159"/>
       <c r="O79" s="161"/>
       <c r="P79" s="157"/>
-      <c r="Q79" s="169"/>
+      <c r="Q79" s="171"/>
       <c r="R79" s="183"/>
       <c r="S79" s="82"/>
       <c r="T79" s="85"/>
@@ -17121,7 +17448,7 @@
       <c r="B80" s="151"/>
       <c r="C80" s="152"/>
       <c r="D80" s="156"/>
-      <c r="E80" s="172"/>
+      <c r="E80" s="174"/>
       <c r="F80" s="158"/>
       <c r="G80" s="166"/>
       <c r="H80" s="166"/>
@@ -17133,7 +17460,7 @@
       <c r="N80" s="160"/>
       <c r="O80" s="162"/>
       <c r="P80" s="158"/>
-      <c r="Q80" s="170"/>
+      <c r="Q80" s="172"/>
       <c r="R80" s="184"/>
       <c r="S80" s="82"/>
       <c r="T80" s="83"/>
@@ -17285,10 +17612,10 @@
       <c r="M81" s="161"/>
       <c r="N81" s="159"/>
       <c r="O81" s="161"/>
-      <c r="P81" s="173" t="s">
+      <c r="P81" s="169" t="s">
         <v>64</v>
       </c>
-      <c r="Q81" s="169">
+      <c r="Q81" s="171">
         <v>10</v>
       </c>
       <c r="R81" s="183">
@@ -17434,8 +17761,8 @@
       <c r="M82" s="162"/>
       <c r="N82" s="160"/>
       <c r="O82" s="162"/>
-      <c r="P82" s="174"/>
-      <c r="Q82" s="170"/>
+      <c r="P82" s="170"/>
+      <c r="Q82" s="172"/>
       <c r="R82" s="184"/>
       <c r="S82" s="82"/>
       <c r="T82" s="83"/>
@@ -17564,21 +17891,35 @@
     </row>
     <row r="83" spans="2:142" ht="9" customHeight="1">
       <c r="B83" s="150"/>
-      <c r="C83" s="152"/>
+      <c r="C83" s="164" t="s">
+        <v>108</v>
+      </c>
       <c r="D83" s="155"/>
       <c r="E83" s="153"/>
-      <c r="F83" s="157"/>
+      <c r="F83" s="169" t="s">
+        <v>52</v>
+      </c>
       <c r="G83" s="165"/>
-      <c r="H83" s="165"/>
-      <c r="I83" s="165"/>
-      <c r="J83" s="167"/>
-      <c r="K83" s="167"/>
+      <c r="H83" s="165">
+        <v>43309</v>
+      </c>
+      <c r="I83" s="165">
+        <v>43309</v>
+      </c>
+      <c r="J83" s="165">
+        <v>43309</v>
+      </c>
+      <c r="K83" s="165">
+        <v>43311</v>
+      </c>
       <c r="L83" s="159"/>
       <c r="M83" s="161"/>
       <c r="N83" s="159"/>
       <c r="O83" s="161"/>
-      <c r="P83" s="157"/>
-      <c r="Q83" s="169"/>
+      <c r="P83" s="169" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q83" s="171"/>
       <c r="R83" s="183"/>
       <c r="S83" s="82"/>
       <c r="T83" s="85"/>
@@ -17707,21 +18048,21 @@
     </row>
     <row r="84" spans="2:142" ht="9" customHeight="1">
       <c r="B84" s="151"/>
-      <c r="C84" s="152"/>
+      <c r="C84" s="164"/>
       <c r="D84" s="156"/>
       <c r="E84" s="154"/>
-      <c r="F84" s="158"/>
+      <c r="F84" s="170"/>
       <c r="G84" s="166"/>
       <c r="H84" s="166"/>
       <c r="I84" s="166"/>
-      <c r="J84" s="168"/>
-      <c r="K84" s="168"/>
+      <c r="J84" s="166"/>
+      <c r="K84" s="166"/>
       <c r="L84" s="160"/>
       <c r="M84" s="162"/>
       <c r="N84" s="160"/>
       <c r="O84" s="162"/>
-      <c r="P84" s="158"/>
-      <c r="Q84" s="170"/>
+      <c r="P84" s="170"/>
+      <c r="Q84" s="172"/>
       <c r="R84" s="184"/>
       <c r="S84" s="82"/>
       <c r="T84" s="83"/>
@@ -17853,18 +18194,30 @@
       <c r="C85" s="152"/>
       <c r="D85" s="155"/>
       <c r="E85" s="153"/>
-      <c r="F85" s="157"/>
+      <c r="F85" s="169" t="s">
+        <v>110</v>
+      </c>
       <c r="G85" s="165"/>
-      <c r="H85" s="165"/>
-      <c r="I85" s="165"/>
-      <c r="J85" s="167"/>
-      <c r="K85" s="167"/>
+      <c r="H85" s="165">
+        <v>43309</v>
+      </c>
+      <c r="I85" s="165">
+        <v>43310</v>
+      </c>
+      <c r="J85" s="165">
+        <v>43309</v>
+      </c>
+      <c r="K85" s="165">
+        <v>43311</v>
+      </c>
       <c r="L85" s="159"/>
       <c r="M85" s="161"/>
       <c r="N85" s="159"/>
       <c r="O85" s="161"/>
-      <c r="P85" s="157"/>
-      <c r="Q85" s="169"/>
+      <c r="P85" s="169" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q85" s="171"/>
       <c r="R85" s="183"/>
       <c r="S85" s="82"/>
       <c r="T85" s="85"/>
@@ -17996,18 +18349,18 @@
       <c r="C86" s="152"/>
       <c r="D86" s="156"/>
       <c r="E86" s="154"/>
-      <c r="F86" s="158"/>
+      <c r="F86" s="170"/>
       <c r="G86" s="166"/>
       <c r="H86" s="166"/>
       <c r="I86" s="166"/>
-      <c r="J86" s="168"/>
-      <c r="K86" s="168"/>
+      <c r="J86" s="166"/>
+      <c r="K86" s="166"/>
       <c r="L86" s="160"/>
       <c r="M86" s="162"/>
       <c r="N86" s="160"/>
       <c r="O86" s="162"/>
-      <c r="P86" s="158"/>
-      <c r="Q86" s="170"/>
+      <c r="P86" s="170"/>
+      <c r="Q86" s="172"/>
       <c r="R86" s="184"/>
       <c r="S86" s="82"/>
       <c r="T86" s="83"/>
@@ -18139,18 +18492,30 @@
       <c r="C87" s="152"/>
       <c r="D87" s="155"/>
       <c r="E87" s="153"/>
-      <c r="F87" s="157"/>
+      <c r="F87" s="169" t="s">
+        <v>109</v>
+      </c>
       <c r="G87" s="165"/>
-      <c r="H87" s="165"/>
-      <c r="I87" s="165"/>
-      <c r="J87" s="167"/>
-      <c r="K87" s="167"/>
+      <c r="H87" s="165">
+        <v>43311</v>
+      </c>
+      <c r="I87" s="165">
+        <v>43312</v>
+      </c>
+      <c r="J87" s="165">
+        <v>43311</v>
+      </c>
+      <c r="K87" s="165">
+        <v>43312</v>
+      </c>
       <c r="L87" s="159"/>
       <c r="M87" s="161"/>
       <c r="N87" s="159"/>
       <c r="O87" s="161"/>
-      <c r="P87" s="157"/>
-      <c r="Q87" s="169"/>
+      <c r="P87" s="169" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q87" s="171"/>
       <c r="R87" s="183"/>
       <c r="S87" s="82"/>
       <c r="T87" s="85"/>
@@ -18282,18 +18647,18 @@
       <c r="C88" s="152"/>
       <c r="D88" s="156"/>
       <c r="E88" s="154"/>
-      <c r="F88" s="158"/>
+      <c r="F88" s="170"/>
       <c r="G88" s="166"/>
       <c r="H88" s="166"/>
       <c r="I88" s="166"/>
-      <c r="J88" s="168"/>
-      <c r="K88" s="168"/>
+      <c r="J88" s="166"/>
+      <c r="K88" s="166"/>
       <c r="L88" s="160"/>
       <c r="M88" s="162"/>
       <c r="N88" s="160"/>
       <c r="O88" s="162"/>
-      <c r="P88" s="158"/>
-      <c r="Q88" s="170"/>
+      <c r="P88" s="170"/>
+      <c r="Q88" s="172"/>
       <c r="R88" s="184"/>
       <c r="S88" s="82"/>
       <c r="T88" s="83"/>
@@ -18425,18 +18790,30 @@
       <c r="C89" s="152"/>
       <c r="D89" s="155"/>
       <c r="E89" s="153"/>
-      <c r="F89" s="157"/>
+      <c r="F89" s="169" t="s">
+        <v>54</v>
+      </c>
       <c r="G89" s="165"/>
-      <c r="H89" s="165"/>
-      <c r="I89" s="165"/>
-      <c r="J89" s="167"/>
-      <c r="K89" s="167"/>
+      <c r="H89" s="165">
+        <v>43311</v>
+      </c>
+      <c r="I89" s="165">
+        <v>43312</v>
+      </c>
+      <c r="J89" s="165">
+        <v>43312</v>
+      </c>
+      <c r="K89" s="165">
+        <v>43313</v>
+      </c>
       <c r="L89" s="159"/>
       <c r="M89" s="161"/>
       <c r="N89" s="159"/>
       <c r="O89" s="161"/>
-      <c r="P89" s="157"/>
-      <c r="Q89" s="169"/>
+      <c r="P89" s="169" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q89" s="171"/>
       <c r="R89" s="183"/>
       <c r="S89" s="82"/>
       <c r="T89" s="85"/>
@@ -18568,18 +18945,18 @@
       <c r="C90" s="152"/>
       <c r="D90" s="156"/>
       <c r="E90" s="154"/>
-      <c r="F90" s="158"/>
+      <c r="F90" s="170"/>
       <c r="G90" s="166"/>
       <c r="H90" s="166"/>
       <c r="I90" s="166"/>
-      <c r="J90" s="168"/>
-      <c r="K90" s="168"/>
+      <c r="J90" s="166"/>
+      <c r="K90" s="166"/>
       <c r="L90" s="160"/>
       <c r="M90" s="162"/>
       <c r="N90" s="160"/>
       <c r="O90" s="162"/>
-      <c r="P90" s="158"/>
-      <c r="Q90" s="170"/>
+      <c r="P90" s="170"/>
+      <c r="Q90" s="172"/>
       <c r="R90" s="184"/>
       <c r="S90" s="82"/>
       <c r="T90" s="83"/>
@@ -18710,19 +19087,31 @@
       <c r="B91" s="150"/>
       <c r="C91" s="152"/>
       <c r="D91" s="155"/>
-      <c r="E91" s="153"/>
+      <c r="E91" s="173" t="s">
+        <v>111</v>
+      </c>
       <c r="F91" s="157"/>
       <c r="G91" s="165"/>
-      <c r="H91" s="165"/>
-      <c r="I91" s="165"/>
-      <c r="J91" s="167"/>
-      <c r="K91" s="167"/>
+      <c r="H91" s="165">
+        <v>43309</v>
+      </c>
+      <c r="I91" s="165">
+        <v>43311</v>
+      </c>
+      <c r="J91" s="165">
+        <v>43312</v>
+      </c>
+      <c r="K91" s="165">
+        <v>43313</v>
+      </c>
       <c r="L91" s="159"/>
       <c r="M91" s="161"/>
       <c r="N91" s="159"/>
       <c r="O91" s="161"/>
-      <c r="P91" s="157"/>
-      <c r="Q91" s="169"/>
+      <c r="P91" s="169" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q91" s="171"/>
       <c r="R91" s="183"/>
       <c r="S91" s="82"/>
       <c r="T91" s="85"/>
@@ -18853,19 +19242,19 @@
       <c r="B92" s="151"/>
       <c r="C92" s="152"/>
       <c r="D92" s="156"/>
-      <c r="E92" s="154"/>
+      <c r="E92" s="174"/>
       <c r="F92" s="158"/>
       <c r="G92" s="166"/>
       <c r="H92" s="166"/>
       <c r="I92" s="166"/>
-      <c r="J92" s="168"/>
-      <c r="K92" s="168"/>
+      <c r="J92" s="166"/>
+      <c r="K92" s="166"/>
       <c r="L92" s="160"/>
       <c r="M92" s="162"/>
       <c r="N92" s="160"/>
       <c r="O92" s="162"/>
-      <c r="P92" s="158"/>
-      <c r="Q92" s="170"/>
+      <c r="P92" s="170"/>
+      <c r="Q92" s="172"/>
       <c r="R92" s="184"/>
       <c r="S92" s="82"/>
       <c r="T92" s="83"/>
@@ -19008,7 +19397,7 @@
       <c r="N93" s="159"/>
       <c r="O93" s="161"/>
       <c r="P93" s="157"/>
-      <c r="Q93" s="169"/>
+      <c r="Q93" s="171"/>
       <c r="R93" s="183"/>
       <c r="S93" s="82"/>
       <c r="T93" s="85"/>
@@ -19151,7 +19540,7 @@
       <c r="N94" s="160"/>
       <c r="O94" s="162"/>
       <c r="P94" s="158"/>
-      <c r="Q94" s="170"/>
+      <c r="Q94" s="172"/>
       <c r="R94" s="184"/>
       <c r="S94" s="82"/>
       <c r="T94" s="83"/>
@@ -19294,7 +19683,7 @@
       <c r="N95" s="159"/>
       <c r="O95" s="161"/>
       <c r="P95" s="157"/>
-      <c r="Q95" s="169"/>
+      <c r="Q95" s="171"/>
       <c r="R95" s="183"/>
       <c r="S95" s="82"/>
       <c r="T95" s="85"/>
@@ -19437,7 +19826,7 @@
       <c r="N96" s="160"/>
       <c r="O96" s="162"/>
       <c r="P96" s="158"/>
-      <c r="Q96" s="170"/>
+      <c r="Q96" s="172"/>
       <c r="R96" s="184"/>
       <c r="S96" s="82"/>
       <c r="T96" s="83"/>
@@ -19580,7 +19969,7 @@
       <c r="N97" s="159"/>
       <c r="O97" s="161"/>
       <c r="P97" s="157"/>
-      <c r="Q97" s="169"/>
+      <c r="Q97" s="171"/>
       <c r="R97" s="183"/>
       <c r="S97" s="82"/>
       <c r="T97" s="85"/>
@@ -19723,7 +20112,7 @@
       <c r="N98" s="160"/>
       <c r="O98" s="162"/>
       <c r="P98" s="158"/>
-      <c r="Q98" s="170"/>
+      <c r="Q98" s="172"/>
       <c r="R98" s="184"/>
       <c r="S98" s="82"/>
       <c r="T98" s="83"/>
@@ -19866,7 +20255,7 @@
       <c r="N99" s="159"/>
       <c r="O99" s="161"/>
       <c r="P99" s="157"/>
-      <c r="Q99" s="169"/>
+      <c r="Q99" s="171"/>
       <c r="R99" s="183"/>
       <c r="S99" s="82"/>
       <c r="T99" s="85"/>
@@ -20009,7 +20398,7 @@
       <c r="N100" s="160"/>
       <c r="O100" s="162"/>
       <c r="P100" s="158"/>
-      <c r="Q100" s="170"/>
+      <c r="Q100" s="172"/>
       <c r="R100" s="184"/>
       <c r="S100" s="82"/>
       <c r="T100" s="83"/>
@@ -20152,7 +20541,7 @@
       <c r="N101" s="159"/>
       <c r="O101" s="161"/>
       <c r="P101" s="157"/>
-      <c r="Q101" s="169"/>
+      <c r="Q101" s="171"/>
       <c r="R101" s="183"/>
       <c r="S101" s="82"/>
       <c r="T101" s="85"/>
@@ -20295,7 +20684,7 @@
       <c r="N102" s="160"/>
       <c r="O102" s="162"/>
       <c r="P102" s="158"/>
-      <c r="Q102" s="170"/>
+      <c r="Q102" s="172"/>
       <c r="R102" s="184"/>
       <c r="S102" s="82"/>
       <c r="T102" s="83"/>
@@ -20438,7 +20827,7 @@
       <c r="N103" s="159"/>
       <c r="O103" s="161"/>
       <c r="P103" s="157"/>
-      <c r="Q103" s="169"/>
+      <c r="Q103" s="171"/>
       <c r="R103" s="183"/>
       <c r="S103" s="82"/>
       <c r="T103" s="85"/>
@@ -20581,7 +20970,7 @@
       <c r="N104" s="160"/>
       <c r="O104" s="162"/>
       <c r="P104" s="158"/>
-      <c r="Q104" s="170"/>
+      <c r="Q104" s="172"/>
       <c r="R104" s="184"/>
       <c r="S104" s="82"/>
       <c r="T104" s="83"/>
@@ -20724,7 +21113,7 @@
       <c r="N105" s="159"/>
       <c r="O105" s="161"/>
       <c r="P105" s="157"/>
-      <c r="Q105" s="169"/>
+      <c r="Q105" s="171"/>
       <c r="R105" s="183"/>
       <c r="S105" s="82"/>
       <c r="T105" s="85"/>
@@ -20867,7 +21256,7 @@
       <c r="N106" s="160"/>
       <c r="O106" s="162"/>
       <c r="P106" s="158"/>
-      <c r="Q106" s="170"/>
+      <c r="Q106" s="172"/>
       <c r="R106" s="184"/>
       <c r="S106" s="82"/>
       <c r="T106" s="83"/>
@@ -21010,7 +21399,7 @@
       <c r="N107" s="159"/>
       <c r="O107" s="161"/>
       <c r="P107" s="157"/>
-      <c r="Q107" s="169"/>
+      <c r="Q107" s="171"/>
       <c r="R107" s="183"/>
       <c r="S107" s="82"/>
       <c r="T107" s="85"/>
@@ -21153,7 +21542,7 @@
       <c r="N108" s="160"/>
       <c r="O108" s="162"/>
       <c r="P108" s="158"/>
-      <c r="Q108" s="170"/>
+      <c r="Q108" s="172"/>
       <c r="R108" s="184"/>
       <c r="S108" s="82"/>
       <c r="T108" s="83"/>
@@ -21296,7 +21685,7 @@
       <c r="N109" s="159"/>
       <c r="O109" s="161"/>
       <c r="P109" s="157"/>
-      <c r="Q109" s="169"/>
+      <c r="Q109" s="171"/>
       <c r="R109" s="183"/>
       <c r="S109" s="82"/>
       <c r="T109" s="85"/>
@@ -21439,7 +21828,7 @@
       <c r="N110" s="160"/>
       <c r="O110" s="162"/>
       <c r="P110" s="158"/>
-      <c r="Q110" s="170"/>
+      <c r="Q110" s="172"/>
       <c r="R110" s="184"/>
       <c r="S110" s="82"/>
       <c r="T110" s="83"/>
@@ -21582,7 +21971,7 @@
       <c r="N111" s="159"/>
       <c r="O111" s="161"/>
       <c r="P111" s="157"/>
-      <c r="Q111" s="169"/>
+      <c r="Q111" s="171"/>
       <c r="R111" s="183"/>
       <c r="S111" s="82"/>
       <c r="T111" s="85"/>
@@ -21725,7 +22114,7 @@
       <c r="N112" s="160"/>
       <c r="O112" s="162"/>
       <c r="P112" s="158"/>
-      <c r="Q112" s="170"/>
+      <c r="Q112" s="172"/>
       <c r="R112" s="184"/>
       <c r="S112" s="82"/>
       <c r="T112" s="83"/>
@@ -21868,7 +22257,7 @@
       <c r="N113" s="159"/>
       <c r="O113" s="161"/>
       <c r="P113" s="157"/>
-      <c r="Q113" s="169"/>
+      <c r="Q113" s="171"/>
       <c r="R113" s="183"/>
       <c r="S113" s="82"/>
       <c r="T113" s="85"/>
@@ -22011,7 +22400,7 @@
       <c r="N114" s="160"/>
       <c r="O114" s="162"/>
       <c r="P114" s="158"/>
-      <c r="Q114" s="170"/>
+      <c r="Q114" s="172"/>
       <c r="R114" s="184"/>
       <c r="S114" s="82"/>
       <c r="T114" s="83"/>
@@ -22154,7 +22543,7 @@
       <c r="N115" s="159"/>
       <c r="O115" s="161"/>
       <c r="P115" s="157"/>
-      <c r="Q115" s="169"/>
+      <c r="Q115" s="171"/>
       <c r="R115" s="183"/>
       <c r="S115" s="82"/>
       <c r="T115" s="85"/>
@@ -22297,7 +22686,7 @@
       <c r="N116" s="160"/>
       <c r="O116" s="162"/>
       <c r="P116" s="158"/>
-      <c r="Q116" s="170"/>
+      <c r="Q116" s="172"/>
       <c r="R116" s="184"/>
       <c r="S116" s="82"/>
       <c r="T116" s="83"/>
@@ -22440,7 +22829,7 @@
       <c r="N117" s="159"/>
       <c r="O117" s="161"/>
       <c r="P117" s="157"/>
-      <c r="Q117" s="169"/>
+      <c r="Q117" s="171"/>
       <c r="R117" s="183"/>
       <c r="S117" s="82"/>
       <c r="T117" s="85"/>
@@ -22583,7 +22972,7 @@
       <c r="N118" s="160"/>
       <c r="O118" s="162"/>
       <c r="P118" s="158"/>
-      <c r="Q118" s="170"/>
+      <c r="Q118" s="172"/>
       <c r="R118" s="184"/>
       <c r="S118" s="82"/>
       <c r="T118" s="83"/>
@@ -22726,7 +23115,7 @@
       <c r="N119" s="159"/>
       <c r="O119" s="161"/>
       <c r="P119" s="157"/>
-      <c r="Q119" s="169"/>
+      <c r="Q119" s="171"/>
       <c r="R119" s="183"/>
       <c r="S119" s="82"/>
       <c r="T119" s="85"/>
@@ -22869,7 +23258,7 @@
       <c r="N120" s="160"/>
       <c r="O120" s="162"/>
       <c r="P120" s="158"/>
-      <c r="Q120" s="170"/>
+      <c r="Q120" s="172"/>
       <c r="R120" s="184"/>
       <c r="S120" s="82"/>
       <c r="T120" s="83"/>
@@ -23991,1053 +24380,1119 @@
   </mergeCells>
   <phoneticPr fontId="5"/>
   <conditionalFormatting sqref="S8:EK8">
-    <cfRule type="expression" dxfId="285" priority="1997" stopIfTrue="1">
+    <cfRule type="expression" dxfId="312" priority="2021" stopIfTrue="1">
       <formula>IF(TEXT(S$9,"d")="1",TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="284" priority="1998" stopIfTrue="1">
+    <cfRule type="expression" dxfId="311" priority="2022" stopIfTrue="1">
       <formula>OR(IF(TEXT(S$9,"d")&lt;&gt;"1",TRUE,FALSE))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S9:EK10">
-    <cfRule type="expression" dxfId="283" priority="2005" stopIfTrue="1">
+    <cfRule type="expression" dxfId="310" priority="2029" stopIfTrue="1">
       <formula>IF(S$9=TODAY(),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="282" priority="2006" stopIfTrue="1">
+    <cfRule type="expression" dxfId="309" priority="2030" stopIfTrue="1">
       <formula>IF(WEEKDAY(S$9)=7,TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="281" priority="2007" stopIfTrue="1">
+    <cfRule type="expression" dxfId="308" priority="2031" stopIfTrue="1">
       <formula>IF(OR(WEEKDAY(S$9)=1,IF(ISNA(MATCH(S$9,Holiday,0)),FALSE,TRUE)),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S11:EK120">
-    <cfRule type="expression" dxfId="280" priority="3687" stopIfTrue="1">
+    <cfRule type="expression" dxfId="307" priority="3711" stopIfTrue="1">
       <formula>IF(OR(WEEKDAY(S$9)=7,WEEKDAY(S$9)=1,IF(ISNA(MATCH(S$9,Holiday,0)),FALSE,TRUE)),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="279" priority="3688" stopIfTrue="1">
+    <cfRule type="expression" dxfId="306" priority="3712" stopIfTrue="1">
       <formula>IF(AND($D11&lt;&gt;"",S11&lt;&gt;""),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="278" priority="3689" stopIfTrue="1">
+    <cfRule type="expression" dxfId="305" priority="3713" stopIfTrue="1">
       <formula>IF(AND($D11="",S11&lt;&gt;""),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J11:K11 B11:F11 B13:F13 J15 K19 B15:F15 B17:F17 B19:F19 B21:F21 B23:F23 B25:F25 B27:F27 B29:F29 B31:F31 B33:F33 B35:F35 B37:F37 B39:F39 B41:F41 B43:F43 B45:F45 B47:F47 B49:F49 B51:F51 B53:F53 B55:F55 B57:F57 B59:F59 B61:F61 B63:F63 B65:D65 B67:E67 B69:D69 B71:E71 B73:E73 J83:K83 B75:F75 B77:F77 B79:F79 B81:F81 B83:F83 J85:K85 B85:F85 J87:K87 J89:K89 J91:K91 J93:K93 J95:K95 B87:F87 B89:F89 B91:F91 B93:F93 B95:F95 J97:K97 B97:F97 J99:K99 J101:K101 J103:K103 J105:K105 J107:K107 B99:F99 B101:F101 B103:F103 B105:F105 B107:F107 J109:K109 B109:F109 J111:K111 J113:K113 J115:K115 J117:K117 J119:K119 B111:F111 B113:F113 B115:F115 B117:F117 B119:F119 L11:O120 Q11:R120 G83:I120 G11:I30 G51:I54 G31:H34 G35:G50 I71:I72 G55:G82">
-    <cfRule type="expression" dxfId="277" priority="5140" stopIfTrue="1">
+  <conditionalFormatting sqref="J11:K11 B11:F11 B13:F13 J15 K19 B15:F15 B17:F17 B19:F19 B21:F21 B23:F23 B25:F25 B27:F27 B29:F29 B31:F31 B33:F33 B35:F35 B37:F37 B39:F39 B41:F41 B43:F43 B45:F45 B47:F47 B49:F49 B51:F51 B53:F53 B55:F55 B57:F57 B59:F59 B61:F61 B63:F63 B65:D65 B67:E67 B69:D69 B71:E71 B73:E73 B75:F75 B77:F77 B79:F79 B81:F81 B83:F83 B85:F85 J93:K93 J95:K95 B87:F87 B89:F89 B91:F91 B93:F93 B95:F95 J97:K97 B97:F97 J99:K99 J101:K101 J103:K103 J105:K105 J107:K107 B99:F99 B101:F101 B103:F103 B105:F105 B107:F107 J109:K109 B109:F109 J111:K111 J113:K113 J115:K115 J117:K117 J119:K119 B111:F111 B113:F113 B115:F115 B117:F117 B119:F119 L11:O120 Q11:R120 G93:I120 G11:I30 G51:I54 G31:H34 G35:G50 I71:I72 G55:G92">
+    <cfRule type="expression" dxfId="304" priority="5164" stopIfTrue="1">
       <formula>IF(AND($D11&lt;&gt;"",$J11&lt;&gt;"",$K11&lt;&gt;""),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="276" priority="5141" stopIfTrue="1">
+    <cfRule type="expression" dxfId="303" priority="5165" stopIfTrue="1">
       <formula>IF(AND($D11&lt;&gt;"",$K11="",$I11&lt;TODAY()),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="275" priority="5142" stopIfTrue="1">
+    <cfRule type="expression" dxfId="302" priority="5166" stopIfTrue="1">
       <formula>IF(OR(AND($D11&lt;&gt;"",$J11&lt;&gt;"",$Q11&lt;100),TODAY()&gt;=$H11),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CJ11:DM120">
-    <cfRule type="expression" dxfId="274" priority="6220" stopIfTrue="1">
+    <cfRule type="expression" dxfId="301" priority="6244" stopIfTrue="1">
       <formula>IF(OR(WEEKDAY(CJ$9)=7,WEEKDAY(CJ$9)=1,IF(ISNA(MATCH(CJ$9,Holiday,0)),FALSE,TRUE)),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="273" priority="6221" stopIfTrue="1">
+    <cfRule type="expression" dxfId="300" priority="6245" stopIfTrue="1">
       <formula>IF(AND($D11="",$S11&lt;&gt;""),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P11 P31 P33 P35 P37 P41 P43 P53 P71 P73 P75 P77 P79 P81 P83 P85 P87 P89 P91 P93 P95 P97 P99 P101 P103 P105 P107 P109 P111 P113 P115 P117 P119">
-    <cfRule type="expression" dxfId="272" priority="389" stopIfTrue="1">
+  <conditionalFormatting sqref="P11 P31 P33 P35 P37 P41 P43 P53 P71 P73 P75 P77 P79 P81 P93 P95 P97 P99 P101 P103 P105 P107 P109 P111 P113 P115 P117 P119">
+    <cfRule type="expression" dxfId="299" priority="413" stopIfTrue="1">
       <formula>IF(AND($D11&lt;&gt;"",$J11&lt;&gt;"",$K11&lt;&gt;""),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="271" priority="390" stopIfTrue="1">
+    <cfRule type="expression" dxfId="298" priority="414" stopIfTrue="1">
       <formula>IF(AND($D11&lt;&gt;"",$K11="",$I11&lt;TODAY()),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="270" priority="391" stopIfTrue="1">
+    <cfRule type="expression" dxfId="297" priority="415" stopIfTrue="1">
       <formula>IF(OR(AND($D11&lt;&gt;"",$J11&lt;&gt;"",$Q11&lt;100),TODAY()&gt;=$H11),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P47">
-    <cfRule type="expression" dxfId="269" priority="283" stopIfTrue="1">
+    <cfRule type="expression" dxfId="296" priority="307" stopIfTrue="1">
       <formula>IF(AND($D47&lt;&gt;"",$J47&lt;&gt;"",$K47&lt;&gt;""),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="268" priority="284" stopIfTrue="1">
+    <cfRule type="expression" dxfId="295" priority="308" stopIfTrue="1">
       <formula>IF(AND($D47&lt;&gt;"",$K47="",$I47&lt;TODAY()),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="267" priority="285" stopIfTrue="1">
+    <cfRule type="expression" dxfId="294" priority="309" stopIfTrue="1">
       <formula>IF(OR(AND($D47&lt;&gt;"",$J47&lt;&gt;"",$Q47&lt;100),TODAY()&gt;=$H47),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P13">
-    <cfRule type="expression" dxfId="266" priority="280" stopIfTrue="1">
+    <cfRule type="expression" dxfId="293" priority="304" stopIfTrue="1">
       <formula>IF(AND($D13&lt;&gt;"",$J13&lt;&gt;"",$K13&lt;&gt;""),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="265" priority="281" stopIfTrue="1">
+    <cfRule type="expression" dxfId="292" priority="305" stopIfTrue="1">
       <formula>IF(AND($D13&lt;&gt;"",$K13="",$I13&lt;TODAY()),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="264" priority="282" stopIfTrue="1">
+    <cfRule type="expression" dxfId="291" priority="306" stopIfTrue="1">
       <formula>IF(OR(AND($D13&lt;&gt;"",$J13&lt;&gt;"",$Q13&lt;100),TODAY()&gt;=$H13),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P15">
-    <cfRule type="expression" dxfId="263" priority="277" stopIfTrue="1">
+    <cfRule type="expression" dxfId="290" priority="301" stopIfTrue="1">
       <formula>IF(AND($D15&lt;&gt;"",$J15&lt;&gt;"",$K15&lt;&gt;""),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="262" priority="278" stopIfTrue="1">
+    <cfRule type="expression" dxfId="289" priority="302" stopIfTrue="1">
       <formula>IF(AND($D15&lt;&gt;"",$K15="",$I15&lt;TODAY()),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="261" priority="279" stopIfTrue="1">
+    <cfRule type="expression" dxfId="288" priority="303" stopIfTrue="1">
       <formula>IF(OR(AND($D15&lt;&gt;"",$J15&lt;&gt;"",$Q15&lt;100),TODAY()&gt;=$H15),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P17">
-    <cfRule type="expression" dxfId="260" priority="274" stopIfTrue="1">
+    <cfRule type="expression" dxfId="287" priority="298" stopIfTrue="1">
       <formula>IF(AND($D17&lt;&gt;"",$J17&lt;&gt;"",$K17&lt;&gt;""),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="259" priority="275" stopIfTrue="1">
+    <cfRule type="expression" dxfId="286" priority="299" stopIfTrue="1">
       <formula>IF(AND($D17&lt;&gt;"",$K17="",$I17&lt;TODAY()),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="258" priority="276" stopIfTrue="1">
+    <cfRule type="expression" dxfId="285" priority="300" stopIfTrue="1">
       <formula>IF(OR(AND($D17&lt;&gt;"",$J17&lt;&gt;"",$Q17&lt;100),TODAY()&gt;=$H17),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P19">
-    <cfRule type="expression" dxfId="257" priority="271" stopIfTrue="1">
+    <cfRule type="expression" dxfId="284" priority="295" stopIfTrue="1">
       <formula>IF(AND($D19&lt;&gt;"",$J19&lt;&gt;"",$K19&lt;&gt;""),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="256" priority="272" stopIfTrue="1">
+    <cfRule type="expression" dxfId="283" priority="296" stopIfTrue="1">
       <formula>IF(AND($D19&lt;&gt;"",$K19="",$I19&lt;TODAY()),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="255" priority="273" stopIfTrue="1">
+    <cfRule type="expression" dxfId="282" priority="297" stopIfTrue="1">
       <formula>IF(OR(AND($D19&lt;&gt;"",$J19&lt;&gt;"",$Q19&lt;100),TODAY()&gt;=$H19),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P21">
-    <cfRule type="expression" dxfId="254" priority="268" stopIfTrue="1">
+    <cfRule type="expression" dxfId="281" priority="292" stopIfTrue="1">
       <formula>IF(AND($D21&lt;&gt;"",$J21&lt;&gt;"",$K21&lt;&gt;""),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="253" priority="269" stopIfTrue="1">
+    <cfRule type="expression" dxfId="280" priority="293" stopIfTrue="1">
       <formula>IF(AND($D21&lt;&gt;"",$K21="",$I21&lt;TODAY()),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="252" priority="270" stopIfTrue="1">
+    <cfRule type="expression" dxfId="279" priority="294" stopIfTrue="1">
       <formula>IF(OR(AND($D21&lt;&gt;"",$J21&lt;&gt;"",$Q21&lt;100),TODAY()&gt;=$H21),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P29">
-    <cfRule type="expression" dxfId="251" priority="265" stopIfTrue="1">
+    <cfRule type="expression" dxfId="278" priority="289" stopIfTrue="1">
       <formula>IF(AND($D29&lt;&gt;"",$J29&lt;&gt;"",$K29&lt;&gt;""),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="250" priority="266" stopIfTrue="1">
+    <cfRule type="expression" dxfId="277" priority="290" stopIfTrue="1">
       <formula>IF(AND($D29&lt;&gt;"",$K29="",$I29&lt;TODAY()),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="249" priority="267" stopIfTrue="1">
+    <cfRule type="expression" dxfId="276" priority="291" stopIfTrue="1">
       <formula>IF(OR(AND($D29&lt;&gt;"",$J29&lt;&gt;"",$Q29&lt;100),TODAY()&gt;=$H29),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P39">
-    <cfRule type="expression" dxfId="248" priority="262" stopIfTrue="1">
+    <cfRule type="expression" dxfId="275" priority="286" stopIfTrue="1">
       <formula>IF(AND($D39&lt;&gt;"",$J39&lt;&gt;"",$K39&lt;&gt;""),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="247" priority="263" stopIfTrue="1">
+    <cfRule type="expression" dxfId="274" priority="287" stopIfTrue="1">
       <formula>IF(AND($D39&lt;&gt;"",$K39="",$I39&lt;TODAY()),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="246" priority="264" stopIfTrue="1">
+    <cfRule type="expression" dxfId="273" priority="288" stopIfTrue="1">
       <formula>IF(OR(AND($D39&lt;&gt;"",$J39&lt;&gt;"",$Q39&lt;100),TODAY()&gt;=$H39),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P45">
-    <cfRule type="expression" dxfId="245" priority="259" stopIfTrue="1">
+    <cfRule type="expression" dxfId="272" priority="283" stopIfTrue="1">
       <formula>IF(AND($D45&lt;&gt;"",$J45&lt;&gt;"",$K45&lt;&gt;""),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="244" priority="260" stopIfTrue="1">
+    <cfRule type="expression" dxfId="271" priority="284" stopIfTrue="1">
       <formula>IF(AND($D45&lt;&gt;"",$K45="",$I45&lt;TODAY()),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="243" priority="261" stopIfTrue="1">
+    <cfRule type="expression" dxfId="270" priority="285" stopIfTrue="1">
       <formula>IF(OR(AND($D45&lt;&gt;"",$J45&lt;&gt;"",$Q45&lt;100),TODAY()&gt;=$H45),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P49">
-    <cfRule type="expression" dxfId="242" priority="256" stopIfTrue="1">
+    <cfRule type="expression" dxfId="269" priority="280" stopIfTrue="1">
       <formula>IF(AND($D49&lt;&gt;"",$J49&lt;&gt;"",$K49&lt;&gt;""),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="241" priority="257" stopIfTrue="1">
+    <cfRule type="expression" dxfId="268" priority="281" stopIfTrue="1">
       <formula>IF(AND($D49&lt;&gt;"",$K49="",$I49&lt;TODAY()),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="240" priority="258" stopIfTrue="1">
+    <cfRule type="expression" dxfId="267" priority="282" stopIfTrue="1">
       <formula>IF(OR(AND($D49&lt;&gt;"",$J49&lt;&gt;"",$Q49&lt;100),TODAY()&gt;=$H49),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P51">
-    <cfRule type="expression" dxfId="239" priority="253" stopIfTrue="1">
+    <cfRule type="expression" dxfId="266" priority="277" stopIfTrue="1">
       <formula>IF(AND($D51&lt;&gt;"",$J51&lt;&gt;"",$K51&lt;&gt;""),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="238" priority="254" stopIfTrue="1">
+    <cfRule type="expression" dxfId="265" priority="278" stopIfTrue="1">
       <formula>IF(AND($D51&lt;&gt;"",$K51="",$I51&lt;TODAY()),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="237" priority="255" stopIfTrue="1">
+    <cfRule type="expression" dxfId="264" priority="279" stopIfTrue="1">
       <formula>IF(OR(AND($D51&lt;&gt;"",$J51&lt;&gt;"",$Q51&lt;100),TODAY()&gt;=$H51),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P63">
-    <cfRule type="expression" dxfId="236" priority="250" stopIfTrue="1">
+    <cfRule type="expression" dxfId="263" priority="274" stopIfTrue="1">
       <formula>IF(AND($D63&lt;&gt;"",$J63&lt;&gt;"",$K63&lt;&gt;""),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="235" priority="251" stopIfTrue="1">
+    <cfRule type="expression" dxfId="262" priority="275" stopIfTrue="1">
       <formula>IF(AND($D63&lt;&gt;"",$K63="",$I63&lt;TODAY()),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="234" priority="252" stopIfTrue="1">
+    <cfRule type="expression" dxfId="261" priority="276" stopIfTrue="1">
       <formula>IF(OR(AND($D63&lt;&gt;"",$J63&lt;&gt;"",$Q63&lt;100),TODAY()&gt;=$H63),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P65">
-    <cfRule type="expression" dxfId="233" priority="247" stopIfTrue="1">
+    <cfRule type="expression" dxfId="260" priority="271" stopIfTrue="1">
       <formula>IF(AND($D65&lt;&gt;"",$J65&lt;&gt;"",$K65&lt;&gt;""),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="232" priority="248" stopIfTrue="1">
+    <cfRule type="expression" dxfId="259" priority="272" stopIfTrue="1">
       <formula>IF(AND($D65&lt;&gt;"",$K65="",$I65&lt;TODAY()),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="231" priority="249" stopIfTrue="1">
+    <cfRule type="expression" dxfId="258" priority="273" stopIfTrue="1">
       <formula>IF(OR(AND($D65&lt;&gt;"",$J65&lt;&gt;"",$Q65&lt;100),TODAY()&gt;=$H65),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P67">
-    <cfRule type="expression" dxfId="230" priority="244" stopIfTrue="1">
+    <cfRule type="expression" dxfId="257" priority="268" stopIfTrue="1">
       <formula>IF(AND($D67&lt;&gt;"",$J67&lt;&gt;"",$K67&lt;&gt;""),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="229" priority="245" stopIfTrue="1">
+    <cfRule type="expression" dxfId="256" priority="269" stopIfTrue="1">
       <formula>IF(AND($D67&lt;&gt;"",$K67="",$I67&lt;TODAY()),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="228" priority="246" stopIfTrue="1">
+    <cfRule type="expression" dxfId="255" priority="270" stopIfTrue="1">
       <formula>IF(OR(AND($D67&lt;&gt;"",$J67&lt;&gt;"",$Q67&lt;100),TODAY()&gt;=$H67),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P23">
-    <cfRule type="expression" dxfId="227" priority="241" stopIfTrue="1">
+    <cfRule type="expression" dxfId="254" priority="265" stopIfTrue="1">
       <formula>IF(AND($D23&lt;&gt;"",$J23&lt;&gt;"",$K23&lt;&gt;""),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="226" priority="242" stopIfTrue="1">
+    <cfRule type="expression" dxfId="253" priority="266" stopIfTrue="1">
       <formula>IF(AND($D23&lt;&gt;"",$K23="",$I23&lt;TODAY()),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="225" priority="243" stopIfTrue="1">
+    <cfRule type="expression" dxfId="252" priority="267" stopIfTrue="1">
       <formula>IF(OR(AND($D23&lt;&gt;"",$J23&lt;&gt;"",$Q23&lt;100),TODAY()&gt;=$H23),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P25">
-    <cfRule type="expression" dxfId="224" priority="238" stopIfTrue="1">
+    <cfRule type="expression" dxfId="251" priority="262" stopIfTrue="1">
       <formula>IF(AND($D25&lt;&gt;"",$J25&lt;&gt;"",$K25&lt;&gt;""),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="223" priority="239" stopIfTrue="1">
+    <cfRule type="expression" dxfId="250" priority="263" stopIfTrue="1">
       <formula>IF(AND($D25&lt;&gt;"",$K25="",$I25&lt;TODAY()),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="222" priority="240" stopIfTrue="1">
+    <cfRule type="expression" dxfId="249" priority="264" stopIfTrue="1">
       <formula>IF(OR(AND($D25&lt;&gt;"",$J25&lt;&gt;"",$Q25&lt;100),TODAY()&gt;=$H25),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P27">
-    <cfRule type="expression" dxfId="221" priority="235" stopIfTrue="1">
+    <cfRule type="expression" dxfId="248" priority="259" stopIfTrue="1">
       <formula>IF(AND($D27&lt;&gt;"",$J27&lt;&gt;"",$K27&lt;&gt;""),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="220" priority="236" stopIfTrue="1">
+    <cfRule type="expression" dxfId="247" priority="260" stopIfTrue="1">
       <formula>IF(AND($D27&lt;&gt;"",$K27="",$I27&lt;TODAY()),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="219" priority="237" stopIfTrue="1">
+    <cfRule type="expression" dxfId="246" priority="261" stopIfTrue="1">
       <formula>IF(OR(AND($D27&lt;&gt;"",$J27&lt;&gt;"",$Q27&lt;100),TODAY()&gt;=$H27),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P55">
-    <cfRule type="expression" dxfId="218" priority="232" stopIfTrue="1">
+    <cfRule type="expression" dxfId="245" priority="256" stopIfTrue="1">
       <formula>IF(AND($D55&lt;&gt;"",$J55&lt;&gt;"",$K55&lt;&gt;""),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="217" priority="233" stopIfTrue="1">
+    <cfRule type="expression" dxfId="244" priority="257" stopIfTrue="1">
       <formula>IF(AND($D55&lt;&gt;"",$K55="",$I55&lt;TODAY()),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="216" priority="234" stopIfTrue="1">
+    <cfRule type="expression" dxfId="243" priority="258" stopIfTrue="1">
       <formula>IF(OR(AND($D55&lt;&gt;"",$J55&lt;&gt;"",$Q55&lt;100),TODAY()&gt;=$H55),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P57">
-    <cfRule type="expression" dxfId="215" priority="229" stopIfTrue="1">
+    <cfRule type="expression" dxfId="242" priority="253" stopIfTrue="1">
       <formula>IF(AND($D57&lt;&gt;"",$J57&lt;&gt;"",$K57&lt;&gt;""),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="214" priority="230" stopIfTrue="1">
+    <cfRule type="expression" dxfId="241" priority="254" stopIfTrue="1">
       <formula>IF(AND($D57&lt;&gt;"",$K57="",$I57&lt;TODAY()),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="213" priority="231" stopIfTrue="1">
+    <cfRule type="expression" dxfId="240" priority="255" stopIfTrue="1">
       <formula>IF(OR(AND($D57&lt;&gt;"",$J57&lt;&gt;"",$Q57&lt;100),TODAY()&gt;=$H57),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P59">
-    <cfRule type="expression" dxfId="212" priority="226" stopIfTrue="1">
+    <cfRule type="expression" dxfId="239" priority="250" stopIfTrue="1">
       <formula>IF(AND($D59&lt;&gt;"",$J59&lt;&gt;"",$K59&lt;&gt;""),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="211" priority="227" stopIfTrue="1">
+    <cfRule type="expression" dxfId="238" priority="251" stopIfTrue="1">
       <formula>IF(AND($D59&lt;&gt;"",$K59="",$I59&lt;TODAY()),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="210" priority="228" stopIfTrue="1">
+    <cfRule type="expression" dxfId="237" priority="252" stopIfTrue="1">
       <formula>IF(OR(AND($D59&lt;&gt;"",$J59&lt;&gt;"",$Q59&lt;100),TODAY()&gt;=$H59),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P61">
-    <cfRule type="expression" dxfId="209" priority="223" stopIfTrue="1">
+    <cfRule type="expression" dxfId="236" priority="247" stopIfTrue="1">
       <formula>IF(AND($D61&lt;&gt;"",$J61&lt;&gt;"",$K61&lt;&gt;""),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="208" priority="224" stopIfTrue="1">
+    <cfRule type="expression" dxfId="235" priority="248" stopIfTrue="1">
       <formula>IF(AND($D61&lt;&gt;"",$K61="",$I61&lt;TODAY()),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="207" priority="225" stopIfTrue="1">
+    <cfRule type="expression" dxfId="234" priority="249" stopIfTrue="1">
       <formula>IF(OR(AND($D61&lt;&gt;"",$J61&lt;&gt;"",$Q61&lt;100),TODAY()&gt;=$H61),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E69">
-    <cfRule type="expression" dxfId="206" priority="220" stopIfTrue="1">
+    <cfRule type="expression" dxfId="233" priority="244" stopIfTrue="1">
       <formula>IF(AND($D69&lt;&gt;"",$J69&lt;&gt;"",$K69&lt;&gt;""),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="205" priority="221" stopIfTrue="1">
+    <cfRule type="expression" dxfId="232" priority="245" stopIfTrue="1">
       <formula>IF(AND($D69&lt;&gt;"",$K69="",$I69&lt;TODAY()),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="204" priority="222" stopIfTrue="1">
+    <cfRule type="expression" dxfId="231" priority="246" stopIfTrue="1">
       <formula>IF(OR(AND($D69&lt;&gt;"",$J69&lt;&gt;"",$Q69&lt;100),TODAY()&gt;=$H69),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F71">
-    <cfRule type="expression" dxfId="203" priority="214" stopIfTrue="1">
+    <cfRule type="expression" dxfId="230" priority="238" stopIfTrue="1">
       <formula>IF(AND($D71&lt;&gt;"",$J71&lt;&gt;"",$K71&lt;&gt;""),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="202" priority="215" stopIfTrue="1">
+    <cfRule type="expression" dxfId="229" priority="239" stopIfTrue="1">
       <formula>IF(AND($D71&lt;&gt;"",$K71="",$I71&lt;TODAY()),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="201" priority="216" stopIfTrue="1">
+    <cfRule type="expression" dxfId="228" priority="240" stopIfTrue="1">
       <formula>IF(OR(AND($D71&lt;&gt;"",$J71&lt;&gt;"",$Q71&lt;100),TODAY()&gt;=$H71),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F73">
-    <cfRule type="expression" dxfId="200" priority="211" stopIfTrue="1">
+    <cfRule type="expression" dxfId="227" priority="235" stopIfTrue="1">
       <formula>IF(AND($D73&lt;&gt;"",$J73&lt;&gt;"",$K73&lt;&gt;""),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="199" priority="212" stopIfTrue="1">
+    <cfRule type="expression" dxfId="226" priority="236" stopIfTrue="1">
       <formula>IF(AND($D73&lt;&gt;"",$K73="",$I73&lt;TODAY()),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="198" priority="213" stopIfTrue="1">
+    <cfRule type="expression" dxfId="225" priority="237" stopIfTrue="1">
       <formula>IF(OR(AND($D73&lt;&gt;"",$J73&lt;&gt;"",$Q73&lt;100),TODAY()&gt;=$H73),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E65">
-    <cfRule type="expression" dxfId="197" priority="208" stopIfTrue="1">
+    <cfRule type="expression" dxfId="224" priority="232" stopIfTrue="1">
       <formula>IF(AND($D65&lt;&gt;"",$J65&lt;&gt;"",$K65&lt;&gt;""),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="196" priority="209" stopIfTrue="1">
+    <cfRule type="expression" dxfId="223" priority="233" stopIfTrue="1">
       <formula>IF(AND($D65&lt;&gt;"",$K65="",$I65&lt;TODAY()),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="195" priority="210" stopIfTrue="1">
+    <cfRule type="expression" dxfId="222" priority="234" stopIfTrue="1">
       <formula>IF(OR(AND($D65&lt;&gt;"",$J65&lt;&gt;"",$Q65&lt;100),TODAY()&gt;=$H65),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F65">
-    <cfRule type="expression" dxfId="194" priority="205" stopIfTrue="1">
+    <cfRule type="expression" dxfId="221" priority="229" stopIfTrue="1">
       <formula>IF(AND($D65&lt;&gt;"",$J65&lt;&gt;"",$K65&lt;&gt;""),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="193" priority="206" stopIfTrue="1">
+    <cfRule type="expression" dxfId="220" priority="230" stopIfTrue="1">
       <formula>IF(AND($D65&lt;&gt;"",$K65="",$I65&lt;TODAY()),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="192" priority="207" stopIfTrue="1">
+    <cfRule type="expression" dxfId="219" priority="231" stopIfTrue="1">
       <formula>IF(OR(AND($D65&lt;&gt;"",$J65&lt;&gt;"",$Q65&lt;100),TODAY()&gt;=$H65),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F67">
-    <cfRule type="expression" dxfId="191" priority="202" stopIfTrue="1">
+    <cfRule type="expression" dxfId="218" priority="226" stopIfTrue="1">
       <formula>IF(AND($D67&lt;&gt;"",$J67&lt;&gt;"",$K67&lt;&gt;""),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="190" priority="203" stopIfTrue="1">
+    <cfRule type="expression" dxfId="217" priority="227" stopIfTrue="1">
       <formula>IF(AND($D67&lt;&gt;"",$K67="",$I67&lt;TODAY()),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="189" priority="204" stopIfTrue="1">
+    <cfRule type="expression" dxfId="216" priority="228" stopIfTrue="1">
       <formula>IF(OR(AND($D67&lt;&gt;"",$J67&lt;&gt;"",$Q67&lt;100),TODAY()&gt;=$H67),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F69">
-    <cfRule type="expression" dxfId="188" priority="199" stopIfTrue="1">
+    <cfRule type="expression" dxfId="215" priority="223" stopIfTrue="1">
       <formula>IF(AND($D69&lt;&gt;"",$J69&lt;&gt;"",$K69&lt;&gt;""),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="187" priority="200" stopIfTrue="1">
+    <cfRule type="expression" dxfId="214" priority="224" stopIfTrue="1">
       <formula>IF(AND($D69&lt;&gt;"",$K69="",$I69&lt;TODAY()),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="186" priority="201" stopIfTrue="1">
+    <cfRule type="expression" dxfId="213" priority="225" stopIfTrue="1">
       <formula>IF(OR(AND($D69&lt;&gt;"",$J69&lt;&gt;"",$Q69&lt;100),TODAY()&gt;=$H69),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P69">
-    <cfRule type="expression" dxfId="185" priority="196" stopIfTrue="1">
+    <cfRule type="expression" dxfId="212" priority="220" stopIfTrue="1">
       <formula>IF(AND($D69&lt;&gt;"",$J69&lt;&gt;"",$K69&lt;&gt;""),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="184" priority="197" stopIfTrue="1">
+    <cfRule type="expression" dxfId="211" priority="221" stopIfTrue="1">
       <formula>IF(AND($D69&lt;&gt;"",$K69="",$I69&lt;TODAY()),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="183" priority="198" stopIfTrue="1">
+    <cfRule type="expression" dxfId="210" priority="222" stopIfTrue="1">
       <formula>IF(OR(AND($D69&lt;&gt;"",$J69&lt;&gt;"",$Q69&lt;100),TODAY()&gt;=$H69),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J51:J52">
-    <cfRule type="expression" dxfId="182" priority="193" stopIfTrue="1">
+    <cfRule type="expression" dxfId="209" priority="217" stopIfTrue="1">
       <formula>IF(AND($D51&lt;&gt;"",$J51&lt;&gt;"",$K51&lt;&gt;""),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="181" priority="194" stopIfTrue="1">
+    <cfRule type="expression" dxfId="208" priority="218" stopIfTrue="1">
       <formula>IF(AND($D51&lt;&gt;"",$K51="",$I51&lt;TODAY()),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="180" priority="195" stopIfTrue="1">
+    <cfRule type="expression" dxfId="207" priority="219" stopIfTrue="1">
       <formula>IF(OR(AND($D51&lt;&gt;"",$J51&lt;&gt;"",$Q51&lt;100),TODAY()&gt;=$H51),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K51:K52">
-    <cfRule type="expression" dxfId="179" priority="190" stopIfTrue="1">
+    <cfRule type="expression" dxfId="206" priority="214" stopIfTrue="1">
       <formula>IF(AND($D51&lt;&gt;"",$J51&lt;&gt;"",$K51&lt;&gt;""),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="178" priority="191" stopIfTrue="1">
+    <cfRule type="expression" dxfId="205" priority="215" stopIfTrue="1">
       <formula>IF(AND($D51&lt;&gt;"",$K51="",$I51&lt;TODAY()),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="177" priority="192" stopIfTrue="1">
+    <cfRule type="expression" dxfId="204" priority="216" stopIfTrue="1">
       <formula>IF(OR(AND($D51&lt;&gt;"",$J51&lt;&gt;"",$Q51&lt;100),TODAY()&gt;=$H51),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J53:J54">
-    <cfRule type="expression" dxfId="176" priority="187" stopIfTrue="1">
+    <cfRule type="expression" dxfId="203" priority="211" stopIfTrue="1">
       <formula>IF(AND($D53&lt;&gt;"",$J53&lt;&gt;"",$K53&lt;&gt;""),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="175" priority="188" stopIfTrue="1">
+    <cfRule type="expression" dxfId="202" priority="212" stopIfTrue="1">
       <formula>IF(AND($D53&lt;&gt;"",$K53="",$I53&lt;TODAY()),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="174" priority="189" stopIfTrue="1">
+    <cfRule type="expression" dxfId="201" priority="213" stopIfTrue="1">
       <formula>IF(OR(AND($D53&lt;&gt;"",$J53&lt;&gt;"",$Q53&lt;100),TODAY()&gt;=$H53),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K53:K54">
-    <cfRule type="expression" dxfId="173" priority="184" stopIfTrue="1">
+    <cfRule type="expression" dxfId="200" priority="208" stopIfTrue="1">
       <formula>IF(AND($D53&lt;&gt;"",$J53&lt;&gt;"",$K53&lt;&gt;""),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="172" priority="185" stopIfTrue="1">
+    <cfRule type="expression" dxfId="199" priority="209" stopIfTrue="1">
       <formula>IF(AND($D53&lt;&gt;"",$K53="",$I53&lt;TODAY()),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="171" priority="186" stopIfTrue="1">
+    <cfRule type="expression" dxfId="198" priority="210" stopIfTrue="1">
       <formula>IF(OR(AND($D53&lt;&gt;"",$J53&lt;&gt;"",$Q53&lt;100),TODAY()&gt;=$H53),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H55:H56">
-    <cfRule type="expression" dxfId="170" priority="181" stopIfTrue="1">
+    <cfRule type="expression" dxfId="197" priority="205" stopIfTrue="1">
       <formula>IF(AND($D55&lt;&gt;"",$J55&lt;&gt;"",$K55&lt;&gt;""),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="169" priority="182" stopIfTrue="1">
+    <cfRule type="expression" dxfId="196" priority="206" stopIfTrue="1">
       <formula>IF(AND($D55&lt;&gt;"",$K55="",$I55&lt;TODAY()),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="168" priority="183" stopIfTrue="1">
+    <cfRule type="expression" dxfId="195" priority="207" stopIfTrue="1">
       <formula>IF(OR(AND($D55&lt;&gt;"",$J55&lt;&gt;"",$Q55&lt;100),TODAY()&gt;=$H55),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I55:I56">
-    <cfRule type="expression" dxfId="167" priority="178" stopIfTrue="1">
+    <cfRule type="expression" dxfId="194" priority="202" stopIfTrue="1">
       <formula>IF(AND($D55&lt;&gt;"",$J55&lt;&gt;"",$K55&lt;&gt;""),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="166" priority="179" stopIfTrue="1">
+    <cfRule type="expression" dxfId="193" priority="203" stopIfTrue="1">
       <formula>IF(AND($D55&lt;&gt;"",$K55="",$I55&lt;TODAY()),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="165" priority="180" stopIfTrue="1">
+    <cfRule type="expression" dxfId="192" priority="204" stopIfTrue="1">
       <formula>IF(OR(AND($D55&lt;&gt;"",$J55&lt;&gt;"",$Q55&lt;100),TODAY()&gt;=$H55),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J55:J56">
-    <cfRule type="expression" dxfId="164" priority="175" stopIfTrue="1">
+    <cfRule type="expression" dxfId="191" priority="199" stopIfTrue="1">
       <formula>IF(AND($D55&lt;&gt;"",$J55&lt;&gt;"",$K55&lt;&gt;""),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="163" priority="176" stopIfTrue="1">
+    <cfRule type="expression" dxfId="190" priority="200" stopIfTrue="1">
       <formula>IF(AND($D55&lt;&gt;"",$K55="",$I55&lt;TODAY()),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="162" priority="177" stopIfTrue="1">
+    <cfRule type="expression" dxfId="189" priority="201" stopIfTrue="1">
       <formula>IF(OR(AND($D55&lt;&gt;"",$J55&lt;&gt;"",$Q55&lt;100),TODAY()&gt;=$H55),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K55:K56">
-    <cfRule type="expression" dxfId="161" priority="172" stopIfTrue="1">
+    <cfRule type="expression" dxfId="188" priority="196" stopIfTrue="1">
       <formula>IF(AND($D55&lt;&gt;"",$J55&lt;&gt;"",$K55&lt;&gt;""),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="160" priority="173" stopIfTrue="1">
+    <cfRule type="expression" dxfId="187" priority="197" stopIfTrue="1">
       <formula>IF(AND($D55&lt;&gt;"",$K55="",$I55&lt;TODAY()),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="159" priority="174" stopIfTrue="1">
+    <cfRule type="expression" dxfId="186" priority="198" stopIfTrue="1">
       <formula>IF(OR(AND($D55&lt;&gt;"",$J55&lt;&gt;"",$Q55&lt;100),TODAY()&gt;=$H55),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J57:J58">
-    <cfRule type="expression" dxfId="158" priority="169" stopIfTrue="1">
+    <cfRule type="expression" dxfId="185" priority="193" stopIfTrue="1">
       <formula>IF(AND($D57&lt;&gt;"",$J57&lt;&gt;"",$K57&lt;&gt;""),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="157" priority="170" stopIfTrue="1">
+    <cfRule type="expression" dxfId="184" priority="194" stopIfTrue="1">
       <formula>IF(AND($D57&lt;&gt;"",$K57="",$I57&lt;TODAY()),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="156" priority="171" stopIfTrue="1">
+    <cfRule type="expression" dxfId="183" priority="195" stopIfTrue="1">
       <formula>IF(OR(AND($D57&lt;&gt;"",$J57&lt;&gt;"",$Q57&lt;100),TODAY()&gt;=$H57),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J59:J60">
-    <cfRule type="expression" dxfId="155" priority="166" stopIfTrue="1">
+    <cfRule type="expression" dxfId="182" priority="190" stopIfTrue="1">
       <formula>IF(AND($D59&lt;&gt;"",$J59&lt;&gt;"",$K59&lt;&gt;""),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="154" priority="167" stopIfTrue="1">
+    <cfRule type="expression" dxfId="181" priority="191" stopIfTrue="1">
       <formula>IF(AND($D59&lt;&gt;"",$K59="",$I59&lt;TODAY()),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="153" priority="168" stopIfTrue="1">
+    <cfRule type="expression" dxfId="180" priority="192" stopIfTrue="1">
       <formula>IF(OR(AND($D59&lt;&gt;"",$J59&lt;&gt;"",$Q59&lt;100),TODAY()&gt;=$H59),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J61:J62">
-    <cfRule type="expression" dxfId="152" priority="163" stopIfTrue="1">
+    <cfRule type="expression" dxfId="179" priority="187" stopIfTrue="1">
       <formula>IF(AND($D61&lt;&gt;"",$J61&lt;&gt;"",$K61&lt;&gt;""),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="151" priority="164" stopIfTrue="1">
+    <cfRule type="expression" dxfId="178" priority="188" stopIfTrue="1">
       <formula>IF(AND($D61&lt;&gt;"",$K61="",$I61&lt;TODAY()),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="150" priority="165" stopIfTrue="1">
+    <cfRule type="expression" dxfId="177" priority="189" stopIfTrue="1">
       <formula>IF(OR(AND($D61&lt;&gt;"",$J61&lt;&gt;"",$Q61&lt;100),TODAY()&gt;=$H61),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J63:J64">
-    <cfRule type="expression" dxfId="149" priority="160" stopIfTrue="1">
+    <cfRule type="expression" dxfId="176" priority="184" stopIfTrue="1">
       <formula>IF(AND($D63&lt;&gt;"",$J63&lt;&gt;"",$K63&lt;&gt;""),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="148" priority="161" stopIfTrue="1">
+    <cfRule type="expression" dxfId="175" priority="185" stopIfTrue="1">
       <formula>IF(AND($D63&lt;&gt;"",$K63="",$I63&lt;TODAY()),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="147" priority="162" stopIfTrue="1">
+    <cfRule type="expression" dxfId="174" priority="186" stopIfTrue="1">
       <formula>IF(OR(AND($D63&lt;&gt;"",$J63&lt;&gt;"",$Q63&lt;100),TODAY()&gt;=$H63),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J65:J66">
-    <cfRule type="expression" dxfId="146" priority="157" stopIfTrue="1">
+    <cfRule type="expression" dxfId="173" priority="181" stopIfTrue="1">
       <formula>IF(AND($D65&lt;&gt;"",$J65&lt;&gt;"",$K65&lt;&gt;""),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="145" priority="158" stopIfTrue="1">
+    <cfRule type="expression" dxfId="172" priority="182" stopIfTrue="1">
       <formula>IF(AND($D65&lt;&gt;"",$K65="",$I65&lt;TODAY()),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="144" priority="159" stopIfTrue="1">
+    <cfRule type="expression" dxfId="171" priority="183" stopIfTrue="1">
       <formula>IF(OR(AND($D65&lt;&gt;"",$J65&lt;&gt;"",$Q65&lt;100),TODAY()&gt;=$H65),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J67:J68">
-    <cfRule type="expression" dxfId="143" priority="154" stopIfTrue="1">
+    <cfRule type="expression" dxfId="170" priority="178" stopIfTrue="1">
       <formula>IF(AND($D67&lt;&gt;"",$J67&lt;&gt;"",$K67&lt;&gt;""),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="142" priority="155" stopIfTrue="1">
+    <cfRule type="expression" dxfId="169" priority="179" stopIfTrue="1">
       <formula>IF(AND($D67&lt;&gt;"",$K67="",$I67&lt;TODAY()),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="141" priority="156" stopIfTrue="1">
+    <cfRule type="expression" dxfId="168" priority="180" stopIfTrue="1">
       <formula>IF(OR(AND($D67&lt;&gt;"",$J67&lt;&gt;"",$Q67&lt;100),TODAY()&gt;=$H67),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J69:J70">
-    <cfRule type="expression" dxfId="140" priority="151" stopIfTrue="1">
+    <cfRule type="expression" dxfId="167" priority="175" stopIfTrue="1">
       <formula>IF(AND($D69&lt;&gt;"",$J69&lt;&gt;"",$K69&lt;&gt;""),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="139" priority="152" stopIfTrue="1">
+    <cfRule type="expression" dxfId="166" priority="176" stopIfTrue="1">
       <formula>IF(AND($D69&lt;&gt;"",$K69="",$I69&lt;TODAY()),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="138" priority="153" stopIfTrue="1">
+    <cfRule type="expression" dxfId="165" priority="177" stopIfTrue="1">
       <formula>IF(OR(AND($D69&lt;&gt;"",$J69&lt;&gt;"",$Q69&lt;100),TODAY()&gt;=$H69),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K57:K58">
-    <cfRule type="expression" dxfId="137" priority="148" stopIfTrue="1">
+    <cfRule type="expression" dxfId="164" priority="172" stopIfTrue="1">
       <formula>IF(AND($D57&lt;&gt;"",$J57&lt;&gt;"",$K57&lt;&gt;""),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="136" priority="149" stopIfTrue="1">
+    <cfRule type="expression" dxfId="163" priority="173" stopIfTrue="1">
       <formula>IF(AND($D57&lt;&gt;"",$K57="",$I57&lt;TODAY()),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="135" priority="150" stopIfTrue="1">
+    <cfRule type="expression" dxfId="162" priority="174" stopIfTrue="1">
       <formula>IF(OR(AND($D57&lt;&gt;"",$J57&lt;&gt;"",$Q57&lt;100),TODAY()&gt;=$H57),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K59:K60">
-    <cfRule type="expression" dxfId="134" priority="145" stopIfTrue="1">
+    <cfRule type="expression" dxfId="161" priority="169" stopIfTrue="1">
       <formula>IF(AND($D59&lt;&gt;"",$J59&lt;&gt;"",$K59&lt;&gt;""),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="133" priority="146" stopIfTrue="1">
+    <cfRule type="expression" dxfId="160" priority="170" stopIfTrue="1">
       <formula>IF(AND($D59&lt;&gt;"",$K59="",$I59&lt;TODAY()),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="132" priority="147" stopIfTrue="1">
+    <cfRule type="expression" dxfId="159" priority="171" stopIfTrue="1">
       <formula>IF(OR(AND($D59&lt;&gt;"",$J59&lt;&gt;"",$Q59&lt;100),TODAY()&gt;=$H59),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K61:K62">
-    <cfRule type="expression" dxfId="131" priority="142" stopIfTrue="1">
+    <cfRule type="expression" dxfId="158" priority="166" stopIfTrue="1">
       <formula>IF(AND($D61&lt;&gt;"",$J61&lt;&gt;"",$K61&lt;&gt;""),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="130" priority="143" stopIfTrue="1">
+    <cfRule type="expression" dxfId="157" priority="167" stopIfTrue="1">
       <formula>IF(AND($D61&lt;&gt;"",$K61="",$I61&lt;TODAY()),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="129" priority="144" stopIfTrue="1">
+    <cfRule type="expression" dxfId="156" priority="168" stopIfTrue="1">
       <formula>IF(OR(AND($D61&lt;&gt;"",$J61&lt;&gt;"",$Q61&lt;100),TODAY()&gt;=$H61),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K63:K64">
-    <cfRule type="expression" dxfId="128" priority="139" stopIfTrue="1">
+    <cfRule type="expression" dxfId="155" priority="163" stopIfTrue="1">
       <formula>IF(AND($D63&lt;&gt;"",$J63&lt;&gt;"",$K63&lt;&gt;""),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="127" priority="140" stopIfTrue="1">
+    <cfRule type="expression" dxfId="154" priority="164" stopIfTrue="1">
       <formula>IF(AND($D63&lt;&gt;"",$K63="",$I63&lt;TODAY()),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="126" priority="141" stopIfTrue="1">
+    <cfRule type="expression" dxfId="153" priority="165" stopIfTrue="1">
       <formula>IF(OR(AND($D63&lt;&gt;"",$J63&lt;&gt;"",$Q63&lt;100),TODAY()&gt;=$H63),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K65:K66">
-    <cfRule type="expression" dxfId="125" priority="136" stopIfTrue="1">
+    <cfRule type="expression" dxfId="152" priority="160" stopIfTrue="1">
       <formula>IF(AND($D65&lt;&gt;"",$J65&lt;&gt;"",$K65&lt;&gt;""),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="124" priority="137" stopIfTrue="1">
+    <cfRule type="expression" dxfId="151" priority="161" stopIfTrue="1">
       <formula>IF(AND($D65&lt;&gt;"",$K65="",$I65&lt;TODAY()),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="123" priority="138" stopIfTrue="1">
+    <cfRule type="expression" dxfId="150" priority="162" stopIfTrue="1">
       <formula>IF(OR(AND($D65&lt;&gt;"",$J65&lt;&gt;"",$Q65&lt;100),TODAY()&gt;=$H65),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K67:K68">
-    <cfRule type="expression" dxfId="122" priority="133" stopIfTrue="1">
+    <cfRule type="expression" dxfId="149" priority="157" stopIfTrue="1">
       <formula>IF(AND($D67&lt;&gt;"",$J67&lt;&gt;"",$K67&lt;&gt;""),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="121" priority="134" stopIfTrue="1">
+    <cfRule type="expression" dxfId="148" priority="158" stopIfTrue="1">
       <formula>IF(AND($D67&lt;&gt;"",$K67="",$I67&lt;TODAY()),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="120" priority="135" stopIfTrue="1">
+    <cfRule type="expression" dxfId="147" priority="159" stopIfTrue="1">
       <formula>IF(OR(AND($D67&lt;&gt;"",$J67&lt;&gt;"",$Q67&lt;100),TODAY()&gt;=$H67),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K69:K70">
-    <cfRule type="expression" dxfId="119" priority="130" stopIfTrue="1">
+    <cfRule type="expression" dxfId="146" priority="154" stopIfTrue="1">
       <formula>IF(AND($D69&lt;&gt;"",$J69&lt;&gt;"",$K69&lt;&gt;""),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="118" priority="131" stopIfTrue="1">
+    <cfRule type="expression" dxfId="145" priority="155" stopIfTrue="1">
       <formula>IF(AND($D69&lt;&gt;"",$K69="",$I69&lt;TODAY()),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="117" priority="132" stopIfTrue="1">
+    <cfRule type="expression" dxfId="144" priority="156" stopIfTrue="1">
       <formula>IF(OR(AND($D69&lt;&gt;"",$J69&lt;&gt;"",$Q69&lt;100),TODAY()&gt;=$H69),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H65:H66">
-    <cfRule type="expression" dxfId="116" priority="127" stopIfTrue="1">
+    <cfRule type="expression" dxfId="143" priority="151" stopIfTrue="1">
       <formula>IF(AND($D65&lt;&gt;"",$J65&lt;&gt;"",$K65&lt;&gt;""),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="115" priority="128" stopIfTrue="1">
+    <cfRule type="expression" dxfId="142" priority="152" stopIfTrue="1">
       <formula>IF(AND($D65&lt;&gt;"",$K65="",$I65&lt;TODAY()),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="114" priority="129" stopIfTrue="1">
+    <cfRule type="expression" dxfId="141" priority="153" stopIfTrue="1">
       <formula>IF(OR(AND($D65&lt;&gt;"",$J65&lt;&gt;"",$Q65&lt;100),TODAY()&gt;=$H65),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H63:H64">
-    <cfRule type="expression" dxfId="113" priority="124" stopIfTrue="1">
+    <cfRule type="expression" dxfId="140" priority="148" stopIfTrue="1">
       <formula>IF(AND($D63&lt;&gt;"",$J63&lt;&gt;"",$K63&lt;&gt;""),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="112" priority="125" stopIfTrue="1">
+    <cfRule type="expression" dxfId="139" priority="149" stopIfTrue="1">
       <formula>IF(AND($D63&lt;&gt;"",$K63="",$I63&lt;TODAY()),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="111" priority="126" stopIfTrue="1">
+    <cfRule type="expression" dxfId="138" priority="150" stopIfTrue="1">
       <formula>IF(OR(AND($D63&lt;&gt;"",$J63&lt;&gt;"",$Q63&lt;100),TODAY()&gt;=$H63),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I63:I64">
-    <cfRule type="expression" dxfId="110" priority="121" stopIfTrue="1">
+    <cfRule type="expression" dxfId="137" priority="145" stopIfTrue="1">
       <formula>IF(AND($D63&lt;&gt;"",$J63&lt;&gt;"",$K63&lt;&gt;""),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="109" priority="122" stopIfTrue="1">
+    <cfRule type="expression" dxfId="136" priority="146" stopIfTrue="1">
       <formula>IF(AND($D63&lt;&gt;"",$K63="",$I63&lt;TODAY()),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="108" priority="123" stopIfTrue="1">
+    <cfRule type="expression" dxfId="135" priority="147" stopIfTrue="1">
       <formula>IF(OR(AND($D63&lt;&gt;"",$J63&lt;&gt;"",$Q63&lt;100),TODAY()&gt;=$H63),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I65:I66">
-    <cfRule type="expression" dxfId="107" priority="118" stopIfTrue="1">
+    <cfRule type="expression" dxfId="134" priority="142" stopIfTrue="1">
       <formula>IF(AND($D65&lt;&gt;"",$J65&lt;&gt;"",$K65&lt;&gt;""),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="106" priority="119" stopIfTrue="1">
+    <cfRule type="expression" dxfId="133" priority="143" stopIfTrue="1">
       <formula>IF(AND($D65&lt;&gt;"",$K65="",$I65&lt;TODAY()),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="105" priority="120" stopIfTrue="1">
+    <cfRule type="expression" dxfId="132" priority="144" stopIfTrue="1">
       <formula>IF(OR(AND($D65&lt;&gt;"",$J65&lt;&gt;"",$Q65&lt;100),TODAY()&gt;=$H65),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H67:H68">
-    <cfRule type="expression" dxfId="104" priority="115" stopIfTrue="1">
+    <cfRule type="expression" dxfId="131" priority="139" stopIfTrue="1">
       <formula>IF(AND($D67&lt;&gt;"",$J67&lt;&gt;"",$K67&lt;&gt;""),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="103" priority="116" stopIfTrue="1">
+    <cfRule type="expression" dxfId="130" priority="140" stopIfTrue="1">
       <formula>IF(AND($D67&lt;&gt;"",$K67="",$I67&lt;TODAY()),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="102" priority="117" stopIfTrue="1">
+    <cfRule type="expression" dxfId="129" priority="141" stopIfTrue="1">
       <formula>IF(OR(AND($D67&lt;&gt;"",$J67&lt;&gt;"",$Q67&lt;100),TODAY()&gt;=$H67),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H69:H70">
-    <cfRule type="expression" dxfId="101" priority="112" stopIfTrue="1">
+    <cfRule type="expression" dxfId="128" priority="136" stopIfTrue="1">
       <formula>IF(AND($D69&lt;&gt;"",$J69&lt;&gt;"",$K69&lt;&gt;""),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="100" priority="113" stopIfTrue="1">
+    <cfRule type="expression" dxfId="127" priority="137" stopIfTrue="1">
       <formula>IF(AND($D69&lt;&gt;"",$K69="",$I69&lt;TODAY()),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="99" priority="114" stopIfTrue="1">
+    <cfRule type="expression" dxfId="126" priority="138" stopIfTrue="1">
       <formula>IF(OR(AND($D69&lt;&gt;"",$J69&lt;&gt;"",$Q69&lt;100),TODAY()&gt;=$H69),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I67:I68">
-    <cfRule type="expression" dxfId="98" priority="109" stopIfTrue="1">
+    <cfRule type="expression" dxfId="125" priority="133" stopIfTrue="1">
       <formula>IF(AND($D67&lt;&gt;"",$J67&lt;&gt;"",$K67&lt;&gt;""),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="97" priority="110" stopIfTrue="1">
+    <cfRule type="expression" dxfId="124" priority="134" stopIfTrue="1">
       <formula>IF(AND($D67&lt;&gt;"",$K67="",$I67&lt;TODAY()),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="96" priority="111" stopIfTrue="1">
+    <cfRule type="expression" dxfId="123" priority="135" stopIfTrue="1">
       <formula>IF(OR(AND($D67&lt;&gt;"",$J67&lt;&gt;"",$Q67&lt;100),TODAY()&gt;=$H67),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I69:I70">
-    <cfRule type="expression" dxfId="95" priority="106" stopIfTrue="1">
+    <cfRule type="expression" dxfId="122" priority="130" stopIfTrue="1">
       <formula>IF(AND($D69&lt;&gt;"",$J69&lt;&gt;"",$K69&lt;&gt;""),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="94" priority="107" stopIfTrue="1">
+    <cfRule type="expression" dxfId="121" priority="131" stopIfTrue="1">
       <formula>IF(AND($D69&lt;&gt;"",$K69="",$I69&lt;TODAY()),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="93" priority="108" stopIfTrue="1">
+    <cfRule type="expression" dxfId="120" priority="132" stopIfTrue="1">
       <formula>IF(OR(AND($D69&lt;&gt;"",$J69&lt;&gt;"",$Q69&lt;100),TODAY()&gt;=$H69),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I57:I58">
-    <cfRule type="expression" dxfId="92" priority="103" stopIfTrue="1">
+    <cfRule type="expression" dxfId="119" priority="127" stopIfTrue="1">
       <formula>IF(AND($D57&lt;&gt;"",$J57&lt;&gt;"",$K57&lt;&gt;""),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="91" priority="104" stopIfTrue="1">
+    <cfRule type="expression" dxfId="118" priority="128" stopIfTrue="1">
       <formula>IF(AND($D57&lt;&gt;"",$K57="",$I57&lt;TODAY()),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="90" priority="105" stopIfTrue="1">
+    <cfRule type="expression" dxfId="117" priority="129" stopIfTrue="1">
       <formula>IF(OR(AND($D57&lt;&gt;"",$J57&lt;&gt;"",$Q57&lt;100),TODAY()&gt;=$H57),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I59:I60">
-    <cfRule type="expression" dxfId="89" priority="100" stopIfTrue="1">
+    <cfRule type="expression" dxfId="116" priority="124" stopIfTrue="1">
       <formula>IF(AND($D59&lt;&gt;"",$J59&lt;&gt;"",$K59&lt;&gt;""),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="88" priority="101" stopIfTrue="1">
+    <cfRule type="expression" dxfId="115" priority="125" stopIfTrue="1">
       <formula>IF(AND($D59&lt;&gt;"",$K59="",$I59&lt;TODAY()),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="87" priority="102" stopIfTrue="1">
+    <cfRule type="expression" dxfId="114" priority="126" stopIfTrue="1">
       <formula>IF(OR(AND($D59&lt;&gt;"",$J59&lt;&gt;"",$Q59&lt;100),TODAY()&gt;=$H59),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I61:I62">
-    <cfRule type="expression" dxfId="86" priority="97" stopIfTrue="1">
+    <cfRule type="expression" dxfId="113" priority="121" stopIfTrue="1">
       <formula>IF(AND($D61&lt;&gt;"",$J61&lt;&gt;"",$K61&lt;&gt;""),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="85" priority="98" stopIfTrue="1">
+    <cfRule type="expression" dxfId="112" priority="122" stopIfTrue="1">
       <formula>IF(AND($D61&lt;&gt;"",$K61="",$I61&lt;TODAY()),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="84" priority="99" stopIfTrue="1">
+    <cfRule type="expression" dxfId="111" priority="123" stopIfTrue="1">
       <formula>IF(OR(AND($D61&lt;&gt;"",$J61&lt;&gt;"",$Q61&lt;100),TODAY()&gt;=$H61),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H57:H58">
-    <cfRule type="expression" dxfId="83" priority="94" stopIfTrue="1">
+    <cfRule type="expression" dxfId="110" priority="118" stopIfTrue="1">
       <formula>IF(AND($D57&lt;&gt;"",$J57&lt;&gt;"",$K57&lt;&gt;""),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="82" priority="95" stopIfTrue="1">
+    <cfRule type="expression" dxfId="109" priority="119" stopIfTrue="1">
       <formula>IF(AND($D57&lt;&gt;"",$K57="",$I57&lt;TODAY()),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="81" priority="96" stopIfTrue="1">
+    <cfRule type="expression" dxfId="108" priority="120" stopIfTrue="1">
       <formula>IF(OR(AND($D57&lt;&gt;"",$J57&lt;&gt;"",$Q57&lt;100),TODAY()&gt;=$H57),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H59:H60">
-    <cfRule type="expression" dxfId="80" priority="91" stopIfTrue="1">
+    <cfRule type="expression" dxfId="107" priority="115" stopIfTrue="1">
       <formula>IF(AND($D59&lt;&gt;"",$J59&lt;&gt;"",$K59&lt;&gt;""),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="79" priority="92" stopIfTrue="1">
+    <cfRule type="expression" dxfId="106" priority="116" stopIfTrue="1">
       <formula>IF(AND($D59&lt;&gt;"",$K59="",$I59&lt;TODAY()),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="78" priority="93" stopIfTrue="1">
+    <cfRule type="expression" dxfId="105" priority="117" stopIfTrue="1">
       <formula>IF(OR(AND($D59&lt;&gt;"",$J59&lt;&gt;"",$Q59&lt;100),TODAY()&gt;=$H59),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H61:H62">
-    <cfRule type="expression" dxfId="77" priority="88" stopIfTrue="1">
+    <cfRule type="expression" dxfId="104" priority="112" stopIfTrue="1">
       <formula>IF(AND($D61&lt;&gt;"",$J61&lt;&gt;"",$K61&lt;&gt;""),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="76" priority="89" stopIfTrue="1">
+    <cfRule type="expression" dxfId="103" priority="113" stopIfTrue="1">
       <formula>IF(AND($D61&lt;&gt;"",$K61="",$I61&lt;TODAY()),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="75" priority="90" stopIfTrue="1">
+    <cfRule type="expression" dxfId="102" priority="114" stopIfTrue="1">
       <formula>IF(OR(AND($D61&lt;&gt;"",$J61&lt;&gt;"",$Q61&lt;100),TODAY()&gt;=$H61),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J13">
-    <cfRule type="expression" dxfId="74" priority="85" stopIfTrue="1">
+    <cfRule type="expression" dxfId="101" priority="109" stopIfTrue="1">
       <formula>IF(AND($D13&lt;&gt;"",$J13&lt;&gt;"",$K13&lt;&gt;""),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="73" priority="86" stopIfTrue="1">
+    <cfRule type="expression" dxfId="100" priority="110" stopIfTrue="1">
       <formula>IF(AND($D13&lt;&gt;"",$K13="",$I13&lt;TODAY()),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="72" priority="87" stopIfTrue="1">
+    <cfRule type="expression" dxfId="99" priority="111" stopIfTrue="1">
       <formula>IF(OR(AND($D13&lt;&gt;"",$J13&lt;&gt;"",$Q13&lt;100),TODAY()&gt;=$H13),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J17:J18">
-    <cfRule type="expression" dxfId="71" priority="76" stopIfTrue="1">
+    <cfRule type="expression" dxfId="98" priority="100" stopIfTrue="1">
       <formula>IF(AND($D17&lt;&gt;"",$J17&lt;&gt;"",$K17&lt;&gt;""),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="70" priority="77" stopIfTrue="1">
+    <cfRule type="expression" dxfId="97" priority="101" stopIfTrue="1">
       <formula>IF(AND($D17&lt;&gt;"",$K17="",$I17&lt;TODAY()),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="69" priority="78" stopIfTrue="1">
+    <cfRule type="expression" dxfId="96" priority="102" stopIfTrue="1">
       <formula>IF(OR(AND($D17&lt;&gt;"",$J17&lt;&gt;"",$Q17&lt;100),TODAY()&gt;=$H17),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J19:J20">
-    <cfRule type="expression" dxfId="68" priority="73" stopIfTrue="1">
+    <cfRule type="expression" dxfId="95" priority="97" stopIfTrue="1">
       <formula>IF(AND($D19&lt;&gt;"",$J19&lt;&gt;"",$K19&lt;&gt;""),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="67" priority="74" stopIfTrue="1">
+    <cfRule type="expression" dxfId="94" priority="98" stopIfTrue="1">
       <formula>IF(AND($D19&lt;&gt;"",$K19="",$I19&lt;TODAY()),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="66" priority="75" stopIfTrue="1">
+    <cfRule type="expression" dxfId="93" priority="99" stopIfTrue="1">
       <formula>IF(OR(AND($D19&lt;&gt;"",$J19&lt;&gt;"",$Q19&lt;100),TODAY()&gt;=$H19),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K13">
-    <cfRule type="expression" dxfId="65" priority="70" stopIfTrue="1">
+    <cfRule type="expression" dxfId="92" priority="94" stopIfTrue="1">
       <formula>IF(AND($D13&lt;&gt;"",$J13&lt;&gt;"",$K13&lt;&gt;""),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="64" priority="71" stopIfTrue="1">
+    <cfRule type="expression" dxfId="91" priority="95" stopIfTrue="1">
       <formula>IF(AND($D13&lt;&gt;"",$K13="",$I13&lt;TODAY()),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="63" priority="72" stopIfTrue="1">
+    <cfRule type="expression" dxfId="90" priority="96" stopIfTrue="1">
       <formula>IF(OR(AND($D13&lt;&gt;"",$J13&lt;&gt;"",$Q13&lt;100),TODAY()&gt;=$H13),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K15:K16">
-    <cfRule type="expression" dxfId="62" priority="67" stopIfTrue="1">
+    <cfRule type="expression" dxfId="89" priority="91" stopIfTrue="1">
       <formula>IF(AND($D15&lt;&gt;"",$J15&lt;&gt;"",$K15&lt;&gt;""),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="61" priority="68" stopIfTrue="1">
+    <cfRule type="expression" dxfId="88" priority="92" stopIfTrue="1">
       <formula>IF(AND($D15&lt;&gt;"",$K15="",$I15&lt;TODAY()),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="60" priority="69" stopIfTrue="1">
+    <cfRule type="expression" dxfId="87" priority="93" stopIfTrue="1">
       <formula>IF(OR(AND($D15&lt;&gt;"",$J15&lt;&gt;"",$Q15&lt;100),TODAY()&gt;=$H15),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K17">
-    <cfRule type="expression" dxfId="59" priority="64" stopIfTrue="1">
+    <cfRule type="expression" dxfId="86" priority="88" stopIfTrue="1">
       <formula>IF(AND($D17&lt;&gt;"",$J17&lt;&gt;"",$K17&lt;&gt;""),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="58" priority="65" stopIfTrue="1">
+    <cfRule type="expression" dxfId="85" priority="89" stopIfTrue="1">
       <formula>IF(AND($D17&lt;&gt;"",$K17="",$I17&lt;TODAY()),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="57" priority="66" stopIfTrue="1">
+    <cfRule type="expression" dxfId="84" priority="90" stopIfTrue="1">
       <formula>IF(OR(AND($D17&lt;&gt;"",$J17&lt;&gt;"",$Q17&lt;100),TODAY()&gt;=$H17),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K21:K22">
-    <cfRule type="expression" dxfId="56" priority="61" stopIfTrue="1">
+    <cfRule type="expression" dxfId="83" priority="85" stopIfTrue="1">
       <formula>IF(AND($D21&lt;&gt;"",$J21&lt;&gt;"",$K21&lt;&gt;""),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="55" priority="62" stopIfTrue="1">
+    <cfRule type="expression" dxfId="82" priority="86" stopIfTrue="1">
       <formula>IF(AND($D21&lt;&gt;"",$K21="",$I21&lt;TODAY()),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="54" priority="63" stopIfTrue="1">
+    <cfRule type="expression" dxfId="81" priority="87" stopIfTrue="1">
       <formula>IF(OR(AND($D21&lt;&gt;"",$J21&lt;&gt;"",$Q21&lt;100),TODAY()&gt;=$H21),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K23:K26">
-    <cfRule type="expression" dxfId="53" priority="58" stopIfTrue="1">
+    <cfRule type="expression" dxfId="80" priority="82" stopIfTrue="1">
       <formula>IF(AND($D23&lt;&gt;"",$J23&lt;&gt;"",$K23&lt;&gt;""),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="52" priority="59" stopIfTrue="1">
+    <cfRule type="expression" dxfId="79" priority="83" stopIfTrue="1">
       <formula>IF(AND($D23&lt;&gt;"",$K23="",$I23&lt;TODAY()),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="51" priority="60" stopIfTrue="1">
+    <cfRule type="expression" dxfId="78" priority="84" stopIfTrue="1">
       <formula>IF(OR(AND($D23&lt;&gt;"",$J23&lt;&gt;"",$Q23&lt;100),TODAY()&gt;=$H23),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K27:K28">
-    <cfRule type="expression" dxfId="50" priority="55" stopIfTrue="1">
+    <cfRule type="expression" dxfId="77" priority="79" stopIfTrue="1">
       <formula>IF(AND($D27&lt;&gt;"",$J27&lt;&gt;"",$K27&lt;&gt;""),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="49" priority="56" stopIfTrue="1">
+    <cfRule type="expression" dxfId="76" priority="80" stopIfTrue="1">
       <formula>IF(AND($D27&lt;&gt;"",$K27="",$I27&lt;TODAY()),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="48" priority="57" stopIfTrue="1">
+    <cfRule type="expression" dxfId="75" priority="81" stopIfTrue="1">
       <formula>IF(OR(AND($D27&lt;&gt;"",$J27&lt;&gt;"",$Q27&lt;100),TODAY()&gt;=$H27),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J21:J28">
-    <cfRule type="expression" dxfId="47" priority="52" stopIfTrue="1">
+    <cfRule type="expression" dxfId="74" priority="76" stopIfTrue="1">
       <formula>IF(AND($D21&lt;&gt;"",$J21&lt;&gt;"",$K21&lt;&gt;""),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="46" priority="53" stopIfTrue="1">
+    <cfRule type="expression" dxfId="73" priority="77" stopIfTrue="1">
       <formula>IF(AND($D21&lt;&gt;"",$K21="",$I21&lt;TODAY()),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="45" priority="54" stopIfTrue="1">
+    <cfRule type="expression" dxfId="72" priority="78" stopIfTrue="1">
       <formula>IF(OR(AND($D21&lt;&gt;"",$J21&lt;&gt;"",$Q21&lt;100),TODAY()&gt;=$H21),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J29:J30">
-    <cfRule type="expression" dxfId="44" priority="49" stopIfTrue="1">
+    <cfRule type="expression" dxfId="71" priority="73" stopIfTrue="1">
       <formula>IF(AND($D29&lt;&gt;"",$J29&lt;&gt;"",$K29&lt;&gt;""),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="43" priority="50" stopIfTrue="1">
+    <cfRule type="expression" dxfId="70" priority="74" stopIfTrue="1">
       <formula>IF(AND($D29&lt;&gt;"",$K29="",$I29&lt;TODAY()),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="42" priority="51" stopIfTrue="1">
+    <cfRule type="expression" dxfId="69" priority="75" stopIfTrue="1">
       <formula>IF(OR(AND($D29&lt;&gt;"",$J29&lt;&gt;"",$Q29&lt;100),TODAY()&gt;=$H29),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K29:K30">
-    <cfRule type="expression" dxfId="41" priority="46" stopIfTrue="1">
+    <cfRule type="expression" dxfId="68" priority="70" stopIfTrue="1">
       <formula>IF(AND($D29&lt;&gt;"",$J29&lt;&gt;"",$K29&lt;&gt;""),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="40" priority="47" stopIfTrue="1">
+    <cfRule type="expression" dxfId="67" priority="71" stopIfTrue="1">
       <formula>IF(AND($D29&lt;&gt;"",$K29="",$I29&lt;TODAY()),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="39" priority="48" stopIfTrue="1">
+    <cfRule type="expression" dxfId="66" priority="72" stopIfTrue="1">
       <formula>IF(OR(AND($D29&lt;&gt;"",$J29&lt;&gt;"",$Q29&lt;100),TODAY()&gt;=$H29),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H35:K44">
-    <cfRule type="expression" dxfId="38" priority="43" stopIfTrue="1">
+    <cfRule type="expression" dxfId="65" priority="67" stopIfTrue="1">
       <formula>IF(AND($D35&lt;&gt;"",$J35&lt;&gt;"",$K35&lt;&gt;""),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="37" priority="44" stopIfTrue="1">
+    <cfRule type="expression" dxfId="64" priority="68" stopIfTrue="1">
       <formula>IF(AND($D35&lt;&gt;"",$K35="",$I35&lt;TODAY()),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="36" priority="45" stopIfTrue="1">
+    <cfRule type="expression" dxfId="63" priority="69" stopIfTrue="1">
       <formula>IF(OR(AND($D35&lt;&gt;"",$J35&lt;&gt;"",$Q35&lt;100),TODAY()&gt;=$H35),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I31:K34">
-    <cfRule type="expression" dxfId="35" priority="40" stopIfTrue="1">
+    <cfRule type="expression" dxfId="62" priority="64" stopIfTrue="1">
       <formula>IF(AND($D31&lt;&gt;"",$J31&lt;&gt;"",$K31&lt;&gt;""),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="34" priority="41" stopIfTrue="1">
+    <cfRule type="expression" dxfId="61" priority="65" stopIfTrue="1">
       <formula>IF(AND($D31&lt;&gt;"",$K31="",$I31&lt;TODAY()),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="33" priority="42" stopIfTrue="1">
+    <cfRule type="expression" dxfId="60" priority="66" stopIfTrue="1">
       <formula>IF(OR(AND($D31&lt;&gt;"",$J31&lt;&gt;"",$Q31&lt;100),TODAY()&gt;=$H31),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H45:H46">
-    <cfRule type="expression" dxfId="32" priority="37" stopIfTrue="1">
+    <cfRule type="expression" dxfId="59" priority="61" stopIfTrue="1">
       <formula>IF(AND($D45&lt;&gt;"",$J45&lt;&gt;"",$K45&lt;&gt;""),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="31" priority="38" stopIfTrue="1">
+    <cfRule type="expression" dxfId="58" priority="62" stopIfTrue="1">
       <formula>IF(AND($D45&lt;&gt;"",$K45="",$I45&lt;TODAY()),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="30" priority="39" stopIfTrue="1">
+    <cfRule type="expression" dxfId="57" priority="63" stopIfTrue="1">
       <formula>IF(OR(AND($D45&lt;&gt;"",$J45&lt;&gt;"",$Q45&lt;100),TODAY()&gt;=$H45),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H47:H48">
-    <cfRule type="expression" dxfId="29" priority="34" stopIfTrue="1">
+    <cfRule type="expression" dxfId="56" priority="58" stopIfTrue="1">
       <formula>IF(AND($D47&lt;&gt;"",$J47&lt;&gt;"",$K47&lt;&gt;""),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="28" priority="35" stopIfTrue="1">
+    <cfRule type="expression" dxfId="55" priority="59" stopIfTrue="1">
       <formula>IF(AND($D47&lt;&gt;"",$K47="",$I47&lt;TODAY()),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="27" priority="36" stopIfTrue="1">
+    <cfRule type="expression" dxfId="54" priority="60" stopIfTrue="1">
       <formula>IF(OR(AND($D47&lt;&gt;"",$J47&lt;&gt;"",$Q47&lt;100),TODAY()&gt;=$H47),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I45:K48">
-    <cfRule type="expression" dxfId="26" priority="31" stopIfTrue="1">
+    <cfRule type="expression" dxfId="53" priority="55" stopIfTrue="1">
       <formula>IF(AND($D45&lt;&gt;"",$J45&lt;&gt;"",$K45&lt;&gt;""),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="25" priority="32" stopIfTrue="1">
+    <cfRule type="expression" dxfId="52" priority="56" stopIfTrue="1">
       <formula>IF(AND($D45&lt;&gt;"",$K45="",$I45&lt;TODAY()),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="24" priority="33" stopIfTrue="1">
+    <cfRule type="expression" dxfId="51" priority="57" stopIfTrue="1">
       <formula>IF(OR(AND($D45&lt;&gt;"",$J45&lt;&gt;"",$Q45&lt;100),TODAY()&gt;=$H45),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H49:H50">
-    <cfRule type="expression" dxfId="23" priority="28" stopIfTrue="1">
+    <cfRule type="expression" dxfId="50" priority="52" stopIfTrue="1">
       <formula>IF(AND($D49&lt;&gt;"",$J49&lt;&gt;"",$K49&lt;&gt;""),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="22" priority="29" stopIfTrue="1">
+    <cfRule type="expression" dxfId="49" priority="53" stopIfTrue="1">
       <formula>IF(AND($D49&lt;&gt;"",$K49="",$I49&lt;TODAY()),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="21" priority="30" stopIfTrue="1">
+    <cfRule type="expression" dxfId="48" priority="54" stopIfTrue="1">
       <formula>IF(OR(AND($D49&lt;&gt;"",$J49&lt;&gt;"",$Q49&lt;100),TODAY()&gt;=$H49),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I49:I50">
-    <cfRule type="expression" dxfId="20" priority="25" stopIfTrue="1">
+    <cfRule type="expression" dxfId="47" priority="49" stopIfTrue="1">
       <formula>IF(AND($D49&lt;&gt;"",$J49&lt;&gt;"",$K49&lt;&gt;""),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="19" priority="26" stopIfTrue="1">
+    <cfRule type="expression" dxfId="46" priority="50" stopIfTrue="1">
       <formula>IF(AND($D49&lt;&gt;"",$K49="",$I49&lt;TODAY()),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="18" priority="27" stopIfTrue="1">
+    <cfRule type="expression" dxfId="45" priority="51" stopIfTrue="1">
       <formula>IF(OR(AND($D49&lt;&gt;"",$J49&lt;&gt;"",$Q49&lt;100),TODAY()&gt;=$H49),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J49:J50">
-    <cfRule type="expression" dxfId="17" priority="22" stopIfTrue="1">
+    <cfRule type="expression" dxfId="44" priority="46" stopIfTrue="1">
       <formula>IF(AND($D49&lt;&gt;"",$J49&lt;&gt;"",$K49&lt;&gt;""),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="16" priority="23" stopIfTrue="1">
+    <cfRule type="expression" dxfId="43" priority="47" stopIfTrue="1">
       <formula>IF(AND($D49&lt;&gt;"",$K49="",$I49&lt;TODAY()),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="15" priority="24" stopIfTrue="1">
+    <cfRule type="expression" dxfId="42" priority="48" stopIfTrue="1">
       <formula>IF(OR(AND($D49&lt;&gt;"",$J49&lt;&gt;"",$Q49&lt;100),TODAY()&gt;=$H49),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K49:K50">
-    <cfRule type="expression" dxfId="14" priority="19" stopIfTrue="1">
+    <cfRule type="expression" dxfId="41" priority="43" stopIfTrue="1">
       <formula>IF(AND($D49&lt;&gt;"",$J49&lt;&gt;"",$K49&lt;&gt;""),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="13" priority="20" stopIfTrue="1">
+    <cfRule type="expression" dxfId="40" priority="44" stopIfTrue="1">
       <formula>IF(AND($D49&lt;&gt;"",$K49="",$I49&lt;TODAY()),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="21" stopIfTrue="1">
+    <cfRule type="expression" dxfId="39" priority="45" stopIfTrue="1">
       <formula>IF(OR(AND($D49&lt;&gt;"",$J49&lt;&gt;"",$Q49&lt;100),TODAY()&gt;=$H49),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H71:H72">
-    <cfRule type="expression" dxfId="11" priority="13" stopIfTrue="1">
+    <cfRule type="expression" dxfId="38" priority="37" stopIfTrue="1">
       <formula>IF(AND($D71&lt;&gt;"",$J71&lt;&gt;"",$K71&lt;&gt;""),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="14" stopIfTrue="1">
+    <cfRule type="expression" dxfId="37" priority="38" stopIfTrue="1">
       <formula>IF(AND($D71&lt;&gt;"",$K71="",$I71&lt;TODAY()),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="9" priority="15" stopIfTrue="1">
+    <cfRule type="expression" dxfId="36" priority="39" stopIfTrue="1">
       <formula>IF(OR(AND($D71&lt;&gt;"",$J71&lt;&gt;"",$Q71&lt;100),TODAY()&gt;=$H71),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J71:J72">
-    <cfRule type="expression" dxfId="8" priority="10" stopIfTrue="1">
+    <cfRule type="expression" dxfId="35" priority="34" stopIfTrue="1">
       <formula>IF(AND($D71&lt;&gt;"",$J71&lt;&gt;"",$K71&lt;&gt;""),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="7" priority="11" stopIfTrue="1">
+    <cfRule type="expression" dxfId="34" priority="35" stopIfTrue="1">
       <formula>IF(AND($D71&lt;&gt;"",$K71="",$I71&lt;TODAY()),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="12" stopIfTrue="1">
+    <cfRule type="expression" dxfId="33" priority="36" stopIfTrue="1">
       <formula>IF(OR(AND($D71&lt;&gt;"",$J71&lt;&gt;"",$Q71&lt;100),TODAY()&gt;=$H71),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K71:K72">
-    <cfRule type="expression" dxfId="5" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="32" priority="31" stopIfTrue="1">
       <formula>IF(AND($D71&lt;&gt;"",$J71&lt;&gt;"",$K71&lt;&gt;""),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="8" stopIfTrue="1">
+    <cfRule type="expression" dxfId="31" priority="32" stopIfTrue="1">
       <formula>IF(AND($D71&lt;&gt;"",$K71="",$I71&lt;TODAY()),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="9" stopIfTrue="1">
+    <cfRule type="expression" dxfId="30" priority="33" stopIfTrue="1">
       <formula>IF(OR(AND($D71&lt;&gt;"",$J71&lt;&gt;"",$Q71&lt;100),TODAY()&gt;=$H71),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H73:K82">
-    <cfRule type="expression" dxfId="2" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="29" priority="25" stopIfTrue="1">
       <formula>IF(AND($D73&lt;&gt;"",$J73&lt;&gt;"",$K73&lt;&gt;""),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="28" priority="26" stopIfTrue="1">
       <formula>IF(AND($D73&lt;&gt;"",$K73="",$I73&lt;TODAY()),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="27" priority="27" stopIfTrue="1">
       <formula>IF(OR(AND($D73&lt;&gt;"",$J73&lt;&gt;"",$Q73&lt;100),TODAY()&gt;=$H73),TRUE,FALSE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H83:K90">
+    <cfRule type="expression" dxfId="23" priority="19" stopIfTrue="1">
+      <formula>IF(AND($D83&lt;&gt;"",$J83&lt;&gt;"",$K83&lt;&gt;""),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="22" priority="20" stopIfTrue="1">
+      <formula>IF(AND($D83&lt;&gt;"",$K83="",$I83&lt;TODAY()),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="21" priority="21" stopIfTrue="1">
+      <formula>IF(OR(AND($D83&lt;&gt;"",$J83&lt;&gt;"",$Q83&lt;100),TODAY()&gt;=$H83),TRUE,FALSE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H91:H92">
+    <cfRule type="expression" dxfId="17" priority="13" stopIfTrue="1">
+      <formula>IF(AND($D91&lt;&gt;"",$J91&lt;&gt;"",$K91&lt;&gt;""),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="16" priority="14" stopIfTrue="1">
+      <formula>IF(AND($D91&lt;&gt;"",$K91="",$I91&lt;TODAY()),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="15" priority="15" stopIfTrue="1">
+      <formula>IF(OR(AND($D91&lt;&gt;"",$J91&lt;&gt;"",$Q91&lt;100),TODAY()&gt;=$H91),TRUE,FALSE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I91:I92">
+    <cfRule type="expression" dxfId="14" priority="10" stopIfTrue="1">
+      <formula>IF(AND($D91&lt;&gt;"",$J91&lt;&gt;"",$K91&lt;&gt;""),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="13" priority="11" stopIfTrue="1">
+      <formula>IF(AND($D91&lt;&gt;"",$K91="",$I91&lt;TODAY()),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="12" priority="12" stopIfTrue="1">
+      <formula>IF(OR(AND($D91&lt;&gt;"",$J91&lt;&gt;"",$Q91&lt;100),TODAY()&gt;=$H91),TRUE,FALSE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J91:J92">
+    <cfRule type="expression" dxfId="11" priority="7" stopIfTrue="1">
+      <formula>IF(AND($D91&lt;&gt;"",$J91&lt;&gt;"",$K91&lt;&gt;""),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="10" priority="8" stopIfTrue="1">
+      <formula>IF(AND($D91&lt;&gt;"",$K91="",$I91&lt;TODAY()),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="9" priority="9" stopIfTrue="1">
+      <formula>IF(OR(AND($D91&lt;&gt;"",$J91&lt;&gt;"",$Q91&lt;100),TODAY()&gt;=$H91),TRUE,FALSE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K91:K92">
+    <cfRule type="expression" dxfId="8" priority="4" stopIfTrue="1">
+      <formula>IF(AND($D91&lt;&gt;"",$J91&lt;&gt;"",$K91&lt;&gt;""),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="7" priority="5" stopIfTrue="1">
+      <formula>IF(AND($D91&lt;&gt;"",$K91="",$I91&lt;TODAY()),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="6" stopIfTrue="1">
+      <formula>IF(OR(AND($D91&lt;&gt;"",$J91&lt;&gt;"",$Q91&lt;100),TODAY()&gt;=$H91),TRUE,FALSE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P83 P85 P87 P89 P91">
+    <cfRule type="expression" dxfId="5" priority="1" stopIfTrue="1">
+      <formula>IF(AND($D83&lt;&gt;"",$J83&lt;&gt;"",$K83&lt;&gt;""),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="2" stopIfTrue="1">
+      <formula>IF(AND($D83&lt;&gt;"",$K83="",$I83&lt;TODAY()),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="3" stopIfTrue="1">
+      <formula>IF(OR(AND($D83&lt;&gt;"",$J83&lt;&gt;"",$Q83&lt;100),TODAY()&gt;=$H83),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
